--- a/QuantLibXL/Data2/XLS/USD_YC1MBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/USD_YC1MBootstrapping.xlsx
@@ -17,7 +17,6 @@
   <definedNames>
     <definedName name="Accuracy">'General Settings'!$D$23</definedName>
     <definedName name="BondBasisDayCounter">'General Settings'!$M$16</definedName>
-    <definedName name="Calendar" localSheetId="4">'General Settings'!#REF!</definedName>
     <definedName name="Calendar">'General Settings'!$D$18</definedName>
     <definedName name="Currency">'General Settings'!$D$4</definedName>
     <definedName name="DayCounter">'General Settings'!$D$19</definedName>
@@ -32,7 +31,7 @@
     <definedName name="IborType">'General Settings'!$D$7</definedName>
     <definedName name="IndexTenor">'General Settings'!$D$6</definedName>
     <definedName name="InterpolatorID">'General Settings'!$D$25</definedName>
-    <definedName name="MinDistance">RateHelpers!$J$2:$J$169</definedName>
+    <definedName name="MinDistance">RateHelpers!$J$2:$J$167</definedName>
     <definedName name="MoneyMarketDayCounter">'General Settings'!$M$13</definedName>
     <definedName name="Months">'General Settings'!$D$5</definedName>
     <definedName name="NDays">'General Settings'!$D$17</definedName>
@@ -42,9 +41,9 @@
     <definedName name="Permanent">'General Settings'!$D$10</definedName>
     <definedName name="QuoteSuffix">'General Settings'!$M$12</definedName>
     <definedName name="RateHelperPrefix">'General Settings'!$D$9</definedName>
-    <definedName name="RateHelpers">RateHelpers!$E$2:$E$169</definedName>
-    <definedName name="RateHelpersIncluded">RateHelpers!$H$2:$H$169</definedName>
-    <definedName name="RateHelpersPriority">RateHelpers!$I$2:$I$169</definedName>
+    <definedName name="RateHelpers">RateHelpers!$E$2:$E$167</definedName>
+    <definedName name="RateHelpersIncluded">RateHelpers!$H$2:$H$167</definedName>
+    <definedName name="RateHelpersPriority">RateHelpers!$I$2:$I$167</definedName>
     <definedName name="RateHelpersSelected">Selected!$A$7</definedName>
     <definedName name="SerializationPath">'General Settings'!$M$5</definedName>
     <definedName name="Serialize">'General Settings'!$M$4</definedName>
@@ -220,7 +219,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="191">
   <si>
     <t>60Y</t>
   </si>
@@ -409,18 +408,6 @@
   </si>
   <si>
     <t>SND</t>
-  </si>
-  <si>
-    <t>fra</t>
-  </si>
-  <si>
-    <t>TND</t>
-  </si>
-  <si>
-    <t>depo</t>
-  </si>
-  <si>
-    <t>OND</t>
   </si>
   <si>
     <t>Latest Date</t>
@@ -1800,6 +1787,21 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="10" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1815,21 +1817,6 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="10" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Migliaia (0)_AZIONI" xfId="4"/>
@@ -2148,39 +2135,39 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="2.7109375" style="169" customWidth="1"/>
-    <col min="3" max="3" width="18" style="169" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" style="169" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22" style="169" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="2.7109375" style="169" customWidth="1"/>
-    <col min="8" max="9" width="8" style="169"/>
-    <col min="10" max="11" width="2.7109375" style="169" customWidth="1"/>
-    <col min="12" max="12" width="18.5703125" style="169" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="53.7109375" style="169" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="2.7109375" style="169" customWidth="1"/>
-    <col min="15" max="16384" width="8" style="169"/>
+    <col min="1" max="2" width="2.7109375" style="164" customWidth="1"/>
+    <col min="3" max="3" width="18" style="164" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" style="164" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" style="164" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="2.7109375" style="164" customWidth="1"/>
+    <col min="8" max="9" width="8" style="164"/>
+    <col min="10" max="11" width="2.7109375" style="164" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" style="164" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="53.7109375" style="164" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2.7109375" style="164" customWidth="1"/>
+    <col min="15" max="16384" width="8" style="164"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="169" t="str">
+      <c r="B1" s="164" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
         <v>QuantLibXL 1.3.0 - MS VC++ 9.0 - Multithreaded Static Runtime library - Release Configuration - Dec  5 2013 11:03:51</v>
       </c>
     </row>
     <row r="2" spans="2:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="177" t="s">
-        <v>116</v>
-      </c>
-      <c r="C2" s="178"/>
-      <c r="D2" s="178"/>
-      <c r="E2" s="178"/>
-      <c r="F2" s="179"/>
-      <c r="K2" s="177" t="s">
-        <v>162</v>
-      </c>
-      <c r="L2" s="178"/>
-      <c r="M2" s="178"/>
-      <c r="N2" s="178"/>
+      <c r="B2" s="172" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="173"/>
+      <c r="D2" s="173"/>
+      <c r="E2" s="173"/>
+      <c r="F2" s="174"/>
+      <c r="K2" s="172" t="s">
+        <v>158</v>
+      </c>
+      <c r="L2" s="173"/>
+      <c r="M2" s="173"/>
+      <c r="N2" s="173"/>
     </row>
     <row r="3" spans="2:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="61"/>
@@ -2196,20 +2183,20 @@
     <row r="4" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B4" s="61"/>
       <c r="C4" s="89" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D4" s="76" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E4" s="58"/>
       <c r="F4" s="57"/>
-      <c r="H4" s="172" t="s">
-        <v>114</v>
-      </c>
-      <c r="I4" s="173"/>
+      <c r="H4" s="167" t="s">
+        <v>110</v>
+      </c>
+      <c r="I4" s="168"/>
       <c r="K4" s="127"/>
       <c r="L4" s="126" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="M4" s="120" t="b">
         <v>1</v>
@@ -2219,22 +2206,22 @@
     <row r="5" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B5" s="61"/>
       <c r="C5" s="88" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D5" s="62">
         <v>1</v>
       </c>
       <c r="E5" s="58"/>
       <c r="F5" s="57"/>
-      <c r="H5" s="170" t="s">
-        <v>112</v>
-      </c>
-      <c r="I5" s="171" t="s">
-        <v>111</v>
+      <c r="H5" s="165" t="s">
+        <v>108</v>
+      </c>
+      <c r="I5" s="166" t="s">
+        <v>107</v>
       </c>
       <c r="K5" s="127"/>
       <c r="L5" s="126" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="M5" s="128" t="str">
         <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
@@ -2245,7 +2232,7 @@
     <row r="6" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B6" s="61"/>
       <c r="C6" s="88" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D6" s="62" t="str">
         <f>_xll.qlPeriodEquivalent(D5&amp;"M")</f>
@@ -2253,15 +2240,15 @@
       </c>
       <c r="E6" s="58"/>
       <c r="F6" s="57"/>
-      <c r="H6" s="170" t="s">
-        <v>109</v>
-      </c>
-      <c r="I6" s="171" t="s">
-        <v>108</v>
+      <c r="H6" s="165" t="s">
+        <v>105</v>
+      </c>
+      <c r="I6" s="166" t="s">
+        <v>104</v>
       </c>
       <c r="K6" s="127"/>
       <c r="L6" s="126" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="M6" s="117" t="b">
         <v>1</v>
@@ -2271,7 +2258,7 @@
     <row r="7" spans="2:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="61"/>
       <c r="C7" s="88" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D7" s="62" t="str">
         <f>Months&amp;IF(UPPER(Currency)="EUR","E","L")</f>
@@ -2279,10 +2266,10 @@
       </c>
       <c r="E7" s="58"/>
       <c r="F7" s="57"/>
-      <c r="H7" s="170" t="s">
-        <v>106</v>
-      </c>
-      <c r="I7" s="171"/>
+      <c r="H7" s="165" t="s">
+        <v>102</v>
+      </c>
+      <c r="I7" s="166"/>
       <c r="K7" s="124"/>
       <c r="L7" s="123"/>
       <c r="M7" s="123"/>
@@ -2291,7 +2278,7 @@
     <row r="8" spans="2:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="61"/>
       <c r="C8" s="88" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D8" s="62" t="str">
         <f>VLOOKUP(Currency,H4:I8,2)</f>
@@ -2299,21 +2286,21 @@
       </c>
       <c r="E8" s="58"/>
       <c r="F8" s="57"/>
-      <c r="H8" s="174" t="s">
-        <v>104</v>
-      </c>
-      <c r="I8" s="175" t="s">
-        <v>103</v>
-      </c>
-      <c r="K8" s="176"/>
-      <c r="L8" s="176"/>
-      <c r="M8" s="176"/>
-      <c r="N8" s="176"/>
+      <c r="H8" s="169" t="s">
+        <v>100</v>
+      </c>
+      <c r="I8" s="170" t="s">
+        <v>99</v>
+      </c>
+      <c r="K8" s="171"/>
+      <c r="L8" s="171"/>
+      <c r="M8" s="171"/>
+      <c r="N8" s="171"/>
     </row>
     <row r="9" spans="2:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="61"/>
       <c r="C9" s="88" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D9" s="62" t="str">
         <f>Currency&amp;"_YC"&amp;IndexTenor&amp;"RH"</f>
@@ -2321,17 +2308,17 @@
       </c>
       <c r="E9" s="58"/>
       <c r="F9" s="57"/>
-      <c r="K9" s="177" t="s">
-        <v>158</v>
-      </c>
-      <c r="L9" s="178"/>
-      <c r="M9" s="178"/>
-      <c r="N9" s="178"/>
+      <c r="K9" s="172" t="s">
+        <v>154</v>
+      </c>
+      <c r="L9" s="173"/>
+      <c r="M9" s="173"/>
+      <c r="N9" s="173"/>
     </row>
     <row r="10" spans="2:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B10" s="61"/>
       <c r="C10" s="87" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D10" s="62" t="b">
         <v>1</v>
@@ -2346,26 +2333,26 @@
     <row r="11" spans="2:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B11" s="61"/>
       <c r="C11" s="87" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D11" s="86">
-        <v>41653.330937500003</v>
+        <v>41653.339224537034</v>
       </c>
       <c r="E11" s="58"/>
       <c r="F11" s="57"/>
       <c r="K11" s="119"/>
       <c r="L11" s="118" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="M11" s="120" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="N11" s="116"/>
     </row>
     <row r="12" spans="2:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B12" s="61"/>
       <c r="C12" s="85" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D12" s="84" t="b">
         <v>0</v>
@@ -2374,10 +2361,10 @@
       <c r="F12" s="57"/>
       <c r="K12" s="119"/>
       <c r="L12" s="118" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="M12" s="117" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="N12" s="116"/>
     </row>
@@ -2389,17 +2376,17 @@
       <c r="F13" s="57"/>
       <c r="K13" s="119"/>
       <c r="L13" s="118" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="M13" s="120" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="N13" s="116"/>
     </row>
     <row r="14" spans="2:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B14" s="61"/>
       <c r="C14" s="81" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D14" s="83" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D16,NDays,Calendar,RateHelpersSelected,DayCounter,IF(ISERROR(D22),NA(),D20:E20),IF(ISERROR(D22),NA(),D21:E21),Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
@@ -2409,7 +2396,7 @@
       <c r="F14" s="57"/>
       <c r="K14" s="119"/>
       <c r="L14" s="118" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="M14" s="120" t="str">
         <f>PROPER(Currency)&amp;"YC"</f>
@@ -2420,7 +2407,7 @@
     <row r="15" spans="2:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B15" s="61"/>
       <c r="C15" s="68" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D15" s="82" t="str">
         <f>_xll.ohRangeRetrieveError(YieldCurve)</f>
@@ -2430,7 +2417,7 @@
       <c r="F15" s="57"/>
       <c r="K15" s="119"/>
       <c r="L15" s="118" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="M15" s="120" t="str">
         <f>PROPER(Currency)&amp;"YCSTD"</f>
@@ -2441,7 +2428,7 @@
     <row r="16" spans="2:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B16" s="61"/>
       <c r="C16" s="81" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D16" s="80" t="str">
         <f>"_"&amp;Currency&amp;"YC"&amp;IndexTenor</f>
@@ -2451,17 +2438,17 @@
       <c r="F16" s="57"/>
       <c r="K16" s="119"/>
       <c r="L16" s="118" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="M16" s="120" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="N16" s="116"/>
     </row>
     <row r="17" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="61"/>
       <c r="C17" s="70" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D17" s="79">
         <v>0</v>
@@ -2476,10 +2463,10 @@
     <row r="18" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B18" s="61"/>
       <c r="C18" s="70" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D18" s="78" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E18" s="58"/>
       <c r="F18" s="57"/>
@@ -2487,7 +2474,7 @@
     <row r="19" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B19" s="61"/>
       <c r="C19" s="70" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D19" s="78"/>
       <c r="E19" s="58"/>
@@ -2496,7 +2483,7 @@
     <row r="20" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B20" s="61"/>
       <c r="C20" s="70" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D20" s="77" t="str">
         <f>Currency&amp;"TOY_SYNTH"&amp;IndexTenor&amp;"_Quote"</f>
@@ -2511,7 +2498,7 @@
     <row r="21" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B21" s="61"/>
       <c r="C21" s="70" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D21" s="75">
         <f>DATE(YEAR(_xll.qlCalendarAdvance(Calendar,_xll.qlSettingsEvaluationDate(Trigger),NDays&amp;"D")),12,31)</f>
@@ -2526,7 +2513,7 @@
     <row r="22" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B22" s="61"/>
       <c r="C22" s="70" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D22" s="73">
         <f>_xll.qlQuoteValue(D20,Trigger)</f>
@@ -2541,7 +2528,7 @@
     <row r="23" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B23" s="61"/>
       <c r="C23" s="70" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D23" s="71">
         <v>1E-4</v>
@@ -2552,10 +2539,10 @@
     <row r="24" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B24" s="61"/>
       <c r="C24" s="70" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D24" s="69" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E24" s="58"/>
       <c r="F24" s="57"/>
@@ -2563,10 +2550,10 @@
     <row r="25" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B25" s="61"/>
       <c r="C25" s="68" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D25" s="67" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E25" s="58"/>
       <c r="F25" s="57"/>
@@ -2607,7 +2594,7 @@
     <row r="29" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B29" s="61"/>
       <c r="C29" s="60" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D29" s="59" t="str">
         <f>_xll.ohRangeRetrieveError(Selected!I1)</f>
@@ -2665,7 +2652,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:N169"/>
+  <dimension ref="A1:N167"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
@@ -2677,7 +2664,7 @@
     <col min="2" max="2" width="5" style="2" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="8.5703125" style="2" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="4.42578125" style="2" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="23.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
@@ -2692,49 +2679,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="B1" s="164" t="s">
-        <v>75</v>
-      </c>
-      <c r="C1" s="165"/>
-      <c r="D1" s="166"/>
+      <c r="B1" s="175" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="176"/>
+      <c r="D1" s="177"/>
       <c r="E1" s="31" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F1" s="31" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G1" s="31" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H1" s="31" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I1" s="31" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="J1" s="31" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K1" s="31" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L1" s="31" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="2:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B2" s="30"/>
       <c r="C2" s="15"/>
       <c r="D2" s="14" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E2" s="14" t="str">
-        <f t="shared" ref="E2:E33" si="0">RateHelperPrefix&amp;"_"&amp;$B2&amp;$C2&amp;$D2</f>
-        <v>USD_YC1MRH_OND</v>
-      </c>
-      <c r="F2" s="13" t="e">
+        <f>'1M_Deposits'!F3</f>
+        <v>USD_YC1MRH_SND#0000</v>
+      </c>
+      <c r="F2" s="13">
         <f>_xll.qlRateHelperQuoteValue($E2,Trigger)</f>
-        <v>#NUM!</v>
+        <v>1.9589999999999998E-3</v>
       </c>
       <c r="G2" s="13"/>
       <c r="H2" s="12" t="b">
@@ -2746,34 +2733,34 @@
       <c r="J2" s="12">
         <v>1</v>
       </c>
-      <c r="K2" s="11" t="e">
+      <c r="K2" s="11">
         <f>_xll.qlRateHelperEarliestDate($E2,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L2" s="10" t="e">
+        <v>41655</v>
+      </c>
+      <c r="L2" s="10">
         <f>_xll.qlRateHelperLatestDate($E2,Trigger)</f>
-        <v>#NUM!</v>
+        <v>41656</v>
       </c>
       <c r="M2" s="1">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B3" s="30"/>
       <c r="C3" s="15"/>
       <c r="D3" s="14" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E3" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>USD_YC1MRH_TND</v>
-      </c>
-      <c r="F3" s="13" t="e">
+        <f>'1M_Deposits'!F4</f>
+        <v>USD_YC1MRH_SWD#0000</v>
+      </c>
+      <c r="F3" s="13">
         <f>_xll.qlRateHelperQuoteValue($E3,Trigger)</f>
-        <v>#NUM!</v>
+        <v>1.954E-3</v>
       </c>
       <c r="G3" s="13"/>
       <c r="H3" s="12" t="b">
@@ -2785,38 +2772,38 @@
       <c r="J3" s="12">
         <v>1</v>
       </c>
-      <c r="K3" s="11" t="e">
+      <c r="K3" s="11">
         <f>_xll.qlRateHelperEarliestDate($E3,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L3" s="10" t="e">
+        <v>41655</v>
+      </c>
+      <c r="L3" s="10">
         <f>_xll.qlRateHelperLatestDate($E3,Trigger)</f>
-        <v>#NUM!</v>
+        <v>41662</v>
       </c>
       <c r="M3" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B4" s="30"/>
       <c r="C4" s="15"/>
       <c r="D4" s="14" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E4" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>USD_YC1MRH_SND</v>
+        <f>'1M_Deposits'!F5</f>
+        <v>USD_YC1MRH_2WD#0000</v>
       </c>
       <c r="F4" s="13">
         <f>_xll.qlRateHelperQuoteValue($E4,Trigger)</f>
-        <v>1.9589999999999998E-3</v>
+        <v>1.939E-3</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="12">
         <v>10</v>
@@ -2830,32 +2817,32 @@
       </c>
       <c r="L4" s="10">
         <f>_xll.qlRateHelperLatestDate($E4,Trigger)</f>
-        <v>41656</v>
+        <v>41669</v>
       </c>
       <c r="M4" s="1">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B5" s="30"/>
       <c r="C5" s="15"/>
       <c r="D5" s="14" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E5" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>USD_YC1MRH_SWD</v>
+        <f>'1M_Deposits'!F6</f>
+        <v>USD_YC1MRH_3WD#0000</v>
       </c>
       <c r="F5" s="13">
         <f>_xll.qlRateHelperQuoteValue($E5,Trigger)</f>
-        <v>1.954E-3</v>
+        <v>1.923E-3</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" s="12">
         <v>10</v>
@@ -2869,28 +2856,28 @@
       </c>
       <c r="L5" s="10">
         <f>_xll.qlRateHelperLatestDate($E5,Trigger)</f>
-        <v>41662</v>
+        <v>41676</v>
       </c>
       <c r="M5" s="1">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B6" s="30"/>
       <c r="C6" s="15"/>
       <c r="D6" s="14" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E6" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>USD_YC1MRH_2WD</v>
+        <f>'1M_Deposits'!F7</f>
+        <v>USD_YC1MRH_1MD#0000</v>
       </c>
       <c r="F6" s="13">
         <f>_xll.qlRateHelperQuoteValue($E6,Trigger)</f>
-        <v>1.939E-3</v>
+        <v>1.915E-3</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="12" t="b">
@@ -2908,32 +2895,32 @@
       </c>
       <c r="L6" s="10">
         <f>_xll.qlRateHelperLatestDate($E6,Trigger)</f>
-        <v>41669</v>
+        <v>41687</v>
       </c>
       <c r="M6" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="B7" s="30"/>
       <c r="C7" s="15"/>
       <c r="D7" s="14" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E7" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>USD_YC1MRH_3WD</v>
-      </c>
-      <c r="F7" s="13">
+        <f t="shared" ref="E7:E31" si="0">RateHelperPrefix&amp;"_"&amp;$B7&amp;$C7&amp;$D7</f>
+        <v>USD_YC1MRH_2MD</v>
+      </c>
+      <c r="F7" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E7,Trigger)</f>
-        <v>1.923E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="G7" s="13"/>
       <c r="H7" s="12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="12">
         <v>10</v>
@@ -2941,38 +2928,32 @@
       <c r="J7" s="12">
         <v>1</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="11" t="e">
         <f>_xll.qlRateHelperEarliestDate($E7,Trigger)</f>
-        <v>41655</v>
-      </c>
-      <c r="L7" s="10">
+        <v>#NUM!</v>
+      </c>
+      <c r="L7" s="10" t="e">
         <f>_xll.qlRateHelperLatestDate($E7,Trigger)</f>
-        <v>41676</v>
-      </c>
-      <c r="M7" s="1">
-        <v>60</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="B8" s="30"/>
       <c r="C8" s="15"/>
       <c r="D8" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E8" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>USD_YC1MRH_1MD</v>
-      </c>
-      <c r="F8" s="13">
+        <v>USD_YC1MRH_3MD</v>
+      </c>
+      <c r="F8" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E8,Trigger)</f>
-        <v>1.915E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="G8" s="13"/>
       <c r="H8" s="12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" s="12">
         <v>10</v>
@@ -2980,30 +2961,24 @@
       <c r="J8" s="12">
         <v>1</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K8" s="11" t="e">
         <f>_xll.qlRateHelperEarliestDate($E8,Trigger)</f>
-        <v>41655</v>
-      </c>
-      <c r="L8" s="10">
+        <v>#NUM!</v>
+      </c>
+      <c r="L8" s="10" t="e">
         <f>_xll.qlRateHelperLatestDate($E8,Trigger)</f>
-        <v>41687</v>
-      </c>
-      <c r="M8" s="1">
-        <v>70</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>53</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="9" spans="2:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="B9" s="30"/>
       <c r="C9" s="15"/>
       <c r="D9" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E9" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>USD_YC1MRH_2MD</v>
+        <v>USD_YC1MRH_4MD</v>
       </c>
       <c r="F9" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E9,Trigger)</f>
@@ -3026,17 +3001,20 @@
       <c r="L9" s="10" t="e">
         <f>_xll.qlRateHelperLatestDate($E9,Trigger)</f>
         <v>#NUM!</v>
+      </c>
+      <c r="M9" s="1">
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="2:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="B10" s="30"/>
       <c r="C10" s="15"/>
       <c r="D10" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E10" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>USD_YC1MRH_3MD</v>
+        <v>USD_YC1MRH_5MD</v>
       </c>
       <c r="F10" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E10,Trigger)</f>
@@ -3065,11 +3043,11 @@
       <c r="B11" s="30"/>
       <c r="C11" s="15"/>
       <c r="D11" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E11" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>USD_YC1MRH_4MD</v>
+        <v>USD_YC1MRH_6MD</v>
       </c>
       <c r="F11" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E11,Trigger)</f>
@@ -3080,7 +3058,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="12">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="J11" s="12">
         <v>1</v>
@@ -3092,20 +3070,17 @@
       <c r="L11" s="10" t="e">
         <f>_xll.qlRateHelperLatestDate($E11,Trigger)</f>
         <v>#NUM!</v>
-      </c>
-      <c r="M11" s="1">
-        <v>7</v>
       </c>
     </row>
     <row r="12" spans="2:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="B12" s="30"/>
       <c r="C12" s="15"/>
       <c r="D12" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E12" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>USD_YC1MRH_5MD</v>
+        <v>USD_YC1MRH_9MD</v>
       </c>
       <c r="F12" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E12,Trigger)</f>
@@ -3131,80 +3106,90 @@
       </c>
     </row>
     <row r="13" spans="2:14" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="30"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="14" t="str">
+      <c r="B13" s="29"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>USD_YC1MRH_6MD</v>
-      </c>
-      <c r="F13" s="13" t="e">
+        <v>USD_YC1MRH_1YD</v>
+      </c>
+      <c r="F13" s="6" t="e">
         <f>_xll.qlRateHelperQuoteValue($E13,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G13" s="13"/>
-      <c r="H13" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" s="12">
-        <v>70</v>
-      </c>
-      <c r="J13" s="12">
-        <v>1</v>
-      </c>
-      <c r="K13" s="11" t="e">
+      <c r="G13" s="6"/>
+      <c r="H13" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" s="5">
+        <v>10</v>
+      </c>
+      <c r="J13" s="5">
+        <v>1</v>
+      </c>
+      <c r="K13" s="4" t="e">
         <f>_xll.qlRateHelperEarliestDate($E13,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L13" s="10" t="e">
+      <c r="L13" s="3" t="e">
         <f>_xll.qlRateHelperLatestDate($E13,Trigger)</f>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="14" spans="2:14" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="30"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="14" t="str">
+      <c r="B14" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="23">
+        <f>Months</f>
+        <v>1</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>USD_YC1MRH_9MD</v>
-      </c>
-      <c r="F14" s="13" t="e">
+        <v>USD_YC1MRH_T1F1</v>
+      </c>
+      <c r="F14" s="20" t="e">
         <f>_xll.qlRateHelperQuoteValue($E14,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G14" s="13"/>
-      <c r="H14" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" s="12">
-        <v>10</v>
-      </c>
-      <c r="J14" s="12">
-        <v>1</v>
-      </c>
-      <c r="K14" s="11" t="e">
+      <c r="G14" s="20"/>
+      <c r="H14" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" s="19">
+        <v>20</v>
+      </c>
+      <c r="J14" s="19">
+        <v>7</v>
+      </c>
+      <c r="K14" s="18" t="e">
         <f>_xll.qlRateHelperEarliestDate($E14,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L14" s="10" t="e">
+      <c r="L14" s="17" t="e">
         <f>_xll.qlRateHelperLatestDate($E14,Trigger)</f>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="15" spans="2:14" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="29"/>
-      <c r="C15" s="8"/>
+      <c r="B15" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="8">
+        <f>Months</f>
+        <v>1</v>
+      </c>
       <c r="D15" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E15" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>USD_YC1MRH_1YD</v>
+        <v>USD_YC1MRH_TOM1F1</v>
       </c>
       <c r="F15" s="6" t="e">
         <f>_xll.qlRateHelperQuoteValue($E15,Trigger)</f>
@@ -3215,10 +3200,10 @@
         <v>0</v>
       </c>
       <c r="I15" s="5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J15" s="5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K15" s="4" t="e">
         <f>_xll.qlRateHelperEarliestDate($E15,Trigger)</f>
@@ -3230,95 +3215,95 @@
       </c>
     </row>
     <row r="16" spans="2:14" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="23">
-        <f>Months</f>
-        <v>1</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="21" t="str">
+      <c r="B16" s="16">
+        <v>1</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="14" t="str">
+        <f t="shared" ref="D16:D33" si="1">(B16+Months)&amp;"F"</f>
+        <v>2F</v>
+      </c>
+      <c r="E16" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>USD_YC1MRH_T1F1</v>
-      </c>
-      <c r="F16" s="20" t="e">
+        <v>USD_YC1MRH_1x2F</v>
+      </c>
+      <c r="F16" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E16,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G16" s="20"/>
-      <c r="H16" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" s="19">
+      <c r="G16" s="13"/>
+      <c r="H16" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" s="12">
         <v>20</v>
       </c>
-      <c r="J16" s="19">
+      <c r="J16" s="12">
         <v>7</v>
       </c>
-      <c r="K16" s="18" t="e">
+      <c r="K16" s="11" t="e">
         <f>_xll.qlRateHelperEarliestDate($E16,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L16" s="17" t="e">
+      <c r="L16" s="10" t="e">
         <f>_xll.qlRateHelperLatestDate($E16,Trigger)</f>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="17" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="8">
-        <f>Months</f>
-        <v>1</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="7" t="str">
+      <c r="B17" s="16">
+        <v>2</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>3F</v>
+      </c>
+      <c r="E17" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>USD_YC1MRH_TOM1F1</v>
-      </c>
-      <c r="F17" s="6" t="e">
+        <v>USD_YC1MRH_2x3F</v>
+      </c>
+      <c r="F17" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E17,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G17" s="6"/>
-      <c r="H17" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" s="5">
+      <c r="G17" s="13"/>
+      <c r="H17" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" s="12">
         <v>20</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17" s="12">
         <v>7</v>
       </c>
-      <c r="K17" s="4" t="e">
+      <c r="K17" s="11" t="e">
         <f>_xll.qlRateHelperEarliestDate($E17,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L17" s="3" t="e">
+      <c r="L17" s="10" t="e">
         <f>_xll.qlRateHelperLatestDate($E17,Trigger)</f>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="18" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="B18" s="16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>42</v>
       </c>
       <c r="D18" s="14" t="str">
-        <f t="shared" ref="D18:D35" si="1">(B18+Months)&amp;"F"</f>
-        <v>2F</v>
+        <f t="shared" si="1"/>
+        <v>4F</v>
       </c>
       <c r="E18" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>USD_YC1MRH_1x2F</v>
+        <v>USD_YC1MRH_3x4F</v>
       </c>
       <c r="F18" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E18,Trigger)</f>
@@ -3345,18 +3330,18 @@
     </row>
     <row r="19" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="B19" s="16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>42</v>
       </c>
       <c r="D19" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>3F</v>
+        <v>5F</v>
       </c>
       <c r="E19" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>USD_YC1MRH_2x3F</v>
+        <v>USD_YC1MRH_4x5F</v>
       </c>
       <c r="F19" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E19,Trigger)</f>
@@ -3383,18 +3368,18 @@
     </row>
     <row r="20" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="B20" s="16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>42</v>
       </c>
       <c r="D20" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>4F</v>
+        <v>6F</v>
       </c>
       <c r="E20" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>USD_YC1MRH_3x4F</v>
+        <v>USD_YC1MRH_5x6F</v>
       </c>
       <c r="F20" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E20,Trigger)</f>
@@ -3421,18 +3406,18 @@
     </row>
     <row r="21" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="B21" s="16">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C21" s="15" t="s">
         <v>42</v>
       </c>
       <c r="D21" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>5F</v>
+        <v>7F</v>
       </c>
       <c r="E21" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>USD_YC1MRH_4x5F</v>
+        <v>USD_YC1MRH_6x7F</v>
       </c>
       <c r="F21" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E21,Trigger)</f>
@@ -3459,18 +3444,18 @@
     </row>
     <row r="22" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="B22" s="16">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C22" s="15" t="s">
         <v>42</v>
       </c>
       <c r="D22" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>6F</v>
+        <v>8F</v>
       </c>
       <c r="E22" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>USD_YC1MRH_5x6F</v>
+        <v>USD_YC1MRH_7x8F</v>
       </c>
       <c r="F22" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E22,Trigger)</f>
@@ -3497,18 +3482,18 @@
     </row>
     <row r="23" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="B23" s="16">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>42</v>
       </c>
       <c r="D23" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>7F</v>
+        <v>9F</v>
       </c>
       <c r="E23" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>USD_YC1MRH_6x7F</v>
+        <v>USD_YC1MRH_8x9F</v>
       </c>
       <c r="F23" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E23,Trigger)</f>
@@ -3535,18 +3520,18 @@
     </row>
     <row r="24" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="B24" s="16">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>42</v>
       </c>
       <c r="D24" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>8F</v>
+        <v>10F</v>
       </c>
       <c r="E24" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>USD_YC1MRH_7x8F</v>
+        <v>USD_YC1MRH_9x10F</v>
       </c>
       <c r="F24" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E24,Trigger)</f>
@@ -3573,18 +3558,18 @@
     </row>
     <row r="25" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="B25" s="16">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C25" s="15" t="s">
         <v>42</v>
       </c>
       <c r="D25" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>9F</v>
+        <v>11F</v>
       </c>
       <c r="E25" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>USD_YC1MRH_8x9F</v>
+        <v>USD_YC1MRH_10x11F</v>
       </c>
       <c r="F25" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E25,Trigger)</f>
@@ -3611,18 +3596,18 @@
     </row>
     <row r="26" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="B26" s="16">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C26" s="15" t="s">
         <v>42</v>
       </c>
       <c r="D26" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>10F</v>
+        <v>12F</v>
       </c>
       <c r="E26" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>USD_YC1MRH_9x10F</v>
+        <v>USD_YC1MRH_11x12F</v>
       </c>
       <c r="F26" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E26,Trigger)</f>
@@ -3649,18 +3634,18 @@
     </row>
     <row r="27" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="B27" s="16">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C27" s="15" t="s">
         <v>42</v>
       </c>
       <c r="D27" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>11F</v>
+        <v>13F</v>
       </c>
       <c r="E27" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>USD_YC1MRH_10x11F</v>
+        <v>USD_YC1MRH_12x13F</v>
       </c>
       <c r="F27" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E27,Trigger)</f>
@@ -3687,18 +3672,18 @@
     </row>
     <row r="28" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="B28" s="16">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C28" s="15" t="s">
         <v>42</v>
       </c>
       <c r="D28" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>12F</v>
+        <v>14F</v>
       </c>
       <c r="E28" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>USD_YC1MRH_11x12F</v>
+        <v>USD_YC1MRH_13x14F</v>
       </c>
       <c r="F28" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E28,Trigger)</f>
@@ -3725,18 +3710,18 @@
     </row>
     <row r="29" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="B29" s="16">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C29" s="15" t="s">
         <v>42</v>
       </c>
       <c r="D29" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>13F</v>
+        <v>15F</v>
       </c>
       <c r="E29" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>USD_YC1MRH_12x13F</v>
+        <v>USD_YC1MRH_14x15F</v>
       </c>
       <c r="F29" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E29,Trigger)</f>
@@ -3763,18 +3748,18 @@
     </row>
     <row r="30" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="B30" s="16">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C30" s="15" t="s">
         <v>42</v>
       </c>
       <c r="D30" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>14F</v>
+        <v>16F</v>
       </c>
       <c r="E30" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>USD_YC1MRH_13x14F</v>
+        <v>USD_YC1MRH_15x16F</v>
       </c>
       <c r="F30" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E30,Trigger)</f>
@@ -3801,18 +3786,18 @@
     </row>
     <row r="31" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="B31" s="16">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C31" s="15" t="s">
         <v>42</v>
       </c>
       <c r="D31" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>15F</v>
+        <v>17F</v>
       </c>
       <c r="E31" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>USD_YC1MRH_14x15F</v>
+        <v>USD_YC1MRH_16x17F</v>
       </c>
       <c r="F31" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E31,Trigger)</f>
@@ -3839,18 +3824,18 @@
     </row>
     <row r="32" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="B32" s="16">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C32" s="15" t="s">
         <v>42</v>
       </c>
       <c r="D32" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>16F</v>
+        <v>18F</v>
       </c>
       <c r="E32" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>USD_YC1MRH_15x16F</v>
+        <f t="shared" ref="E32:E63" si="2">RateHelperPrefix&amp;"_"&amp;$B32&amp;$C32&amp;$D32</f>
+        <v>USD_YC1MRH_17x18F</v>
       </c>
       <c r="F32" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E32,Trigger)</f>
@@ -3876,71 +3861,76 @@
       </c>
     </row>
     <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="16">
-        <v>16</v>
-      </c>
-      <c r="C33" s="15" t="s">
+      <c r="B33" s="9">
+        <v>18</v>
+      </c>
+      <c r="C33" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D33" s="14" t="str">
+      <c r="D33" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>17F</v>
-      </c>
-      <c r="E33" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>USD_YC1MRH_16x17F</v>
-      </c>
-      <c r="F33" s="13" t="e">
+        <v>19F</v>
+      </c>
+      <c r="E33" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>USD_YC1MRH_18x19F</v>
+      </c>
+      <c r="F33" s="6" t="e">
         <f>_xll.qlRateHelperQuoteValue($E33,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G33" s="13"/>
-      <c r="H33" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I33" s="12">
+      <c r="G33" s="6"/>
+      <c r="H33" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" s="5">
         <v>20</v>
       </c>
-      <c r="J33" s="12">
+      <c r="J33" s="5">
         <v>7</v>
       </c>
-      <c r="K33" s="11" t="e">
+      <c r="K33" s="4" t="e">
         <f>_xll.qlRateHelperEarliestDate($E33,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L33" s="10" t="e">
+      <c r="L33" s="3" t="e">
         <f>_xll.qlRateHelperLatestDate($E33,Trigger)</f>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="16">
-        <v>17</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>42</v>
+    <row r="34" spans="1:12" ht="11.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="B34" s="16"/>
+      <c r="C34" s="15" t="str">
+        <f t="shared" ref="C34:C75" si="3">IF(IndexTenor="6M","IMMFRA","FUT")&amp;IndexTenor</f>
+        <v>FUT1M</v>
       </c>
       <c r="D34" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>18F</v>
+        <f t="array" ref="D34:D75">_xll.qlIMMNextCodes(_xll.qlSettingsEvaluationDate(Trigger)-1,$A34:$A75)</f>
+        <v>F4</v>
       </c>
       <c r="E34" s="14" t="str">
-        <f t="shared" ref="E34:E65" si="2">RateHelperPrefix&amp;"_"&amp;$B34&amp;$C34&amp;$D34</f>
-        <v>USD_YC1MRH_17x18F</v>
-      </c>
-      <c r="F34" s="13" t="e">
+        <f t="shared" si="2"/>
+        <v>USD_YC1MRH_FUT1MF4</v>
+      </c>
+      <c r="F34" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E34,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G34" s="13"/>
+      <c r="G34" s="13" t="e">
+        <f>_xll.qlFuturesRateHelperConvexityAdjustment($E34,Trigger)</f>
+        <v>#NUM!</v>
+      </c>
       <c r="H34" s="12" t="b">
         <v>0</v>
       </c>
       <c r="I34" s="12">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="J34" s="12">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K34" s="11" t="e">
         <f>_xll.qlRateHelperEarliestDate($E34,Trigger)</f>
@@ -3952,59 +3942,62 @@
       </c>
     </row>
     <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="9">
-        <v>18</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D35" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>19F</v>
-      </c>
-      <c r="E35" s="7" t="str">
+      <c r="A35" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="B35" s="16"/>
+      <c r="C35" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>FUT1M</v>
+      </c>
+      <c r="D35" s="14" t="str">
+        <v>G4</v>
+      </c>
+      <c r="E35" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>USD_YC1MRH_18x19F</v>
-      </c>
-      <c r="F35" s="6" t="e">
+        <v>USD_YC1MRH_FUT1MG4</v>
+      </c>
+      <c r="F35" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E35,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G35" s="6"/>
-      <c r="H35" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" s="5">
-        <v>20</v>
-      </c>
-      <c r="J35" s="5">
-        <v>7</v>
-      </c>
-      <c r="K35" s="4" t="e">
+      <c r="G35" s="13" t="e">
+        <f>_xll.qlFuturesRateHelperConvexityAdjustment($E35,Trigger)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="H35" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" s="12">
+        <v>60</v>
+      </c>
+      <c r="J35" s="12">
+        <v>1</v>
+      </c>
+      <c r="K35" s="11" t="e">
         <f>_xll.qlRateHelperEarliestDate($E35,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L35" s="3" t="e">
+      <c r="L35" s="10" t="e">
         <f>_xll.qlRateHelperLatestDate($E35,Trigger)</f>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="11.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="23" t="b">
+    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="15" t="b">
         <v>0</v>
       </c>
       <c r="B36" s="16"/>
       <c r="C36" s="15" t="str">
-        <f t="shared" ref="C36:C77" si="3">IF(IndexTenor="6M","IMMFRA","FUT")&amp;IndexTenor</f>
+        <f t="shared" si="3"/>
         <v>FUT1M</v>
       </c>
       <c r="D36" s="14" t="str">
-        <f t="array" ref="D36:D77">_xll.qlIMMNextCodes(_xll.qlSettingsEvaluationDate(Trigger)-1,$A36:$A77)</f>
-        <v>F4</v>
+        <v>H4</v>
       </c>
       <c r="E36" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>USD_YC1MRH_FUT1MF4</v>
+        <v>USD_YC1MRH_FUT1MH4</v>
       </c>
       <c r="F36" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E36,Trigger)</f>
@@ -4042,11 +4035,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D37" s="14" t="str">
-        <v>G4</v>
+        <v>J4</v>
       </c>
       <c r="E37" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>USD_YC1MRH_FUT1MG4</v>
+        <v>USD_YC1MRH_FUT1MJ4</v>
       </c>
       <c r="F37" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E37,Trigger)</f>
@@ -4084,11 +4077,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D38" s="14" t="str">
-        <v>H4</v>
+        <v>K4</v>
       </c>
       <c r="E38" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>USD_YC1MRH_FUT1MH4</v>
+        <v>USD_YC1MRH_FUT1MK4</v>
       </c>
       <c r="F38" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E38,Trigger)</f>
@@ -4126,11 +4119,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D39" s="14" t="str">
-        <v>J4</v>
+        <v>M4</v>
       </c>
       <c r="E39" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>USD_YC1MRH_FUT1MJ4</v>
+        <v>USD_YC1MRH_FUT1MM4</v>
       </c>
       <c r="F39" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E39,Trigger)</f>
@@ -4168,11 +4161,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D40" s="14" t="str">
-        <v>K4</v>
+        <v>N4</v>
       </c>
       <c r="E40" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>USD_YC1MRH_FUT1MK4</v>
+        <v>USD_YC1MRH_FUT1MN4</v>
       </c>
       <c r="F40" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E40,Trigger)</f>
@@ -4210,11 +4203,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D41" s="14" t="str">
-        <v>M4</v>
+        <v>Q4</v>
       </c>
       <c r="E41" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>USD_YC1MRH_FUT1MM4</v>
+        <v>USD_YC1MRH_FUT1MQ4</v>
       </c>
       <c r="F41" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E41,Trigger)</f>
@@ -4252,11 +4245,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D42" s="14" t="str">
-        <v>N4</v>
+        <v>U4</v>
       </c>
       <c r="E42" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>USD_YC1MRH_FUT1MN4</v>
+        <v>USD_YC1MRH_FUT1MU4</v>
       </c>
       <c r="F42" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E42,Trigger)</f>
@@ -4294,11 +4287,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D43" s="14" t="str">
-        <v>Q4</v>
+        <v>V4</v>
       </c>
       <c r="E43" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>USD_YC1MRH_FUT1MQ4</v>
+        <v>USD_YC1MRH_FUT1MV4</v>
       </c>
       <c r="F43" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E43,Trigger)</f>
@@ -4336,11 +4329,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D44" s="14" t="str">
-        <v>U4</v>
+        <v>X4</v>
       </c>
       <c r="E44" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>USD_YC1MRH_FUT1MU4</v>
+        <v>USD_YC1MRH_FUT1MX4</v>
       </c>
       <c r="F44" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E44,Trigger)</f>
@@ -4378,11 +4371,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D45" s="14" t="str">
-        <v>V4</v>
+        <v>Z4</v>
       </c>
       <c r="E45" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>USD_YC1MRH_FUT1MV4</v>
+        <v>USD_YC1MRH_FUT1MZ4</v>
       </c>
       <c r="F45" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E45,Trigger)</f>
@@ -4412,7 +4405,7 @@
     </row>
     <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B46" s="16"/>
       <c r="C46" s="15" t="str">
@@ -4420,11 +4413,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D46" s="14" t="str">
-        <v>X4</v>
+        <v>H5</v>
       </c>
       <c r="E46" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>USD_YC1MRH_FUT1MX4</v>
+        <v>USD_YC1MRH_FUT1MH5</v>
       </c>
       <c r="F46" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E46,Trigger)</f>
@@ -4454,7 +4447,7 @@
     </row>
     <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B47" s="16"/>
       <c r="C47" s="15" t="str">
@@ -4462,11 +4455,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D47" s="14" t="str">
-        <v>Z4</v>
+        <v>M5</v>
       </c>
       <c r="E47" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>USD_YC1MRH_FUT1MZ4</v>
+        <v>USD_YC1MRH_FUT1MM5</v>
       </c>
       <c r="F47" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E47,Trigger)</f>
@@ -4504,11 +4497,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D48" s="14" t="str">
-        <v>H5</v>
+        <v>U5</v>
       </c>
       <c r="E48" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>USD_YC1MRH_FUT1MH5</v>
+        <v>USD_YC1MRH_FUT1MU5</v>
       </c>
       <c r="F48" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E48,Trigger)</f>
@@ -4546,11 +4539,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D49" s="14" t="str">
-        <v>M5</v>
+        <v>Z5</v>
       </c>
       <c r="E49" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>USD_YC1MRH_FUT1MM5</v>
+        <v>USD_YC1MRH_FUT1MZ5</v>
       </c>
       <c r="F49" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E49,Trigger)</f>
@@ -4588,11 +4581,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D50" s="14" t="str">
-        <v>U5</v>
+        <v>H6</v>
       </c>
       <c r="E50" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>USD_YC1MRH_FUT1MU5</v>
+        <v>USD_YC1MRH_FUT1MH6</v>
       </c>
       <c r="F50" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E50,Trigger)</f>
@@ -4630,11 +4623,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D51" s="14" t="str">
-        <v>Z5</v>
+        <v>M6</v>
       </c>
       <c r="E51" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>USD_YC1MRH_FUT1MZ5</v>
+        <v>USD_YC1MRH_FUT1MM6</v>
       </c>
       <c r="F51" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E51,Trigger)</f>
@@ -4648,7 +4641,7 @@
         <v>0</v>
       </c>
       <c r="I51" s="12">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="J51" s="12">
         <v>1</v>
@@ -4672,11 +4665,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D52" s="14" t="str">
-        <v>H6</v>
+        <v>U6</v>
       </c>
       <c r="E52" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>USD_YC1MRH_FUT1MH6</v>
+        <v>USD_YC1MRH_FUT1MU6</v>
       </c>
       <c r="F52" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E52,Trigger)</f>
@@ -4690,7 +4683,7 @@
         <v>0</v>
       </c>
       <c r="I52" s="12">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="J52" s="12">
         <v>1</v>
@@ -4714,11 +4707,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D53" s="14" t="str">
-        <v>M6</v>
+        <v>Z6</v>
       </c>
       <c r="E53" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>USD_YC1MRH_FUT1MM6</v>
+        <v>USD_YC1MRH_FUT1MZ6</v>
       </c>
       <c r="F53" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E53,Trigger)</f>
@@ -4756,11 +4749,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D54" s="14" t="str">
-        <v>U6</v>
+        <v>H7</v>
       </c>
       <c r="E54" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>USD_YC1MRH_FUT1MU6</v>
+        <v>USD_YC1MRH_FUT1MH7</v>
       </c>
       <c r="F54" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E54,Trigger)</f>
@@ -4798,11 +4791,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D55" s="14" t="str">
-        <v>Z6</v>
+        <v>M7</v>
       </c>
       <c r="E55" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>USD_YC1MRH_FUT1MZ6</v>
+        <v>USD_YC1MRH_FUT1MM7</v>
       </c>
       <c r="F55" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E55,Trigger)</f>
@@ -4840,11 +4833,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D56" s="14" t="str">
-        <v>H7</v>
+        <v>U7</v>
       </c>
       <c r="E56" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>USD_YC1MRH_FUT1MH7</v>
+        <v>USD_YC1MRH_FUT1MU7</v>
       </c>
       <c r="F56" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E56,Trigger)</f>
@@ -4882,11 +4875,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D57" s="14" t="str">
-        <v>M7</v>
+        <v>Z7</v>
       </c>
       <c r="E57" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>USD_YC1MRH_FUT1MM7</v>
+        <v>USD_YC1MRH_FUT1MZ7</v>
       </c>
       <c r="F57" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E57,Trigger)</f>
@@ -4924,11 +4917,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D58" s="14" t="str">
-        <v>U7</v>
+        <v>H8</v>
       </c>
       <c r="E58" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>USD_YC1MRH_FUT1MU7</v>
+        <v>USD_YC1MRH_FUT1MH8</v>
       </c>
       <c r="F58" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E58,Trigger)</f>
@@ -4966,11 +4959,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D59" s="14" t="str">
-        <v>Z7</v>
+        <v>M8</v>
       </c>
       <c r="E59" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>USD_YC1MRH_FUT1MZ7</v>
+        <v>USD_YC1MRH_FUT1MM8</v>
       </c>
       <c r="F59" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E59,Trigger)</f>
@@ -5008,11 +5001,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D60" s="14" t="str">
-        <v>H8</v>
+        <v>U8</v>
       </c>
       <c r="E60" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>USD_YC1MRH_FUT1MH8</v>
+        <v>USD_YC1MRH_FUT1MU8</v>
       </c>
       <c r="F60" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E60,Trigger)</f>
@@ -5050,11 +5043,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D61" s="14" t="str">
-        <v>M8</v>
+        <v>Z8</v>
       </c>
       <c r="E61" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>USD_YC1MRH_FUT1MM8</v>
+        <v>USD_YC1MRH_FUT1MZ8</v>
       </c>
       <c r="F61" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E61,Trigger)</f>
@@ -5092,11 +5085,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D62" s="14" t="str">
-        <v>U8</v>
+        <v>H9</v>
       </c>
       <c r="E62" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>USD_YC1MRH_FUT1MU8</v>
+        <v>USD_YC1MRH_FUT1MH9</v>
       </c>
       <c r="F62" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E62,Trigger)</f>
@@ -5134,11 +5127,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D63" s="14" t="str">
-        <v>Z8</v>
+        <v>M9</v>
       </c>
       <c r="E63" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>USD_YC1MRH_FUT1MZ8</v>
+        <v>USD_YC1MRH_FUT1MM9</v>
       </c>
       <c r="F63" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E63,Trigger)</f>
@@ -5176,11 +5169,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D64" s="14" t="str">
-        <v>H9</v>
+        <v>U9</v>
       </c>
       <c r="E64" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>USD_YC1MRH_FUT1MH9</v>
+        <f t="shared" ref="E64:E95" si="4">RateHelperPrefix&amp;"_"&amp;$B64&amp;$C64&amp;$D64</f>
+        <v>USD_YC1MRH_FUT1MU9</v>
       </c>
       <c r="F64" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E64,Trigger)</f>
@@ -5218,11 +5211,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D65" s="14" t="str">
-        <v>M9</v>
+        <v>Z9</v>
       </c>
       <c r="E65" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>USD_YC1MRH_FUT1MM9</v>
+        <f t="shared" si="4"/>
+        <v>USD_YC1MRH_FUT1MZ9</v>
       </c>
       <c r="F65" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E65,Trigger)</f>
@@ -5260,11 +5253,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D66" s="14" t="str">
-        <v>U9</v>
+        <v>H0</v>
       </c>
       <c r="E66" s="14" t="str">
-        <f t="shared" ref="E66:E97" si="4">RateHelperPrefix&amp;"_"&amp;$B66&amp;$C66&amp;$D66</f>
-        <v>USD_YC1MRH_FUT1MU9</v>
+        <f t="shared" si="4"/>
+        <v>USD_YC1MRH_FUT1MH0</v>
       </c>
       <c r="F66" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E66,Trigger)</f>
@@ -5302,11 +5295,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D67" s="14" t="str">
-        <v>Z9</v>
+        <v>M0</v>
       </c>
       <c r="E67" s="14" t="str">
         <f t="shared" si="4"/>
-        <v>USD_YC1MRH_FUT1MZ9</v>
+        <v>USD_YC1MRH_FUT1MM0</v>
       </c>
       <c r="F67" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E67,Trigger)</f>
@@ -5344,11 +5337,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D68" s="14" t="str">
-        <v>H0</v>
+        <v>U0</v>
       </c>
       <c r="E68" s="14" t="str">
         <f t="shared" si="4"/>
-        <v>USD_YC1MRH_FUT1MH0</v>
+        <v>USD_YC1MRH_FUT1MU0</v>
       </c>
       <c r="F68" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E68,Trigger)</f>
@@ -5386,11 +5379,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D69" s="14" t="str">
-        <v>M0</v>
+        <v>Z0</v>
       </c>
       <c r="E69" s="14" t="str">
         <f t="shared" si="4"/>
-        <v>USD_YC1MRH_FUT1MM0</v>
+        <v>USD_YC1MRH_FUT1MZ0</v>
       </c>
       <c r="F69" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E69,Trigger)</f>
@@ -5428,11 +5421,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D70" s="14" t="str">
-        <v>U0</v>
+        <v>H1</v>
       </c>
       <c r="E70" s="14" t="str">
         <f t="shared" si="4"/>
-        <v>USD_YC1MRH_FUT1MU0</v>
+        <v>USD_YC1MRH_FUT1MH1</v>
       </c>
       <c r="F70" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E70,Trigger)</f>
@@ -5470,11 +5463,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D71" s="14" t="str">
-        <v>Z0</v>
+        <v>M1</v>
       </c>
       <c r="E71" s="14" t="str">
         <f t="shared" si="4"/>
-        <v>USD_YC1MRH_FUT1MZ0</v>
+        <v>USD_YC1MRH_FUT1MM1</v>
       </c>
       <c r="F71" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E71,Trigger)</f>
@@ -5512,11 +5505,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D72" s="14" t="str">
-        <v>H1</v>
+        <v>U1</v>
       </c>
       <c r="E72" s="14" t="str">
         <f t="shared" si="4"/>
-        <v>USD_YC1MRH_FUT1MH1</v>
+        <v>USD_YC1MRH_FUT1MU1</v>
       </c>
       <c r="F72" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E72,Trigger)</f>
@@ -5554,11 +5547,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D73" s="14" t="str">
-        <v>M1</v>
+        <v>Z1</v>
       </c>
       <c r="E73" s="14" t="str">
         <f t="shared" si="4"/>
-        <v>USD_YC1MRH_FUT1MM1</v>
+        <v>USD_YC1MRH_FUT1MZ1</v>
       </c>
       <c r="F73" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E73,Trigger)</f>
@@ -5596,11 +5589,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D74" s="14" t="str">
-        <v>U1</v>
+        <v>H2</v>
       </c>
       <c r="E74" s="14" t="str">
         <f t="shared" si="4"/>
-        <v>USD_YC1MRH_FUT1MU1</v>
+        <v>USD_YC1MRH_FUT1MH2</v>
       </c>
       <c r="F74" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E74,Trigger)</f>
@@ -5629,186 +5622,179 @@
       </c>
     </row>
     <row r="75" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="B75" s="16"/>
-      <c r="C75" s="15" t="str">
+      <c r="A75" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="B75" s="9"/>
+      <c r="C75" s="8" t="str">
         <f t="shared" si="3"/>
         <v>FUT1M</v>
       </c>
-      <c r="D75" s="14" t="str">
-        <v>Z1</v>
-      </c>
-      <c r="E75" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v>USD_YC1MRH_FUT1MZ1</v>
-      </c>
-      <c r="F75" s="28" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E75,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G75" s="13" t="e">
-        <f>_xll.qlFuturesRateHelperConvexityAdjustment($E75,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H75" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I75" s="12">
-        <v>30</v>
-      </c>
-      <c r="J75" s="12">
-        <v>1</v>
-      </c>
-      <c r="K75" s="11" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E75,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L75" s="10" t="e">
-        <f>_xll.qlRateHelperLatestDate($E75,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="B76" s="16"/>
-      <c r="C76" s="15" t="str">
-        <f t="shared" si="3"/>
-        <v>FUT1M</v>
-      </c>
-      <c r="D76" s="14" t="str">
-        <v>H2</v>
-      </c>
-      <c r="E76" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v>USD_YC1MRH_FUT1MH2</v>
-      </c>
-      <c r="F76" s="28" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E76,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G76" s="13" t="e">
-        <f>_xll.qlFuturesRateHelperConvexityAdjustment($E76,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H76" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I76" s="12">
-        <v>30</v>
-      </c>
-      <c r="J76" s="12">
-        <v>1</v>
-      </c>
-      <c r="K76" s="11" t="e">
-        <f>_xll.qlRateHelperEarliestDate($E76,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L76" s="10" t="e">
-        <f>_xll.qlRateHelperLatestDate($E76,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="B77" s="9"/>
-      <c r="C77" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>FUT1M</v>
-      </c>
-      <c r="D77" s="7" t="str">
+      <c r="D75" s="7" t="str">
         <v>M2</v>
       </c>
-      <c r="E77" s="7" t="str">
+      <c r="E75" s="7" t="str">
         <f t="shared" si="4"/>
         <v>USD_YC1MRH_FUT1MM2</v>
       </c>
-      <c r="F77" s="27" t="e">
+      <c r="F75" s="27" t="e">
+        <f>_xll.qlRateHelperQuoteValue($E75,Trigger)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="G75" s="6" t="e">
+        <f>_xll.qlFuturesRateHelperConvexityAdjustment($E75,Trigger)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="H75" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" s="5">
+        <v>30</v>
+      </c>
+      <c r="J75" s="12">
+        <v>1</v>
+      </c>
+      <c r="K75" s="4" t="e">
+        <f>_xll.qlRateHelperEarliestDate($E75,Trigger)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="L75" s="3" t="e">
+        <f>_xll.qlRateHelperLatestDate($E75,Trigger)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="M75" s="26"/>
+    </row>
+    <row r="76" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B76" s="24">
+        <v>2</v>
+      </c>
+      <c r="C76" s="23"/>
+      <c r="D76" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E76" s="21" t="str">
+        <f>'1M_Swaps'!L6</f>
+        <v>USD_YC1MRH_2X1S#0000</v>
+      </c>
+      <c r="F76" s="20">
+        <f>_xll.qlRateHelperQuoteValue($E76,Trigger)</f>
+        <v>1.72E-3</v>
+      </c>
+      <c r="G76" s="20">
+        <f>_xll.qlSwapRateHelperSpread($E76,Trigger)</f>
+        <v>0</v>
+      </c>
+      <c r="H76" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="I76" s="19">
+        <v>40</v>
+      </c>
+      <c r="J76" s="19">
+        <v>1</v>
+      </c>
+      <c r="K76" s="18">
+        <f>_xll.qlRateHelperEarliestDate($E76,Trigger)</f>
+        <v>41655</v>
+      </c>
+      <c r="L76" s="17">
+        <f>_xll.qlRateHelperLatestDate($E76,Trigger)</f>
+        <v>41715</v>
+      </c>
+      <c r="M76" s="22"/>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B77" s="16">
+        <v>3</v>
+      </c>
+      <c r="C77" s="15"/>
+      <c r="D77" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E77" s="14" t="str">
+        <f>'1M_Swaps'!L7</f>
+        <v>USD_YC1MRH_3X1S#0000</v>
+      </c>
+      <c r="F77" s="13">
         <f>_xll.qlRateHelperQuoteValue($E77,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G77" s="6" t="e">
-        <f>_xll.qlFuturesRateHelperConvexityAdjustment($E77,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H77" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" s="5">
-        <v>30</v>
+        <v>1.7399999999999998E-3</v>
+      </c>
+      <c r="G77" s="13">
+        <f>_xll.qlSwapRateHelperSpread($E77,Trigger)</f>
+        <v>0</v>
+      </c>
+      <c r="H77" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I77" s="12">
+        <v>40</v>
       </c>
       <c r="J77" s="12">
         <v>1</v>
       </c>
-      <c r="K77" s="4" t="e">
+      <c r="K77" s="11">
         <f>_xll.qlRateHelperEarliestDate($E77,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L77" s="3" t="e">
+        <v>41655</v>
+      </c>
+      <c r="L77" s="10">
         <f>_xll.qlRateHelperLatestDate($E77,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M77" s="26"/>
-    </row>
-    <row r="78" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="24">
-        <v>2</v>
-      </c>
-      <c r="C78" s="23"/>
-      <c r="D78" s="21" t="s">
+        <v>41745</v>
+      </c>
+      <c r="M77" s="25"/>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B78" s="16">
+        <v>4</v>
+      </c>
+      <c r="C78" s="15"/>
+      <c r="D78" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="E78" s="21" t="str">
-        <f t="shared" si="4"/>
-        <v>USD_YC1MRH_2X1S</v>
-      </c>
-      <c r="F78" s="20">
+      <c r="E78" s="14" t="str">
+        <f>'1M_Swaps'!L8</f>
+        <v>USD_YC1MRH_4X1S#0000</v>
+      </c>
+      <c r="F78" s="13">
         <f>_xll.qlRateHelperQuoteValue($E78,Trigger)</f>
-        <v>1.72E-3</v>
-      </c>
-      <c r="G78" s="20">
+        <v>1.7699999999999999E-3</v>
+      </c>
+      <c r="G78" s="13">
         <f>_xll.qlSwapRateHelperSpread($E78,Trigger)</f>
         <v>0</v>
       </c>
-      <c r="H78" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" s="19">
+      <c r="H78" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I78" s="12">
         <v>40</v>
       </c>
-      <c r="J78" s="19">
-        <v>1</v>
-      </c>
-      <c r="K78" s="18">
+      <c r="J78" s="12">
+        <v>1</v>
+      </c>
+      <c r="K78" s="11">
         <f>_xll.qlRateHelperEarliestDate($E78,Trigger)</f>
         <v>41655</v>
       </c>
-      <c r="L78" s="17">
+      <c r="L78" s="10">
         <f>_xll.qlRateHelperLatestDate($E78,Trigger)</f>
-        <v>41715</v>
-      </c>
-      <c r="M78" s="22"/>
+        <v>41775</v>
+      </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B79" s="16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C79" s="15"/>
       <c r="D79" s="14" t="s">
         <v>41</v>
       </c>
       <c r="E79" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v>USD_YC1MRH_3X1S</v>
+        <f>'1M_Swaps'!L9</f>
+        <v>USD_YC1MRH_5X1S#0000</v>
       </c>
       <c r="F79" s="13">
         <f>_xll.qlRateHelperQuoteValue($E79,Trigger)</f>
-        <v>1.7399999999999998E-3</v>
+        <v>1.8E-3</v>
       </c>
       <c r="G79" s="13">
         <f>_xll.qlSwapRateHelperSpread($E79,Trigger)</f>
@@ -5829,25 +5815,24 @@
       </c>
       <c r="L79" s="10">
         <f>_xll.qlRateHelperLatestDate($E79,Trigger)</f>
-        <v>41745</v>
-      </c>
-      <c r="M79" s="25"/>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+        <v>41806</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="16">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C80" s="15"/>
       <c r="D80" s="14" t="s">
         <v>41</v>
       </c>
       <c r="E80" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v>USD_YC1MRH_4X1S</v>
+        <f>'1M_Swaps'!L10</f>
+        <v>USD_YC1MRH_6X1S#0000</v>
       </c>
       <c r="F80" s="13">
         <f>_xll.qlRateHelperQuoteValue($E80,Trigger)</f>
-        <v>1.7699999999999999E-3</v>
+        <v>1.8500000000000001E-3</v>
       </c>
       <c r="G80" s="13">
         <f>_xll.qlSwapRateHelperSpread($E80,Trigger)</f>
@@ -5868,24 +5853,24 @@
       </c>
       <c r="L80" s="10">
         <f>_xll.qlRateHelperLatestDate($E80,Trigger)</f>
-        <v>41775</v>
+        <v>41836</v>
       </c>
     </row>
     <row r="81" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B81" s="16">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C81" s="15"/>
       <c r="D81" s="14" t="s">
         <v>41</v>
       </c>
       <c r="E81" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v>USD_YC1MRH_5X1S</v>
+        <f>'1M_Swaps'!L11</f>
+        <v>USD_YC1MRH_7X1S#0000</v>
       </c>
       <c r="F81" s="13">
         <f>_xll.qlRateHelperQuoteValue($E81,Trigger)</f>
-        <v>1.8E-3</v>
+        <v>1.9E-3</v>
       </c>
       <c r="G81" s="13">
         <f>_xll.qlSwapRateHelperSpread($E81,Trigger)</f>
@@ -5906,24 +5891,24 @@
       </c>
       <c r="L81" s="10">
         <f>_xll.qlRateHelperLatestDate($E81,Trigger)</f>
-        <v>41806</v>
-      </c>
-    </row>
-    <row r="82" spans="2:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>41869</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B82" s="16">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C82" s="15"/>
       <c r="D82" s="14" t="s">
         <v>41</v>
       </c>
       <c r="E82" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v>USD_YC1MRH_6X1S</v>
+        <f>'1M_Swaps'!L12</f>
+        <v>USD_YC1MRH_8X1S#0000</v>
       </c>
       <c r="F82" s="13">
         <f>_xll.qlRateHelperQuoteValue($E82,Trigger)</f>
-        <v>1.8500000000000001E-3</v>
+        <v>1.9500000000000001E-3</v>
       </c>
       <c r="G82" s="13">
         <f>_xll.qlSwapRateHelperSpread($E82,Trigger)</f>
@@ -5944,24 +5929,24 @@
       </c>
       <c r="L82" s="10">
         <f>_xll.qlRateHelperLatestDate($E82,Trigger)</f>
-        <v>41836</v>
-      </c>
-    </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.2">
+        <v>41898</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="16">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C83" s="15"/>
       <c r="D83" s="14" t="s">
         <v>41</v>
       </c>
       <c r="E83" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v>USD_YC1MRH_7X1S</v>
+        <f>'1M_Swaps'!L13</f>
+        <v>USD_YC1MRH_9X1S#0000</v>
       </c>
       <c r="F83" s="13">
         <f>_xll.qlRateHelperQuoteValue($E83,Trigger)</f>
-        <v>1.9E-3</v>
+        <v>2.0100000000000001E-3</v>
       </c>
       <c r="G83" s="13">
         <f>_xll.qlSwapRateHelperSpread($E83,Trigger)</f>
@@ -5982,24 +5967,24 @@
       </c>
       <c r="L83" s="10">
         <f>_xll.qlRateHelperLatestDate($E83,Trigger)</f>
-        <v>41869</v>
+        <v>41928</v>
       </c>
     </row>
     <row r="84" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B84" s="16">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C84" s="15"/>
       <c r="D84" s="14" t="s">
         <v>41</v>
       </c>
       <c r="E84" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v>USD_YC1MRH_8X1S</v>
+        <f>'1M_Swaps'!L14</f>
+        <v>USD_YC1MRH_10X1S#0000</v>
       </c>
       <c r="F84" s="13">
         <f>_xll.qlRateHelperQuoteValue($E84,Trigger)</f>
-        <v>1.9500000000000001E-3</v>
+        <v>2.0700000000000002E-3</v>
       </c>
       <c r="G84" s="13">
         <f>_xll.qlSwapRateHelperSpread($E84,Trigger)</f>
@@ -6020,24 +6005,24 @@
       </c>
       <c r="L84" s="10">
         <f>_xll.qlRateHelperLatestDate($E84,Trigger)</f>
-        <v>41898</v>
-      </c>
-    </row>
-    <row r="85" spans="2:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>41960</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B85" s="16">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C85" s="15"/>
       <c r="D85" s="14" t="s">
         <v>41</v>
       </c>
       <c r="E85" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v>USD_YC1MRH_9X1S</v>
+        <f>'1M_Swaps'!L15</f>
+        <v>USD_YC1MRH_11X1S#0000</v>
       </c>
       <c r="F85" s="13">
         <f>_xll.qlRateHelperQuoteValue($E85,Trigger)</f>
-        <v>2.0100000000000001E-3</v>
+        <v>2.1299999999999999E-3</v>
       </c>
       <c r="G85" s="13">
         <f>_xll.qlSwapRateHelperSpread($E85,Trigger)</f>
@@ -6058,164 +6043,164 @@
       </c>
       <c r="L85" s="10">
         <f>_xll.qlRateHelperLatestDate($E85,Trigger)</f>
-        <v>41928</v>
+        <v>41989</v>
       </c>
     </row>
     <row r="86" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B86" s="16">
-        <v>10</v>
-      </c>
-      <c r="C86" s="15"/>
-      <c r="D86" s="14" t="s">
+      <c r="B86" s="9">
+        <v>12</v>
+      </c>
+      <c r="C86" s="8"/>
+      <c r="D86" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E86" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v>USD_YC1MRH_10X1S</v>
-      </c>
-      <c r="F86" s="13">
+      <c r="E86" s="7" t="str">
+        <f>'1M_Swaps'!L16</f>
+        <v>USD_YC1MRH_12X1S#0000</v>
+      </c>
+      <c r="F86" s="6">
         <f>_xll.qlRateHelperQuoteValue($E86,Trigger)</f>
-        <v>2.0700000000000002E-3</v>
-      </c>
-      <c r="G86" s="13">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="G86" s="6">
         <f>_xll.qlSwapRateHelperSpread($E86,Trigger)</f>
         <v>0</v>
       </c>
-      <c r="H86" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I86" s="12">
+      <c r="H86" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I86" s="5">
         <v>40</v>
       </c>
       <c r="J86" s="12">
         <v>1</v>
       </c>
-      <c r="K86" s="11">
+      <c r="K86" s="4">
         <f>_xll.qlRateHelperEarliestDate($E86,Trigger)</f>
         <v>41655</v>
       </c>
-      <c r="L86" s="10">
+      <c r="L86" s="3">
         <f>_xll.qlRateHelperLatestDate($E86,Trigger)</f>
-        <v>41960</v>
+        <v>42020</v>
       </c>
     </row>
     <row r="87" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B87" s="16">
-        <v>11</v>
-      </c>
-      <c r="C87" s="15"/>
-      <c r="D87" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E87" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v>USD_YC1MRH_11X1S</v>
-      </c>
-      <c r="F87" s="13">
-        <f>_xll.qlRateHelperQuoteValue($E87,Trigger)</f>
-        <v>2.1299999999999999E-3</v>
-      </c>
-      <c r="G87" s="13">
-        <f>_xll.qlSwapRateHelperSpread($E87,Trigger)</f>
-        <v>0</v>
-      </c>
-      <c r="H87" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I87" s="12">
-        <v>40</v>
-      </c>
-      <c r="J87" s="12">
-        <v>1</v>
-      </c>
-      <c r="K87" s="11">
-        <f>_xll.qlRateHelperEarliestDate($E87,Trigger)</f>
-        <v>41655</v>
-      </c>
-      <c r="L87" s="10">
-        <f>_xll.qlRateHelperLatestDate($E87,Trigger)</f>
-        <v>41989</v>
-      </c>
-    </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B88" s="9">
+      <c r="B87" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C87" s="23">
         <v>12</v>
       </c>
-      <c r="C88" s="8"/>
-      <c r="D88" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E88" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>USD_YC1MRH_12X1S</v>
-      </c>
-      <c r="F88" s="6">
-        <f>_xll.qlRateHelperQuoteValue($E88,Trigger)</f>
-        <v>2.2000000000000001E-3</v>
-      </c>
-      <c r="G88" s="6">
-        <f>_xll.qlSwapRateHelperSpread($E88,Trigger)</f>
-        <v>0</v>
-      </c>
-      <c r="H88" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" s="5">
-        <v>40</v>
-      </c>
-      <c r="J88" s="12">
-        <v>1</v>
-      </c>
-      <c r="K88" s="4">
-        <f>_xll.qlRateHelperEarliestDate($E88,Trigger)</f>
-        <v>41655</v>
-      </c>
-      <c r="L88" s="3">
-        <f>_xll.qlRateHelperLatestDate($E88,Trigger)</f>
-        <v>42020</v>
-      </c>
-    </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B89" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="C89" s="23">
-        <v>12</v>
-      </c>
-      <c r="D89" s="21"/>
-      <c r="E89" s="21" t="str">
+      <c r="D87" s="21"/>
+      <c r="E87" s="21" t="str">
         <f t="shared" si="4"/>
         <v>USD_YC1MRH_1S12</v>
       </c>
-      <c r="F89" s="20" t="e">
+      <c r="F87" s="20" t="e">
+        <f>_xll.qlRateHelperQuoteValue($E87,Trigger)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="G87" s="20" t="e">
+        <f>_xll.qlSwapRateHelperSpread($E87,Trigger)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="H87" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" s="19">
+        <v>40</v>
+      </c>
+      <c r="J87" s="19">
+        <v>1</v>
+      </c>
+      <c r="K87" s="18" t="e">
+        <f>_xll.qlRateHelperEarliestDate($E87,Trigger)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="L87" s="17" t="e">
+        <f>_xll.qlRateHelperLatestDate($E87,Trigger)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B88" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C88" s="15">
+        <v>12</v>
+      </c>
+      <c r="D88" s="14"/>
+      <c r="E88" s="14" t="str">
+        <f t="shared" si="4"/>
+        <v>USD_YC1MRH_2S12</v>
+      </c>
+      <c r="F88" s="13" t="e">
+        <f>_xll.qlRateHelperQuoteValue($E88,Trigger)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="G88" s="13" t="e">
+        <f>_xll.qlSwapRateHelperSpread($E88,Trigger)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="H88" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I88" s="12">
+        <v>40</v>
+      </c>
+      <c r="J88" s="12">
+        <v>1</v>
+      </c>
+      <c r="K88" s="11" t="e">
+        <f>_xll.qlRateHelperEarliestDate($E88,Trigger)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="L88" s="10" t="e">
+        <f>_xll.qlRateHelperLatestDate($E88,Trigger)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B89" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C89" s="15">
+        <v>12</v>
+      </c>
+      <c r="D89" s="14"/>
+      <c r="E89" s="14" t="str">
+        <f t="shared" si="4"/>
+        <v>USD_YC1MRH_3S12</v>
+      </c>
+      <c r="F89" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E89,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G89" s="20" t="e">
+      <c r="G89" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E89,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H89" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I89" s="19">
+      <c r="H89" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" s="12">
         <v>40</v>
       </c>
-      <c r="J89" s="19">
-        <v>1</v>
-      </c>
-      <c r="K89" s="18" t="e">
+      <c r="J89" s="12">
+        <v>1</v>
+      </c>
+      <c r="K89" s="11" t="e">
         <f>_xll.qlRateHelperEarliestDate($E89,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L89" s="17" t="e">
+      <c r="L89" s="10" t="e">
         <f>_xll.qlRateHelperLatestDate($E89,Trigger)</f>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="90" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B90" s="16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C90" s="15">
         <v>12</v>
@@ -6223,7 +6208,7 @@
       <c r="D90" s="14"/>
       <c r="E90" s="14" t="str">
         <f t="shared" si="4"/>
-        <v>USD_YC1MRH_2S12</v>
+        <v>USD_YC1MRH_4S12</v>
       </c>
       <c r="F90" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E90,Trigger)</f>
@@ -6253,15 +6238,15 @@
     </row>
     <row r="91" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B91" s="16" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C91" s="15">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D91" s="14"/>
       <c r="E91" s="14" t="str">
         <f t="shared" si="4"/>
-        <v>USD_YC1MRH_3S12</v>
+        <v>USD_YC1MRH_1S24</v>
       </c>
       <c r="F91" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E91,Trigger)</f>
@@ -6291,15 +6276,15 @@
     </row>
     <row r="92" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B92" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C92" s="15">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D92" s="14"/>
       <c r="E92" s="14" t="str">
         <f t="shared" si="4"/>
-        <v>USD_YC1MRH_4S12</v>
+        <v>USD_YC1MRH_2S24</v>
       </c>
       <c r="F92" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E92,Trigger)</f>
@@ -6328,54 +6313,58 @@
       </c>
     </row>
     <row r="93" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B93" s="16" t="s">
+      <c r="B93" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C93" s="15">
-        <v>24</v>
-      </c>
-      <c r="D93" s="14"/>
-      <c r="E93" s="14" t="str">
+      <c r="C93" s="8">
+        <v>36</v>
+      </c>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>USD_YC1MRH_1S24</v>
-      </c>
-      <c r="F93" s="13" t="e">
+        <v>USD_YC1MRH_1S36</v>
+      </c>
+      <c r="F93" s="6" t="e">
         <f>_xll.qlRateHelperQuoteValue($E93,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G93" s="13" t="e">
+      <c r="G93" s="6" t="e">
         <f>_xll.qlSwapRateHelperSpread($E93,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H93" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I93" s="12">
+      <c r="H93" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" s="5">
         <v>40</v>
       </c>
-      <c r="J93" s="12">
-        <v>1</v>
-      </c>
-      <c r="K93" s="11" t="e">
+      <c r="J93" s="5">
+        <v>1</v>
+      </c>
+      <c r="K93" s="4" t="e">
         <f>_xll.qlRateHelperEarliestDate($E93,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L93" s="10" t="e">
+      <c r="L93" s="3" t="e">
         <f>_xll.qlRateHelperLatestDate($E93,Trigger)</f>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="94" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B94" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C94" s="15">
-        <v>24</v>
-      </c>
-      <c r="D94" s="14"/>
+      <c r="B94" s="16" t="str">
+        <f t="shared" ref="B94:B125" si="5">SwapFixedFreq</f>
+        <v>AM</v>
+      </c>
+      <c r="C94" s="15" t="str">
+        <f t="shared" ref="C94:C130" si="6">IborType</f>
+        <v>1L</v>
+      </c>
+      <c r="D94" s="14" t="s">
+        <v>36</v>
+      </c>
       <c r="E94" s="14" t="str">
         <f t="shared" si="4"/>
-        <v>USD_YC1MRH_2S24</v>
+        <v>USD_YC1MRH_AM1L1Y</v>
       </c>
       <c r="F94" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E94,Trigger)</f>
@@ -6389,7 +6378,7 @@
         <v>0</v>
       </c>
       <c r="I94" s="12">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J94" s="12">
         <v>1</v>
@@ -6402,60 +6391,72 @@
         <f>_xll.qlRateHelperLatestDate($E94,Trigger)</f>
         <v>#NUM!</v>
       </c>
+      <c r="N94" s="22" t="e">
+        <f t="shared" ref="N94:N130" si="7">IF(G94=G131,F94-F131,"--")</f>
+        <v>#NUM!</v>
+      </c>
     </row>
     <row r="95" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B95" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C95" s="8">
-        <v>36</v>
-      </c>
-      <c r="D95" s="7"/>
-      <c r="E95" s="7" t="str">
+      <c r="B95" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>AM</v>
+      </c>
+      <c r="C95" s="15" t="str">
+        <f t="shared" si="6"/>
+        <v>1L</v>
+      </c>
+      <c r="D95" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E95" s="14" t="str">
         <f t="shared" si="4"/>
-        <v>USD_YC1MRH_1S36</v>
-      </c>
-      <c r="F95" s="6" t="e">
+        <v>USD_YC1MRH_AM1L15M</v>
+      </c>
+      <c r="F95" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E95,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G95" s="6" t="e">
+      <c r="G95" s="13" t="e">
         <f>_xll.qlSwapRateHelperSpread($E95,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H95" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I95" s="5">
-        <v>40</v>
-      </c>
-      <c r="J95" s="5">
-        <v>1</v>
-      </c>
-      <c r="K95" s="4" t="e">
+      <c r="H95" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" s="12">
+        <v>50</v>
+      </c>
+      <c r="J95" s="12">
+        <v>1</v>
+      </c>
+      <c r="K95" s="11" t="e">
         <f>_xll.qlRateHelperEarliestDate($E95,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L95" s="3" t="e">
+      <c r="L95" s="10" t="e">
         <f>_xll.qlRateHelperLatestDate($E95,Trigger)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="N95" s="22" t="e">
+        <f t="shared" si="7"/>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="96" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B96" s="16" t="str">
-        <f t="shared" ref="B96:B127" si="5">SwapFixedFreq</f>
+        <f t="shared" si="5"/>
         <v>AM</v>
       </c>
       <c r="C96" s="15" t="str">
-        <f t="shared" ref="C96:C132" si="6">IborType</f>
+        <f t="shared" si="6"/>
         <v>1L</v>
       </c>
       <c r="D96" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E96" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v>USD_YC1MRH_AM1L1Y</v>
+        <f t="shared" ref="E96:E127" si="8">RateHelperPrefix&amp;"_"&amp;$B96&amp;$C96&amp;$D96</f>
+        <v>USD_YC1MRH_AM1L18M</v>
       </c>
       <c r="F96" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E96,Trigger)</f>
@@ -6483,7 +6484,7 @@
         <v>#NUM!</v>
       </c>
       <c r="N96" s="22" t="e">
-        <f t="shared" ref="N96:N132" si="7">IF(G96=G133,F96-F133,"--")</f>
+        <f t="shared" si="7"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -6497,11 +6498,11 @@
         <v>1L</v>
       </c>
       <c r="D97" s="14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E97" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v>USD_YC1MRH_AM1L15M</v>
+        <f t="shared" si="8"/>
+        <v>USD_YC1MRH_AM1L21M</v>
       </c>
       <c r="F97" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E97,Trigger)</f>
@@ -6543,11 +6544,11 @@
         <v>1L</v>
       </c>
       <c r="D98" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E98" s="14" t="str">
-        <f t="shared" ref="E98:E129" si="8">RateHelperPrefix&amp;"_"&amp;$B98&amp;$C98&amp;$D98</f>
-        <v>USD_YC1MRH_AM1L18M</v>
+        <f t="shared" si="8"/>
+        <v>USD_YC1MRH_AM1L2Y</v>
       </c>
       <c r="F98" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E98,Trigger)</f>
@@ -6589,11 +6590,11 @@
         <v>1L</v>
       </c>
       <c r="D99" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E99" s="14" t="str">
         <f t="shared" si="8"/>
-        <v>USD_YC1MRH_AM1L21M</v>
+        <v>USD_YC1MRH_AM1L3Y</v>
       </c>
       <c r="F99" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E99,Trigger)</f>
@@ -6635,11 +6636,11 @@
         <v>1L</v>
       </c>
       <c r="D100" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E100" s="14" t="str">
         <f t="shared" si="8"/>
-        <v>USD_YC1MRH_AM1L2Y</v>
+        <v>USD_YC1MRH_AM1L4Y</v>
       </c>
       <c r="F100" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E100,Trigger)</f>
@@ -6681,11 +6682,11 @@
         <v>1L</v>
       </c>
       <c r="D101" s="14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E101" s="14" t="str">
         <f t="shared" si="8"/>
-        <v>USD_YC1MRH_AM1L3Y</v>
+        <v>USD_YC1MRH_AM1L5Y</v>
       </c>
       <c r="F101" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E101,Trigger)</f>
@@ -6727,11 +6728,11 @@
         <v>1L</v>
       </c>
       <c r="D102" s="14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E102" s="14" t="str">
         <f t="shared" si="8"/>
-        <v>USD_YC1MRH_AM1L4Y</v>
+        <v>USD_YC1MRH_AM1L6Y</v>
       </c>
       <c r="F102" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E102,Trigger)</f>
@@ -6773,11 +6774,11 @@
         <v>1L</v>
       </c>
       <c r="D103" s="14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E103" s="14" t="str">
         <f t="shared" si="8"/>
-        <v>USD_YC1MRH_AM1L5Y</v>
+        <v>USD_YC1MRH_AM1L7Y</v>
       </c>
       <c r="F103" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E103,Trigger)</f>
@@ -6819,11 +6820,11 @@
         <v>1L</v>
       </c>
       <c r="D104" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E104" s="14" t="str">
         <f t="shared" si="8"/>
-        <v>USD_YC1MRH_AM1L6Y</v>
+        <v>USD_YC1MRH_AM1L8Y</v>
       </c>
       <c r="F104" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E104,Trigger)</f>
@@ -6865,11 +6866,11 @@
         <v>1L</v>
       </c>
       <c r="D105" s="14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E105" s="14" t="str">
         <f t="shared" si="8"/>
-        <v>USD_YC1MRH_AM1L7Y</v>
+        <v>USD_YC1MRH_AM1L9Y</v>
       </c>
       <c r="F105" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E105,Trigger)</f>
@@ -6911,11 +6912,11 @@
         <v>1L</v>
       </c>
       <c r="D106" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E106" s="14" t="str">
         <f t="shared" si="8"/>
-        <v>USD_YC1MRH_AM1L8Y</v>
+        <v>USD_YC1MRH_AM1L10Y</v>
       </c>
       <c r="F106" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E106,Trigger)</f>
@@ -6957,11 +6958,11 @@
         <v>1L</v>
       </c>
       <c r="D107" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E107" s="14" t="str">
         <f t="shared" si="8"/>
-        <v>USD_YC1MRH_AM1L9Y</v>
+        <v>USD_YC1MRH_AM1L11Y</v>
       </c>
       <c r="F107" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E107,Trigger)</f>
@@ -7003,11 +7004,11 @@
         <v>1L</v>
       </c>
       <c r="D108" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E108" s="14" t="str">
         <f t="shared" si="8"/>
-        <v>USD_YC1MRH_AM1L10Y</v>
+        <v>USD_YC1MRH_AM1L12Y</v>
       </c>
       <c r="F108" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E108,Trigger)</f>
@@ -7049,11 +7050,11 @@
         <v>1L</v>
       </c>
       <c r="D109" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E109" s="14" t="str">
         <f t="shared" si="8"/>
-        <v>USD_YC1MRH_AM1L11Y</v>
+        <v>USD_YC1MRH_AM1L13Y</v>
       </c>
       <c r="F109" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E109,Trigger)</f>
@@ -7095,11 +7096,11 @@
         <v>1L</v>
       </c>
       <c r="D110" s="14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E110" s="14" t="str">
         <f t="shared" si="8"/>
-        <v>USD_YC1MRH_AM1L12Y</v>
+        <v>USD_YC1MRH_AM1L14Y</v>
       </c>
       <c r="F110" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E110,Trigger)</f>
@@ -7141,11 +7142,11 @@
         <v>1L</v>
       </c>
       <c r="D111" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E111" s="14" t="str">
         <f t="shared" si="8"/>
-        <v>USD_YC1MRH_AM1L13Y</v>
+        <v>USD_YC1MRH_AM1L15Y</v>
       </c>
       <c r="F111" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E111,Trigger)</f>
@@ -7187,11 +7188,11 @@
         <v>1L</v>
       </c>
       <c r="D112" s="14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E112" s="14" t="str">
         <f t="shared" si="8"/>
-        <v>USD_YC1MRH_AM1L14Y</v>
+        <v>USD_YC1MRH_AM1L16Y</v>
       </c>
       <c r="F112" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E112,Trigger)</f>
@@ -7233,11 +7234,11 @@
         <v>1L</v>
       </c>
       <c r="D113" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E113" s="14" t="str">
         <f t="shared" si="8"/>
-        <v>USD_YC1MRH_AM1L15Y</v>
+        <v>USD_YC1MRH_AM1L17Y</v>
       </c>
       <c r="F113" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E113,Trigger)</f>
@@ -7279,11 +7280,11 @@
         <v>1L</v>
       </c>
       <c r="D114" s="14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E114" s="14" t="str">
         <f t="shared" si="8"/>
-        <v>USD_YC1MRH_AM1L16Y</v>
+        <v>USD_YC1MRH_AM1L18Y</v>
       </c>
       <c r="F114" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E114,Trigger)</f>
@@ -7325,11 +7326,11 @@
         <v>1L</v>
       </c>
       <c r="D115" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E115" s="14" t="str">
         <f t="shared" si="8"/>
-        <v>USD_YC1MRH_AM1L17Y</v>
+        <v>USD_YC1MRH_AM1L19Y</v>
       </c>
       <c r="F115" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E115,Trigger)</f>
@@ -7371,11 +7372,11 @@
         <v>1L</v>
       </c>
       <c r="D116" s="14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E116" s="14" t="str">
         <f t="shared" si="8"/>
-        <v>USD_YC1MRH_AM1L18Y</v>
+        <v>USD_YC1MRH_AM1L20Y</v>
       </c>
       <c r="F116" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E116,Trigger)</f>
@@ -7417,11 +7418,11 @@
         <v>1L</v>
       </c>
       <c r="D117" s="14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E117" s="14" t="str">
         <f t="shared" si="8"/>
-        <v>USD_YC1MRH_AM1L19Y</v>
+        <v>USD_YC1MRH_AM1L21Y</v>
       </c>
       <c r="F117" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E117,Trigger)</f>
@@ -7463,11 +7464,11 @@
         <v>1L</v>
       </c>
       <c r="D118" s="14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E118" s="14" t="str">
         <f t="shared" si="8"/>
-        <v>USD_YC1MRH_AM1L20Y</v>
+        <v>USD_YC1MRH_AM1L22Y</v>
       </c>
       <c r="F118" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E118,Trigger)</f>
@@ -7509,11 +7510,11 @@
         <v>1L</v>
       </c>
       <c r="D119" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E119" s="14" t="str">
         <f t="shared" si="8"/>
-        <v>USD_YC1MRH_AM1L21Y</v>
+        <v>USD_YC1MRH_AM1L23Y</v>
       </c>
       <c r="F119" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E119,Trigger)</f>
@@ -7555,11 +7556,11 @@
         <v>1L</v>
       </c>
       <c r="D120" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E120" s="14" t="str">
         <f t="shared" si="8"/>
-        <v>USD_YC1MRH_AM1L22Y</v>
+        <v>USD_YC1MRH_AM1L24Y</v>
       </c>
       <c r="F120" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E120,Trigger)</f>
@@ -7601,11 +7602,11 @@
         <v>1L</v>
       </c>
       <c r="D121" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E121" s="14" t="str">
         <f t="shared" si="8"/>
-        <v>USD_YC1MRH_AM1L23Y</v>
+        <v>USD_YC1MRH_AM1L25Y</v>
       </c>
       <c r="F121" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E121,Trigger)</f>
@@ -7647,11 +7648,11 @@
         <v>1L</v>
       </c>
       <c r="D122" s="14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E122" s="14" t="str">
         <f t="shared" si="8"/>
-        <v>USD_YC1MRH_AM1L24Y</v>
+        <v>USD_YC1MRH_AM1L26Y</v>
       </c>
       <c r="F122" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E122,Trigger)</f>
@@ -7693,11 +7694,11 @@
         <v>1L</v>
       </c>
       <c r="D123" s="14" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E123" s="14" t="str">
         <f t="shared" si="8"/>
-        <v>USD_YC1MRH_AM1L25Y</v>
+        <v>USD_YC1MRH_AM1L27Y</v>
       </c>
       <c r="F123" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E123,Trigger)</f>
@@ -7739,11 +7740,11 @@
         <v>1L</v>
       </c>
       <c r="D124" s="14" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E124" s="14" t="str">
         <f t="shared" si="8"/>
-        <v>USD_YC1MRH_AM1L26Y</v>
+        <v>USD_YC1MRH_AM1L28Y</v>
       </c>
       <c r="F124" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E124,Trigger)</f>
@@ -7785,11 +7786,11 @@
         <v>1L</v>
       </c>
       <c r="D125" s="14" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E125" s="14" t="str">
         <f t="shared" si="8"/>
-        <v>USD_YC1MRH_AM1L27Y</v>
+        <v>USD_YC1MRH_AM1L29Y</v>
       </c>
       <c r="F125" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E125,Trigger)</f>
@@ -7823,7 +7824,7 @@
     </row>
     <row r="126" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B126" s="16" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="B126:B157" si="9">SwapFixedFreq</f>
         <v>AM</v>
       </c>
       <c r="C126" s="15" t="str">
@@ -7831,11 +7832,11 @@
         <v>1L</v>
       </c>
       <c r="D126" s="14" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E126" s="14" t="str">
         <f t="shared" si="8"/>
-        <v>USD_YC1MRH_AM1L28Y</v>
+        <v>USD_YC1MRH_AM1L30Y</v>
       </c>
       <c r="F126" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E126,Trigger)</f>
@@ -7869,7 +7870,7 @@
     </row>
     <row r="127" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B127" s="16" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>AM</v>
       </c>
       <c r="C127" s="15" t="str">
@@ -7877,11 +7878,11 @@
         <v>1L</v>
       </c>
       <c r="D127" s="14" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E127" s="14" t="str">
         <f t="shared" si="8"/>
-        <v>USD_YC1MRH_AM1L29Y</v>
+        <v>USD_YC1MRH_AM1L35Y</v>
       </c>
       <c r="F127" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E127,Trigger)</f>
@@ -7915,7 +7916,7 @@
     </row>
     <row r="128" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B128" s="16" t="str">
-        <f t="shared" ref="B128:B159" si="9">SwapFixedFreq</f>
+        <f t="shared" si="9"/>
         <v>AM</v>
       </c>
       <c r="C128" s="15" t="str">
@@ -7923,11 +7924,11 @@
         <v>1L</v>
       </c>
       <c r="D128" s="14" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E128" s="14" t="str">
-        <f t="shared" si="8"/>
-        <v>USD_YC1MRH_AM1L30Y</v>
+        <f t="shared" ref="E128:E159" si="10">RateHelperPrefix&amp;"_"&amp;$B128&amp;$C128&amp;$D128</f>
+        <v>USD_YC1MRH_AM1L40Y</v>
       </c>
       <c r="F128" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E128,Trigger)</f>
@@ -7969,11 +7970,11 @@
         <v>1L</v>
       </c>
       <c r="D129" s="14" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E129" s="14" t="str">
-        <f t="shared" si="8"/>
-        <v>USD_YC1MRH_AM1L35Y</v>
+        <f t="shared" si="10"/>
+        <v>USD_YC1MRH_AM1L50Y</v>
       </c>
       <c r="F129" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E129,Trigger)</f>
@@ -8006,43 +8007,43 @@
       </c>
     </row>
     <row r="130" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B130" s="16" t="str">
+      <c r="B130" s="9" t="str">
         <f t="shared" si="9"/>
         <v>AM</v>
       </c>
-      <c r="C130" s="15" t="str">
+      <c r="C130" s="8" t="str">
         <f t="shared" si="6"/>
         <v>1L</v>
       </c>
-      <c r="D130" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="E130" s="14" t="str">
-        <f t="shared" ref="E130:E161" si="10">RateHelperPrefix&amp;"_"&amp;$B130&amp;$C130&amp;$D130</f>
-        <v>USD_YC1MRH_AM1L40Y</v>
-      </c>
-      <c r="F130" s="13" t="e">
+      <c r="D130" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E130" s="7" t="str">
+        <f t="shared" si="10"/>
+        <v>USD_YC1MRH_AM1L60Y</v>
+      </c>
+      <c r="F130" s="6" t="e">
         <f>_xll.qlRateHelperQuoteValue($E130,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G130" s="13" t="e">
+      <c r="G130" s="6" t="e">
         <f>_xll.qlSwapRateHelperSpread($E130,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H130" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I130" s="12">
+      <c r="H130" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I130" s="5">
         <v>50</v>
       </c>
-      <c r="J130" s="12">
-        <v>1</v>
-      </c>
-      <c r="K130" s="11" t="e">
+      <c r="J130" s="5">
+        <v>1</v>
+      </c>
+      <c r="K130" s="4" t="e">
         <f>_xll.qlRateHelperEarliestDate($E130,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L130" s="10" t="e">
+      <c r="L130" s="3" t="e">
         <f>_xll.qlRateHelperLatestDate($E130,Trigger)</f>
         <v>#NUM!</v>
       </c>
@@ -8057,90 +8058,82 @@
         <v>AM</v>
       </c>
       <c r="C131" s="15" t="str">
-        <f t="shared" si="6"/>
-        <v>1L</v>
+        <f t="shared" ref="C131:C167" si="11">IborType&amp;"BASIS"</f>
+        <v>1LBASIS</v>
       </c>
       <c r="D131" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="E131" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v>USD_YC1MRH_AM1L50Y</v>
-      </c>
-      <c r="F131" s="13" t="e">
+        <v>36</v>
+      </c>
+      <c r="E131" s="21" t="str">
+        <f>'1M_SwapsFromBasis'!L6</f>
+        <v>USD_YC1MRH_AM1LBASIS1Y#0000</v>
+      </c>
+      <c r="F131" s="20">
         <f>_xll.qlRateHelperQuoteValue($E131,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G131" s="13" t="e">
+        <v>2.9400000000000003E-3</v>
+      </c>
+      <c r="G131" s="20">
         <f>_xll.qlSwapRateHelperSpread($E131,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H131" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I131" s="12">
-        <v>50</v>
-      </c>
-      <c r="J131" s="12">
-        <v>1</v>
-      </c>
-      <c r="K131" s="11" t="e">
+        <v>7.3999999999999999E-4</v>
+      </c>
+      <c r="H131" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I131" s="19">
+        <v>40</v>
+      </c>
+      <c r="J131" s="19">
+        <v>1</v>
+      </c>
+      <c r="K131" s="18">
         <f>_xll.qlRateHelperEarliestDate($E131,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L131" s="10" t="e">
+        <v>41655</v>
+      </c>
+      <c r="L131" s="17">
         <f>_xll.qlRateHelperLatestDate($E131,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="N131" s="22" t="e">
-        <f t="shared" si="7"/>
-        <v>#NUM!</v>
+        <v>42020</v>
       </c>
     </row>
     <row r="132" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B132" s="9" t="str">
+      <c r="B132" s="16" t="str">
         <f t="shared" si="9"/>
         <v>AM</v>
       </c>
-      <c r="C132" s="8" t="str">
-        <f t="shared" si="6"/>
-        <v>1L</v>
-      </c>
-      <c r="D132" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E132" s="7" t="str">
-        <f t="shared" si="10"/>
-        <v>USD_YC1MRH_AM1L60Y</v>
-      </c>
-      <c r="F132" s="6" t="e">
+      <c r="C132" s="15" t="str">
+        <f t="shared" si="11"/>
+        <v>1LBASIS</v>
+      </c>
+      <c r="D132" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E132" s="14" t="str">
+        <f>'1M_SwapsFromBasis'!L7</f>
+        <v>USD_YC1MRH_AM1LBASIS15M#0000</v>
+      </c>
+      <c r="F132" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E132,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G132" s="6" t="e">
+      <c r="G132" s="13">
         <f>_xll.qlSwapRateHelperSpread($E132,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H132" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I132" s="5">
-        <v>50</v>
-      </c>
-      <c r="J132" s="5">
-        <v>1</v>
-      </c>
-      <c r="K132" s="4" t="e">
+        <v>7.573437500000001E-4</v>
+      </c>
+      <c r="H132" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I132" s="12">
+        <v>40</v>
+      </c>
+      <c r="J132" s="12">
+        <v>1</v>
+      </c>
+      <c r="K132" s="11">
         <f>_xll.qlRateHelperEarliestDate($E132,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L132" s="3" t="e">
+        <v>41655</v>
+      </c>
+      <c r="L132" s="10">
         <f>_xll.qlRateHelperLatestDate($E132,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="N132" s="22" t="e">
-        <f t="shared" si="7"/>
-        <v>#NUM!</v>
+        <v>42110</v>
       </c>
     </row>
     <row r="133" spans="2:14" x14ac:dyDescent="0.2">
@@ -8149,40 +8142,40 @@
         <v>AM</v>
       </c>
       <c r="C133" s="15" t="str">
-        <f t="shared" ref="C133:C169" si="11">IborType&amp;"BASIS"</f>
+        <f t="shared" si="11"/>
         <v>1LBASIS</v>
       </c>
       <c r="D133" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E133" s="21" t="str">
-        <f t="shared" si="10"/>
-        <v>USD_YC1MRH_AM1LBASIS1Y</v>
-      </c>
-      <c r="F133" s="20">
+        <v>34</v>
+      </c>
+      <c r="E133" s="14" t="str">
+        <f>'1M_SwapsFromBasis'!L8</f>
+        <v>USD_YC1MRH_AM1LBASIS18M#0000</v>
+      </c>
+      <c r="F133" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E133,Trigger)</f>
-        <v>2.9400000000000003E-3</v>
-      </c>
-      <c r="G133" s="20">
+        <v>#NUM!</v>
+      </c>
+      <c r="G133" s="13">
         <f>_xll.qlSwapRateHelperSpread($E133,Trigger)</f>
-        <v>7.3999999999999999E-4</v>
-      </c>
-      <c r="H133" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I133" s="19">
+        <v>7.6625E-4</v>
+      </c>
+      <c r="H133" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I133" s="12">
         <v>40</v>
       </c>
-      <c r="J133" s="19">
-        <v>1</v>
-      </c>
-      <c r="K133" s="18">
+      <c r="J133" s="12">
+        <v>1</v>
+      </c>
+      <c r="K133" s="11">
         <f>_xll.qlRateHelperEarliestDate($E133,Trigger)</f>
         <v>41655</v>
       </c>
-      <c r="L133" s="17">
+      <c r="L133" s="10">
         <f>_xll.qlRateHelperLatestDate($E133,Trigger)</f>
-        <v>42020</v>
+        <v>42201</v>
       </c>
     </row>
     <row r="134" spans="2:14" x14ac:dyDescent="0.2">
@@ -8195,11 +8188,11 @@
         <v>1LBASIS</v>
       </c>
       <c r="D134" s="14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E134" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v>USD_YC1MRH_AM1LBASIS15M</v>
+        <f>'1M_SwapsFromBasis'!L9</f>
+        <v>USD_YC1MRH_AM1LBASIS21M#0000</v>
       </c>
       <c r="F134" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E134,Trigger)</f>
@@ -8207,7 +8200,7 @@
       </c>
       <c r="G134" s="13">
         <f>_xll.qlSwapRateHelperSpread($E134,Trigger)</f>
-        <v>7.573437500000001E-4</v>
+        <v>7.6953125000000003E-4</v>
       </c>
       <c r="H134" s="12" t="b">
         <v>0</v>
@@ -8224,7 +8217,7 @@
       </c>
       <c r="L134" s="10">
         <f>_xll.qlRateHelperLatestDate($E134,Trigger)</f>
-        <v>42110</v>
+        <v>42293</v>
       </c>
     </row>
     <row r="135" spans="2:14" x14ac:dyDescent="0.2">
@@ -8237,22 +8230,22 @@
         <v>1LBASIS</v>
       </c>
       <c r="D135" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E135" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v>USD_YC1MRH_AM1LBASIS18M</v>
-      </c>
-      <c r="F135" s="13" t="e">
+        <f>'1M_SwapsFromBasis'!L10</f>
+        <v>USD_YC1MRH_AM1LBASIS2Y#0000</v>
+      </c>
+      <c r="F135" s="13">
         <f>_xll.qlRateHelperQuoteValue($E135,Trigger)</f>
-        <v>#NUM!</v>
+        <v>4.28E-3</v>
       </c>
       <c r="G135" s="13">
         <f>_xll.qlSwapRateHelperSpread($E135,Trigger)</f>
-        <v>7.6625E-4</v>
+        <v>7.7000000000000007E-4</v>
       </c>
       <c r="H135" s="12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I135" s="12">
         <v>40</v>
@@ -8266,7 +8259,7 @@
       </c>
       <c r="L135" s="10">
         <f>_xll.qlRateHelperLatestDate($E135,Trigger)</f>
-        <v>42201</v>
+        <v>42387</v>
       </c>
     </row>
     <row r="136" spans="2:14" x14ac:dyDescent="0.2">
@@ -8279,22 +8272,22 @@
         <v>1LBASIS</v>
       </c>
       <c r="D136" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E136" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v>USD_YC1MRH_AM1LBASIS21M</v>
-      </c>
-      <c r="F136" s="13" t="e">
+        <f>'1M_SwapsFromBasis'!L11</f>
+        <v>USD_YC1MRH_AM1LBASIS3Y#0000</v>
+      </c>
+      <c r="F136" s="13">
         <f>_xll.qlRateHelperQuoteValue($E136,Trigger)</f>
-        <v>#NUM!</v>
+        <v>6.8399999999999997E-3</v>
       </c>
       <c r="G136" s="13">
         <f>_xll.qlSwapRateHelperSpread($E136,Trigger)</f>
-        <v>7.6953125000000003E-4</v>
+        <v>7.5999999999999993E-4</v>
       </c>
       <c r="H136" s="12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I136" s="12">
         <v>40</v>
@@ -8308,7 +8301,7 @@
       </c>
       <c r="L136" s="10">
         <f>_xll.qlRateHelperLatestDate($E136,Trigger)</f>
-        <v>42293</v>
+        <v>42751</v>
       </c>
     </row>
     <row r="137" spans="2:14" x14ac:dyDescent="0.2">
@@ -8321,19 +8314,19 @@
         <v>1LBASIS</v>
       </c>
       <c r="D137" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E137" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v>USD_YC1MRH_AM1LBASIS2Y</v>
+        <f>'1M_SwapsFromBasis'!L12</f>
+        <v>USD_YC1MRH_AM1LBASIS4Y#0000</v>
       </c>
       <c r="F137" s="13">
         <f>_xll.qlRateHelperQuoteValue($E137,Trigger)</f>
-        <v>4.28E-3</v>
+        <v>1.0379999999999999E-2</v>
       </c>
       <c r="G137" s="13">
         <f>_xll.qlSwapRateHelperSpread($E137,Trigger)</f>
-        <v>7.7000000000000007E-4</v>
+        <v>7.5000000000000002E-4</v>
       </c>
       <c r="H137" s="12" t="b">
         <v>1</v>
@@ -8350,7 +8343,7 @@
       </c>
       <c r="L137" s="10">
         <f>_xll.qlRateHelperLatestDate($E137,Trigger)</f>
-        <v>42387</v>
+        <v>43116</v>
       </c>
     </row>
     <row r="138" spans="2:14" x14ac:dyDescent="0.2">
@@ -8363,19 +8356,19 @@
         <v>1LBASIS</v>
       </c>
       <c r="D138" s="14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E138" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v>USD_YC1MRH_AM1LBASIS3Y</v>
+        <f>'1M_SwapsFromBasis'!L13</f>
+        <v>USD_YC1MRH_AM1LBASIS5Y#0000</v>
       </c>
       <c r="F138" s="13">
         <f>_xll.qlRateHelperQuoteValue($E138,Trigger)</f>
-        <v>6.8399999999999997E-3</v>
+        <v>1.3999999999999999E-2</v>
       </c>
       <c r="G138" s="13">
         <f>_xll.qlSwapRateHelperSpread($E138,Trigger)</f>
-        <v>7.5999999999999993E-4</v>
+        <v>7.3999999999999999E-4</v>
       </c>
       <c r="H138" s="12" t="b">
         <v>1</v>
@@ -8392,7 +8385,7 @@
       </c>
       <c r="L138" s="10">
         <f>_xll.qlRateHelperLatestDate($E138,Trigger)</f>
-        <v>42751</v>
+        <v>43481</v>
       </c>
     </row>
     <row r="139" spans="2:14" x14ac:dyDescent="0.2">
@@ -8405,19 +8398,19 @@
         <v>1LBASIS</v>
       </c>
       <c r="D139" s="14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E139" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v>USD_YC1MRH_AM1LBASIS4Y</v>
+        <f>'1M_SwapsFromBasis'!L14</f>
+        <v>USD_YC1MRH_AM1LBASIS6Y#0000</v>
       </c>
       <c r="F139" s="13">
         <f>_xll.qlRateHelperQuoteValue($E139,Trigger)</f>
-        <v>1.0379999999999999E-2</v>
+        <v>1.7299999999999999E-2</v>
       </c>
       <c r="G139" s="13">
         <f>_xll.qlSwapRateHelperSpread($E139,Trigger)</f>
-        <v>7.5000000000000002E-4</v>
+        <v>7.0999999999999991E-4</v>
       </c>
       <c r="H139" s="12" t="b">
         <v>1</v>
@@ -8434,7 +8427,7 @@
       </c>
       <c r="L139" s="10">
         <f>_xll.qlRateHelperLatestDate($E139,Trigger)</f>
-        <v>43116</v>
+        <v>43846</v>
       </c>
     </row>
     <row r="140" spans="2:14" x14ac:dyDescent="0.2">
@@ -8447,19 +8440,19 @@
         <v>1LBASIS</v>
       </c>
       <c r="D140" s="14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E140" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v>USD_YC1MRH_AM1LBASIS5Y</v>
+        <f>'1M_SwapsFromBasis'!L15</f>
+        <v>USD_YC1MRH_AM1LBASIS7Y#0000</v>
       </c>
       <c r="F140" s="13">
         <f>_xll.qlRateHelperQuoteValue($E140,Trigger)</f>
-        <v>1.3999999999999999E-2</v>
+        <v>2.0080000000000001E-2</v>
       </c>
       <c r="G140" s="13">
         <f>_xll.qlSwapRateHelperSpread($E140,Trigger)</f>
-        <v>7.3999999999999999E-4</v>
+        <v>6.9000000000000008E-4</v>
       </c>
       <c r="H140" s="12" t="b">
         <v>1</v>
@@ -8476,7 +8469,7 @@
       </c>
       <c r="L140" s="10">
         <f>_xll.qlRateHelperLatestDate($E140,Trigger)</f>
-        <v>43481</v>
+        <v>44214</v>
       </c>
     </row>
     <row r="141" spans="2:14" x14ac:dyDescent="0.2">
@@ -8489,19 +8482,19 @@
         <v>1LBASIS</v>
       </c>
       <c r="D141" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E141" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v>USD_YC1MRH_AM1LBASIS6Y</v>
+        <f>'1M_SwapsFromBasis'!L16</f>
+        <v>USD_YC1MRH_AM1LBASIS8Y#0000</v>
       </c>
       <c r="F141" s="13">
         <f>_xll.qlRateHelperQuoteValue($E141,Trigger)</f>
-        <v>1.7299999999999999E-2</v>
+        <v>2.2409999999999996E-2</v>
       </c>
       <c r="G141" s="13">
         <f>_xll.qlSwapRateHelperSpread($E141,Trigger)</f>
-        <v>7.0999999999999991E-4</v>
+        <v>6.4999999999999997E-4</v>
       </c>
       <c r="H141" s="12" t="b">
         <v>1</v>
@@ -8518,7 +8511,7 @@
       </c>
       <c r="L141" s="10">
         <f>_xll.qlRateHelperLatestDate($E141,Trigger)</f>
-        <v>43846</v>
+        <v>44578</v>
       </c>
     </row>
     <row r="142" spans="2:14" x14ac:dyDescent="0.2">
@@ -8531,19 +8524,19 @@
         <v>1LBASIS</v>
       </c>
       <c r="D142" s="14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E142" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v>USD_YC1MRH_AM1LBASIS7Y</v>
+        <f>'1M_SwapsFromBasis'!L17</f>
+        <v>USD_YC1MRH_AM1LBASIS9Y#0000</v>
       </c>
       <c r="F142" s="13">
         <f>_xll.qlRateHelperQuoteValue($E142,Trigger)</f>
-        <v>2.0080000000000001E-2</v>
+        <v>2.4370000000000003E-2</v>
       </c>
       <c r="G142" s="13">
         <f>_xll.qlSwapRateHelperSpread($E142,Trigger)</f>
-        <v>6.9000000000000008E-4</v>
+        <v>6.2E-4</v>
       </c>
       <c r="H142" s="12" t="b">
         <v>1</v>
@@ -8560,7 +8553,7 @@
       </c>
       <c r="L142" s="10">
         <f>_xll.qlRateHelperLatestDate($E142,Trigger)</f>
-        <v>44214</v>
+        <v>44942</v>
       </c>
     </row>
     <row r="143" spans="2:14" x14ac:dyDescent="0.2">
@@ -8573,19 +8566,19 @@
         <v>1LBASIS</v>
       </c>
       <c r="D143" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E143" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v>USD_YC1MRH_AM1LBASIS8Y</v>
+        <f>'1M_SwapsFromBasis'!L18</f>
+        <v>USD_YC1MRH_AM1LBASIS10Y#0000</v>
       </c>
       <c r="F143" s="13">
         <f>_xll.qlRateHelperQuoteValue($E143,Trigger)</f>
-        <v>2.2409999999999996E-2</v>
+        <v>2.6020000000000001E-2</v>
       </c>
       <c r="G143" s="13">
         <f>_xll.qlSwapRateHelperSpread($E143,Trigger)</f>
-        <v>6.4999999999999997E-4</v>
+        <v>5.8E-4</v>
       </c>
       <c r="H143" s="12" t="b">
         <v>1</v>
@@ -8602,7 +8595,7 @@
       </c>
       <c r="L143" s="10">
         <f>_xll.qlRateHelperLatestDate($E143,Trigger)</f>
-        <v>44578</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="144" spans="2:14" x14ac:dyDescent="0.2">
@@ -8615,22 +8608,22 @@
         <v>1LBASIS</v>
       </c>
       <c r="D144" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E144" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v>USD_YC1MRH_AM1LBASIS9Y</v>
-      </c>
-      <c r="F144" s="13">
+        <f>'1M_SwapsFromBasis'!L19</f>
+        <v>USD_YC1MRH_AM1LBASIS11Y#0000</v>
+      </c>
+      <c r="F144" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E144,Trigger)</f>
-        <v>2.4370000000000003E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="G144" s="13">
         <f>_xll.qlSwapRateHelperSpread($E144,Trigger)</f>
-        <v>6.2E-4</v>
+        <v>5.4592716289096415E-4</v>
       </c>
       <c r="H144" s="12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144" s="12">
         <v>40</v>
@@ -8644,7 +8637,7 @@
       </c>
       <c r="L144" s="10">
         <f>_xll.qlRateHelperLatestDate($E144,Trigger)</f>
-        <v>44942</v>
+        <v>45673</v>
       </c>
     </row>
     <row r="145" spans="2:12" x14ac:dyDescent="0.2">
@@ -8657,19 +8650,19 @@
         <v>1LBASIS</v>
       </c>
       <c r="D145" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E145" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v>USD_YC1MRH_AM1LBASIS10Y</v>
+        <f>'1M_SwapsFromBasis'!L20</f>
+        <v>USD_YC1MRH_AM1LBASIS12Y#0000</v>
       </c>
       <c r="F145" s="13">
         <f>_xll.qlRateHelperQuoteValue($E145,Trigger)</f>
-        <v>2.6020000000000001E-2</v>
+        <v>2.8670000000000001E-2</v>
       </c>
       <c r="G145" s="13">
         <f>_xll.qlSwapRateHelperSpread($E145,Trigger)</f>
-        <v>5.8E-4</v>
+        <v>5.2000000000000006E-4</v>
       </c>
       <c r="H145" s="12" t="b">
         <v>1</v>
@@ -8686,7 +8679,7 @@
       </c>
       <c r="L145" s="10">
         <f>_xll.qlRateHelperLatestDate($E145,Trigger)</f>
-        <v>45307</v>
+        <v>46038</v>
       </c>
     </row>
     <row r="146" spans="2:12" x14ac:dyDescent="0.2">
@@ -8699,11 +8692,11 @@
         <v>1LBASIS</v>
       </c>
       <c r="D146" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E146" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v>USD_YC1MRH_AM1LBASIS11Y</v>
+        <f>'1M_SwapsFromBasis'!L21</f>
+        <v>USD_YC1MRH_AM1LBASIS13Y#0000</v>
       </c>
       <c r="F146" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E146,Trigger)</f>
@@ -8711,7 +8704,7 @@
       </c>
       <c r="G146" s="13">
         <f>_xll.qlSwapRateHelperSpread($E146,Trigger)</f>
-        <v>5.4592716289096415E-4</v>
+        <v>4.9766154400837637E-4</v>
       </c>
       <c r="H146" s="12" t="b">
         <v>0</v>
@@ -8728,7 +8721,7 @@
       </c>
       <c r="L146" s="10">
         <f>_xll.qlRateHelperLatestDate($E146,Trigger)</f>
-        <v>45673</v>
+        <v>46405</v>
       </c>
     </row>
     <row r="147" spans="2:12" x14ac:dyDescent="0.2">
@@ -8741,22 +8734,22 @@
         <v>1LBASIS</v>
       </c>
       <c r="D147" s="14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E147" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v>USD_YC1MRH_AM1LBASIS12Y</v>
-      </c>
-      <c r="F147" s="13">
+        <f>'1M_SwapsFromBasis'!L22</f>
+        <v>USD_YC1MRH_AM1LBASIS14Y#0000</v>
+      </c>
+      <c r="F147" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E147,Trigger)</f>
-        <v>2.8670000000000001E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="G147" s="13">
         <f>_xll.qlSwapRateHelperSpread($E147,Trigger)</f>
-        <v>5.2000000000000006E-4</v>
+        <v>4.7776120796248539E-4</v>
       </c>
       <c r="H147" s="12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147" s="12">
         <v>40</v>
@@ -8770,7 +8763,7 @@
       </c>
       <c r="L147" s="10">
         <f>_xll.qlRateHelperLatestDate($E147,Trigger)</f>
-        <v>46038</v>
+        <v>46769</v>
       </c>
     </row>
     <row r="148" spans="2:12" x14ac:dyDescent="0.2">
@@ -8783,22 +8776,22 @@
         <v>1LBASIS</v>
       </c>
       <c r="D148" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E148" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v>USD_YC1MRH_AM1LBASIS13Y</v>
-      </c>
-      <c r="F148" s="13" t="e">
+        <f>'1M_SwapsFromBasis'!L23</f>
+        <v>USD_YC1MRH_AM1LBASIS15Y#0000</v>
+      </c>
+      <c r="F148" s="13">
         <f>_xll.qlRateHelperQuoteValue($E148,Trigger)</f>
-        <v>#NUM!</v>
+        <v>3.1260000000000003E-2</v>
       </c>
       <c r="G148" s="13">
         <f>_xll.qlSwapRateHelperSpread($E148,Trigger)</f>
-        <v>4.9766154400837637E-4</v>
+        <v>4.5999999999999996E-4</v>
       </c>
       <c r="H148" s="12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I148" s="12">
         <v>40</v>
@@ -8812,7 +8805,7 @@
       </c>
       <c r="L148" s="10">
         <f>_xll.qlRateHelperLatestDate($E148,Trigger)</f>
-        <v>46405</v>
+        <v>47134</v>
       </c>
     </row>
     <row r="149" spans="2:12" x14ac:dyDescent="0.2">
@@ -8825,11 +8818,11 @@
         <v>1LBASIS</v>
       </c>
       <c r="D149" s="14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E149" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v>USD_YC1MRH_AM1LBASIS14Y</v>
+        <f>'1M_SwapsFromBasis'!L24</f>
+        <v>USD_YC1MRH_AM1LBASIS16Y#0000</v>
       </c>
       <c r="F149" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E149,Trigger)</f>
@@ -8837,7 +8830,7 @@
       </c>
       <c r="G149" s="13">
         <f>_xll.qlSwapRateHelperSpread($E149,Trigger)</f>
-        <v>4.7776120796248539E-4</v>
+        <v>4.4413639892853558E-4</v>
       </c>
       <c r="H149" s="12" t="b">
         <v>0</v>
@@ -8854,7 +8847,7 @@
       </c>
       <c r="L149" s="10">
         <f>_xll.qlRateHelperLatestDate($E149,Trigger)</f>
-        <v>46769</v>
+        <v>47499</v>
       </c>
     </row>
     <row r="150" spans="2:12" x14ac:dyDescent="0.2">
@@ -8867,22 +8860,22 @@
         <v>1LBASIS</v>
       </c>
       <c r="D150" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E150" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v>USD_YC1MRH_AM1LBASIS15Y</v>
-      </c>
-      <c r="F150" s="13">
+        <f>'1M_SwapsFromBasis'!L25</f>
+        <v>USD_YC1MRH_AM1LBASIS17Y#0000</v>
+      </c>
+      <c r="F150" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E150,Trigger)</f>
-        <v>3.1260000000000003E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="G150" s="13">
         <f>_xll.qlSwapRateHelperSpread($E150,Trigger)</f>
-        <v>4.5999999999999996E-4</v>
+        <v>4.3015876623547669E-4</v>
       </c>
       <c r="H150" s="12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I150" s="12">
         <v>40</v>
@@ -8896,7 +8889,7 @@
       </c>
       <c r="L150" s="10">
         <f>_xll.qlRateHelperLatestDate($E150,Trigger)</f>
-        <v>47134</v>
+        <v>47864</v>
       </c>
     </row>
     <row r="151" spans="2:12" x14ac:dyDescent="0.2">
@@ -8909,11 +8902,11 @@
         <v>1LBASIS</v>
       </c>
       <c r="D151" s="14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E151" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v>USD_YC1MRH_AM1LBASIS16Y</v>
+        <f>'1M_SwapsFromBasis'!L26</f>
+        <v>USD_YC1MRH_AM1LBASIS18Y#0000</v>
       </c>
       <c r="F151" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E151,Trigger)</f>
@@ -8921,7 +8914,7 @@
       </c>
       <c r="G151" s="13">
         <f>_xll.qlSwapRateHelperSpread($E151,Trigger)</f>
-        <v>4.4413639892853558E-4</v>
+        <v>4.1811293407815E-4</v>
       </c>
       <c r="H151" s="12" t="b">
         <v>0</v>
@@ -8938,7 +8931,7 @@
       </c>
       <c r="L151" s="10">
         <f>_xll.qlRateHelperLatestDate($E151,Trigger)</f>
-        <v>47499</v>
+        <v>48229</v>
       </c>
     </row>
     <row r="152" spans="2:12" x14ac:dyDescent="0.2">
@@ -8951,11 +8944,11 @@
         <v>1LBASIS</v>
       </c>
       <c r="D152" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E152" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v>USD_YC1MRH_AM1LBASIS17Y</v>
+        <f>'1M_SwapsFromBasis'!L27</f>
+        <v>USD_YC1MRH_AM1LBASIS19Y#0000</v>
       </c>
       <c r="F152" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E152,Trigger)</f>
@@ -8963,7 +8956,7 @@
       </c>
       <c r="G152" s="13">
         <f>_xll.qlSwapRateHelperSpread($E152,Trigger)</f>
-        <v>4.3015876623547669E-4</v>
+        <v>4.0804473461388219E-4</v>
       </c>
       <c r="H152" s="12" t="b">
         <v>0</v>
@@ -8980,7 +8973,7 @@
       </c>
       <c r="L152" s="10">
         <f>_xll.qlRateHelperLatestDate($E152,Trigger)</f>
-        <v>47864</v>
+        <v>48596</v>
       </c>
     </row>
     <row r="153" spans="2:12" x14ac:dyDescent="0.2">
@@ -8993,22 +8986,22 @@
         <v>1LBASIS</v>
       </c>
       <c r="D153" s="14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E153" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v>USD_YC1MRH_AM1LBASIS18Y</v>
-      </c>
-      <c r="F153" s="13" t="e">
+        <f>'1M_SwapsFromBasis'!L28</f>
+        <v>USD_YC1MRH_AM1LBASIS20Y#0000</v>
+      </c>
+      <c r="F153" s="13">
         <f>_xll.qlRateHelperQuoteValue($E153,Trigger)</f>
-        <v>#NUM!</v>
+        <v>3.3500000000000002E-2</v>
       </c>
       <c r="G153" s="13">
         <f>_xll.qlSwapRateHelperSpread($E153,Trigger)</f>
-        <v>4.1811293407815E-4</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="H153" s="12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I153" s="12">
         <v>40</v>
@@ -9022,7 +9015,7 @@
       </c>
       <c r="L153" s="10">
         <f>_xll.qlRateHelperLatestDate($E153,Trigger)</f>
-        <v>48229</v>
+        <v>48960</v>
       </c>
     </row>
     <row r="154" spans="2:12" x14ac:dyDescent="0.2">
@@ -9035,11 +9028,11 @@
         <v>1LBASIS</v>
       </c>
       <c r="D154" s="14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E154" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v>USD_YC1MRH_AM1LBASIS19Y</v>
+        <f>'1M_SwapsFromBasis'!L29</f>
+        <v>USD_YC1MRH_AM1LBASIS21Y#0000</v>
       </c>
       <c r="F154" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E154,Trigger)</f>
@@ -9047,7 +9040,7 @@
       </c>
       <c r="G154" s="13">
         <f>_xll.qlSwapRateHelperSpread($E154,Trigger)</f>
-        <v>4.0804473461388219E-4</v>
+        <v>3.9393070299228766E-4</v>
       </c>
       <c r="H154" s="12" t="b">
         <v>0</v>
@@ -9064,7 +9057,7 @@
       </c>
       <c r="L154" s="10">
         <f>_xll.qlRateHelperLatestDate($E154,Trigger)</f>
-        <v>48596</v>
+        <v>49325</v>
       </c>
     </row>
     <row r="155" spans="2:12" x14ac:dyDescent="0.2">
@@ -9077,22 +9070,22 @@
         <v>1LBASIS</v>
       </c>
       <c r="D155" s="14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E155" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v>USD_YC1MRH_AM1LBASIS20Y</v>
-      </c>
-      <c r="F155" s="13">
+        <f>'1M_SwapsFromBasis'!L30</f>
+        <v>USD_YC1MRH_AM1LBASIS22Y#0000</v>
+      </c>
+      <c r="F155" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E155,Trigger)</f>
-        <v>3.3500000000000002E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="G155" s="13">
         <f>_xll.qlSwapRateHelperSpread($E155,Trigger)</f>
-        <v>4.0000000000000002E-4</v>
+        <v>3.8941337874035957E-4</v>
       </c>
       <c r="H155" s="12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155" s="12">
         <v>40</v>
@@ -9106,7 +9099,7 @@
       </c>
       <c r="L155" s="10">
         <f>_xll.qlRateHelperLatestDate($E155,Trigger)</f>
-        <v>48960</v>
+        <v>49690</v>
       </c>
     </row>
     <row r="156" spans="2:12" x14ac:dyDescent="0.2">
@@ -9119,11 +9112,11 @@
         <v>1LBASIS</v>
       </c>
       <c r="D156" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E156" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v>USD_YC1MRH_AM1LBASIS21Y</v>
+        <f>'1M_SwapsFromBasis'!L31</f>
+        <v>USD_YC1MRH_AM1LBASIS23Y#0000</v>
       </c>
       <c r="F156" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E156,Trigger)</f>
@@ -9131,7 +9124,7 @@
       </c>
       <c r="G156" s="13">
         <f>_xll.qlSwapRateHelperSpread($E156,Trigger)</f>
-        <v>3.9393070299228766E-4</v>
+        <v>3.8593070299228763E-4</v>
       </c>
       <c r="H156" s="12" t="b">
         <v>0</v>
@@ -9148,7 +9141,7 @@
       </c>
       <c r="L156" s="10">
         <f>_xll.qlRateHelperLatestDate($E156,Trigger)</f>
-        <v>49325</v>
+        <v>50056</v>
       </c>
     </row>
     <row r="157" spans="2:12" x14ac:dyDescent="0.2">
@@ -9161,11 +9154,11 @@
         <v>1LBASIS</v>
       </c>
       <c r="D157" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E157" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v>USD_YC1MRH_AM1LBASIS22Y</v>
+        <f>'1M_SwapsFromBasis'!L32</f>
+        <v>USD_YC1MRH_AM1LBASIS24Y#0000</v>
       </c>
       <c r="F157" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E157,Trigger)</f>
@@ -9173,7 +9166,7 @@
       </c>
       <c r="G157" s="13">
         <f>_xll.qlSwapRateHelperSpread($E157,Trigger)</f>
-        <v>3.8941337874035957E-4</v>
+        <v>3.8296535149614385E-4</v>
       </c>
       <c r="H157" s="12" t="b">
         <v>0</v>
@@ -9190,12 +9183,12 @@
       </c>
       <c r="L157" s="10">
         <f>_xll.qlRateHelperLatestDate($E157,Trigger)</f>
-        <v>49690</v>
+        <v>50423</v>
       </c>
     </row>
     <row r="158" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B158" s="16" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="B158:B167" si="12">SwapFixedFreq</f>
         <v>AM</v>
       </c>
       <c r="C158" s="15" t="str">
@@ -9203,22 +9196,22 @@
         <v>1LBASIS</v>
       </c>
       <c r="D158" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E158" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v>USD_YC1MRH_AM1LBASIS23Y</v>
-      </c>
-      <c r="F158" s="13" t="e">
+        <f>'1M_SwapsFromBasis'!L33</f>
+        <v>USD_YC1MRH_AM1LBASIS25Y#0000</v>
+      </c>
+      <c r="F158" s="13">
         <f>_xll.qlRateHelperQuoteValue($E158,Trigger)</f>
-        <v>#NUM!</v>
+        <v>3.4619999999999998E-2</v>
       </c>
       <c r="G158" s="13">
         <f>_xll.qlSwapRateHelperSpread($E158,Trigger)</f>
-        <v>3.8593070299228763E-4</v>
+        <v>3.7999999999999997E-4</v>
       </c>
       <c r="H158" s="12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I158" s="12">
         <v>40</v>
@@ -9232,12 +9225,12 @@
       </c>
       <c r="L158" s="10">
         <f>_xll.qlRateHelperLatestDate($E158,Trigger)</f>
-        <v>50056</v>
+        <v>50787</v>
       </c>
     </row>
     <row r="159" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B159" s="16" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>AM</v>
       </c>
       <c r="C159" s="15" t="str">
@@ -9245,11 +9238,11 @@
         <v>1LBASIS</v>
       </c>
       <c r="D159" s="14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E159" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v>USD_YC1MRH_AM1LBASIS24Y</v>
+        <f>'1M_SwapsFromBasis'!L34</f>
+        <v>USD_YC1MRH_AM1LBASIS26Y#0000</v>
       </c>
       <c r="F159" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E159,Trigger)</f>
@@ -9257,7 +9250,7 @@
       </c>
       <c r="G159" s="13">
         <f>_xll.qlSwapRateHelperSpread($E159,Trigger)</f>
-        <v>3.8296535149614385E-4</v>
+        <v>3.7662078910231369E-4</v>
       </c>
       <c r="H159" s="12" t="b">
         <v>0</v>
@@ -9274,12 +9267,12 @@
       </c>
       <c r="L159" s="10">
         <f>_xll.qlRateHelperLatestDate($E159,Trigger)</f>
-        <v>50423</v>
+        <v>51151</v>
       </c>
     </row>
     <row r="160" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B160" s="16" t="str">
-        <f t="shared" ref="B160:B169" si="12">SwapFixedFreq</f>
+        <f t="shared" si="12"/>
         <v>AM</v>
       </c>
       <c r="C160" s="15" t="str">
@@ -9287,22 +9280,22 @@
         <v>1LBASIS</v>
       </c>
       <c r="D160" s="14" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E160" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v>USD_YC1MRH_AM1LBASIS25Y</v>
-      </c>
-      <c r="F160" s="13">
+        <f>'1M_SwapsFromBasis'!L35</f>
+        <v>USD_YC1MRH_AM1LBASIS27Y#0000</v>
+      </c>
+      <c r="F160" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E160,Trigger)</f>
-        <v>3.4619999999999998E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="G160" s="13">
         <f>_xll.qlSwapRateHelperSpread($E160,Trigger)</f>
-        <v>3.7999999999999997E-4</v>
+        <v>3.7282771880308492E-4</v>
       </c>
       <c r="H160" s="12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160" s="12">
         <v>40</v>
@@ -9316,7 +9309,7 @@
       </c>
       <c r="L160" s="10">
         <f>_xll.qlRateHelperLatestDate($E160,Trigger)</f>
-        <v>50787</v>
+        <v>51517</v>
       </c>
     </row>
     <row r="161" spans="2:12" x14ac:dyDescent="0.2">
@@ -9329,11 +9322,11 @@
         <v>1LBASIS</v>
       </c>
       <c r="D161" s="14" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E161" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v>USD_YC1MRH_AM1LBASIS26Y</v>
+        <f>'1M_SwapsFromBasis'!L36</f>
+        <v>USD_YC1MRH_AM1LBASIS28Y#0000</v>
       </c>
       <c r="F161" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E161,Trigger)</f>
@@ -9341,7 +9334,7 @@
       </c>
       <c r="G161" s="13">
         <f>_xll.qlSwapRateHelperSpread($E161,Trigger)</f>
-        <v>3.7662078910231369E-4</v>
+        <v>3.6872425395269933E-4</v>
       </c>
       <c r="H161" s="12" t="b">
         <v>0</v>
@@ -9358,7 +9351,7 @@
       </c>
       <c r="L161" s="10">
         <f>_xll.qlRateHelperLatestDate($E161,Trigger)</f>
-        <v>51151</v>
+        <v>51882</v>
       </c>
     </row>
     <row r="162" spans="2:12" x14ac:dyDescent="0.2">
@@ -9371,11 +9364,11 @@
         <v>1LBASIS</v>
       </c>
       <c r="D162" s="14" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E162" s="14" t="str">
-        <f t="shared" ref="E162:E169" si="13">RateHelperPrefix&amp;"_"&amp;$B162&amp;$C162&amp;$D162</f>
-        <v>USD_YC1MRH_AM1LBASIS27Y</v>
+        <f>'1M_SwapsFromBasis'!L37</f>
+        <v>USD_YC1MRH_AM1LBASIS29Y#0000</v>
       </c>
       <c r="F162" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E162,Trigger)</f>
@@ -9383,7 +9376,7 @@
       </c>
       <c r="G162" s="13">
         <f>_xll.qlSwapRateHelperSpread($E162,Trigger)</f>
-        <v>3.7282771880308492E-4</v>
+        <v>3.6441385940154245E-4</v>
       </c>
       <c r="H162" s="12" t="b">
         <v>0</v>
@@ -9400,7 +9393,7 @@
       </c>
       <c r="L162" s="10">
         <f>_xll.qlRateHelperLatestDate($E162,Trigger)</f>
-        <v>51517</v>
+        <v>52247</v>
       </c>
     </row>
     <row r="163" spans="2:12" x14ac:dyDescent="0.2">
@@ -9413,22 +9406,22 @@
         <v>1LBASIS</v>
       </c>
       <c r="D163" s="14" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E163" s="14" t="str">
-        <f t="shared" si="13"/>
-        <v>USD_YC1MRH_AM1LBASIS28Y</v>
-      </c>
-      <c r="F163" s="13" t="e">
+        <f>'1M_SwapsFromBasis'!L38</f>
+        <v>USD_YC1MRH_AM1LBASIS30Y#0000</v>
+      </c>
+      <c r="F163" s="13">
         <f>_xll.qlRateHelperQuoteValue($E163,Trigger)</f>
-        <v>#NUM!</v>
+        <v>3.5220000000000001E-2</v>
       </c>
       <c r="G163" s="13">
         <f>_xll.qlSwapRateHelperSpread($E163,Trigger)</f>
-        <v>3.6872425395269933E-4</v>
+        <v>3.6000000000000002E-4</v>
       </c>
       <c r="H163" s="12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I163" s="12">
         <v>40</v>
@@ -9442,7 +9435,7 @@
       </c>
       <c r="L163" s="10">
         <f>_xll.qlRateHelperLatestDate($E163,Trigger)</f>
-        <v>51882</v>
+        <v>52614</v>
       </c>
     </row>
     <row r="164" spans="2:12" x14ac:dyDescent="0.2">
@@ -9455,11 +9448,11 @@
         <v>1LBASIS</v>
       </c>
       <c r="D164" s="14" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E164" s="14" t="str">
-        <f t="shared" si="13"/>
-        <v>USD_YC1MRH_AM1LBASIS29Y</v>
+        <f>'1M_SwapsFromBasis'!L39</f>
+        <v>USD_YC1MRH_AM1LBASIS35Y#0000</v>
       </c>
       <c r="F164" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E164,Trigger)</f>
@@ -9467,7 +9460,7 @@
       </c>
       <c r="G164" s="13">
         <f>_xll.qlSwapRateHelperSpread($E164,Trigger)</f>
-        <v>3.6441385940154245E-4</v>
+        <v>3.6000000000000002E-4</v>
       </c>
       <c r="H164" s="12" t="b">
         <v>0</v>
@@ -9484,7 +9477,7 @@
       </c>
       <c r="L164" s="10">
         <f>_xll.qlRateHelperLatestDate($E164,Trigger)</f>
-        <v>52247</v>
+        <v>54441</v>
       </c>
     </row>
     <row r="165" spans="2:12" x14ac:dyDescent="0.2">
@@ -9497,15 +9490,15 @@
         <v>1LBASIS</v>
       </c>
       <c r="D165" s="14" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E165" s="14" t="str">
-        <f t="shared" si="13"/>
-        <v>USD_YC1MRH_AM1LBASIS30Y</v>
+        <f>'1M_SwapsFromBasis'!L40</f>
+        <v>USD_YC1MRH_AM1LBASIS40Y#0000</v>
       </c>
       <c r="F165" s="13">
         <f>_xll.qlRateHelperQuoteValue($E165,Trigger)</f>
-        <v>3.5220000000000001E-2</v>
+        <v>3.5369999999999999E-2</v>
       </c>
       <c r="G165" s="13">
         <f>_xll.qlSwapRateHelperSpread($E165,Trigger)</f>
@@ -9526,7 +9519,7 @@
       </c>
       <c r="L165" s="10">
         <f>_xll.qlRateHelperLatestDate($E165,Trigger)</f>
-        <v>52614</v>
+        <v>56265</v>
       </c>
     </row>
     <row r="166" spans="2:12" x14ac:dyDescent="0.2">
@@ -9539,22 +9532,22 @@
         <v>1LBASIS</v>
       </c>
       <c r="D166" s="14" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E166" s="14" t="str">
-        <f t="shared" si="13"/>
-        <v>USD_YC1MRH_AM1LBASIS35Y</v>
-      </c>
-      <c r="F166" s="13" t="e">
+        <f>'1M_SwapsFromBasis'!L41</f>
+        <v>USD_YC1MRH_AM1LBASIS50Y#0000</v>
+      </c>
+      <c r="F166" s="13">
         <f>_xll.qlRateHelperQuoteValue($E166,Trigger)</f>
-        <v>#NUM!</v>
+        <v>3.524E-2</v>
       </c>
       <c r="G166" s="13">
         <f>_xll.qlSwapRateHelperSpread($E166,Trigger)</f>
         <v>3.6000000000000002E-4</v>
       </c>
       <c r="H166" s="12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I166" s="12">
         <v>40</v>
@@ -9568,132 +9561,48 @@
       </c>
       <c r="L166" s="10">
         <f>_xll.qlRateHelperLatestDate($E166,Trigger)</f>
-        <v>54441</v>
+        <v>59917</v>
       </c>
     </row>
     <row r="167" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B167" s="16" t="str">
+      <c r="B167" s="9" t="str">
         <f t="shared" si="12"/>
         <v>AM</v>
       </c>
-      <c r="C167" s="15" t="str">
+      <c r="C167" s="8" t="str">
         <f t="shared" si="11"/>
         <v>1LBASIS</v>
       </c>
-      <c r="D167" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="E167" s="14" t="str">
-        <f t="shared" si="13"/>
-        <v>USD_YC1MRH_AM1LBASIS40Y</v>
-      </c>
-      <c r="F167" s="13">
+      <c r="D167" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E167" s="7" t="str">
+        <f>'1M_SwapsFromBasis'!L42</f>
+        <v>USD_YC1MRH_AM1LBASIS60Y#0000</v>
+      </c>
+      <c r="F167" s="6" t="e">
         <f>_xll.qlRateHelperQuoteValue($E167,Trigger)</f>
-        <v>3.5369999999999999E-2</v>
-      </c>
-      <c r="G167" s="13">
+        <v>#NUM!</v>
+      </c>
+      <c r="G167" s="6">
         <f>_xll.qlSwapRateHelperSpread($E167,Trigger)</f>
         <v>3.6000000000000002E-4</v>
       </c>
-      <c r="H167" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I167" s="12">
+      <c r="H167" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I167" s="5">
         <v>40</v>
       </c>
-      <c r="J167" s="12">
-        <v>1</v>
-      </c>
-      <c r="K167" s="11">
+      <c r="J167" s="5">
+        <v>1</v>
+      </c>
+      <c r="K167" s="4">
         <f>_xll.qlRateHelperEarliestDate($E167,Trigger)</f>
         <v>41655</v>
       </c>
-      <c r="L167" s="10">
+      <c r="L167" s="3">
         <f>_xll.qlRateHelperLatestDate($E167,Trigger)</f>
-        <v>56265</v>
-      </c>
-    </row>
-    <row r="168" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B168" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v>AM</v>
-      </c>
-      <c r="C168" s="15" t="str">
-        <f t="shared" si="11"/>
-        <v>1LBASIS</v>
-      </c>
-      <c r="D168" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="E168" s="14" t="str">
-        <f t="shared" si="13"/>
-        <v>USD_YC1MRH_AM1LBASIS50Y</v>
-      </c>
-      <c r="F168" s="13">
-        <f>_xll.qlRateHelperQuoteValue($E168,Trigger)</f>
-        <v>3.524E-2</v>
-      </c>
-      <c r="G168" s="13">
-        <f>_xll.qlSwapRateHelperSpread($E168,Trigger)</f>
-        <v>3.6000000000000002E-4</v>
-      </c>
-      <c r="H168" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I168" s="12">
-        <v>40</v>
-      </c>
-      <c r="J168" s="12">
-        <v>1</v>
-      </c>
-      <c r="K168" s="11">
-        <f>_xll.qlRateHelperEarliestDate($E168,Trigger)</f>
-        <v>41655</v>
-      </c>
-      <c r="L168" s="10">
-        <f>_xll.qlRateHelperLatestDate($E168,Trigger)</f>
-        <v>59917</v>
-      </c>
-    </row>
-    <row r="169" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B169" s="9" t="str">
-        <f t="shared" si="12"/>
-        <v>AM</v>
-      </c>
-      <c r="C169" s="8" t="str">
-        <f t="shared" si="11"/>
-        <v>1LBASIS</v>
-      </c>
-      <c r="D169" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E169" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v>USD_YC1MRH_AM1LBASIS60Y</v>
-      </c>
-      <c r="F169" s="6" t="e">
-        <f>_xll.qlRateHelperQuoteValue($E169,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G169" s="6">
-        <f>_xll.qlSwapRateHelperSpread($E169,Trigger)</f>
-        <v>3.6000000000000002E-4</v>
-      </c>
-      <c r="H169" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I169" s="5">
-        <v>40</v>
-      </c>
-      <c r="J169" s="5">
-        <v>1</v>
-      </c>
-      <c r="K169" s="4">
-        <f>_xll.qlRateHelperEarliestDate($E169,Trigger)</f>
-        <v>41655</v>
-      </c>
-      <c r="L169" s="3">
-        <f>_xll.qlRateHelperLatestDate($E169,Trigger)</f>
         <v>63570</v>
       </c>
     </row>
@@ -9714,7 +9623,7 @@
   <dimension ref="A1:L126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -9733,22 +9642,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="167" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1" s="168"/>
+      <c r="A1" s="178" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="179"/>
       <c r="D1" s="53" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E1" s="52" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F1" s="52"/>
       <c r="G1" s="52" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H1" s="51" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I1" s="34">
         <f t="array" ref="I1:I126">_xll.qlPiecewiseYieldCurveData(YieldCurve)</f>
@@ -9757,7 +9666,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="50" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B2" s="49">
         <v>8</v>
@@ -9786,7 +9695,7 @@
         <v>0.99991400322400692</v>
       </c>
       <c r="K2" s="32" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="L2" s="91">
         <v>1.939E-3</v>
@@ -9794,7 +9703,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="46" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B3" s="48">
         <v>0</v>
@@ -9822,7 +9731,7 @@
         <v>0.99987638196006834</v>
       </c>
       <c r="K3" s="32" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="L3" s="91">
         <v>1.923E-3</v>
@@ -9830,7 +9739,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="46" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B4" s="48">
         <v>1</v>
@@ -9858,7 +9767,7 @@
         <v>0.99981726569085139</v>
       </c>
       <c r="K4" s="32" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="L4" s="91">
         <v>1.915E-3</v>
@@ -9866,10 +9775,10 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="46" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B5" s="47" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D5" s="42" t="str">
         <v>USD_YC1MRH_2X1S</v>
@@ -9894,7 +9803,7 @@
         <v>0.99971680368575544</v>
       </c>
       <c r="K5" s="32" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="L5" s="91">
         <v>1.9300000000000001E-3</v>
@@ -9902,7 +9811,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="46" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B6" s="45" t="str">
         <f>_xll.ohRangeRetrieveError(Selected!D2)</f>
@@ -9931,7 +9840,7 @@
         <v>0.99952980200446162</v>
       </c>
       <c r="K6" s="32" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="L6" s="91">
         <v>1.9499999999999999E-3</v>
@@ -9969,7 +9878,7 @@
         <v>0.99937652437718383</v>
       </c>
       <c r="K7" s="32" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="L7" s="91">
         <v>1.98E-3</v>
@@ -9999,7 +9908,7 @@
         <v>0.99921816218901693</v>
       </c>
       <c r="K8" s="32" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="L8" s="91">
         <v>2.0200000000000001E-3</v>
@@ -10029,7 +9938,7 @@
         <v>0.9990649323516213</v>
       </c>
       <c r="K9" s="32" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="L9" s="91">
         <v>2.0600000000000002E-3</v>
@@ -10059,7 +9968,7 @@
         <v>0.99884640667025337</v>
       </c>
       <c r="K10" s="32" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="L10" s="91">
         <v>2.1099999999999999E-3</v>
@@ -10089,7 +9998,7 @@
         <v>0.99869162744666939</v>
       </c>
       <c r="K11" s="32" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="L11" s="91">
         <v>2.1700000000000001E-3</v>
@@ -10119,7 +10028,7 @@
         <v>0.99847233586809003</v>
       </c>
       <c r="K12" s="32" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="L12" s="91">
         <v>2.2200000000000002E-3</v>
@@ -10149,7 +10058,7 @@
         <v>0.99824323640024781</v>
       </c>
       <c r="K13" s="32" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="L13" s="91">
         <v>2.2899999999999999E-3</v>
@@ -10179,7 +10088,7 @@
         <v>0.99802155328735542</v>
       </c>
       <c r="K14" s="32" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="L14" s="91">
         <v>2.3700000000000001E-3</v>
@@ -10209,7 +10118,7 @@
         <v>0.99776976245645943</v>
       </c>
       <c r="K15" s="32" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="L15" s="91">
         <v>2.4399999999999999E-3</v>
@@ -10239,7 +10148,7 @@
         <v>0.99288802434444912</v>
       </c>
       <c r="K16" s="32" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="L16" s="91">
         <v>4.7000000000000002E-3</v>
@@ -10269,7 +10178,7 @@
         <v>0.98165589335840386</v>
       </c>
       <c r="K17" s="32" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="L17" s="91">
         <v>7.4000000000000003E-3</v>
@@ -10299,7 +10208,7 @@
         <v>0.96156638119888482</v>
       </c>
       <c r="K18" s="32" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="L18" s="91">
         <v>1.0999999999999999E-2</v>
@@ -10329,7 +10238,7 @@
         <v>0.93452379034699762</v>
       </c>
       <c r="K19" s="32" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="L19" s="91">
         <v>1.469E-2</v>
@@ -10359,7 +10268,7 @@
         <v>0.90290040890465406</v>
       </c>
       <c r="K20" s="32" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="L20" s="91">
         <v>1.7999999999999999E-2</v>
@@ -10389,7 +10298,7 @@
         <v>0.8692886606783482</v>
       </c>
       <c r="K21" s="32" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="L21" s="91">
         <v>2.0830000000000001E-2</v>
@@ -10419,7 +10328,7 @@
         <v>0.83494581710910221</v>
       </c>
       <c r="K22" s="32" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="L22" s="91">
         <v>2.3140000000000001E-2</v>
@@ -10449,7 +10358,7 @@
         <v>0.800628853171655</v>
       </c>
       <c r="K23" s="32" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="L23" s="91">
         <v>2.5100000000000001E-2</v>
@@ -10479,7 +10388,7 @@
         <v>0.76666899883923545</v>
       </c>
       <c r="K24" s="32" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="L24" s="91">
         <v>2.6790000000000001E-2</v>
@@ -10509,7 +10418,7 @@
         <v>0.70083137895643888</v>
       </c>
       <c r="K25" s="32" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="L25" s="91">
         <v>2.947E-2</v>
@@ -10539,7 +10448,7 @@
         <v>0.61256566726357886</v>
       </c>
       <c r="K26" s="32" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="L26" s="91">
         <v>3.2009999999999997E-2</v>
@@ -10569,7 +10478,7 @@
         <v>0.4932294553672274</v>
       </c>
       <c r="K27" s="32" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="L27" s="91">
         <v>3.4000000000000002E-2</v>
@@ -10599,7 +10508,7 @@
         <v>0.40009620732850348</v>
       </c>
       <c r="K28" s="32" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="L28" s="91">
         <v>3.4959999999999998E-2</v>
@@ -10629,7 +10538,7 @@
         <v>0.32650743927244069</v>
       </c>
       <c r="K29" s="32" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="L29" s="91">
         <v>3.5490000000000001E-2</v>
@@ -10659,7 +10568,7 @@
         <v>0.22832117793158843</v>
       </c>
       <c r="K30" s="32" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="L30" s="91">
         <v>3.5619999999999999E-2</v>
@@ -10689,7 +10598,7 @@
         <v>0.16369286633781341</v>
       </c>
       <c r="K31" s="32" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="L31" s="91">
         <v>3.5459999999999998E-2</v>
@@ -13015,12 +12924,12 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="112" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B1" s="111"/>
       <c r="C1" s="111"/>
       <c r="D1" s="12" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E1" s="110" t="str">
         <f>Currency&amp;"_YC"&amp;$D$1&amp;"RH"</f>
@@ -13032,10 +12941,10 @@
       <c r="A2" s="103"/>
       <c r="B2" s="109"/>
       <c r="C2" s="109" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D2" s="109" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E2" s="108" t="str">
         <f>$E$1&amp;"_Deposits.xml"</f>
@@ -13054,7 +12963,7 @@
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="103"/>
       <c r="B3" s="105" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C3" s="101"/>
       <c r="D3" s="100" t="str">
@@ -13067,7 +12976,7 @@
       </c>
       <c r="F3" s="104" t="str">
         <f>_xll.qlDepositRateHelper2(E3,D3,"1d",2,"target","following",FALSE,"act/360",Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_SND#0008</v>
+        <v>USD_YC1MRH_SND#0000</v>
       </c>
       <c r="G3" s="97" t="str">
         <f>_xll.ohRangeRetrieveError(F3)</f>
@@ -13082,7 +12991,7 @@
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="103"/>
       <c r="B4" s="102" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C4" s="101" t="str">
         <f>PROPER(Currency)&amp;FamilyName&amp;$B4</f>
@@ -13098,7 +13007,7 @@
       </c>
       <c r="F4" s="98" t="str">
         <f>_xll.qlDepositRateHelper(E4,D4,C4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_SWD#0008</v>
+        <v>USD_YC1MRH_SWD#0000</v>
       </c>
       <c r="G4" s="97" t="str">
         <f>_xll.ohRangeRetrieveError(F4)</f>
@@ -13109,7 +13018,7 @@
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="103"/>
       <c r="B5" s="102" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C5" s="101" t="str">
         <f>PROPER(Currency)&amp;FamilyName&amp;$B5</f>
@@ -13125,7 +13034,7 @@
       </c>
       <c r="F5" s="98" t="str">
         <f>_xll.qlDepositRateHelper(E5,D5,C5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_2WD#0008</v>
+        <v>USD_YC1MRH_2WD#0000</v>
       </c>
       <c r="G5" s="97" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -13136,7 +13045,7 @@
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="103"/>
       <c r="B6" s="102" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C6" s="101" t="str">
         <f>PROPER(Currency)&amp;FamilyName&amp;$B6</f>
@@ -13152,7 +13061,7 @@
       </c>
       <c r="F6" s="98" t="str">
         <f>_xll.qlDepositRateHelper(E6,D6,C6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_3WD#0008</v>
+        <v>USD_YC1MRH_3WD#0000</v>
       </c>
       <c r="G6" s="97" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -13163,7 +13072,7 @@
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="103"/>
       <c r="B7" s="102" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C7" s="101" t="str">
         <f>PROPER(Currency)&amp;FamilyName&amp;$B7</f>
@@ -13179,7 +13088,7 @@
       </c>
       <c r="F7" s="98" t="str">
         <f>_xll.qlDepositRateHelper(E7,D7,C7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_1MD#0008</v>
+        <v>USD_YC1MRH_1MD#0000</v>
       </c>
       <c r="G7" s="97" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -13209,7 +13118,9 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -13232,7 +13143,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="163" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B1" s="150"/>
       <c r="C1" s="150"/>
@@ -13259,7 +13170,7 @@
       <c r="H2" s="111"/>
       <c r="I2" s="111"/>
       <c r="J2" s="12" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="K2" s="12" t="str">
         <f>Currency&amp;"_YC"&amp;$J$2&amp;"RH"</f>
@@ -13275,39 +13186,39 @@
     <row r="3" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="103"/>
       <c r="B3" s="109" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C3" s="109" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D3" s="109"/>
       <c r="E3" s="109"/>
       <c r="F3" s="109" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G3" s="109" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H3" s="109" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="I3" s="109" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="J3" s="109" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="K3" s="148" t="str">
         <f>K2&amp;"_Swaps.xml"</f>
         <v>USD_YC1MRH_Swaps.xml</v>
       </c>
-      <c r="L3" s="147" t="e">
+      <c r="L3" s="147">
         <f ca="1">IF(Serialize,_xll.ohObjectSave(L4:L16,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
+        <v>12</v>
       </c>
       <c r="M3" s="106" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
-        <v>ohObjectSave - operToVectorImpl: error converting parameter 'ObjectList' to type 'class std::basic_string&lt;char,struct std::char_traits&lt;char&gt;,class std::allocator&lt;char&gt; &gt;' : Unable to convert type 'struct ObjectHandler::empty_property_tag' to type 'class s</v>
+        <v/>
       </c>
       <c r="N3" s="134"/>
     </row>
@@ -13328,7 +13239,7 @@
       </c>
       <c r="L4" s="145" t="str">
         <f>IF(UPPER(FamilyName)="IBOR",_xll.qlEuribor($K4,$J$2,,Permanent,Trigger,ObjectOverwrite),IF(UPPER(FamilyName)="LIBOR",_xll.qlLibor($K4,Currency,$J$2,,Permanent,Trigger,ObjectOverwrite),"--"))</f>
-        <v>USD_YC1MRH_xX1S_Libor1M#0008</v>
+        <v>USD_YC1MRH_xX1S_Libor1M#0000</v>
       </c>
       <c r="M4" s="144" t="str">
         <f>_xll.ohRangeRetrieveError(L4)</f>
@@ -13355,10 +13266,10 @@
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="103"/>
       <c r="B6" s="143" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C6" s="143" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D6" s="143">
         <v>2</v>
@@ -13367,10 +13278,10 @@
         <v>41</v>
       </c>
       <c r="F6" s="142" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G6" s="142" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H6" s="142" t="str">
         <f t="shared" ref="H6:H16" si="0">MoneyMarketDayCounter</f>
@@ -13387,12 +13298,12 @@
         <f t="shared" ref="K6:K16" si="2">$K$2&amp;"_"&amp;$D6&amp;$E6</f>
         <v>USD_YC1MRH_2X1S</v>
       </c>
-      <c r="L6" s="137" t="e">
+      <c r="L6" s="137" t="str">
         <f>_xll.qlSwapRateHelper2(K6,$J6,$C6,Calendar,$F6,$G6,$H6,$L$4,$I6,B6,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>#VALUE!</v>
+        <v>USD_YC1MRH_2X1S#0000</v>
       </c>
       <c r="M6" s="106" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(L6)</f>
+        <f>_xll.ohRangeRetrieveError(L6)</f>
         <v/>
       </c>
       <c r="N6" s="134"/>
@@ -13400,10 +13311,10 @@
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="103"/>
       <c r="B7" s="143" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C7" s="143" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D7" s="143">
         <v>3</v>
@@ -13412,10 +13323,10 @@
         <v>41</v>
       </c>
       <c r="F7" s="142" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G7" s="142" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H7" s="141" t="str">
         <f t="shared" si="0"/>
@@ -13432,12 +13343,12 @@
         <f t="shared" si="2"/>
         <v>USD_YC1MRH_3X1S</v>
       </c>
-      <c r="L7" s="137" t="e">
+      <c r="L7" s="137" t="str">
         <f>_xll.qlSwapRateHelper2(K7,$J7,$C7,Calendar,$F7,$G7,$H7,$L$4,$I7,B7,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>#VALUE!</v>
+        <v>USD_YC1MRH_3X1S#0000</v>
       </c>
       <c r="M7" s="106" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(L7)</f>
+        <f>_xll.ohRangeRetrieveError(L7)</f>
         <v/>
       </c>
       <c r="N7" s="134"/>
@@ -13445,10 +13356,10 @@
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="103"/>
       <c r="B8" s="143" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C8" s="143" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D8" s="143">
         <v>4</v>
@@ -13457,10 +13368,10 @@
         <v>41</v>
       </c>
       <c r="F8" s="142" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G8" s="142" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H8" s="141" t="str">
         <f t="shared" si="0"/>
@@ -13477,12 +13388,12 @@
         <f t="shared" si="2"/>
         <v>USD_YC1MRH_4X1S</v>
       </c>
-      <c r="L8" s="137" t="e">
+      <c r="L8" s="137" t="str">
         <f>_xll.qlSwapRateHelper2(K8,$J8,$C8,Calendar,$F8,$G8,$H8,$L$4,$I8,B8,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>#VALUE!</v>
+        <v>USD_YC1MRH_4X1S#0000</v>
       </c>
       <c r="M8" s="106" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(L8)</f>
+        <f>_xll.ohRangeRetrieveError(L8)</f>
         <v/>
       </c>
       <c r="N8" s="134"/>
@@ -13490,10 +13401,10 @@
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="103"/>
       <c r="B9" s="143" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C9" s="143" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D9" s="143">
         <v>5</v>
@@ -13502,10 +13413,10 @@
         <v>41</v>
       </c>
       <c r="F9" s="142" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G9" s="142" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H9" s="141" t="str">
         <f t="shared" si="0"/>
@@ -13522,12 +13433,12 @@
         <f t="shared" si="2"/>
         <v>USD_YC1MRH_5X1S</v>
       </c>
-      <c r="L9" s="137" t="e">
+      <c r="L9" s="137" t="str">
         <f>_xll.qlSwapRateHelper2(K9,$J9,$C9,Calendar,$F9,$G9,$H9,$L$4,$I9,B9,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>#VALUE!</v>
+        <v>USD_YC1MRH_5X1S#0000</v>
       </c>
       <c r="M9" s="106" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(L9)</f>
+        <f>_xll.ohRangeRetrieveError(L9)</f>
         <v/>
       </c>
       <c r="N9" s="134"/>
@@ -13535,10 +13446,10 @@
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="103"/>
       <c r="B10" s="143" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C10" s="143" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D10" s="143">
         <v>6</v>
@@ -13547,10 +13458,10 @@
         <v>41</v>
       </c>
       <c r="F10" s="142" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G10" s="142" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H10" s="141" t="str">
         <f t="shared" si="0"/>
@@ -13567,12 +13478,12 @@
         <f t="shared" si="2"/>
         <v>USD_YC1MRH_6X1S</v>
       </c>
-      <c r="L10" s="137" t="e">
+      <c r="L10" s="137" t="str">
         <f>_xll.qlSwapRateHelper2(K10,$J10,$C10,Calendar,$F10,$G10,$H10,$L$4,$I10,B10,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>#VALUE!</v>
+        <v>USD_YC1MRH_6X1S#0000</v>
       </c>
       <c r="M10" s="106" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(L10)</f>
+        <f>_xll.ohRangeRetrieveError(L10)</f>
         <v/>
       </c>
       <c r="N10" s="134"/>
@@ -13580,10 +13491,10 @@
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="103"/>
       <c r="B11" s="143" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C11" s="143" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D11" s="143">
         <v>7</v>
@@ -13592,10 +13503,10 @@
         <v>41</v>
       </c>
       <c r="F11" s="142" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G11" s="142" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H11" s="141" t="str">
         <f t="shared" si="0"/>
@@ -13612,12 +13523,12 @@
         <f t="shared" si="2"/>
         <v>USD_YC1MRH_7X1S</v>
       </c>
-      <c r="L11" s="137" t="e">
+      <c r="L11" s="137" t="str">
         <f>_xll.qlSwapRateHelper2(K11,$J11,$C11,Calendar,$F11,$G11,$H11,$L$4,$I11,B11,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>#VALUE!</v>
+        <v>USD_YC1MRH_7X1S#0000</v>
       </c>
       <c r="M11" s="106" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(L11)</f>
+        <f>_xll.ohRangeRetrieveError(L11)</f>
         <v/>
       </c>
       <c r="N11" s="134"/>
@@ -13625,10 +13536,10 @@
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="103"/>
       <c r="B12" s="143" t="s">
+        <v>162</v>
+      </c>
+      <c r="C12" s="143" t="s">
         <v>166</v>
-      </c>
-      <c r="C12" s="143" t="s">
-        <v>170</v>
       </c>
       <c r="D12" s="143">
         <v>8</v>
@@ -13637,10 +13548,10 @@
         <v>41</v>
       </c>
       <c r="F12" s="142" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G12" s="142" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H12" s="141" t="str">
         <f t="shared" si="0"/>
@@ -13657,12 +13568,12 @@
         <f t="shared" si="2"/>
         <v>USD_YC1MRH_8X1S</v>
       </c>
-      <c r="L12" s="137" t="e">
+      <c r="L12" s="137" t="str">
         <f>_xll.qlSwapRateHelper2(K12,$J12,$C12,Calendar,$F12,$G12,$H12,$L$4,$I12,B12,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>#VALUE!</v>
+        <v>USD_YC1MRH_8X1S#0000</v>
       </c>
       <c r="M12" s="106" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(L12)</f>
+        <f>_xll.ohRangeRetrieveError(L12)</f>
         <v/>
       </c>
       <c r="N12" s="134"/>
@@ -13670,10 +13581,10 @@
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="103"/>
       <c r="B13" s="143" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C13" s="143" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D13" s="143">
         <v>9</v>
@@ -13682,10 +13593,10 @@
         <v>41</v>
       </c>
       <c r="F13" s="142" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G13" s="142" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H13" s="141" t="str">
         <f t="shared" si="0"/>
@@ -13702,12 +13613,12 @@
         <f t="shared" si="2"/>
         <v>USD_YC1MRH_9X1S</v>
       </c>
-      <c r="L13" s="137" t="e">
+      <c r="L13" s="137" t="str">
         <f>_xll.qlSwapRateHelper2(K13,$J13,$C13,Calendar,$F13,$G13,$H13,$L$4,$I13,B13,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>#VALUE!</v>
+        <v>USD_YC1MRH_9X1S#0000</v>
       </c>
       <c r="M13" s="106" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(L13)</f>
+        <f>_xll.ohRangeRetrieveError(L13)</f>
         <v/>
       </c>
       <c r="N13" s="134"/>
@@ -13715,10 +13626,10 @@
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="103"/>
       <c r="B14" s="143" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C14" s="143" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D14" s="143">
         <v>10</v>
@@ -13727,10 +13638,10 @@
         <v>41</v>
       </c>
       <c r="F14" s="142" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G14" s="142" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H14" s="141" t="str">
         <f t="shared" si="0"/>
@@ -13747,12 +13658,12 @@
         <f t="shared" si="2"/>
         <v>USD_YC1MRH_10X1S</v>
       </c>
-      <c r="L14" s="137" t="e">
+      <c r="L14" s="137" t="str">
         <f>_xll.qlSwapRateHelper2(K14,$J14,$C14,Calendar,$F14,$G14,$H14,$L$4,$I14,B14,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>#VALUE!</v>
+        <v>USD_YC1MRH_10X1S#0000</v>
       </c>
       <c r="M14" s="106" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(L14)</f>
+        <f>_xll.ohRangeRetrieveError(L14)</f>
         <v/>
       </c>
       <c r="N14" s="134"/>
@@ -13760,10 +13671,10 @@
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="103"/>
       <c r="B15" s="143" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C15" s="143" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D15" s="143">
         <v>11</v>
@@ -13772,10 +13683,10 @@
         <v>41</v>
       </c>
       <c r="F15" s="142" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G15" s="142" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H15" s="141" t="str">
         <f t="shared" si="0"/>
@@ -13792,12 +13703,12 @@
         <f t="shared" si="2"/>
         <v>USD_YC1MRH_11X1S</v>
       </c>
-      <c r="L15" s="137" t="e">
+      <c r="L15" s="137" t="str">
         <f>_xll.qlSwapRateHelper2(K15,$J15,$C15,Calendar,$F15,$G15,$H15,$L$4,$I15,B15,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>#VALUE!</v>
+        <v>USD_YC1MRH_11X1S#0000</v>
       </c>
       <c r="M15" s="106" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(L15)</f>
+        <f>_xll.ohRangeRetrieveError(L15)</f>
         <v/>
       </c>
       <c r="N15" s="134"/>
@@ -13805,10 +13716,10 @@
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="103"/>
       <c r="B16" s="143" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C16" s="143" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D16" s="143">
         <v>12</v>
@@ -13817,10 +13728,10 @@
         <v>41</v>
       </c>
       <c r="F16" s="142" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G16" s="142" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H16" s="141" t="str">
         <f t="shared" si="0"/>
@@ -13837,12 +13748,12 @@
         <f t="shared" si="2"/>
         <v>USD_YC1MRH_12X1S</v>
       </c>
-      <c r="L16" s="137" t="e">
+      <c r="L16" s="137" t="str">
         <f>_xll.qlSwapRateHelper2(K16,$J16,$C16,Calendar,$F16,$G16,$H16,$L$4,$I16,B16,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>#VALUE!</v>
+        <v>USD_YC1MRH_12X1S#0000</v>
       </c>
       <c r="M16" s="106" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(L16)</f>
+        <f>_xll.ohRangeRetrieveError(L16)</f>
         <v/>
       </c>
       <c r="N16" s="134"/>
@@ -13926,7 +13837,7 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="163" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B1" s="150"/>
       <c r="C1" s="150"/>
@@ -13952,10 +13863,10 @@
       <c r="G2" s="111"/>
       <c r="H2" s="111"/>
       <c r="I2" s="12" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="K2" s="12" t="str">
         <f>Currency&amp;"_YC"&amp;$J$2&amp;"RH"</f>
@@ -13971,25 +13882,25 @@
     <row r="3" spans="1:18" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A3" s="103"/>
       <c r="B3" s="109" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C3" s="109"/>
       <c r="D3" s="109"/>
       <c r="E3" s="109"/>
       <c r="F3" s="109" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G3" s="109" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H3" s="109" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="I3" s="109" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="J3" s="109" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="K3" s="148" t="str">
         <f>K2&amp;"_SwapsFromBasis.xml"</f>
@@ -14022,7 +13933,7 @@
       </c>
       <c r="L4" s="145" t="str">
         <f>IF(UPPER(FamilyName)="IBOR",_xll.qlEuribor($K4,$J$2,,Permanent,Trigger,ObjectOverwrite),IF(UPPER(FamilyName)="LIBOR",_xll.qlLibor($K4,Currency,$J$2,,Permanent,Trigger,ObjectOverwrite),"--"))</f>
-        <v>USD_YC1MRH_AM1LBASIS_Libor1M#0008</v>
+        <v>USD_YC1MRH_AM1LBASIS_Libor1M#0000</v>
       </c>
       <c r="M4" s="144" t="str">
         <f>_xll.ohRangeRetrieveError(L4)</f>
@@ -14049,7 +13960,7 @@
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="103"/>
       <c r="B6" s="162" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C6" s="143" t="s">
         <v>36</v>
@@ -14067,7 +13978,7 @@
         <v>Annual</v>
       </c>
       <c r="G6" s="142" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H6" s="142" t="str">
         <f t="shared" ref="H6:H42" si="1">IF(UPPER(RIGHT($D6))="B",BondBasisDayCounter,IF(UPPER(RIGHT($D6))="M",MoneyMarketDayCounter,"--"))</f>
@@ -14087,7 +13998,7 @@
       </c>
       <c r="L6" s="137" t="str">
         <f>_xll.qlSwapRateHelper2(K6,$J6,$C6,Calendar,$F6,$G6,$H6,$L$4,$I6,B6,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_AM1LBASIS1Y#0008</v>
+        <v>USD_YC1MRH_AM1LBASIS1Y#0000</v>
       </c>
       <c r="M6" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(L6)</f>
@@ -14117,7 +14028,7 @@
         <v>Annual</v>
       </c>
       <c r="G7" s="141" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H7" s="141" t="str">
         <f t="shared" si="1"/>
@@ -14137,7 +14048,7 @@
       </c>
       <c r="L7" s="137" t="str">
         <f>_xll.qlSwapRateHelper2(K7,$J7,$C7,Calendar,$F7,$G7,$H7,$L$4,$I7,B7,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_AM1LBASIS15M#0008</v>
+        <v>USD_YC1MRH_AM1LBASIS15M#0000</v>
       </c>
       <c r="M7" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(L7)</f>
@@ -14167,7 +14078,7 @@
         <v>Annual</v>
       </c>
       <c r="G8" s="141" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H8" s="141" t="str">
         <f t="shared" si="1"/>
@@ -14187,7 +14098,7 @@
       </c>
       <c r="L8" s="137" t="str">
         <f>_xll.qlSwapRateHelper2(K8,$J8,$C8,Calendar,$F8,$G8,$H8,$L$4,$I8,B8,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_AM1LBASIS18M#0008</v>
+        <v>USD_YC1MRH_AM1LBASIS18M#0000</v>
       </c>
       <c r="M8" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(L8)</f>
@@ -14217,7 +14128,7 @@
         <v>Annual</v>
       </c>
       <c r="G9" s="141" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H9" s="141" t="str">
         <f t="shared" si="1"/>
@@ -14237,7 +14148,7 @@
       </c>
       <c r="L9" s="137" t="str">
         <f>_xll.qlSwapRateHelper2(K9,$J9,$C9,Calendar,$F9,$G9,$H9,$L$4,$I9,B9,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_AM1LBASIS21M#0008</v>
+        <v>USD_YC1MRH_AM1LBASIS21M#0000</v>
       </c>
       <c r="M9" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(L9)</f>
@@ -14267,7 +14178,7 @@
         <v>Annual</v>
       </c>
       <c r="G10" s="141" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H10" s="141" t="str">
         <f t="shared" si="1"/>
@@ -14287,7 +14198,7 @@
       </c>
       <c r="L10" s="137" t="str">
         <f>_xll.qlSwapRateHelper2(K10,$J10,$C10,Calendar,$F10,$G10,$H10,$L$4,$I10,B10,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_AM1LBASIS2Y#0008</v>
+        <v>USD_YC1MRH_AM1LBASIS2Y#0000</v>
       </c>
       <c r="M10" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(L10)</f>
@@ -14295,13 +14206,13 @@
       </c>
       <c r="N10" s="134"/>
       <c r="P10" s="161" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="Q10" s="160" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="R10" s="159" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
@@ -14326,7 +14237,7 @@
         <v>Annual</v>
       </c>
       <c r="G11" s="141" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H11" s="141" t="str">
         <f t="shared" si="1"/>
@@ -14346,7 +14257,7 @@
       </c>
       <c r="L11" s="137" t="str">
         <f>_xll.qlSwapRateHelper2(K11,$J11,$C11,Calendar,$F11,$G11,$H11,$L$4,$I11,B11,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_AM1LBASIS3Y#0008</v>
+        <v>USD_YC1MRH_AM1LBASIS3Y#0000</v>
       </c>
       <c r="M11" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(L11)</f>
@@ -14354,13 +14265,13 @@
       </c>
       <c r="N11" s="134"/>
       <c r="P11" s="158" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="Q11" s="153" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="R11" s="157" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
@@ -14385,7 +14296,7 @@
         <v>Annual</v>
       </c>
       <c r="G12" s="141" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H12" s="141" t="str">
         <f t="shared" si="1"/>
@@ -14405,7 +14316,7 @@
       </c>
       <c r="L12" s="137" t="str">
         <f>_xll.qlSwapRateHelper2(K12,$J12,$C12,Calendar,$F12,$G12,$H12,$L$4,$I12,B12,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_AM1LBASIS4Y#0008</v>
+        <v>USD_YC1MRH_AM1LBASIS4Y#0000</v>
       </c>
       <c r="M12" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(L12)</f>
@@ -14413,13 +14324,13 @@
       </c>
       <c r="N12" s="134"/>
       <c r="P12" s="158" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="Q12" s="153" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="R12" s="157" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
@@ -14444,7 +14355,7 @@
         <v>Annual</v>
       </c>
       <c r="G13" s="141" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H13" s="141" t="str">
         <f t="shared" si="1"/>
@@ -14464,7 +14375,7 @@
       </c>
       <c r="L13" s="137" t="str">
         <f>_xll.qlSwapRateHelper2(K13,$J13,$C13,Calendar,$F13,$G13,$H13,$L$4,$I13,B13,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_AM1LBASIS5Y#0008</v>
+        <v>USD_YC1MRH_AM1LBASIS5Y#0000</v>
       </c>
       <c r="M13" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(L13)</f>
@@ -14472,13 +14383,13 @@
       </c>
       <c r="N13" s="134"/>
       <c r="P13" s="158" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="Q13" s="153" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="R13" s="157" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="12" thickBot="1" x14ac:dyDescent="0.25">
@@ -14503,7 +14414,7 @@
         <v>Annual</v>
       </c>
       <c r="G14" s="141" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H14" s="141" t="str">
         <f t="shared" si="1"/>
@@ -14523,7 +14434,7 @@
       </c>
       <c r="L14" s="137" t="str">
         <f>_xll.qlSwapRateHelper2(K14,$J14,$C14,Calendar,$F14,$G14,$H14,$L$4,$I14,B14,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_AM1LBASIS6Y#0008</v>
+        <v>USD_YC1MRH_AM1LBASIS6Y#0000</v>
       </c>
       <c r="M14" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(L14)</f>
@@ -14531,13 +14442,13 @@
       </c>
       <c r="N14" s="134"/>
       <c r="P14" s="156" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="Q14" s="155" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="R14" s="154" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
@@ -14562,7 +14473,7 @@
         <v>Annual</v>
       </c>
       <c r="G15" s="141" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H15" s="141" t="str">
         <f t="shared" si="1"/>
@@ -14582,7 +14493,7 @@
       </c>
       <c r="L15" s="137" t="str">
         <f>_xll.qlSwapRateHelper2(K15,$J15,$C15,Calendar,$F15,$G15,$H15,$L$4,$I15,B15,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_AM1LBASIS7Y#0008</v>
+        <v>USD_YC1MRH_AM1LBASIS7Y#0000</v>
       </c>
       <c r="M15" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(L15)</f>
@@ -14615,7 +14526,7 @@
         <v>Annual</v>
       </c>
       <c r="G16" s="141" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H16" s="141" t="str">
         <f t="shared" si="1"/>
@@ -14635,7 +14546,7 @@
       </c>
       <c r="L16" s="137" t="str">
         <f>_xll.qlSwapRateHelper2(K16,$J16,$C16,Calendar,$F16,$G16,$H16,$L$4,$I16,B16,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_AM1LBASIS8Y#0008</v>
+        <v>USD_YC1MRH_AM1LBASIS8Y#0000</v>
       </c>
       <c r="M16" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(L16)</f>
@@ -14665,7 +14576,7 @@
         <v>Annual</v>
       </c>
       <c r="G17" s="141" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H17" s="141" t="str">
         <f t="shared" si="1"/>
@@ -14685,7 +14596,7 @@
       </c>
       <c r="L17" s="137" t="str">
         <f>_xll.qlSwapRateHelper2(K17,$J17,$C17,Calendar,$F17,$G17,$H17,$L$4,$I17,B17,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_AM1LBASIS9Y#0008</v>
+        <v>USD_YC1MRH_AM1LBASIS9Y#0000</v>
       </c>
       <c r="M17" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(L17)</f>
@@ -14715,7 +14626,7 @@
         <v>Annual</v>
       </c>
       <c r="G18" s="141" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H18" s="141" t="str">
         <f t="shared" si="1"/>
@@ -14735,7 +14646,7 @@
       </c>
       <c r="L18" s="137" t="str">
         <f>_xll.qlSwapRateHelper2(K18,$J18,$C18,Calendar,$F18,$G18,$H18,$L$4,$I18,B18,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_AM1LBASIS10Y#0008</v>
+        <v>USD_YC1MRH_AM1LBASIS10Y#0000</v>
       </c>
       <c r="M18" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(L18)</f>
@@ -14765,7 +14676,7 @@
         <v>Annual</v>
       </c>
       <c r="G19" s="141" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H19" s="141" t="str">
         <f t="shared" si="1"/>
@@ -14785,7 +14696,7 @@
       </c>
       <c r="L19" s="137" t="str">
         <f>_xll.qlSwapRateHelper2(K19,$J19,$C19,Calendar,$F19,$G19,$H19,$L$4,$I19,B19,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_AM1LBASIS11Y#0008</v>
+        <v>USD_YC1MRH_AM1LBASIS11Y#0000</v>
       </c>
       <c r="M19" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(L19)</f>
@@ -14815,7 +14726,7 @@
         <v>Annual</v>
       </c>
       <c r="G20" s="141" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H20" s="141" t="str">
         <f t="shared" si="1"/>
@@ -14835,7 +14746,7 @@
       </c>
       <c r="L20" s="137" t="str">
         <f>_xll.qlSwapRateHelper2(K20,$J20,$C20,Calendar,$F20,$G20,$H20,$L$4,$I20,B20,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_AM1LBASIS12Y#0008</v>
+        <v>USD_YC1MRH_AM1LBASIS12Y#0000</v>
       </c>
       <c r="M20" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(L20)</f>
@@ -14865,7 +14776,7 @@
         <v>Annual</v>
       </c>
       <c r="G21" s="141" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H21" s="141" t="str">
         <f t="shared" si="1"/>
@@ -14885,7 +14796,7 @@
       </c>
       <c r="L21" s="137" t="str">
         <f>_xll.qlSwapRateHelper2(K21,$J21,$C21,Calendar,$F21,$G21,$H21,$L$4,$I21,B21,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_AM1LBASIS13Y#0008</v>
+        <v>USD_YC1MRH_AM1LBASIS13Y#0000</v>
       </c>
       <c r="M21" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(L21)</f>
@@ -14915,7 +14826,7 @@
         <v>Annual</v>
       </c>
       <c r="G22" s="141" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H22" s="141" t="str">
         <f t="shared" si="1"/>
@@ -14935,7 +14846,7 @@
       </c>
       <c r="L22" s="137" t="str">
         <f>_xll.qlSwapRateHelper2(K22,$J22,$C22,Calendar,$F22,$G22,$H22,$L$4,$I22,B22,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_AM1LBASIS14Y#0008</v>
+        <v>USD_YC1MRH_AM1LBASIS14Y#0000</v>
       </c>
       <c r="M22" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(L22)</f>
@@ -14965,7 +14876,7 @@
         <v>Annual</v>
       </c>
       <c r="G23" s="141" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H23" s="141" t="str">
         <f t="shared" si="1"/>
@@ -14985,7 +14896,7 @@
       </c>
       <c r="L23" s="137" t="str">
         <f>_xll.qlSwapRateHelper2(K23,$J23,$C23,Calendar,$F23,$G23,$H23,$L$4,$I23,B23,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_AM1LBASIS15Y#0008</v>
+        <v>USD_YC1MRH_AM1LBASIS15Y#0000</v>
       </c>
       <c r="M23" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(L23)</f>
@@ -15015,7 +14926,7 @@
         <v>Annual</v>
       </c>
       <c r="G24" s="141" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H24" s="141" t="str">
         <f t="shared" si="1"/>
@@ -15035,7 +14946,7 @@
       </c>
       <c r="L24" s="137" t="str">
         <f>_xll.qlSwapRateHelper2(K24,$J24,$C24,Calendar,$F24,$G24,$H24,$L$4,$I24,B24,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_AM1LBASIS16Y#0008</v>
+        <v>USD_YC1MRH_AM1LBASIS16Y#0000</v>
       </c>
       <c r="M24" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(L24)</f>
@@ -15065,7 +14976,7 @@
         <v>Annual</v>
       </c>
       <c r="G25" s="141" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H25" s="141" t="str">
         <f t="shared" si="1"/>
@@ -15085,7 +14996,7 @@
       </c>
       <c r="L25" s="137" t="str">
         <f>_xll.qlSwapRateHelper2(K25,$J25,$C25,Calendar,$F25,$G25,$H25,$L$4,$I25,B25,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_AM1LBASIS17Y#0008</v>
+        <v>USD_YC1MRH_AM1LBASIS17Y#0000</v>
       </c>
       <c r="M25" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(L25)</f>
@@ -15115,7 +15026,7 @@
         <v>Annual</v>
       </c>
       <c r="G26" s="141" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H26" s="141" t="str">
         <f t="shared" si="1"/>
@@ -15135,7 +15046,7 @@
       </c>
       <c r="L26" s="137" t="str">
         <f>_xll.qlSwapRateHelper2(K26,$J26,$C26,Calendar,$F26,$G26,$H26,$L$4,$I26,B26,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_AM1LBASIS18Y#0008</v>
+        <v>USD_YC1MRH_AM1LBASIS18Y#0000</v>
       </c>
       <c r="M26" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(L26)</f>
@@ -15165,7 +15076,7 @@
         <v>Annual</v>
       </c>
       <c r="G27" s="141" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H27" s="141" t="str">
         <f t="shared" si="1"/>
@@ -15185,7 +15096,7 @@
       </c>
       <c r="L27" s="137" t="str">
         <f>_xll.qlSwapRateHelper2(K27,$J27,$C27,Calendar,$F27,$G27,$H27,$L$4,$I27,B27,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_AM1LBASIS19Y#0008</v>
+        <v>USD_YC1MRH_AM1LBASIS19Y#0000</v>
       </c>
       <c r="M27" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(L27)</f>
@@ -15215,7 +15126,7 @@
         <v>Annual</v>
       </c>
       <c r="G28" s="141" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H28" s="141" t="str">
         <f t="shared" si="1"/>
@@ -15235,7 +15146,7 @@
       </c>
       <c r="L28" s="137" t="str">
         <f>_xll.qlSwapRateHelper2(K28,$J28,$C28,Calendar,$F28,$G28,$H28,$L$4,$I28,B28,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_AM1LBASIS20Y#0008</v>
+        <v>USD_YC1MRH_AM1LBASIS20Y#0000</v>
       </c>
       <c r="M28" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(L28)</f>
@@ -15265,7 +15176,7 @@
         <v>Annual</v>
       </c>
       <c r="G29" s="141" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H29" s="141" t="str">
         <f t="shared" si="1"/>
@@ -15285,7 +15196,7 @@
       </c>
       <c r="L29" s="137" t="str">
         <f>_xll.qlSwapRateHelper2(K29,$J29,$C29,Calendar,$F29,$G29,$H29,$L$4,$I29,B29,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_AM1LBASIS21Y#0008</v>
+        <v>USD_YC1MRH_AM1LBASIS21Y#0000</v>
       </c>
       <c r="M29" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(L29)</f>
@@ -15315,7 +15226,7 @@
         <v>Annual</v>
       </c>
       <c r="G30" s="141" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H30" s="141" t="str">
         <f t="shared" si="1"/>
@@ -15335,7 +15246,7 @@
       </c>
       <c r="L30" s="137" t="str">
         <f>_xll.qlSwapRateHelper2(K30,$J30,$C30,Calendar,$F30,$G30,$H30,$L$4,$I30,B30,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_AM1LBASIS22Y#0008</v>
+        <v>USD_YC1MRH_AM1LBASIS22Y#0000</v>
       </c>
       <c r="M30" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(L30)</f>
@@ -15365,7 +15276,7 @@
         <v>Annual</v>
       </c>
       <c r="G31" s="141" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H31" s="141" t="str">
         <f t="shared" si="1"/>
@@ -15385,7 +15296,7 @@
       </c>
       <c r="L31" s="137" t="str">
         <f>_xll.qlSwapRateHelper2(K31,$J31,$C31,Calendar,$F31,$G31,$H31,$L$4,$I31,B31,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_AM1LBASIS23Y#0008</v>
+        <v>USD_YC1MRH_AM1LBASIS23Y#0000</v>
       </c>
       <c r="M31" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(L31)</f>
@@ -15415,7 +15326,7 @@
         <v>Annual</v>
       </c>
       <c r="G32" s="141" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H32" s="141" t="str">
         <f t="shared" si="1"/>
@@ -15435,7 +15346,7 @@
       </c>
       <c r="L32" s="137" t="str">
         <f>_xll.qlSwapRateHelper2(K32,$J32,$C32,Calendar,$F32,$G32,$H32,$L$4,$I32,B32,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_AM1LBASIS24Y#0008</v>
+        <v>USD_YC1MRH_AM1LBASIS24Y#0000</v>
       </c>
       <c r="M32" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(L32)</f>
@@ -15465,7 +15376,7 @@
         <v>Annual</v>
       </c>
       <c r="G33" s="141" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H33" s="141" t="str">
         <f t="shared" si="1"/>
@@ -15485,7 +15396,7 @@
       </c>
       <c r="L33" s="137" t="str">
         <f>_xll.qlSwapRateHelper2(K33,$J33,$C33,Calendar,$F33,$G33,$H33,$L$4,$I33,B33,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_AM1LBASIS25Y#0008</v>
+        <v>USD_YC1MRH_AM1LBASIS25Y#0000</v>
       </c>
       <c r="M33" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(L33)</f>
@@ -15515,7 +15426,7 @@
         <v>Annual</v>
       </c>
       <c r="G34" s="141" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H34" s="141" t="str">
         <f t="shared" si="1"/>
@@ -15535,7 +15446,7 @@
       </c>
       <c r="L34" s="137" t="str">
         <f>_xll.qlSwapRateHelper2(K34,$J34,$C34,Calendar,$F34,$G34,$H34,$L$4,$I34,B34,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_AM1LBASIS26Y#0008</v>
+        <v>USD_YC1MRH_AM1LBASIS26Y#0000</v>
       </c>
       <c r="M34" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(L34)</f>
@@ -15565,7 +15476,7 @@
         <v>Annual</v>
       </c>
       <c r="G35" s="141" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H35" s="141" t="str">
         <f t="shared" si="1"/>
@@ -15585,7 +15496,7 @@
       </c>
       <c r="L35" s="137" t="str">
         <f>_xll.qlSwapRateHelper2(K35,$J35,$C35,Calendar,$F35,$G35,$H35,$L$4,$I35,B35,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_AM1LBASIS27Y#0008</v>
+        <v>USD_YC1MRH_AM1LBASIS27Y#0000</v>
       </c>
       <c r="M35" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(L35)</f>
@@ -15615,7 +15526,7 @@
         <v>Annual</v>
       </c>
       <c r="G36" s="141" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H36" s="141" t="str">
         <f t="shared" si="1"/>
@@ -15635,7 +15546,7 @@
       </c>
       <c r="L36" s="137" t="str">
         <f>_xll.qlSwapRateHelper2(K36,$J36,$C36,Calendar,$F36,$G36,$H36,$L$4,$I36,B36,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_AM1LBASIS28Y#0008</v>
+        <v>USD_YC1MRH_AM1LBASIS28Y#0000</v>
       </c>
       <c r="M36" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(L36)</f>
@@ -15665,7 +15576,7 @@
         <v>Annual</v>
       </c>
       <c r="G37" s="141" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H37" s="141" t="str">
         <f t="shared" si="1"/>
@@ -15685,7 +15596,7 @@
       </c>
       <c r="L37" s="137" t="str">
         <f>_xll.qlSwapRateHelper2(K37,$J37,$C37,Calendar,$F37,$G37,$H37,$L$4,$I37,B37,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_AM1LBASIS29Y#0008</v>
+        <v>USD_YC1MRH_AM1LBASIS29Y#0000</v>
       </c>
       <c r="M37" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(L37)</f>
@@ -15715,7 +15626,7 @@
         <v>Annual</v>
       </c>
       <c r="G38" s="141" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H38" s="141" t="str">
         <f t="shared" si="1"/>
@@ -15735,7 +15646,7 @@
       </c>
       <c r="L38" s="137" t="str">
         <f>_xll.qlSwapRateHelper2(K38,$J38,$C38,Calendar,$F38,$G38,$H38,$L$4,$I38,B38,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_AM1LBASIS30Y#0008</v>
+        <v>USD_YC1MRH_AM1LBASIS30Y#0000</v>
       </c>
       <c r="M38" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(L38)</f>
@@ -15765,7 +15676,7 @@
         <v>Annual</v>
       </c>
       <c r="G39" s="141" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H39" s="141" t="str">
         <f t="shared" si="1"/>
@@ -15785,7 +15696,7 @@
       </c>
       <c r="L39" s="137" t="str">
         <f>_xll.qlSwapRateHelper2(K39,$J39,$C39,Calendar,$F39,$G39,$H39,$L$4,$I39,B39,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_AM1LBASIS35Y#0008</v>
+        <v>USD_YC1MRH_AM1LBASIS35Y#0000</v>
       </c>
       <c r="M39" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(L39)</f>
@@ -15815,7 +15726,7 @@
         <v>Annual</v>
       </c>
       <c r="G40" s="141" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H40" s="141" t="str">
         <f t="shared" si="1"/>
@@ -15835,7 +15746,7 @@
       </c>
       <c r="L40" s="137" t="str">
         <f>_xll.qlSwapRateHelper2(K40,$J40,$C40,Calendar,$F40,$G40,$H40,$L$4,$I40,B40,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_AM1LBASIS40Y#0008</v>
+        <v>USD_YC1MRH_AM1LBASIS40Y#0000</v>
       </c>
       <c r="M40" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(L40)</f>
@@ -15865,7 +15776,7 @@
         <v>Annual</v>
       </c>
       <c r="G41" s="141" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H41" s="141" t="str">
         <f t="shared" si="1"/>
@@ -15885,7 +15796,7 @@
       </c>
       <c r="L41" s="137" t="str">
         <f>_xll.qlSwapRateHelper2(K41,$J41,$C41,Calendar,$F41,$G41,$H41,$L$4,$I41,B41,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_AM1LBASIS50Y#0008</v>
+        <v>USD_YC1MRH_AM1LBASIS50Y#0000</v>
       </c>
       <c r="M41" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(L41)</f>
@@ -15915,7 +15826,7 @@
         <v>Annual</v>
       </c>
       <c r="G42" s="141" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H42" s="141" t="str">
         <f t="shared" si="1"/>
@@ -15935,7 +15846,7 @@
       </c>
       <c r="L42" s="137" t="str">
         <f>_xll.qlSwapRateHelper2(K42,$J42,$C42,Calendar,$F42,$G42,$H42,$L$4,$I42,B42,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_AM1LBASIS60Y#0008</v>
+        <v>USD_YC1MRH_AM1LBASIS60Y#0000</v>
       </c>
       <c r="M42" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(L42)</f>

--- a/QuantLibXL/Data2/XLS/USD_YC1MBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/USD_YC1MBootstrapping.xlsx
@@ -931,7 +931,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -989,6 +989,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1434,7 +1440,7 @@
     <xf numFmtId="177" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="180">
+  <cellXfs count="181">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -1788,12 +1794,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="10" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1816,6 +1816,15 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -2140,7 +2149,8 @@
     <col min="4" max="4" width="23.85546875" style="164" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22" style="164" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="2.7109375" style="164" customWidth="1"/>
-    <col min="8" max="9" width="8" style="164"/>
+    <col min="8" max="8" width="4" style="164" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.28515625" style="164" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="2.7109375" style="164" customWidth="1"/>
     <col min="12" max="12" width="18.5703125" style="164" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="53.7109375" style="164" bestFit="1" customWidth="1"/>
@@ -2151,23 +2161,23 @@
     <row r="1" spans="2:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="164" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
-        <v>QuantLibXL 1.3.0 - MS VC++ 9.0 - Multithreaded Static Runtime library - Release Configuration - Dec  5 2013 11:03:51</v>
+        <v>QuantLibXL 1.4.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Feb  7 2014 15:33:58</v>
       </c>
     </row>
     <row r="2" spans="2:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="172" t="s">
+      <c r="B2" s="166" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="173"/>
-      <c r="D2" s="173"/>
-      <c r="E2" s="173"/>
-      <c r="F2" s="174"/>
-      <c r="K2" s="172" t="s">
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="168"/>
+      <c r="K2" s="166" t="s">
         <v>158</v>
       </c>
-      <c r="L2" s="173"/>
-      <c r="M2" s="173"/>
-      <c r="N2" s="173"/>
+      <c r="L2" s="167"/>
+      <c r="M2" s="167"/>
+      <c r="N2" s="180"/>
     </row>
     <row r="3" spans="2:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="61"/>
@@ -2190,10 +2200,10 @@
       </c>
       <c r="E4" s="58"/>
       <c r="F4" s="57"/>
-      <c r="H4" s="167" t="s">
+      <c r="H4" s="174" t="s">
         <v>110</v>
       </c>
-      <c r="I4" s="168"/>
+      <c r="I4" s="175"/>
       <c r="K4" s="127"/>
       <c r="L4" s="126" t="s">
         <v>157</v>
@@ -2213,10 +2223,10 @@
       </c>
       <c r="E5" s="58"/>
       <c r="F5" s="57"/>
-      <c r="H5" s="165" t="s">
+      <c r="H5" s="176" t="s">
         <v>108</v>
       </c>
-      <c r="I5" s="166" t="s">
+      <c r="I5" s="177" t="s">
         <v>107</v>
       </c>
       <c r="K5" s="127"/>
@@ -2225,7 +2235,7 @@
       </c>
       <c r="M5" s="128" t="str">
         <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
-        <v>C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data2\XML\</v>
+        <v>C:\Users\erik\Documents\repos\quantlib\QuantLibXL\Data2\XML\</v>
       </c>
       <c r="N5" s="125"/>
     </row>
@@ -2240,10 +2250,10 @@
       </c>
       <c r="E6" s="58"/>
       <c r="F6" s="57"/>
-      <c r="H6" s="165" t="s">
+      <c r="H6" s="176" t="s">
         <v>105</v>
       </c>
-      <c r="I6" s="166" t="s">
+      <c r="I6" s="177" t="s">
         <v>104</v>
       </c>
       <c r="K6" s="127"/>
@@ -2266,10 +2276,10 @@
       </c>
       <c r="E7" s="58"/>
       <c r="F7" s="57"/>
-      <c r="H7" s="165" t="s">
+      <c r="H7" s="176" t="s">
         <v>102</v>
       </c>
-      <c r="I7" s="166"/>
+      <c r="I7" s="177"/>
       <c r="K7" s="124"/>
       <c r="L7" s="123"/>
       <c r="M7" s="123"/>
@@ -2286,16 +2296,16 @@
       </c>
       <c r="E8" s="58"/>
       <c r="F8" s="57"/>
-      <c r="H8" s="169" t="s">
+      <c r="H8" s="178" t="s">
         <v>100</v>
       </c>
-      <c r="I8" s="170" t="s">
+      <c r="I8" s="179" t="s">
         <v>99</v>
       </c>
-      <c r="K8" s="171"/>
-      <c r="L8" s="171"/>
-      <c r="M8" s="171"/>
-      <c r="N8" s="171"/>
+      <c r="K8" s="165"/>
+      <c r="L8" s="165"/>
+      <c r="M8" s="165"/>
+      <c r="N8" s="165"/>
     </row>
     <row r="9" spans="2:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="61"/>
@@ -2308,12 +2318,12 @@
       </c>
       <c r="E9" s="58"/>
       <c r="F9" s="57"/>
-      <c r="K9" s="172" t="s">
+      <c r="K9" s="166" t="s">
         <v>154</v>
       </c>
-      <c r="L9" s="173"/>
-      <c r="M9" s="173"/>
-      <c r="N9" s="173"/>
+      <c r="L9" s="167"/>
+      <c r="M9" s="167"/>
+      <c r="N9" s="180"/>
     </row>
     <row r="10" spans="2:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B10" s="61"/>
@@ -2336,7 +2346,7 @@
         <v>96</v>
       </c>
       <c r="D11" s="86">
-        <v>41653.339224537034</v>
+        <v>41684.59065972222</v>
       </c>
       <c r="E11" s="58"/>
       <c r="F11" s="57"/>
@@ -2390,7 +2400,7 @@
       </c>
       <c r="D14" s="83" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D16,NDays,Calendar,RateHelpersSelected,DayCounter,IF(ISERROR(D22),NA(),D20:E20),IF(ISERROR(D22),NA(),D21:E21),Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
-        <v>_USDYC1M#0007</v>
+        <v>_USDYC1M#0000</v>
       </c>
       <c r="E14" s="58"/>
       <c r="F14" s="57"/>
@@ -2569,7 +2579,7 @@
       <c r="B27" s="61"/>
       <c r="C27" s="65">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve)</f>
-        <v>41653</v>
+        <v>41684</v>
       </c>
       <c r="D27" s="64">
         <f>MAX(_xll.ohPack(Selected!I1:I126))</f>
@@ -2582,11 +2592,11 @@
       <c r="B28" s="61"/>
       <c r="C28" s="63">
         <f>MAX(_xll.ohPack(Selected!H2:H126))</f>
-        <v>59917</v>
+        <v>59950</v>
       </c>
       <c r="D28" s="62">
         <f>MIN(_xll.ohPack(Selected!I1:I126))</f>
-        <v>0.16369286633781341</v>
+        <v>0.16368928964546794</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="57"/>
@@ -2679,11 +2689,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="B1" s="175" t="s">
+      <c r="B1" s="169" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="176"/>
-      <c r="D1" s="177"/>
+      <c r="C1" s="170"/>
+      <c r="D1" s="171"/>
       <c r="E1" s="31" t="s">
         <v>70</v>
       </c>
@@ -2735,11 +2745,11 @@
       </c>
       <c r="K2" s="11">
         <f>_xll.qlRateHelperEarliestDate($E2,Trigger)</f>
-        <v>41655</v>
+        <v>41688</v>
       </c>
       <c r="L2" s="10">
         <f>_xll.qlRateHelperLatestDate($E2,Trigger)</f>
-        <v>41656</v>
+        <v>41689</v>
       </c>
       <c r="M2" s="1">
         <v>30</v>
@@ -2774,11 +2784,11 @@
       </c>
       <c r="K3" s="11">
         <f>_xll.qlRateHelperEarliestDate($E3,Trigger)</f>
-        <v>41655</v>
+        <v>41688</v>
       </c>
       <c r="L3" s="10">
         <f>_xll.qlRateHelperLatestDate($E3,Trigger)</f>
-        <v>41662</v>
+        <v>41695</v>
       </c>
       <c r="M3" s="1">
         <v>40</v>
@@ -2813,11 +2823,11 @@
       </c>
       <c r="K4" s="11">
         <f>_xll.qlRateHelperEarliestDate($E4,Trigger)</f>
-        <v>41655</v>
+        <v>41688</v>
       </c>
       <c r="L4" s="10">
         <f>_xll.qlRateHelperLatestDate($E4,Trigger)</f>
-        <v>41669</v>
+        <v>41702</v>
       </c>
       <c r="M4" s="1">
         <v>50</v>
@@ -2852,11 +2862,11 @@
       </c>
       <c r="K5" s="11">
         <f>_xll.qlRateHelperEarliestDate($E5,Trigger)</f>
-        <v>41655</v>
+        <v>41688</v>
       </c>
       <c r="L5" s="10">
         <f>_xll.qlRateHelperLatestDate($E5,Trigger)</f>
-        <v>41676</v>
+        <v>41709</v>
       </c>
       <c r="M5" s="1">
         <v>60</v>
@@ -2891,11 +2901,11 @@
       </c>
       <c r="K6" s="11">
         <f>_xll.qlRateHelperEarliestDate($E6,Trigger)</f>
-        <v>41655</v>
+        <v>41688</v>
       </c>
       <c r="L6" s="10">
         <f>_xll.qlRateHelperLatestDate($E6,Trigger)</f>
-        <v>41687</v>
+        <v>41716</v>
       </c>
       <c r="M6" s="1">
         <v>70</v>
@@ -3909,11 +3919,11 @@
       </c>
       <c r="D34" s="14" t="str">
         <f t="array" ref="D34:D75">_xll.qlIMMNextCodes(_xll.qlSettingsEvaluationDate(Trigger)-1,$A34:$A75)</f>
-        <v>F4</v>
+        <v>G4</v>
       </c>
       <c r="E34" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>USD_YC1MRH_FUT1MF4</v>
+        <v>USD_YC1MRH_FUT1MG4</v>
       </c>
       <c r="F34" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E34,Trigger)</f>
@@ -3951,11 +3961,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D35" s="14" t="str">
-        <v>G4</v>
+        <v>H4</v>
       </c>
       <c r="E35" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>USD_YC1MRH_FUT1MG4</v>
+        <v>USD_YC1MRH_FUT1MH4</v>
       </c>
       <c r="F35" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E35,Trigger)</f>
@@ -3993,11 +4003,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D36" s="14" t="str">
-        <v>H4</v>
+        <v>J4</v>
       </c>
       <c r="E36" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>USD_YC1MRH_FUT1MH4</v>
+        <v>USD_YC1MRH_FUT1MJ4</v>
       </c>
       <c r="F36" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E36,Trigger)</f>
@@ -4035,11 +4045,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D37" s="14" t="str">
-        <v>J4</v>
+        <v>K4</v>
       </c>
       <c r="E37" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>USD_YC1MRH_FUT1MJ4</v>
+        <v>USD_YC1MRH_FUT1MK4</v>
       </c>
       <c r="F37" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E37,Trigger)</f>
@@ -4077,11 +4087,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D38" s="14" t="str">
-        <v>K4</v>
+        <v>M4</v>
       </c>
       <c r="E38" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>USD_YC1MRH_FUT1MK4</v>
+        <v>USD_YC1MRH_FUT1MM4</v>
       </c>
       <c r="F38" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E38,Trigger)</f>
@@ -4119,11 +4129,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D39" s="14" t="str">
-        <v>M4</v>
+        <v>N4</v>
       </c>
       <c r="E39" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>USD_YC1MRH_FUT1MM4</v>
+        <v>USD_YC1MRH_FUT1MN4</v>
       </c>
       <c r="F39" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E39,Trigger)</f>
@@ -4161,11 +4171,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D40" s="14" t="str">
-        <v>N4</v>
+        <v>Q4</v>
       </c>
       <c r="E40" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>USD_YC1MRH_FUT1MN4</v>
+        <v>USD_YC1MRH_FUT1MQ4</v>
       </c>
       <c r="F40" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E40,Trigger)</f>
@@ -4203,11 +4213,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D41" s="14" t="str">
-        <v>Q4</v>
+        <v>U4</v>
       </c>
       <c r="E41" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>USD_YC1MRH_FUT1MQ4</v>
+        <v>USD_YC1MRH_FUT1MU4</v>
       </c>
       <c r="F41" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E41,Trigger)</f>
@@ -4245,11 +4255,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D42" s="14" t="str">
-        <v>U4</v>
+        <v>V4</v>
       </c>
       <c r="E42" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>USD_YC1MRH_FUT1MU4</v>
+        <v>USD_YC1MRH_FUT1MV4</v>
       </c>
       <c r="F42" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E42,Trigger)</f>
@@ -4287,11 +4297,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D43" s="14" t="str">
-        <v>V4</v>
+        <v>X4</v>
       </c>
       <c r="E43" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>USD_YC1MRH_FUT1MV4</v>
+        <v>USD_YC1MRH_FUT1MX4</v>
       </c>
       <c r="F43" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E43,Trigger)</f>
@@ -4329,11 +4339,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D44" s="14" t="str">
-        <v>X4</v>
+        <v>Z4</v>
       </c>
       <c r="E44" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>USD_YC1MRH_FUT1MX4</v>
+        <v>USD_YC1MRH_FUT1MZ4</v>
       </c>
       <c r="F44" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E44,Trigger)</f>
@@ -4371,11 +4381,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D45" s="14" t="str">
-        <v>Z4</v>
+        <v>F5</v>
       </c>
       <c r="E45" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>USD_YC1MRH_FUT1MZ4</v>
+        <v>USD_YC1MRH_FUT1MF5</v>
       </c>
       <c r="F45" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E45,Trigger)</f>
@@ -5695,11 +5705,11 @@
       </c>
       <c r="K76" s="18">
         <f>_xll.qlRateHelperEarliestDate($E76,Trigger)</f>
-        <v>41655</v>
+        <v>41688</v>
       </c>
       <c r="L76" s="17">
         <f>_xll.qlRateHelperLatestDate($E76,Trigger)</f>
-        <v>41715</v>
+        <v>41751</v>
       </c>
       <c r="M76" s="22"/>
     </row>
@@ -5734,11 +5744,11 @@
       </c>
       <c r="K77" s="11">
         <f>_xll.qlRateHelperEarliestDate($E77,Trigger)</f>
-        <v>41655</v>
+        <v>41688</v>
       </c>
       <c r="L77" s="10">
         <f>_xll.qlRateHelperLatestDate($E77,Trigger)</f>
-        <v>41745</v>
+        <v>41778</v>
       </c>
       <c r="M77" s="25"/>
     </row>
@@ -5773,11 +5783,11 @@
       </c>
       <c r="K78" s="11">
         <f>_xll.qlRateHelperEarliestDate($E78,Trigger)</f>
-        <v>41655</v>
+        <v>41688</v>
       </c>
       <c r="L78" s="10">
         <f>_xll.qlRateHelperLatestDate($E78,Trigger)</f>
-        <v>41775</v>
+        <v>41808</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.2">
@@ -5811,11 +5821,11 @@
       </c>
       <c r="K79" s="11">
         <f>_xll.qlRateHelperEarliestDate($E79,Trigger)</f>
-        <v>41655</v>
+        <v>41688</v>
       </c>
       <c r="L79" s="10">
         <f>_xll.qlRateHelperLatestDate($E79,Trigger)</f>
-        <v>41806</v>
+        <v>41838</v>
       </c>
     </row>
     <row r="80" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5849,11 +5859,11 @@
       </c>
       <c r="K80" s="11">
         <f>_xll.qlRateHelperEarliestDate($E80,Trigger)</f>
-        <v>41655</v>
+        <v>41688</v>
       </c>
       <c r="L80" s="10">
         <f>_xll.qlRateHelperLatestDate($E80,Trigger)</f>
-        <v>41836</v>
+        <v>41869</v>
       </c>
     </row>
     <row r="81" spans="2:14" x14ac:dyDescent="0.2">
@@ -5887,11 +5897,11 @@
       </c>
       <c r="K81" s="11">
         <f>_xll.qlRateHelperEarliestDate($E81,Trigger)</f>
-        <v>41655</v>
+        <v>41688</v>
       </c>
       <c r="L81" s="10">
         <f>_xll.qlRateHelperLatestDate($E81,Trigger)</f>
-        <v>41869</v>
+        <v>41900</v>
       </c>
     </row>
     <row r="82" spans="2:14" x14ac:dyDescent="0.2">
@@ -5925,11 +5935,11 @@
       </c>
       <c r="K82" s="11">
         <f>_xll.qlRateHelperEarliestDate($E82,Trigger)</f>
-        <v>41655</v>
+        <v>41688</v>
       </c>
       <c r="L82" s="10">
         <f>_xll.qlRateHelperLatestDate($E82,Trigger)</f>
-        <v>41898</v>
+        <v>41932</v>
       </c>
     </row>
     <row r="83" spans="2:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5963,11 +5973,11 @@
       </c>
       <c r="K83" s="11">
         <f>_xll.qlRateHelperEarliestDate($E83,Trigger)</f>
-        <v>41655</v>
+        <v>41688</v>
       </c>
       <c r="L83" s="10">
         <f>_xll.qlRateHelperLatestDate($E83,Trigger)</f>
-        <v>41928</v>
+        <v>41961</v>
       </c>
     </row>
     <row r="84" spans="2:14" x14ac:dyDescent="0.2">
@@ -6001,11 +6011,11 @@
       </c>
       <c r="K84" s="11">
         <f>_xll.qlRateHelperEarliestDate($E84,Trigger)</f>
-        <v>41655</v>
+        <v>41688</v>
       </c>
       <c r="L84" s="10">
         <f>_xll.qlRateHelperLatestDate($E84,Trigger)</f>
-        <v>41960</v>
+        <v>41991</v>
       </c>
     </row>
     <row r="85" spans="2:14" x14ac:dyDescent="0.2">
@@ -6039,11 +6049,11 @@
       </c>
       <c r="K85" s="11">
         <f>_xll.qlRateHelperEarliestDate($E85,Trigger)</f>
-        <v>41655</v>
+        <v>41688</v>
       </c>
       <c r="L85" s="10">
         <f>_xll.qlRateHelperLatestDate($E85,Trigger)</f>
-        <v>41989</v>
+        <v>42023</v>
       </c>
     </row>
     <row r="86" spans="2:14" x14ac:dyDescent="0.2">
@@ -6077,11 +6087,11 @@
       </c>
       <c r="K86" s="4">
         <f>_xll.qlRateHelperEarliestDate($E86,Trigger)</f>
-        <v>41655</v>
+        <v>41688</v>
       </c>
       <c r="L86" s="3">
         <f>_xll.qlRateHelperLatestDate($E86,Trigger)</f>
-        <v>42020</v>
+        <v>42053</v>
       </c>
     </row>
     <row r="87" spans="2:14" x14ac:dyDescent="0.2">
@@ -7927,7 +7937,7 @@
         <v>2</v>
       </c>
       <c r="E128" s="14" t="str">
-        <f t="shared" ref="E128:E159" si="10">RateHelperPrefix&amp;"_"&amp;$B128&amp;$C128&amp;$D128</f>
+        <f t="shared" ref="E128:E130" si="10">RateHelperPrefix&amp;"_"&amp;$B128&amp;$C128&amp;$D128</f>
         <v>USD_YC1MRH_AM1L40Y</v>
       </c>
       <c r="F128" s="13" t="e">
@@ -8087,11 +8097,11 @@
       </c>
       <c r="K131" s="18">
         <f>_xll.qlRateHelperEarliestDate($E131,Trigger)</f>
-        <v>41655</v>
+        <v>41688</v>
       </c>
       <c r="L131" s="17">
         <f>_xll.qlRateHelperLatestDate($E131,Trigger)</f>
-        <v>42020</v>
+        <v>42053</v>
       </c>
     </row>
     <row r="132" spans="2:14" x14ac:dyDescent="0.2">
@@ -8129,11 +8139,11 @@
       </c>
       <c r="K132" s="11">
         <f>_xll.qlRateHelperEarliestDate($E132,Trigger)</f>
-        <v>41655</v>
+        <v>41688</v>
       </c>
       <c r="L132" s="10">
         <f>_xll.qlRateHelperLatestDate($E132,Trigger)</f>
-        <v>42110</v>
+        <v>42142</v>
       </c>
     </row>
     <row r="133" spans="2:14" x14ac:dyDescent="0.2">
@@ -8171,11 +8181,11 @@
       </c>
       <c r="K133" s="11">
         <f>_xll.qlRateHelperEarliestDate($E133,Trigger)</f>
-        <v>41655</v>
+        <v>41688</v>
       </c>
       <c r="L133" s="10">
         <f>_xll.qlRateHelperLatestDate($E133,Trigger)</f>
-        <v>42201</v>
+        <v>42234</v>
       </c>
     </row>
     <row r="134" spans="2:14" x14ac:dyDescent="0.2">
@@ -8213,11 +8223,11 @@
       </c>
       <c r="K134" s="11">
         <f>_xll.qlRateHelperEarliestDate($E134,Trigger)</f>
-        <v>41655</v>
+        <v>41688</v>
       </c>
       <c r="L134" s="10">
         <f>_xll.qlRateHelperLatestDate($E134,Trigger)</f>
-        <v>42293</v>
+        <v>42326</v>
       </c>
     </row>
     <row r="135" spans="2:14" x14ac:dyDescent="0.2">
@@ -8255,11 +8265,11 @@
       </c>
       <c r="K135" s="11">
         <f>_xll.qlRateHelperEarliestDate($E135,Trigger)</f>
-        <v>41655</v>
+        <v>41688</v>
       </c>
       <c r="L135" s="10">
         <f>_xll.qlRateHelperLatestDate($E135,Trigger)</f>
-        <v>42387</v>
+        <v>42418</v>
       </c>
     </row>
     <row r="136" spans="2:14" x14ac:dyDescent="0.2">
@@ -8297,11 +8307,11 @@
       </c>
       <c r="K136" s="11">
         <f>_xll.qlRateHelperEarliestDate($E136,Trigger)</f>
-        <v>41655</v>
+        <v>41688</v>
       </c>
       <c r="L136" s="10">
         <f>_xll.qlRateHelperLatestDate($E136,Trigger)</f>
-        <v>42751</v>
+        <v>42786</v>
       </c>
     </row>
     <row r="137" spans="2:14" x14ac:dyDescent="0.2">
@@ -8339,11 +8349,11 @@
       </c>
       <c r="K137" s="11">
         <f>_xll.qlRateHelperEarliestDate($E137,Trigger)</f>
-        <v>41655</v>
+        <v>41688</v>
       </c>
       <c r="L137" s="10">
         <f>_xll.qlRateHelperLatestDate($E137,Trigger)</f>
-        <v>43116</v>
+        <v>43150</v>
       </c>
     </row>
     <row r="138" spans="2:14" x14ac:dyDescent="0.2">
@@ -8381,11 +8391,11 @@
       </c>
       <c r="K138" s="11">
         <f>_xll.qlRateHelperEarliestDate($E138,Trigger)</f>
-        <v>41655</v>
+        <v>41688</v>
       </c>
       <c r="L138" s="10">
         <f>_xll.qlRateHelperLatestDate($E138,Trigger)</f>
-        <v>43481</v>
+        <v>43514</v>
       </c>
     </row>
     <row r="139" spans="2:14" x14ac:dyDescent="0.2">
@@ -8423,11 +8433,11 @@
       </c>
       <c r="K139" s="11">
         <f>_xll.qlRateHelperEarliestDate($E139,Trigger)</f>
-        <v>41655</v>
+        <v>41688</v>
       </c>
       <c r="L139" s="10">
         <f>_xll.qlRateHelperLatestDate($E139,Trigger)</f>
-        <v>43846</v>
+        <v>43879</v>
       </c>
     </row>
     <row r="140" spans="2:14" x14ac:dyDescent="0.2">
@@ -8465,11 +8475,11 @@
       </c>
       <c r="K140" s="11">
         <f>_xll.qlRateHelperEarliestDate($E140,Trigger)</f>
-        <v>41655</v>
+        <v>41688</v>
       </c>
       <c r="L140" s="10">
         <f>_xll.qlRateHelperLatestDate($E140,Trigger)</f>
-        <v>44214</v>
+        <v>44245</v>
       </c>
     </row>
     <row r="141" spans="2:14" x14ac:dyDescent="0.2">
@@ -8507,11 +8517,11 @@
       </c>
       <c r="K141" s="11">
         <f>_xll.qlRateHelperEarliestDate($E141,Trigger)</f>
-        <v>41655</v>
+        <v>41688</v>
       </c>
       <c r="L141" s="10">
         <f>_xll.qlRateHelperLatestDate($E141,Trigger)</f>
-        <v>44578</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="142" spans="2:14" x14ac:dyDescent="0.2">
@@ -8549,11 +8559,11 @@
       </c>
       <c r="K142" s="11">
         <f>_xll.qlRateHelperEarliestDate($E142,Trigger)</f>
-        <v>41655</v>
+        <v>41688</v>
       </c>
       <c r="L142" s="10">
         <f>_xll.qlRateHelperLatestDate($E142,Trigger)</f>
-        <v>44942</v>
+        <v>44977</v>
       </c>
     </row>
     <row r="143" spans="2:14" x14ac:dyDescent="0.2">
@@ -8591,11 +8601,11 @@
       </c>
       <c r="K143" s="11">
         <f>_xll.qlRateHelperEarliestDate($E143,Trigger)</f>
-        <v>41655</v>
+        <v>41688</v>
       </c>
       <c r="L143" s="10">
         <f>_xll.qlRateHelperLatestDate($E143,Trigger)</f>
-        <v>45307</v>
+        <v>45341</v>
       </c>
     </row>
     <row r="144" spans="2:14" x14ac:dyDescent="0.2">
@@ -8633,11 +8643,11 @@
       </c>
       <c r="K144" s="11">
         <f>_xll.qlRateHelperEarliestDate($E144,Trigger)</f>
-        <v>41655</v>
+        <v>41688</v>
       </c>
       <c r="L144" s="10">
         <f>_xll.qlRateHelperLatestDate($E144,Trigger)</f>
-        <v>45673</v>
+        <v>45706</v>
       </c>
     </row>
     <row r="145" spans="2:12" x14ac:dyDescent="0.2">
@@ -8675,11 +8685,11 @@
       </c>
       <c r="K145" s="11">
         <f>_xll.qlRateHelperEarliestDate($E145,Trigger)</f>
-        <v>41655</v>
+        <v>41688</v>
       </c>
       <c r="L145" s="10">
         <f>_xll.qlRateHelperLatestDate($E145,Trigger)</f>
-        <v>46038</v>
+        <v>46071</v>
       </c>
     </row>
     <row r="146" spans="2:12" x14ac:dyDescent="0.2">
@@ -8717,11 +8727,11 @@
       </c>
       <c r="K146" s="11">
         <f>_xll.qlRateHelperEarliestDate($E146,Trigger)</f>
-        <v>41655</v>
+        <v>41688</v>
       </c>
       <c r="L146" s="10">
         <f>_xll.qlRateHelperLatestDate($E146,Trigger)</f>
-        <v>46405</v>
+        <v>46436</v>
       </c>
     </row>
     <row r="147" spans="2:12" x14ac:dyDescent="0.2">
@@ -8759,11 +8769,11 @@
       </c>
       <c r="K147" s="11">
         <f>_xll.qlRateHelperEarliestDate($E147,Trigger)</f>
-        <v>41655</v>
+        <v>41688</v>
       </c>
       <c r="L147" s="10">
         <f>_xll.qlRateHelperLatestDate($E147,Trigger)</f>
-        <v>46769</v>
+        <v>46801</v>
       </c>
     </row>
     <row r="148" spans="2:12" x14ac:dyDescent="0.2">
@@ -8801,11 +8811,11 @@
       </c>
       <c r="K148" s="11">
         <f>_xll.qlRateHelperEarliestDate($E148,Trigger)</f>
-        <v>41655</v>
+        <v>41688</v>
       </c>
       <c r="L148" s="10">
         <f>_xll.qlRateHelperLatestDate($E148,Trigger)</f>
-        <v>47134</v>
+        <v>47168</v>
       </c>
     </row>
     <row r="149" spans="2:12" x14ac:dyDescent="0.2">
@@ -8843,11 +8853,11 @@
       </c>
       <c r="K149" s="11">
         <f>_xll.qlRateHelperEarliestDate($E149,Trigger)</f>
-        <v>41655</v>
+        <v>41688</v>
       </c>
       <c r="L149" s="10">
         <f>_xll.qlRateHelperLatestDate($E149,Trigger)</f>
-        <v>47499</v>
+        <v>47532</v>
       </c>
     </row>
     <row r="150" spans="2:12" x14ac:dyDescent="0.2">
@@ -8885,11 +8895,11 @@
       </c>
       <c r="K150" s="11">
         <f>_xll.qlRateHelperEarliestDate($E150,Trigger)</f>
-        <v>41655</v>
+        <v>41688</v>
       </c>
       <c r="L150" s="10">
         <f>_xll.qlRateHelperLatestDate($E150,Trigger)</f>
-        <v>47864</v>
+        <v>47897</v>
       </c>
     </row>
     <row r="151" spans="2:12" x14ac:dyDescent="0.2">
@@ -8927,11 +8937,11 @@
       </c>
       <c r="K151" s="11">
         <f>_xll.qlRateHelperEarliestDate($E151,Trigger)</f>
-        <v>41655</v>
+        <v>41688</v>
       </c>
       <c r="L151" s="10">
         <f>_xll.qlRateHelperLatestDate($E151,Trigger)</f>
-        <v>48229</v>
+        <v>48262</v>
       </c>
     </row>
     <row r="152" spans="2:12" x14ac:dyDescent="0.2">
@@ -8969,11 +8979,11 @@
       </c>
       <c r="K152" s="11">
         <f>_xll.qlRateHelperEarliestDate($E152,Trigger)</f>
-        <v>41655</v>
+        <v>41688</v>
       </c>
       <c r="L152" s="10">
         <f>_xll.qlRateHelperLatestDate($E152,Trigger)</f>
-        <v>48596</v>
+        <v>48628</v>
       </c>
     </row>
     <row r="153" spans="2:12" x14ac:dyDescent="0.2">
@@ -9011,11 +9021,11 @@
       </c>
       <c r="K153" s="11">
         <f>_xll.qlRateHelperEarliestDate($E153,Trigger)</f>
-        <v>41655</v>
+        <v>41688</v>
       </c>
       <c r="L153" s="10">
         <f>_xll.qlRateHelperLatestDate($E153,Trigger)</f>
-        <v>48960</v>
+        <v>48995</v>
       </c>
     </row>
     <row r="154" spans="2:12" x14ac:dyDescent="0.2">
@@ -9053,11 +9063,11 @@
       </c>
       <c r="K154" s="11">
         <f>_xll.qlRateHelperEarliestDate($E154,Trigger)</f>
-        <v>41655</v>
+        <v>41688</v>
       </c>
       <c r="L154" s="10">
         <f>_xll.qlRateHelperLatestDate($E154,Trigger)</f>
-        <v>49325</v>
+        <v>49359</v>
       </c>
     </row>
     <row r="155" spans="2:12" x14ac:dyDescent="0.2">
@@ -9095,11 +9105,11 @@
       </c>
       <c r="K155" s="11">
         <f>_xll.qlRateHelperEarliestDate($E155,Trigger)</f>
-        <v>41655</v>
+        <v>41688</v>
       </c>
       <c r="L155" s="10">
         <f>_xll.qlRateHelperLatestDate($E155,Trigger)</f>
-        <v>49690</v>
+        <v>49723</v>
       </c>
     </row>
     <row r="156" spans="2:12" x14ac:dyDescent="0.2">
@@ -9137,11 +9147,11 @@
       </c>
       <c r="K156" s="11">
         <f>_xll.qlRateHelperEarliestDate($E156,Trigger)</f>
-        <v>41655</v>
+        <v>41688</v>
       </c>
       <c r="L156" s="10">
         <f>_xll.qlRateHelperLatestDate($E156,Trigger)</f>
-        <v>50056</v>
+        <v>50089</v>
       </c>
     </row>
     <row r="157" spans="2:12" x14ac:dyDescent="0.2">
@@ -9179,11 +9189,11 @@
       </c>
       <c r="K157" s="11">
         <f>_xll.qlRateHelperEarliestDate($E157,Trigger)</f>
-        <v>41655</v>
+        <v>41688</v>
       </c>
       <c r="L157" s="10">
         <f>_xll.qlRateHelperLatestDate($E157,Trigger)</f>
-        <v>50423</v>
+        <v>50454</v>
       </c>
     </row>
     <row r="158" spans="2:12" x14ac:dyDescent="0.2">
@@ -9221,11 +9231,11 @@
       </c>
       <c r="K158" s="11">
         <f>_xll.qlRateHelperEarliestDate($E158,Trigger)</f>
-        <v>41655</v>
+        <v>41688</v>
       </c>
       <c r="L158" s="10">
         <f>_xll.qlRateHelperLatestDate($E158,Trigger)</f>
-        <v>50787</v>
+        <v>50819</v>
       </c>
     </row>
     <row r="159" spans="2:12" x14ac:dyDescent="0.2">
@@ -9263,11 +9273,11 @@
       </c>
       <c r="K159" s="11">
         <f>_xll.qlRateHelperEarliestDate($E159,Trigger)</f>
-        <v>41655</v>
+        <v>41688</v>
       </c>
       <c r="L159" s="10">
         <f>_xll.qlRateHelperLatestDate($E159,Trigger)</f>
-        <v>51151</v>
+        <v>51186</v>
       </c>
     </row>
     <row r="160" spans="2:12" x14ac:dyDescent="0.2">
@@ -9305,11 +9315,11 @@
       </c>
       <c r="K160" s="11">
         <f>_xll.qlRateHelperEarliestDate($E160,Trigger)</f>
-        <v>41655</v>
+        <v>41688</v>
       </c>
       <c r="L160" s="10">
         <f>_xll.qlRateHelperLatestDate($E160,Trigger)</f>
-        <v>51517</v>
+        <v>51550</v>
       </c>
     </row>
     <row r="161" spans="2:12" x14ac:dyDescent="0.2">
@@ -9347,11 +9357,11 @@
       </c>
       <c r="K161" s="11">
         <f>_xll.qlRateHelperEarliestDate($E161,Trigger)</f>
-        <v>41655</v>
+        <v>41688</v>
       </c>
       <c r="L161" s="10">
         <f>_xll.qlRateHelperLatestDate($E161,Trigger)</f>
-        <v>51882</v>
+        <v>51915</v>
       </c>
     </row>
     <row r="162" spans="2:12" x14ac:dyDescent="0.2">
@@ -9389,11 +9399,11 @@
       </c>
       <c r="K162" s="11">
         <f>_xll.qlRateHelperEarliestDate($E162,Trigger)</f>
-        <v>41655</v>
+        <v>41688</v>
       </c>
       <c r="L162" s="10">
         <f>_xll.qlRateHelperLatestDate($E162,Trigger)</f>
-        <v>52247</v>
+        <v>52280</v>
       </c>
     </row>
     <row r="163" spans="2:12" x14ac:dyDescent="0.2">
@@ -9431,11 +9441,11 @@
       </c>
       <c r="K163" s="11">
         <f>_xll.qlRateHelperEarliestDate($E163,Trigger)</f>
-        <v>41655</v>
+        <v>41688</v>
       </c>
       <c r="L163" s="10">
         <f>_xll.qlRateHelperLatestDate($E163,Trigger)</f>
-        <v>52614</v>
+        <v>52645</v>
       </c>
     </row>
     <row r="164" spans="2:12" x14ac:dyDescent="0.2">
@@ -9473,11 +9483,11 @@
       </c>
       <c r="K164" s="11">
         <f>_xll.qlRateHelperEarliestDate($E164,Trigger)</f>
-        <v>41655</v>
+        <v>41688</v>
       </c>
       <c r="L164" s="10">
         <f>_xll.qlRateHelperLatestDate($E164,Trigger)</f>
-        <v>54441</v>
+        <v>54472</v>
       </c>
     </row>
     <row r="165" spans="2:12" x14ac:dyDescent="0.2">
@@ -9515,11 +9525,11 @@
       </c>
       <c r="K165" s="11">
         <f>_xll.qlRateHelperEarliestDate($E165,Trigger)</f>
-        <v>41655</v>
+        <v>41688</v>
       </c>
       <c r="L165" s="10">
         <f>_xll.qlRateHelperLatestDate($E165,Trigger)</f>
-        <v>56265</v>
+        <v>56298</v>
       </c>
     </row>
     <row r="166" spans="2:12" x14ac:dyDescent="0.2">
@@ -9557,11 +9567,11 @@
       </c>
       <c r="K166" s="11">
         <f>_xll.qlRateHelperEarliestDate($E166,Trigger)</f>
-        <v>41655</v>
+        <v>41688</v>
       </c>
       <c r="L166" s="10">
         <f>_xll.qlRateHelperLatestDate($E166,Trigger)</f>
-        <v>59917</v>
+        <v>59950</v>
       </c>
     </row>
     <row r="167" spans="2:12" x14ac:dyDescent="0.2">
@@ -9599,11 +9609,11 @@
       </c>
       <c r="K167" s="4">
         <f>_xll.qlRateHelperEarliestDate($E167,Trigger)</f>
-        <v>41655</v>
+        <v>41688</v>
       </c>
       <c r="L167" s="3">
         <f>_xll.qlRateHelperLatestDate($E167,Trigger)</f>
-        <v>63570</v>
+        <v>63604</v>
       </c>
     </row>
   </sheetData>
@@ -9642,10 +9652,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="178" t="s">
+      <c r="A1" s="172" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="179"/>
+      <c r="B1" s="173"/>
       <c r="D1" s="53" t="s">
         <v>79</v>
       </c>
@@ -9685,14 +9695,14 @@
       </c>
       <c r="G2" s="40">
         <f>_xll.qlRateHelperEarliestDate($D2)</f>
-        <v>41655</v>
+        <v>41688</v>
       </c>
       <c r="H2" s="39">
         <f>_xll.qlRateHelperLatestDate($D2)</f>
-        <v>41669</v>
+        <v>41702</v>
       </c>
       <c r="I2" s="34">
-        <v>0.99991400322400692</v>
+        <v>0.99990328143267748</v>
       </c>
       <c r="K2" s="32" t="s">
         <v>113</v>
@@ -9721,14 +9731,14 @@
       </c>
       <c r="G3" s="40">
         <f>_xll.qlRateHelperEarliestDate($D3)</f>
-        <v>41655</v>
+        <v>41688</v>
       </c>
       <c r="H3" s="39">
         <f>_xll.qlRateHelperLatestDate($D3)</f>
-        <v>41676</v>
+        <v>41709</v>
       </c>
       <c r="I3" s="34">
-        <v>0.99987638196006834</v>
+        <v>0.99986567118283365</v>
       </c>
       <c r="K3" s="32" t="s">
         <v>114</v>
@@ -9757,14 +9767,14 @@
       </c>
       <c r="G4" s="40">
         <f>_xll.qlRateHelperEarliestDate($D4)</f>
-        <v>41655</v>
+        <v>41688</v>
       </c>
       <c r="H4" s="39">
         <f>_xll.qlRateHelperLatestDate($D4)</f>
-        <v>41687</v>
+        <v>41716</v>
       </c>
       <c r="I4" s="34">
-        <v>0.99981726569085139</v>
+        <v>0.99982806234765753</v>
       </c>
       <c r="K4" s="32" t="s">
         <v>115</v>
@@ -9793,14 +9803,14 @@
       </c>
       <c r="G5" s="40">
         <f>_xll.qlRateHelperEarliestDate($D5)</f>
-        <v>41655</v>
+        <v>41688</v>
       </c>
       <c r="H5" s="39">
         <f>_xll.qlRateHelperLatestDate($D5)</f>
-        <v>41715</v>
+        <v>41751</v>
       </c>
       <c r="I5" s="34">
-        <v>0.99971680368575544</v>
+        <v>0.99969003938993084</v>
       </c>
       <c r="K5" s="32" t="s">
         <v>116</v>
@@ -9830,14 +9840,14 @@
       </c>
       <c r="G6" s="40">
         <f>_xll.qlRateHelperEarliestDate($D6)</f>
-        <v>41655</v>
+        <v>41688</v>
       </c>
       <c r="H6" s="39">
         <f>_xll.qlRateHelperLatestDate($D6)</f>
-        <v>41745</v>
+        <v>41778</v>
       </c>
       <c r="I6" s="34">
-        <v>0.99952980200446162</v>
+        <v>0.9995651570517301</v>
       </c>
       <c r="K6" s="32" t="s">
         <v>117</v>
@@ -9849,7 +9859,7 @@
     <row r="7" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="44" t="str">
         <f>_xll.ohGroup(RateHelperPrefix&amp;"_RateHelpersSelected",_xll.ohPack(Selected!D2:D126),TRUE,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_RateHelpersSelected#0007</v>
+        <v>USD_YC1MRH_RateHelpersSelected#0000</v>
       </c>
       <c r="B7" s="43" t="str">
         <f>_xll.ohRangeRetrieveError(RateHelpersSelected)</f>
@@ -9868,14 +9878,14 @@
       </c>
       <c r="G7" s="40">
         <f>_xll.qlRateHelperEarliestDate($D7)</f>
-        <v>41655</v>
+        <v>41688</v>
       </c>
       <c r="H7" s="39">
         <f>_xll.qlRateHelperLatestDate($D7)</f>
-        <v>41775</v>
+        <v>41808</v>
       </c>
       <c r="I7" s="34">
-        <v>0.99937652437718383</v>
+        <v>0.9993764171948939</v>
       </c>
       <c r="K7" s="32" t="s">
         <v>118</v>
@@ -9898,14 +9908,14 @@
       </c>
       <c r="G8" s="40">
         <f>_xll.qlRateHelperEarliestDate($D8)</f>
-        <v>41655</v>
+        <v>41688</v>
       </c>
       <c r="H8" s="39">
         <f>_xll.qlRateHelperLatestDate($D8)</f>
-        <v>41806</v>
+        <v>41838</v>
       </c>
       <c r="I8" s="34">
-        <v>0.99921816218901693</v>
+        <v>0.99922560881578515</v>
       </c>
       <c r="K8" s="32" t="s">
         <v>119</v>
@@ -9928,14 +9938,14 @@
       </c>
       <c r="G9" s="40">
         <f>_xll.qlRateHelperEarliestDate($D9)</f>
-        <v>41655</v>
+        <v>41688</v>
       </c>
       <c r="H9" s="39">
         <f>_xll.qlRateHelperLatestDate($D9)</f>
-        <v>41836</v>
+        <v>41869</v>
       </c>
       <c r="I9" s="34">
-        <v>0.9990649323516213</v>
+        <v>0.99906979739853519</v>
       </c>
       <c r="K9" s="32" t="s">
         <v>120</v>
@@ -9958,14 +9968,14 @@
       </c>
       <c r="G10" s="40">
         <f>_xll.qlRateHelperEarliestDate($D10)</f>
-        <v>41655</v>
+        <v>41688</v>
       </c>
       <c r="H10" s="39">
         <f>_xll.qlRateHelperLatestDate($D10)</f>
-        <v>41869</v>
+        <v>41900</v>
       </c>
       <c r="I10" s="34">
-        <v>0.99884640667025337</v>
+        <v>0.9988640102772971</v>
       </c>
       <c r="K10" s="32" t="s">
         <v>121</v>
@@ -9988,14 +9998,14 @@
       </c>
       <c r="G11" s="40">
         <f>_xll.qlRateHelperEarliestDate($D11)</f>
-        <v>41655</v>
+        <v>41688</v>
       </c>
       <c r="H11" s="39">
         <f>_xll.qlRateHelperLatestDate($D11)</f>
-        <v>41898</v>
+        <v>41932</v>
       </c>
       <c r="I11" s="34">
-        <v>0.99869162744666939</v>
+        <v>0.99864582529111579</v>
       </c>
       <c r="K11" s="32" t="s">
         <v>122</v>
@@ -10018,14 +10028,14 @@
       </c>
       <c r="G12" s="40">
         <f>_xll.qlRateHelperEarliestDate($D12)</f>
-        <v>41655</v>
+        <v>41688</v>
       </c>
       <c r="H12" s="39">
         <f>_xll.qlRateHelperLatestDate($D12)</f>
-        <v>41928</v>
+        <v>41961</v>
       </c>
       <c r="I12" s="34">
-        <v>0.99847233586809003</v>
+        <v>0.99843759401909371</v>
       </c>
       <c r="K12" s="32" t="s">
         <v>123</v>
@@ -10048,14 +10058,14 @@
       </c>
       <c r="G13" s="40">
         <f>_xll.qlRateHelperEarliestDate($D13)</f>
-        <v>41655</v>
+        <v>41688</v>
       </c>
       <c r="H13" s="39">
         <f>_xll.qlRateHelperLatestDate($D13)</f>
-        <v>41960</v>
+        <v>41991</v>
       </c>
       <c r="I13" s="34">
-        <v>0.99824323640024781</v>
+        <v>0.99821852694987301</v>
       </c>
       <c r="K13" s="32" t="s">
         <v>124</v>
@@ -10078,14 +10088,14 @@
       </c>
       <c r="G14" s="40">
         <f>_xll.qlRateHelperEarliestDate($D14)</f>
-        <v>41655</v>
+        <v>41688</v>
       </c>
       <c r="H14" s="39">
         <f>_xll.qlRateHelperLatestDate($D14)</f>
-        <v>41989</v>
+        <v>42023</v>
       </c>
       <c r="I14" s="34">
-        <v>0.99802155328735542</v>
+        <v>0.99798301868747141</v>
       </c>
       <c r="K14" s="32" t="s">
         <v>125</v>
@@ -10108,14 +10118,14 @@
       </c>
       <c r="G15" s="40">
         <f>_xll.qlRateHelperEarliestDate($D15)</f>
-        <v>41655</v>
+        <v>41688</v>
       </c>
       <c r="H15" s="39">
         <f>_xll.qlRateHelperLatestDate($D15)</f>
-        <v>42020</v>
+        <v>42053</v>
       </c>
       <c r="I15" s="34">
-        <v>0.99776976245645943</v>
+        <v>0.99775472082569361</v>
       </c>
       <c r="K15" s="32" t="s">
         <v>126</v>
@@ -10138,14 +10148,14 @@
       </c>
       <c r="G16" s="40">
         <f>_xll.qlRateHelperEarliestDate($D16)</f>
-        <v>41655</v>
+        <v>41688</v>
       </c>
       <c r="H16" s="39">
         <f>_xll.qlRateHelperLatestDate($D16)</f>
-        <v>42387</v>
+        <v>42418</v>
       </c>
       <c r="I16" s="34">
-        <v>0.99288802434444912</v>
+        <v>0.99289668095385053</v>
       </c>
       <c r="K16" s="32" t="s">
         <v>127</v>
@@ -10168,14 +10178,14 @@
       </c>
       <c r="G17" s="40">
         <f>_xll.qlRateHelperEarliestDate($D17)</f>
-        <v>41655</v>
+        <v>41688</v>
       </c>
       <c r="H17" s="39">
         <f>_xll.qlRateHelperLatestDate($D17)</f>
-        <v>42751</v>
+        <v>42786</v>
       </c>
       <c r="I17" s="34">
-        <v>0.98165589335840386</v>
+        <v>0.98161270007302959</v>
       </c>
       <c r="K17" s="32" t="s">
         <v>128</v>
@@ -10198,14 +10208,14 @@
       </c>
       <c r="G18" s="40">
         <f>_xll.qlRateHelperEarliestDate($D18)</f>
-        <v>41655</v>
+        <v>41688</v>
       </c>
       <c r="H18" s="39">
         <f>_xll.qlRateHelperLatestDate($D18)</f>
-        <v>43116</v>
+        <v>43150</v>
       </c>
       <c r="I18" s="34">
-        <v>0.96156638119888482</v>
+        <v>0.96153034655751501</v>
       </c>
       <c r="K18" s="32" t="s">
         <v>129</v>
@@ -10228,14 +10238,14 @@
       </c>
       <c r="G19" s="40">
         <f>_xll.qlRateHelperEarliestDate($D19)</f>
-        <v>41655</v>
+        <v>41688</v>
       </c>
       <c r="H19" s="39">
         <f>_xll.qlRateHelperLatestDate($D19)</f>
-        <v>43481</v>
+        <v>43514</v>
       </c>
       <c r="I19" s="34">
-        <v>0.93452379034699762</v>
+        <v>0.93451272270901065</v>
       </c>
       <c r="K19" s="32" t="s">
         <v>130</v>
@@ -10258,14 +10268,14 @@
       </c>
       <c r="G20" s="40">
         <f>_xll.qlRateHelperEarliestDate($D20)</f>
-        <v>41655</v>
+        <v>41688</v>
       </c>
       <c r="H20" s="39">
         <f>_xll.qlRateHelperLatestDate($D20)</f>
-        <v>43846</v>
+        <v>43879</v>
       </c>
       <c r="I20" s="34">
-        <v>0.90290040890465406</v>
+        <v>0.90288942585040832</v>
       </c>
       <c r="K20" s="32" t="s">
         <v>131</v>
@@ -10288,14 +10298,14 @@
       </c>
       <c r="G21" s="40">
         <f>_xll.qlRateHelperEarliestDate($D21)</f>
-        <v>41655</v>
+        <v>41688</v>
       </c>
       <c r="H21" s="39">
         <f>_xll.qlRateHelperLatestDate($D21)</f>
-        <v>44214</v>
+        <v>44245</v>
       </c>
       <c r="I21" s="34">
-        <v>0.8692886606783482</v>
+        <v>0.86936960800553642</v>
       </c>
       <c r="K21" s="32" t="s">
         <v>132</v>
@@ -10318,14 +10328,14 @@
       </c>
       <c r="G22" s="40">
         <f>_xll.qlRateHelperEarliestDate($D22)</f>
-        <v>41655</v>
+        <v>41688</v>
       </c>
       <c r="H22" s="39">
         <f>_xll.qlRateHelperLatestDate($D22)</f>
-        <v>44578</v>
+        <v>44610</v>
       </c>
       <c r="I22" s="34">
-        <v>0.83494581710910221</v>
+        <v>0.83498663377573867</v>
       </c>
       <c r="K22" s="32" t="s">
         <v>133</v>
@@ -10348,14 +10358,14 @@
       </c>
       <c r="G23" s="40">
         <f>_xll.qlRateHelperEarliestDate($D23)</f>
-        <v>41655</v>
+        <v>41688</v>
       </c>
       <c r="H23" s="39">
         <f>_xll.qlRateHelperLatestDate($D23)</f>
-        <v>44942</v>
+        <v>44977</v>
       </c>
       <c r="I23" s="34">
-        <v>0.800628853171655</v>
+        <v>0.80051872114484368</v>
       </c>
       <c r="K23" s="32" t="s">
         <v>134</v>
@@ -10378,14 +10388,14 @@
       </c>
       <c r="G24" s="40">
         <f>_xll.qlRateHelperEarliestDate($D24)</f>
-        <v>41655</v>
+        <v>41688</v>
       </c>
       <c r="H24" s="39">
         <f>_xll.qlRateHelperLatestDate($D24)</f>
-        <v>45307</v>
+        <v>45341</v>
       </c>
       <c r="I24" s="34">
-        <v>0.76666899883923545</v>
+        <v>0.76660752114984476</v>
       </c>
       <c r="K24" s="32" t="s">
         <v>135</v>
@@ -10408,14 +10418,14 @@
       </c>
       <c r="G25" s="40">
         <f>_xll.qlRateHelperEarliestDate($D25)</f>
-        <v>41655</v>
+        <v>41688</v>
       </c>
       <c r="H25" s="39">
         <f>_xll.qlRateHelperLatestDate($D25)</f>
-        <v>46038</v>
+        <v>46071</v>
       </c>
       <c r="I25" s="34">
-        <v>0.70083137895643888</v>
+        <v>0.70082224480617128</v>
       </c>
       <c r="K25" s="32" t="s">
         <v>136</v>
@@ -10438,14 +10448,14 @@
       </c>
       <c r="G26" s="40">
         <f>_xll.qlRateHelperEarliestDate($D26)</f>
-        <v>41655</v>
+        <v>41688</v>
       </c>
       <c r="H26" s="39">
         <f>_xll.qlRateHelperLatestDate($D26)</f>
-        <v>47134</v>
+        <v>47168</v>
       </c>
       <c r="I26" s="34">
-        <v>0.61256566726357886</v>
+        <v>0.61250586800665918</v>
       </c>
       <c r="K26" s="32" t="s">
         <v>137</v>
@@ -10468,14 +10478,14 @@
       </c>
       <c r="G27" s="40">
         <f>_xll.qlRateHelperEarliestDate($D27)</f>
-        <v>41655</v>
+        <v>41688</v>
       </c>
       <c r="H27" s="39">
         <f>_xll.qlRateHelperLatestDate($D27)</f>
-        <v>48960</v>
+        <v>48995</v>
       </c>
       <c r="I27" s="34">
-        <v>0.4932294553672274</v>
+        <v>0.49312996477480447</v>
       </c>
       <c r="K27" s="32" t="s">
         <v>138</v>
@@ -10498,14 +10508,14 @@
       </c>
       <c r="G28" s="40">
         <f>_xll.qlRateHelperEarliestDate($D28)</f>
-        <v>41655</v>
+        <v>41688</v>
       </c>
       <c r="H28" s="39">
         <f>_xll.qlRateHelperLatestDate($D28)</f>
-        <v>50787</v>
+        <v>50819</v>
       </c>
       <c r="I28" s="34">
-        <v>0.40009620732850348</v>
+        <v>0.40012070752831741</v>
       </c>
       <c r="K28" s="32" t="s">
         <v>139</v>
@@ -10528,14 +10538,14 @@
       </c>
       <c r="G29" s="40">
         <f>_xll.qlRateHelperEarliestDate($D29)</f>
-        <v>41655</v>
+        <v>41688</v>
       </c>
       <c r="H29" s="39">
         <f>_xll.qlRateHelperLatestDate($D29)</f>
-        <v>52614</v>
+        <v>52645</v>
       </c>
       <c r="I29" s="34">
-        <v>0.32650743927244069</v>
+        <v>0.32656019262652825</v>
       </c>
       <c r="K29" s="32" t="s">
         <v>140</v>
@@ -10558,14 +10568,14 @@
       </c>
       <c r="G30" s="40">
         <f>_xll.qlRateHelperEarliestDate($D30)</f>
-        <v>41655</v>
+        <v>41688</v>
       </c>
       <c r="H30" s="39">
         <f>_xll.qlRateHelperLatestDate($D30)</f>
-        <v>56265</v>
+        <v>56298</v>
       </c>
       <c r="I30" s="34">
-        <v>0.22832117793158843</v>
+        <v>0.22831625594470767</v>
       </c>
       <c r="K30" s="32" t="s">
         <v>141</v>
@@ -10588,14 +10598,14 @@
       </c>
       <c r="G31" s="40">
         <f>_xll.qlRateHelperEarliestDate($D31)</f>
-        <v>41655</v>
+        <v>41688</v>
       </c>
       <c r="H31" s="39">
         <f>_xll.qlRateHelperLatestDate($D31)</f>
-        <v>59917</v>
+        <v>59950</v>
       </c>
       <c r="I31" s="34">
-        <v>0.16369286633781341</v>
+        <v>0.16368928964546794</v>
       </c>
       <c r="K31" s="32" t="s">
         <v>142</v>

--- a/QuantLibXL/Data2/XLS/USD_YC1MBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/USD_YC1MBootstrapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="420" windowWidth="20835" windowHeight="10005"/>
+    <workbookView xWindow="240" yWindow="420" windowWidth="20835" windowHeight="10005" tabRatio="835"/>
   </bookViews>
   <sheets>
     <sheet name="General Settings" sheetId="6" r:id="rId1"/>
@@ -219,7 +219,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="200">
   <si>
     <t>60Y</t>
   </si>
@@ -668,9 +668,6 @@
     <t>Quote Object ID</t>
   </si>
   <si>
-    <t>Index</t>
-  </si>
-  <si>
     <t>_Quote</t>
   </si>
   <si>
@@ -792,6 +789,36 @@
   </si>
   <si>
     <t>USD_YCRH_SwapsFromBasis</t>
+  </si>
+  <si>
+    <t>tenor</t>
+  </si>
+  <si>
+    <t>fixing days</t>
+  </si>
+  <si>
+    <t>calendar</t>
+  </si>
+  <si>
+    <t>conv</t>
+  </si>
+  <si>
+    <t>EOM</t>
+  </si>
+  <si>
+    <t>day counter</t>
+  </si>
+  <si>
+    <t>1D</t>
+  </si>
+  <si>
+    <t>1W</t>
+  </si>
+  <si>
+    <t>TARGET</t>
+  </si>
+  <si>
+    <t>Following</t>
   </si>
 </sst>
 </file>
@@ -1440,7 +1467,7 @@
     <xf numFmtId="177" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="181">
+  <cellXfs count="187">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -1576,9 +1603,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="169" fontId="2" fillId="2" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1678,7 +1702,6 @@
     <xf numFmtId="174" fontId="2" fillId="8" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="174" fontId="2" fillId="2" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1795,6 +1818,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="10" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1802,6 +1831,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1817,14 +1849,29 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -2138,450 +2185,449 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B1:N30"/>
+  <dimension ref="B1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="2.7109375" style="164" customWidth="1"/>
-    <col min="3" max="3" width="18" style="164" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" style="164" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22" style="164" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="2.7109375" style="164" customWidth="1"/>
-    <col min="8" max="8" width="4" style="164" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.28515625" style="164" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="2.7109375" style="164" customWidth="1"/>
-    <col min="12" max="12" width="18.5703125" style="164" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="53.7109375" style="164" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="2.7109375" style="164" customWidth="1"/>
-    <col min="15" max="16384" width="8" style="164"/>
+    <col min="1" max="2" width="2.7109375" style="162" customWidth="1"/>
+    <col min="3" max="3" width="18" style="162" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" style="162" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" style="162" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="2.7109375" style="162" customWidth="1"/>
+    <col min="8" max="8" width="4" style="162" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.28515625" style="162" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="2.7109375" style="162" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" style="162" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="53.7109375" style="162" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2.7109375" style="162" customWidth="1"/>
+    <col min="15" max="16384" width="8" style="162"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="164" t="str">
+      <c r="B1" s="162" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
-        <v>QuantLibXL 1.4.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Feb  7 2014 15:33:58</v>
+        <v>QuantLibXL 1.4.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Apr 18 2014 11:20:01</v>
       </c>
     </row>
     <row r="2" spans="2:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="166" t="s">
+      <c r="B2" s="170" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="168"/>
-      <c r="K2" s="166" t="s">
-        <v>158</v>
-      </c>
-      <c r="L2" s="167"/>
-      <c r="M2" s="167"/>
-      <c r="N2" s="180"/>
+      <c r="C2" s="171"/>
+      <c r="D2" s="171"/>
+      <c r="E2" s="171"/>
+      <c r="F2" s="172"/>
+      <c r="K2" s="170" t="s">
+        <v>157</v>
+      </c>
+      <c r="L2" s="171"/>
+      <c r="M2" s="171"/>
+      <c r="N2" s="173"/>
     </row>
     <row r="3" spans="2:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="61"/>
-      <c r="C3" s="90"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="89"/>
       <c r="D3" s="58"/>
       <c r="E3" s="58"/>
       <c r="F3" s="57"/>
-      <c r="K3" s="127"/>
-      <c r="L3" s="130"/>
-      <c r="M3" s="130"/>
-      <c r="N3" s="129"/>
+      <c r="K3" s="125"/>
+      <c r="L3" s="128"/>
+      <c r="M3" s="128"/>
+      <c r="N3" s="127"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B4" s="61"/>
-      <c r="C4" s="89" t="s">
+      <c r="B4" s="60"/>
+      <c r="C4" s="88" t="s">
         <v>111</v>
       </c>
-      <c r="D4" s="76" t="s">
+      <c r="D4" s="75" t="s">
         <v>100</v>
       </c>
       <c r="E4" s="58"/>
       <c r="F4" s="57"/>
-      <c r="H4" s="174" t="s">
+      <c r="H4" s="164" t="s">
         <v>110</v>
       </c>
-      <c r="I4" s="175"/>
-      <c r="K4" s="127"/>
-      <c r="L4" s="126" t="s">
-        <v>157</v>
-      </c>
-      <c r="M4" s="120" t="b">
-        <v>1</v>
-      </c>
-      <c r="N4" s="125"/>
+      <c r="I4" s="165"/>
+      <c r="K4" s="125"/>
+      <c r="L4" s="124" t="s">
+        <v>156</v>
+      </c>
+      <c r="M4" s="118" t="b">
+        <v>0</v>
+      </c>
+      <c r="N4" s="123"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B5" s="61"/>
-      <c r="C5" s="88" t="s">
+      <c r="B5" s="60"/>
+      <c r="C5" s="87" t="s">
         <v>109</v>
       </c>
-      <c r="D5" s="62">
+      <c r="D5" s="61">
         <v>1</v>
       </c>
       <c r="E5" s="58"/>
       <c r="F5" s="57"/>
-      <c r="H5" s="176" t="s">
+      <c r="H5" s="166" t="s">
         <v>108</v>
       </c>
-      <c r="I5" s="177" t="s">
+      <c r="I5" s="167" t="s">
         <v>107</v>
       </c>
-      <c r="K5" s="127"/>
-      <c r="L5" s="126" t="s">
-        <v>156</v>
-      </c>
-      <c r="M5" s="128" t="str">
-        <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
-        <v>C:\Users\erik\Documents\repos\quantlib\QuantLibXL\Data2\XML\</v>
-      </c>
-      <c r="N5" s="125"/>
+      <c r="K5" s="125"/>
+      <c r="L5" s="124" t="s">
+        <v>155</v>
+      </c>
+      <c r="M5" s="126"/>
+      <c r="N5" s="123"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B6" s="61"/>
-      <c r="C6" s="88" t="s">
+      <c r="B6" s="60"/>
+      <c r="C6" s="87" t="s">
         <v>106</v>
       </c>
-      <c r="D6" s="62" t="str">
+      <c r="D6" s="61" t="str">
         <f>_xll.qlPeriodEquivalent(D5&amp;"M")</f>
         <v>1M</v>
       </c>
       <c r="E6" s="58"/>
       <c r="F6" s="57"/>
-      <c r="H6" s="176" t="s">
+      <c r="H6" s="166" t="s">
         <v>105</v>
       </c>
-      <c r="I6" s="177" t="s">
+      <c r="I6" s="167" t="s">
         <v>104</v>
       </c>
-      <c r="K6" s="127"/>
-      <c r="L6" s="126" t="s">
-        <v>155</v>
-      </c>
-      <c r="M6" s="117" t="b">
-        <v>1</v>
-      </c>
-      <c r="N6" s="125"/>
+      <c r="K6" s="125"/>
+      <c r="L6" s="124" t="s">
+        <v>154</v>
+      </c>
+      <c r="M6" s="115" t="b">
+        <v>1</v>
+      </c>
+      <c r="N6" s="123"/>
     </row>
     <row r="7" spans="2:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="61"/>
-      <c r="C7" s="88" t="s">
+      <c r="B7" s="60"/>
+      <c r="C7" s="87" t="s">
         <v>103</v>
       </c>
-      <c r="D7" s="62" t="str">
+      <c r="D7" s="61" t="str">
         <f>Months&amp;IF(UPPER(Currency)="EUR","E","L")</f>
         <v>1L</v>
       </c>
       <c r="E7" s="58"/>
       <c r="F7" s="57"/>
-      <c r="H7" s="176" t="s">
+      <c r="H7" s="166" t="s">
         <v>102</v>
       </c>
-      <c r="I7" s="177"/>
-      <c r="K7" s="124"/>
-      <c r="L7" s="123"/>
-      <c r="M7" s="123"/>
-      <c r="N7" s="122"/>
+      <c r="I7" s="167"/>
+      <c r="K7" s="122"/>
+      <c r="L7" s="121"/>
+      <c r="M7" s="121"/>
+      <c r="N7" s="120"/>
     </row>
     <row r="8" spans="2:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="61"/>
-      <c r="C8" s="88" t="s">
+      <c r="B8" s="60"/>
+      <c r="C8" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="D8" s="62" t="str">
+      <c r="D8" s="61" t="str">
         <f>VLOOKUP(Currency,H4:I8,2)</f>
         <v>AM</v>
       </c>
       <c r="E8" s="58"/>
       <c r="F8" s="57"/>
-      <c r="H8" s="178" t="s">
+      <c r="H8" s="168" t="s">
         <v>100</v>
       </c>
-      <c r="I8" s="179" t="s">
+      <c r="I8" s="169" t="s">
         <v>99</v>
       </c>
-      <c r="K8" s="165"/>
-      <c r="L8" s="165"/>
-      <c r="M8" s="165"/>
-      <c r="N8" s="165"/>
+      <c r="K8" s="163"/>
+      <c r="L8" s="163"/>
+      <c r="M8" s="163"/>
+      <c r="N8" s="163"/>
     </row>
     <row r="9" spans="2:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="61"/>
-      <c r="C9" s="88" t="s">
+      <c r="B9" s="60"/>
+      <c r="C9" s="87" t="s">
         <v>98</v>
       </c>
-      <c r="D9" s="62" t="str">
+      <c r="D9" s="61" t="str">
         <f>Currency&amp;"_YC"&amp;IndexTenor&amp;"RH"</f>
         <v>USD_YC1MRH</v>
       </c>
       <c r="E9" s="58"/>
       <c r="F9" s="57"/>
-      <c r="K9" s="166" t="s">
-        <v>154</v>
-      </c>
-      <c r="L9" s="167"/>
-      <c r="M9" s="167"/>
-      <c r="N9" s="180"/>
+      <c r="K9" s="170" t="s">
+        <v>153</v>
+      </c>
+      <c r="L9" s="171"/>
+      <c r="M9" s="171"/>
+      <c r="N9" s="173"/>
     </row>
     <row r="10" spans="2:14" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B10" s="61"/>
-      <c r="C10" s="87" t="s">
+      <c r="B10" s="60"/>
+      <c r="C10" s="86" t="s">
         <v>97</v>
       </c>
-      <c r="D10" s="62" t="b">
+      <c r="D10" s="61" t="b">
         <v>1</v>
       </c>
       <c r="E10" s="58"/>
       <c r="F10" s="57"/>
-      <c r="K10" s="119"/>
-      <c r="L10" s="121"/>
-      <c r="M10" s="121"/>
-      <c r="N10" s="116"/>
+      <c r="K10" s="117"/>
+      <c r="L10" s="119"/>
+      <c r="M10" s="119"/>
+      <c r="N10" s="114"/>
     </row>
     <row r="11" spans="2:14" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B11" s="61"/>
-      <c r="C11" s="87" t="s">
+      <c r="B11" s="60"/>
+      <c r="C11" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="D11" s="86">
-        <v>41684.59065972222</v>
+      <c r="D11" s="85">
+        <v>41753.472442129627</v>
       </c>
       <c r="E11" s="58"/>
       <c r="F11" s="57"/>
-      <c r="K11" s="119"/>
-      <c r="L11" s="118" t="s">
-        <v>153</v>
-      </c>
-      <c r="M11" s="120" t="s">
+      <c r="K11" s="117"/>
+      <c r="L11" s="116" t="s">
         <v>152</v>
       </c>
-      <c r="N11" s="116"/>
+      <c r="M11" s="118" t="s">
+        <v>151</v>
+      </c>
+      <c r="N11" s="114"/>
     </row>
     <row r="12" spans="2:14" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B12" s="61"/>
-      <c r="C12" s="85" t="s">
+      <c r="B12" s="60"/>
+      <c r="C12" s="84" t="s">
         <v>95</v>
       </c>
-      <c r="D12" s="84" t="b">
+      <c r="D12" s="83" t="b">
         <v>0</v>
       </c>
       <c r="E12" s="58"/>
       <c r="F12" s="57"/>
-      <c r="K12" s="119"/>
-      <c r="L12" s="118" t="s">
-        <v>151</v>
-      </c>
-      <c r="M12" s="117" t="s">
+      <c r="K12" s="117"/>
+      <c r="L12" s="116" t="s">
         <v>150</v>
       </c>
-      <c r="N12" s="116"/>
+      <c r="M12" s="115" t="s">
+        <v>149</v>
+      </c>
+      <c r="N12" s="114"/>
     </row>
     <row r="13" spans="2:14" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B13" s="61"/>
-      <c r="C13" s="66"/>
-      <c r="D13" s="66"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
       <c r="E13" s="58"/>
       <c r="F13" s="57"/>
-      <c r="K13" s="119"/>
-      <c r="L13" s="118" t="s">
-        <v>182</v>
-      </c>
-      <c r="M13" s="120" t="s">
+      <c r="K13" s="117"/>
+      <c r="L13" s="116" t="s">
         <v>181</v>
       </c>
-      <c r="N13" s="116"/>
+      <c r="M13" s="118" t="s">
+        <v>180</v>
+      </c>
+      <c r="N13" s="114"/>
     </row>
     <row r="14" spans="2:14" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B14" s="61"/>
-      <c r="C14" s="81" t="s">
+      <c r="B14" s="60"/>
+      <c r="C14" s="80" t="s">
         <v>94</v>
       </c>
-      <c r="D14" s="83" t="str">
-        <f>_xll.qlPiecewiseYieldCurve(D16,NDays,Calendar,RateHelpersSelected,DayCounter,IF(ISERROR(D22),NA(),D20:E20),IF(ISERROR(D22),NA(),D21:E21),Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
-        <v>_USDYC1M#0000</v>
+      <c r="D14" s="82" t="str">
+        <f>_xll.qlPiecewiseYieldCurve(D16,NDays,Calendar,RateHelpersSelected,DayCounter,,,Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
+        <v>_USDYC1M#0017</v>
       </c>
       <c r="E14" s="58"/>
       <c r="F14" s="57"/>
-      <c r="K14" s="119"/>
-      <c r="L14" s="118" t="s">
-        <v>180</v>
-      </c>
-      <c r="M14" s="120" t="str">
-        <f>PROPER(Currency)&amp;"YC"</f>
-        <v>UsdYC</v>
-      </c>
-      <c r="N14" s="116"/>
+      <c r="K14" s="117"/>
+      <c r="L14" s="116" t="s">
+        <v>179</v>
+      </c>
+      <c r="M14" s="118" t="str">
+        <f>PROPER(Currency)&amp;"ON"</f>
+        <v>UsdON</v>
+      </c>
+      <c r="N14" s="114"/>
     </row>
     <row r="15" spans="2:14" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B15" s="61"/>
-      <c r="C15" s="68" t="s">
+      <c r="B15" s="60"/>
+      <c r="C15" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="D15" s="82" t="str">
+      <c r="D15" s="81" t="str">
         <f>_xll.ohRangeRetrieveError(YieldCurve)</f>
         <v/>
       </c>
       <c r="E15" s="58"/>
       <c r="F15" s="57"/>
-      <c r="K15" s="119"/>
-      <c r="L15" s="118" t="s">
-        <v>179</v>
-      </c>
-      <c r="M15" s="120" t="str">
-        <f>PROPER(Currency)&amp;"YCSTD"</f>
-        <v>UsdYCSTD</v>
-      </c>
-      <c r="N15" s="116"/>
+      <c r="K15" s="117"/>
+      <c r="L15" s="116" t="s">
+        <v>178</v>
+      </c>
+      <c r="M15" s="118" t="str">
+        <f>PROPER(Currency)&amp;"STD"</f>
+        <v>UsdSTD</v>
+      </c>
+      <c r="N15" s="114"/>
     </row>
     <row r="16" spans="2:14" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B16" s="61"/>
-      <c r="C16" s="81" t="s">
+      <c r="B16" s="60"/>
+      <c r="C16" s="80" t="s">
         <v>93</v>
       </c>
-      <c r="D16" s="80" t="str">
+      <c r="D16" s="79" t="str">
         <f>"_"&amp;Currency&amp;"YC"&amp;IndexTenor</f>
         <v>_USDYC1M</v>
       </c>
       <c r="E16" s="58"/>
       <c r="F16" s="57"/>
-      <c r="K16" s="119"/>
-      <c r="L16" s="118" t="s">
-        <v>184</v>
-      </c>
-      <c r="M16" s="120" t="s">
+      <c r="K16" s="117"/>
+      <c r="L16" s="116" t="s">
         <v>183</v>
       </c>
-      <c r="N16" s="116"/>
+      <c r="M16" s="118" t="s">
+        <v>182</v>
+      </c>
+      <c r="N16" s="114"/>
     </row>
     <row r="17" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="61"/>
-      <c r="C17" s="70" t="s">
+      <c r="B17" s="60"/>
+      <c r="C17" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="D17" s="79">
+      <c r="D17" s="78">
         <v>0</v>
       </c>
       <c r="E17" s="58"/>
       <c r="F17" s="57"/>
-      <c r="K17" s="115"/>
-      <c r="L17" s="114"/>
-      <c r="M17" s="114"/>
-      <c r="N17" s="113"/>
+      <c r="K17" s="113"/>
+      <c r="L17" s="112"/>
+      <c r="M17" s="112"/>
+      <c r="N17" s="111"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B18" s="61"/>
-      <c r="C18" s="70" t="s">
+      <c r="B18" s="60"/>
+      <c r="C18" s="69" t="s">
         <v>91</v>
       </c>
-      <c r="D18" s="78" t="s">
+      <c r="D18" s="77" t="s">
         <v>90</v>
       </c>
       <c r="E18" s="58"/>
       <c r="F18" s="57"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B19" s="61"/>
-      <c r="C19" s="70" t="s">
+      <c r="B19" s="60"/>
+      <c r="C19" s="69" t="s">
         <v>89</v>
       </c>
-      <c r="D19" s="78"/>
+      <c r="D19" s="77"/>
       <c r="E19" s="58"/>
       <c r="F19" s="57"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B20" s="61"/>
-      <c r="C20" s="70" t="s">
+      <c r="B20" s="60"/>
+      <c r="C20" s="69" t="s">
         <v>88</v>
       </c>
-      <c r="D20" s="77" t="str">
+      <c r="D20" s="76" t="str">
         <f>Currency&amp;"TOY_SYNTH"&amp;IndexTenor&amp;"_Quote"</f>
         <v>USDTOY_SYNTH1M_Quote</v>
       </c>
-      <c r="E20" s="76" t="str">
+      <c r="E20" s="75" t="str">
         <f>Currency&amp;"TOY2_SYNTH"&amp;IndexTenor&amp;"_Quote"</f>
         <v>USDTOY2_SYNTH1M_Quote</v>
       </c>
       <c r="F20" s="57"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B21" s="61"/>
-      <c r="C21" s="70" t="s">
+      <c r="B21" s="60"/>
+      <c r="C21" s="69" t="s">
         <v>87</v>
       </c>
-      <c r="D21" s="75">
+      <c r="D21" s="74">
         <f>DATE(YEAR(_xll.qlCalendarAdvance(Calendar,_xll.qlSettingsEvaluationDate(Trigger),NDays&amp;"D")),12,31)</f>
         <v>42004</v>
       </c>
-      <c r="E21" s="74">
+      <c r="E21" s="73">
         <f>DATE(YEAR(D21+1),12,31)</f>
         <v>42369</v>
       </c>
       <c r="F21" s="57"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B22" s="61"/>
-      <c r="C22" s="70" t="s">
+      <c r="B22" s="60"/>
+      <c r="C22" s="69" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="73">
-        <f>_xll.qlQuoteValue(D20,Trigger)</f>
-        <v>1</v>
-      </c>
-      <c r="E22" s="72">
-        <f>_xll.qlQuoteValue(E20,Trigger)</f>
-        <v>1</v>
+      <c r="D22" s="72" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E22" s="71" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
       </c>
       <c r="F22" s="57"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B23" s="61"/>
-      <c r="C23" s="70" t="s">
+      <c r="B23" s="60"/>
+      <c r="C23" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="D23" s="71">
+      <c r="D23" s="70">
         <v>1E-4</v>
       </c>
       <c r="E23" s="58"/>
       <c r="F23" s="57"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B24" s="61"/>
-      <c r="C24" s="70" t="s">
+      <c r="B24" s="60"/>
+      <c r="C24" s="69" t="s">
         <v>84</v>
       </c>
-      <c r="D24" s="69" t="s">
+      <c r="D24" s="68" t="s">
         <v>83</v>
       </c>
       <c r="E24" s="58"/>
       <c r="F24" s="57"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B25" s="61"/>
-      <c r="C25" s="68" t="s">
+      <c r="B25" s="60"/>
+      <c r="C25" s="67" t="s">
         <v>82</v>
       </c>
-      <c r="D25" s="67" t="s">
+      <c r="D25" s="66" t="s">
         <v>81</v>
       </c>
       <c r="E25" s="58"/>
       <c r="F25" s="57"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B26" s="61"/>
-      <c r="C26" s="66"/>
-      <c r="D26" s="66"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="65"/>
       <c r="E26" s="58"/>
       <c r="F26" s="57"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B27" s="61"/>
-      <c r="C27" s="65">
+      <c r="B27" s="60"/>
+      <c r="C27" s="64">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve)</f>
-        <v>41684</v>
-      </c>
-      <c r="D27" s="64">
+        <v>41753</v>
+      </c>
+      <c r="D27" s="63">
         <f>MAX(_xll.ohPack(Selected!I1:I126))</f>
         <v>1</v>
       </c>
@@ -2589,36 +2635,49 @@
       <c r="F27" s="57"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B28" s="61"/>
-      <c r="C28" s="63">
+      <c r="B28" s="60"/>
+      <c r="C28" s="62">
         <f>MAX(_xll.ohPack(Selected!H2:H126))</f>
-        <v>59950</v>
-      </c>
-      <c r="D28" s="62">
+        <v>60020</v>
+      </c>
+      <c r="D28" s="61">
         <f>MIN(_xll.ohPack(Selected!I1:I126))</f>
-        <v>0.16368928964546794</v>
+        <v>0.17555809485144094</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="57"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B29" s="61"/>
-      <c r="C29" s="60" t="s">
+      <c r="B29" s="60"/>
+      <c r="C29" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="D29" s="59" t="str">
+      <c r="D29" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(Selected!I1)</f>
         <v/>
       </c>
       <c r="E29" s="58"/>
       <c r="F29" s="57"/>
     </row>
-    <row r="30" spans="2:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="56"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="54"/>
+    <row r="30" spans="2:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="60"/>
+      <c r="C30" s="59" t="str">
+        <f>Currency&amp;IndexTenor</f>
+        <v>USD1M</v>
+      </c>
+      <c r="D30" s="83" t="b">
+        <f>_xll.qlRelinkableHandleLinkTo(C30,YieldCurve)</f>
+        <v>1</v>
+      </c>
+      <c r="E30" s="58"/>
+      <c r="F30" s="57"/>
+    </row>
+    <row r="31" spans="2:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="56"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2689,11 +2748,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="B1" s="169" t="s">
+      <c r="B1" s="174" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="170"/>
-      <c r="D1" s="171"/>
+      <c r="C1" s="175"/>
+      <c r="D1" s="176"/>
       <c r="E1" s="31" t="s">
         <v>70</v>
       </c>
@@ -2726,12 +2785,12 @@
         <v>62</v>
       </c>
       <c r="E2" s="14" t="str">
-        <f>'1M_Deposits'!F3</f>
-        <v>USD_YC1MRH_SND#0000</v>
+        <f>'1M_Deposits'!K3</f>
+        <v>USD_YC1MRH_SND#0046</v>
       </c>
       <c r="F2" s="13">
         <f>_xll.qlRateHelperQuoteValue($E2,Trigger)</f>
-        <v>1.9589999999999998E-3</v>
+        <v>1.487E-3</v>
       </c>
       <c r="G2" s="13"/>
       <c r="H2" s="12" t="b">
@@ -2745,11 +2804,11 @@
       </c>
       <c r="K2" s="11">
         <f>_xll.qlRateHelperEarliestDate($E2,Trigger)</f>
-        <v>41688</v>
+        <v>41757</v>
       </c>
       <c r="L2" s="10">
         <f>_xll.qlRateHelperLatestDate($E2,Trigger)</f>
-        <v>41689</v>
+        <v>41758</v>
       </c>
       <c r="M2" s="1">
         <v>30</v>
@@ -2765,12 +2824,12 @@
         <v>60</v>
       </c>
       <c r="E3" s="14" t="str">
-        <f>'1M_Deposits'!F4</f>
-        <v>USD_YC1MRH_SWD#0000</v>
+        <f>'1M_Deposits'!K4</f>
+        <v>USD_YC1MRH_SWD#0004</v>
       </c>
       <c r="F3" s="13">
         <f>_xll.qlRateHelperQuoteValue($E3,Trigger)</f>
-        <v>1.954E-3</v>
+        <v>1.482E-3</v>
       </c>
       <c r="G3" s="13"/>
       <c r="H3" s="12" t="b">
@@ -2784,11 +2843,11 @@
       </c>
       <c r="K3" s="11">
         <f>_xll.qlRateHelperEarliestDate($E3,Trigger)</f>
-        <v>41688</v>
+        <v>41757</v>
       </c>
       <c r="L3" s="10">
         <f>_xll.qlRateHelperLatestDate($E3,Trigger)</f>
-        <v>41695</v>
+        <v>41764</v>
       </c>
       <c r="M3" s="1">
         <v>40</v>
@@ -2804,12 +2863,12 @@
         <v>58</v>
       </c>
       <c r="E4" s="14" t="str">
-        <f>'1M_Deposits'!F5</f>
-        <v>USD_YC1MRH_2WD#0000</v>
+        <f>'1M_Deposits'!K5</f>
+        <v>USD_YC1MRH_2WD#0003</v>
       </c>
       <c r="F4" s="13">
         <f>_xll.qlRateHelperQuoteValue($E4,Trigger)</f>
-        <v>1.939E-3</v>
+        <v>1.5139999999999999E-3</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="12" t="b">
@@ -2823,11 +2882,11 @@
       </c>
       <c r="K4" s="11">
         <f>_xll.qlRateHelperEarliestDate($E4,Trigger)</f>
-        <v>41688</v>
+        <v>41757</v>
       </c>
       <c r="L4" s="10">
         <f>_xll.qlRateHelperLatestDate($E4,Trigger)</f>
-        <v>41702</v>
+        <v>41771</v>
       </c>
       <c r="M4" s="1">
         <v>50</v>
@@ -2843,12 +2902,12 @@
         <v>56</v>
       </c>
       <c r="E5" s="14" t="str">
-        <f>'1M_Deposits'!F6</f>
-        <v>USD_YC1MRH_3WD#0000</v>
+        <f>'1M_Deposits'!K6</f>
+        <v>USD_YC1MRH_3WD#0003</v>
       </c>
       <c r="F5" s="13">
         <f>_xll.qlRateHelperQuoteValue($E5,Trigger)</f>
-        <v>1.923E-3</v>
+        <v>1.529E-3</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="12" t="b">
@@ -2862,11 +2921,11 @@
       </c>
       <c r="K5" s="11">
         <f>_xll.qlRateHelperEarliestDate($E5,Trigger)</f>
-        <v>41688</v>
+        <v>41757</v>
       </c>
       <c r="L5" s="10">
         <f>_xll.qlRateHelperLatestDate($E5,Trigger)</f>
-        <v>41709</v>
+        <v>41778</v>
       </c>
       <c r="M5" s="1">
         <v>60</v>
@@ -2882,12 +2941,12 @@
         <v>54</v>
       </c>
       <c r="E6" s="14" t="str">
-        <f>'1M_Deposits'!F7</f>
-        <v>USD_YC1MRH_1MD#0000</v>
+        <f>'1M_Deposits'!K7</f>
+        <v>USD_YC1MRH_1MD#0004</v>
       </c>
       <c r="F6" s="13">
         <f>_xll.qlRateHelperQuoteValue($E6,Trigger)</f>
-        <v>1.915E-3</v>
+        <v>1.523E-3</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="12" t="b">
@@ -2901,11 +2960,11 @@
       </c>
       <c r="K6" s="11">
         <f>_xll.qlRateHelperEarliestDate($E6,Trigger)</f>
-        <v>41688</v>
+        <v>41757</v>
       </c>
       <c r="L6" s="10">
         <f>_xll.qlRateHelperLatestDate($E6,Trigger)</f>
-        <v>41716</v>
+        <v>41787</v>
       </c>
       <c r="M6" s="1">
         <v>70</v>
@@ -3919,11 +3978,11 @@
       </c>
       <c r="D34" s="14" t="str">
         <f t="array" ref="D34:D75">_xll.qlIMMNextCodes(_xll.qlSettingsEvaluationDate(Trigger)-1,$A34:$A75)</f>
-        <v>G4</v>
+        <v>K4</v>
       </c>
       <c r="E34" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>USD_YC1MRH_FUT1MG4</v>
+        <v>USD_YC1MRH_FUT1MK4</v>
       </c>
       <c r="F34" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E34,Trigger)</f>
@@ -3961,11 +4020,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D35" s="14" t="str">
-        <v>H4</v>
+        <v>M4</v>
       </c>
       <c r="E35" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>USD_YC1MRH_FUT1MH4</v>
+        <v>USD_YC1MRH_FUT1MM4</v>
       </c>
       <c r="F35" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E35,Trigger)</f>
@@ -4003,11 +4062,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D36" s="14" t="str">
-        <v>J4</v>
+        <v>N4</v>
       </c>
       <c r="E36" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>USD_YC1MRH_FUT1MJ4</v>
+        <v>USD_YC1MRH_FUT1MN4</v>
       </c>
       <c r="F36" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E36,Trigger)</f>
@@ -4045,11 +4104,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D37" s="14" t="str">
-        <v>K4</v>
+        <v>Q4</v>
       </c>
       <c r="E37" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>USD_YC1MRH_FUT1MK4</v>
+        <v>USD_YC1MRH_FUT1MQ4</v>
       </c>
       <c r="F37" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E37,Trigger)</f>
@@ -4087,11 +4146,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D38" s="14" t="str">
-        <v>M4</v>
+        <v>U4</v>
       </c>
       <c r="E38" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>USD_YC1MRH_FUT1MM4</v>
+        <v>USD_YC1MRH_FUT1MU4</v>
       </c>
       <c r="F38" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E38,Trigger)</f>
@@ -4129,11 +4188,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D39" s="14" t="str">
-        <v>N4</v>
+        <v>V4</v>
       </c>
       <c r="E39" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>USD_YC1MRH_FUT1MN4</v>
+        <v>USD_YC1MRH_FUT1MV4</v>
       </c>
       <c r="F39" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E39,Trigger)</f>
@@ -4171,11 +4230,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D40" s="14" t="str">
-        <v>Q4</v>
+        <v>X4</v>
       </c>
       <c r="E40" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>USD_YC1MRH_FUT1MQ4</v>
+        <v>USD_YC1MRH_FUT1MX4</v>
       </c>
       <c r="F40" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E40,Trigger)</f>
@@ -4213,11 +4272,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D41" s="14" t="str">
-        <v>U4</v>
+        <v>Z4</v>
       </c>
       <c r="E41" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>USD_YC1MRH_FUT1MU4</v>
+        <v>USD_YC1MRH_FUT1MZ4</v>
       </c>
       <c r="F41" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E41,Trigger)</f>
@@ -4255,11 +4314,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D42" s="14" t="str">
-        <v>V4</v>
+        <v>F5</v>
       </c>
       <c r="E42" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>USD_YC1MRH_FUT1MV4</v>
+        <v>USD_YC1MRH_FUT1MF5</v>
       </c>
       <c r="F42" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E42,Trigger)</f>
@@ -4297,11 +4356,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D43" s="14" t="str">
-        <v>X4</v>
+        <v>G5</v>
       </c>
       <c r="E43" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>USD_YC1MRH_FUT1MX4</v>
+        <v>USD_YC1MRH_FUT1MG5</v>
       </c>
       <c r="F43" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E43,Trigger)</f>
@@ -4339,11 +4398,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D44" s="14" t="str">
-        <v>Z4</v>
+        <v>H5</v>
       </c>
       <c r="E44" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>USD_YC1MRH_FUT1MZ4</v>
+        <v>USD_YC1MRH_FUT1MH5</v>
       </c>
       <c r="F44" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E44,Trigger)</f>
@@ -4381,11 +4440,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D45" s="14" t="str">
-        <v>F5</v>
+        <v>J5</v>
       </c>
       <c r="E45" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>USD_YC1MRH_FUT1MF5</v>
+        <v>USD_YC1MRH_FUT1MJ5</v>
       </c>
       <c r="F45" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E45,Trigger)</f>
@@ -4423,11 +4482,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D46" s="14" t="str">
-        <v>H5</v>
+        <v>M5</v>
       </c>
       <c r="E46" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>USD_YC1MRH_FUT1MH5</v>
+        <v>USD_YC1MRH_FUT1MM5</v>
       </c>
       <c r="F46" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E46,Trigger)</f>
@@ -4465,11 +4524,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D47" s="14" t="str">
-        <v>M5</v>
+        <v>U5</v>
       </c>
       <c r="E47" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>USD_YC1MRH_FUT1MM5</v>
+        <v>USD_YC1MRH_FUT1MU5</v>
       </c>
       <c r="F47" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E47,Trigger)</f>
@@ -4507,11 +4566,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D48" s="14" t="str">
-        <v>U5</v>
+        <v>Z5</v>
       </c>
       <c r="E48" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>USD_YC1MRH_FUT1MU5</v>
+        <v>USD_YC1MRH_FUT1MZ5</v>
       </c>
       <c r="F48" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E48,Trigger)</f>
@@ -4549,11 +4608,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D49" s="14" t="str">
-        <v>Z5</v>
+        <v>H6</v>
       </c>
       <c r="E49" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>USD_YC1MRH_FUT1MZ5</v>
+        <v>USD_YC1MRH_FUT1MH6</v>
       </c>
       <c r="F49" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E49,Trigger)</f>
@@ -4591,11 +4650,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D50" s="14" t="str">
-        <v>H6</v>
+        <v>M6</v>
       </c>
       <c r="E50" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>USD_YC1MRH_FUT1MH6</v>
+        <v>USD_YC1MRH_FUT1MM6</v>
       </c>
       <c r="F50" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E50,Trigger)</f>
@@ -4633,11 +4692,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D51" s="14" t="str">
-        <v>M6</v>
+        <v>U6</v>
       </c>
       <c r="E51" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>USD_YC1MRH_FUT1MM6</v>
+        <v>USD_YC1MRH_FUT1MU6</v>
       </c>
       <c r="F51" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E51,Trigger)</f>
@@ -4675,11 +4734,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D52" s="14" t="str">
-        <v>U6</v>
+        <v>Z6</v>
       </c>
       <c r="E52" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>USD_YC1MRH_FUT1MU6</v>
+        <v>USD_YC1MRH_FUT1MZ6</v>
       </c>
       <c r="F52" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E52,Trigger)</f>
@@ -4717,11 +4776,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D53" s="14" t="str">
-        <v>Z6</v>
+        <v>H7</v>
       </c>
       <c r="E53" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>USD_YC1MRH_FUT1MZ6</v>
+        <v>USD_YC1MRH_FUT1MH7</v>
       </c>
       <c r="F53" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E53,Trigger)</f>
@@ -4759,11 +4818,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D54" s="14" t="str">
-        <v>H7</v>
+        <v>M7</v>
       </c>
       <c r="E54" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>USD_YC1MRH_FUT1MH7</v>
+        <v>USD_YC1MRH_FUT1MM7</v>
       </c>
       <c r="F54" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E54,Trigger)</f>
@@ -4801,11 +4860,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D55" s="14" t="str">
-        <v>M7</v>
+        <v>U7</v>
       </c>
       <c r="E55" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>USD_YC1MRH_FUT1MM7</v>
+        <v>USD_YC1MRH_FUT1MU7</v>
       </c>
       <c r="F55" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E55,Trigger)</f>
@@ -4843,11 +4902,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D56" s="14" t="str">
-        <v>U7</v>
+        <v>Z7</v>
       </c>
       <c r="E56" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>USD_YC1MRH_FUT1MU7</v>
+        <v>USD_YC1MRH_FUT1MZ7</v>
       </c>
       <c r="F56" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E56,Trigger)</f>
@@ -4885,11 +4944,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D57" s="14" t="str">
-        <v>Z7</v>
+        <v>H8</v>
       </c>
       <c r="E57" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>USD_YC1MRH_FUT1MZ7</v>
+        <v>USD_YC1MRH_FUT1MH8</v>
       </c>
       <c r="F57" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E57,Trigger)</f>
@@ -4927,11 +4986,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D58" s="14" t="str">
-        <v>H8</v>
+        <v>M8</v>
       </c>
       <c r="E58" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>USD_YC1MRH_FUT1MH8</v>
+        <v>USD_YC1MRH_FUT1MM8</v>
       </c>
       <c r="F58" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E58,Trigger)</f>
@@ -4969,11 +5028,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D59" s="14" t="str">
-        <v>M8</v>
+        <v>U8</v>
       </c>
       <c r="E59" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>USD_YC1MRH_FUT1MM8</v>
+        <v>USD_YC1MRH_FUT1MU8</v>
       </c>
       <c r="F59" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E59,Trigger)</f>
@@ -5011,11 +5070,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D60" s="14" t="str">
-        <v>U8</v>
+        <v>Z8</v>
       </c>
       <c r="E60" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>USD_YC1MRH_FUT1MU8</v>
+        <v>USD_YC1MRH_FUT1MZ8</v>
       </c>
       <c r="F60" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E60,Trigger)</f>
@@ -5053,11 +5112,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D61" s="14" t="str">
-        <v>Z8</v>
+        <v>H9</v>
       </c>
       <c r="E61" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>USD_YC1MRH_FUT1MZ8</v>
+        <v>USD_YC1MRH_FUT1MH9</v>
       </c>
       <c r="F61" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E61,Trigger)</f>
@@ -5095,11 +5154,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D62" s="14" t="str">
-        <v>H9</v>
+        <v>M9</v>
       </c>
       <c r="E62" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>USD_YC1MRH_FUT1MH9</v>
+        <v>USD_YC1MRH_FUT1MM9</v>
       </c>
       <c r="F62" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E62,Trigger)</f>
@@ -5137,11 +5196,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D63" s="14" t="str">
-        <v>M9</v>
+        <v>U9</v>
       </c>
       <c r="E63" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>USD_YC1MRH_FUT1MM9</v>
+        <v>USD_YC1MRH_FUT1MU9</v>
       </c>
       <c r="F63" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E63,Trigger)</f>
@@ -5179,11 +5238,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D64" s="14" t="str">
-        <v>U9</v>
+        <v>Z9</v>
       </c>
       <c r="E64" s="14" t="str">
         <f t="shared" ref="E64:E95" si="4">RateHelperPrefix&amp;"_"&amp;$B64&amp;$C64&amp;$D64</f>
-        <v>USD_YC1MRH_FUT1MU9</v>
+        <v>USD_YC1MRH_FUT1MZ9</v>
       </c>
       <c r="F64" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E64,Trigger)</f>
@@ -5221,11 +5280,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D65" s="14" t="str">
-        <v>Z9</v>
+        <v>H0</v>
       </c>
       <c r="E65" s="14" t="str">
         <f t="shared" si="4"/>
-        <v>USD_YC1MRH_FUT1MZ9</v>
+        <v>USD_YC1MRH_FUT1MH0</v>
       </c>
       <c r="F65" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E65,Trigger)</f>
@@ -5263,11 +5322,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D66" s="14" t="str">
-        <v>H0</v>
+        <v>M0</v>
       </c>
       <c r="E66" s="14" t="str">
         <f t="shared" si="4"/>
-        <v>USD_YC1MRH_FUT1MH0</v>
+        <v>USD_YC1MRH_FUT1MM0</v>
       </c>
       <c r="F66" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E66,Trigger)</f>
@@ -5305,11 +5364,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D67" s="14" t="str">
-        <v>M0</v>
+        <v>U0</v>
       </c>
       <c r="E67" s="14" t="str">
         <f t="shared" si="4"/>
-        <v>USD_YC1MRH_FUT1MM0</v>
+        <v>USD_YC1MRH_FUT1MU0</v>
       </c>
       <c r="F67" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E67,Trigger)</f>
@@ -5347,11 +5406,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D68" s="14" t="str">
-        <v>U0</v>
+        <v>Z0</v>
       </c>
       <c r="E68" s="14" t="str">
         <f t="shared" si="4"/>
-        <v>USD_YC1MRH_FUT1MU0</v>
+        <v>USD_YC1MRH_FUT1MZ0</v>
       </c>
       <c r="F68" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E68,Trigger)</f>
@@ -5389,11 +5448,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D69" s="14" t="str">
-        <v>Z0</v>
+        <v>H1</v>
       </c>
       <c r="E69" s="14" t="str">
         <f t="shared" si="4"/>
-        <v>USD_YC1MRH_FUT1MZ0</v>
+        <v>USD_YC1MRH_FUT1MH1</v>
       </c>
       <c r="F69" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E69,Trigger)</f>
@@ -5431,11 +5490,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D70" s="14" t="str">
-        <v>H1</v>
+        <v>M1</v>
       </c>
       <c r="E70" s="14" t="str">
         <f t="shared" si="4"/>
-        <v>USD_YC1MRH_FUT1MH1</v>
+        <v>USD_YC1MRH_FUT1MM1</v>
       </c>
       <c r="F70" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E70,Trigger)</f>
@@ -5473,11 +5532,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D71" s="14" t="str">
-        <v>M1</v>
+        <v>U1</v>
       </c>
       <c r="E71" s="14" t="str">
         <f t="shared" si="4"/>
-        <v>USD_YC1MRH_FUT1MM1</v>
+        <v>USD_YC1MRH_FUT1MU1</v>
       </c>
       <c r="F71" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E71,Trigger)</f>
@@ -5515,11 +5574,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D72" s="14" t="str">
-        <v>U1</v>
+        <v>Z1</v>
       </c>
       <c r="E72" s="14" t="str">
         <f t="shared" si="4"/>
-        <v>USD_YC1MRH_FUT1MU1</v>
+        <v>USD_YC1MRH_FUT1MZ1</v>
       </c>
       <c r="F72" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E72,Trigger)</f>
@@ -5557,11 +5616,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D73" s="14" t="str">
-        <v>Z1</v>
+        <v>H2</v>
       </c>
       <c r="E73" s="14" t="str">
         <f t="shared" si="4"/>
-        <v>USD_YC1MRH_FUT1MZ1</v>
+        <v>USD_YC1MRH_FUT1MH2</v>
       </c>
       <c r="F73" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E73,Trigger)</f>
@@ -5599,11 +5658,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D74" s="14" t="str">
-        <v>H2</v>
+        <v>M2</v>
       </c>
       <c r="E74" s="14" t="str">
         <f t="shared" si="4"/>
-        <v>USD_YC1MRH_FUT1MH2</v>
+        <v>USD_YC1MRH_FUT1MM2</v>
       </c>
       <c r="F74" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E74,Trigger)</f>
@@ -5641,11 +5700,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D75" s="7" t="str">
-        <v>M2</v>
+        <v>U2</v>
       </c>
       <c r="E75" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>USD_YC1MRH_FUT1MM2</v>
+        <v>USD_YC1MRH_FUT1MU2</v>
       </c>
       <c r="F75" s="27" t="e">
         <f>_xll.qlRateHelperQuoteValue($E75,Trigger)</f>
@@ -5684,11 +5743,11 @@
       </c>
       <c r="E76" s="21" t="str">
         <f>'1M_Swaps'!L6</f>
-        <v>USD_YC1MRH_2X1S#0000</v>
+        <v>USD_YC1MRH_2X1S#0002</v>
       </c>
       <c r="F76" s="20">
         <f>_xll.qlRateHelperQuoteValue($E76,Trigger)</f>
-        <v>1.72E-3</v>
+        <v>1.5199999999999999E-3</v>
       </c>
       <c r="G76" s="20">
         <f>_xll.qlSwapRateHelperSpread($E76,Trigger)</f>
@@ -5705,11 +5764,11 @@
       </c>
       <c r="K76" s="18">
         <f>_xll.qlRateHelperEarliestDate($E76,Trigger)</f>
-        <v>41688</v>
+        <v>41757</v>
       </c>
       <c r="L76" s="17">
         <f>_xll.qlRateHelperLatestDate($E76,Trigger)</f>
-        <v>41751</v>
+        <v>41820</v>
       </c>
       <c r="M76" s="22"/>
     </row>
@@ -5723,11 +5782,11 @@
       </c>
       <c r="E77" s="14" t="str">
         <f>'1M_Swaps'!L7</f>
-        <v>USD_YC1MRH_3X1S#0000</v>
+        <v>USD_YC1MRH_3X1S#0002</v>
       </c>
       <c r="F77" s="13">
         <f>_xll.qlRateHelperQuoteValue($E77,Trigger)</f>
-        <v>1.7399999999999998E-3</v>
+        <v>1.5299999999999999E-3</v>
       </c>
       <c r="G77" s="13">
         <f>_xll.qlSwapRateHelperSpread($E77,Trigger)</f>
@@ -5744,11 +5803,11 @@
       </c>
       <c r="K77" s="11">
         <f>_xll.qlRateHelperEarliestDate($E77,Trigger)</f>
-        <v>41688</v>
+        <v>41757</v>
       </c>
       <c r="L77" s="10">
         <f>_xll.qlRateHelperLatestDate($E77,Trigger)</f>
-        <v>41778</v>
+        <v>41848</v>
       </c>
       <c r="M77" s="25"/>
     </row>
@@ -5762,11 +5821,11 @@
       </c>
       <c r="E78" s="14" t="str">
         <f>'1M_Swaps'!L8</f>
-        <v>USD_YC1MRH_4X1S#0000</v>
+        <v>USD_YC1MRH_4X1S#0002</v>
       </c>
       <c r="F78" s="13">
         <f>_xll.qlRateHelperQuoteValue($E78,Trigger)</f>
-        <v>1.7699999999999999E-3</v>
+        <v>1.5499999999999999E-3</v>
       </c>
       <c r="G78" s="13">
         <f>_xll.qlSwapRateHelperSpread($E78,Trigger)</f>
@@ -5783,11 +5842,11 @@
       </c>
       <c r="K78" s="11">
         <f>_xll.qlRateHelperEarliestDate($E78,Trigger)</f>
-        <v>41688</v>
+        <v>41757</v>
       </c>
       <c r="L78" s="10">
         <f>_xll.qlRateHelperLatestDate($E78,Trigger)</f>
-        <v>41808</v>
+        <v>41879</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.2">
@@ -5800,11 +5859,11 @@
       </c>
       <c r="E79" s="14" t="str">
         <f>'1M_Swaps'!L9</f>
-        <v>USD_YC1MRH_5X1S#0000</v>
+        <v>USD_YC1MRH_5X1S#0002</v>
       </c>
       <c r="F79" s="13">
         <f>_xll.qlRateHelperQuoteValue($E79,Trigger)</f>
-        <v>1.8E-3</v>
+        <v>1.57E-3</v>
       </c>
       <c r="G79" s="13">
         <f>_xll.qlSwapRateHelperSpread($E79,Trigger)</f>
@@ -5821,11 +5880,11 @@
       </c>
       <c r="K79" s="11">
         <f>_xll.qlRateHelperEarliestDate($E79,Trigger)</f>
-        <v>41688</v>
+        <v>41757</v>
       </c>
       <c r="L79" s="10">
         <f>_xll.qlRateHelperLatestDate($E79,Trigger)</f>
-        <v>41838</v>
+        <v>41911</v>
       </c>
     </row>
     <row r="80" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5838,11 +5897,11 @@
       </c>
       <c r="E80" s="14" t="str">
         <f>'1M_Swaps'!L10</f>
-        <v>USD_YC1MRH_6X1S#0000</v>
+        <v>USD_YC1MRH_6X1S#0002</v>
       </c>
       <c r="F80" s="13">
         <f>_xll.qlRateHelperQuoteValue($E80,Trigger)</f>
-        <v>1.8500000000000001E-3</v>
+        <v>1.58E-3</v>
       </c>
       <c r="G80" s="13">
         <f>_xll.qlSwapRateHelperSpread($E80,Trigger)</f>
@@ -5859,11 +5918,11 @@
       </c>
       <c r="K80" s="11">
         <f>_xll.qlRateHelperEarliestDate($E80,Trigger)</f>
-        <v>41688</v>
+        <v>41757</v>
       </c>
       <c r="L80" s="10">
         <f>_xll.qlRateHelperLatestDate($E80,Trigger)</f>
-        <v>41869</v>
+        <v>41940</v>
       </c>
     </row>
     <row r="81" spans="2:14" x14ac:dyDescent="0.2">
@@ -5876,11 +5935,11 @@
       </c>
       <c r="E81" s="14" t="str">
         <f>'1M_Swaps'!L11</f>
-        <v>USD_YC1MRH_7X1S#0000</v>
+        <v>USD_YC1MRH_7X1S#0002</v>
       </c>
       <c r="F81" s="13">
         <f>_xll.qlRateHelperQuoteValue($E81,Trigger)</f>
-        <v>1.9E-3</v>
+        <v>1.6100000000000001E-3</v>
       </c>
       <c r="G81" s="13">
         <f>_xll.qlSwapRateHelperSpread($E81,Trigger)</f>
@@ -5897,11 +5956,11 @@
       </c>
       <c r="K81" s="11">
         <f>_xll.qlRateHelperEarliestDate($E81,Trigger)</f>
-        <v>41688</v>
+        <v>41757</v>
       </c>
       <c r="L81" s="10">
         <f>_xll.qlRateHelperLatestDate($E81,Trigger)</f>
-        <v>41900</v>
+        <v>41971</v>
       </c>
     </row>
     <row r="82" spans="2:14" x14ac:dyDescent="0.2">
@@ -5914,11 +5973,11 @@
       </c>
       <c r="E82" s="14" t="str">
         <f>'1M_Swaps'!L12</f>
-        <v>USD_YC1MRH_8X1S#0000</v>
+        <v>USD_YC1MRH_8X1S#0002</v>
       </c>
       <c r="F82" s="13">
         <f>_xll.qlRateHelperQuoteValue($E82,Trigger)</f>
-        <v>1.9500000000000001E-3</v>
+        <v>1.64E-3</v>
       </c>
       <c r="G82" s="13">
         <f>_xll.qlSwapRateHelperSpread($E82,Trigger)</f>
@@ -5935,11 +5994,11 @@
       </c>
       <c r="K82" s="11">
         <f>_xll.qlRateHelperEarliestDate($E82,Trigger)</f>
-        <v>41688</v>
+        <v>41757</v>
       </c>
       <c r="L82" s="10">
         <f>_xll.qlRateHelperLatestDate($E82,Trigger)</f>
-        <v>41932</v>
+        <v>42002</v>
       </c>
     </row>
     <row r="83" spans="2:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5952,11 +6011,11 @@
       </c>
       <c r="E83" s="14" t="str">
         <f>'1M_Swaps'!L13</f>
-        <v>USD_YC1MRH_9X1S#0000</v>
+        <v>USD_YC1MRH_9X1S#0002</v>
       </c>
       <c r="F83" s="13">
         <f>_xll.qlRateHelperQuoteValue($E83,Trigger)</f>
-        <v>2.0100000000000001E-3</v>
+        <v>1.6799999999999999E-3</v>
       </c>
       <c r="G83" s="13">
         <f>_xll.qlSwapRateHelperSpread($E83,Trigger)</f>
@@ -5973,11 +6032,11 @@
       </c>
       <c r="K83" s="11">
         <f>_xll.qlRateHelperEarliestDate($E83,Trigger)</f>
-        <v>41688</v>
+        <v>41757</v>
       </c>
       <c r="L83" s="10">
         <f>_xll.qlRateHelperLatestDate($E83,Trigger)</f>
-        <v>41961</v>
+        <v>42032</v>
       </c>
     </row>
     <row r="84" spans="2:14" x14ac:dyDescent="0.2">
@@ -5990,11 +6049,11 @@
       </c>
       <c r="E84" s="14" t="str">
         <f>'1M_Swaps'!L14</f>
-        <v>USD_YC1MRH_10X1S#0000</v>
+        <v>USD_YC1MRH_10X1S#0002</v>
       </c>
       <c r="F84" s="13">
         <f>_xll.qlRateHelperQuoteValue($E84,Trigger)</f>
-        <v>2.0700000000000002E-3</v>
+        <v>1.7299999999999998E-3</v>
       </c>
       <c r="G84" s="13">
         <f>_xll.qlSwapRateHelperSpread($E84,Trigger)</f>
@@ -6011,11 +6070,11 @@
       </c>
       <c r="K84" s="11">
         <f>_xll.qlRateHelperEarliestDate($E84,Trigger)</f>
-        <v>41688</v>
+        <v>41757</v>
       </c>
       <c r="L84" s="10">
         <f>_xll.qlRateHelperLatestDate($E84,Trigger)</f>
-        <v>41991</v>
+        <v>42062</v>
       </c>
     </row>
     <row r="85" spans="2:14" x14ac:dyDescent="0.2">
@@ -6028,11 +6087,11 @@
       </c>
       <c r="E85" s="14" t="str">
         <f>'1M_Swaps'!L15</f>
-        <v>USD_YC1MRH_11X1S#0000</v>
+        <v>USD_YC1MRH_11X1S#0002</v>
       </c>
       <c r="F85" s="13">
         <f>_xll.qlRateHelperQuoteValue($E85,Trigger)</f>
-        <v>2.1299999999999999E-3</v>
+        <v>1.7899999999999999E-3</v>
       </c>
       <c r="G85" s="13">
         <f>_xll.qlSwapRateHelperSpread($E85,Trigger)</f>
@@ -6049,11 +6108,11 @@
       </c>
       <c r="K85" s="11">
         <f>_xll.qlRateHelperEarliestDate($E85,Trigger)</f>
-        <v>41688</v>
+        <v>41757</v>
       </c>
       <c r="L85" s="10">
         <f>_xll.qlRateHelperLatestDate($E85,Trigger)</f>
-        <v>42023</v>
+        <v>42093</v>
       </c>
     </row>
     <row r="86" spans="2:14" x14ac:dyDescent="0.2">
@@ -6066,11 +6125,11 @@
       </c>
       <c r="E86" s="7" t="str">
         <f>'1M_Swaps'!L16</f>
-        <v>USD_YC1MRH_12X1S#0000</v>
+        <v>USD_YC1MRH_12X1S#0002</v>
       </c>
       <c r="F86" s="6">
         <f>_xll.qlRateHelperQuoteValue($E86,Trigger)</f>
-        <v>2.2000000000000001E-3</v>
+        <v>1.8599999999999999E-3</v>
       </c>
       <c r="G86" s="6">
         <f>_xll.qlSwapRateHelperSpread($E86,Trigger)</f>
@@ -6087,11 +6146,11 @@
       </c>
       <c r="K86" s="4">
         <f>_xll.qlRateHelperEarliestDate($E86,Trigger)</f>
-        <v>41688</v>
+        <v>41757</v>
       </c>
       <c r="L86" s="3">
         <f>_xll.qlRateHelperLatestDate($E86,Trigger)</f>
-        <v>42053</v>
+        <v>42122</v>
       </c>
     </row>
     <row r="87" spans="2:14" x14ac:dyDescent="0.2">
@@ -8076,15 +8135,15 @@
       </c>
       <c r="E131" s="21" t="str">
         <f>'1M_SwapsFromBasis'!L6</f>
-        <v>USD_YC1MRH_AM1LBASIS1Y#0000</v>
+        <v>USD_YC1MRH_AM1LBASIS1Y#0002</v>
       </c>
       <c r="F131" s="20">
         <f>_xll.qlRateHelperQuoteValue($E131,Trigger)</f>
-        <v>2.9400000000000003E-3</v>
+        <v>2.6099999999999999E-3</v>
       </c>
       <c r="G131" s="20">
         <f>_xll.qlSwapRateHelperSpread($E131,Trigger)</f>
-        <v>7.3999999999999999E-4</v>
+        <v>7.5000000000000002E-4</v>
       </c>
       <c r="H131" s="19" t="b">
         <v>0</v>
@@ -8097,11 +8156,11 @@
       </c>
       <c r="K131" s="18">
         <f>_xll.qlRateHelperEarliestDate($E131,Trigger)</f>
-        <v>41688</v>
+        <v>41757</v>
       </c>
       <c r="L131" s="17">
         <f>_xll.qlRateHelperLatestDate($E131,Trigger)</f>
-        <v>42053</v>
+        <v>42122</v>
       </c>
     </row>
     <row r="132" spans="2:14" x14ac:dyDescent="0.2">
@@ -8118,7 +8177,7 @@
       </c>
       <c r="E132" s="14" t="str">
         <f>'1M_SwapsFromBasis'!L7</f>
-        <v>USD_YC1MRH_AM1LBASIS15M#0000</v>
+        <v>USD_YC1MRH_AM1LBASIS15M#0002</v>
       </c>
       <c r="F132" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E132,Trigger)</f>
@@ -8126,7 +8185,7 @@
       </c>
       <c r="G132" s="13">
         <f>_xll.qlSwapRateHelperSpread($E132,Trigger)</f>
-        <v>7.573437500000001E-4</v>
+        <v>7.5100574391478016E-4</v>
       </c>
       <c r="H132" s="12" t="b">
         <v>0</v>
@@ -8139,11 +8198,11 @@
       </c>
       <c r="K132" s="11">
         <f>_xll.qlRateHelperEarliestDate($E132,Trigger)</f>
-        <v>41688</v>
+        <v>41757</v>
       </c>
       <c r="L132" s="10">
         <f>_xll.qlRateHelperLatestDate($E132,Trigger)</f>
-        <v>42142</v>
+        <v>42213</v>
       </c>
     </row>
     <row r="133" spans="2:14" x14ac:dyDescent="0.2">
@@ -8160,7 +8219,7 @@
       </c>
       <c r="E133" s="14" t="str">
         <f>'1M_SwapsFromBasis'!L8</f>
-        <v>USD_YC1MRH_AM1LBASIS18M#0000</v>
+        <v>USD_YC1MRH_AM1LBASIS18M#0002</v>
       </c>
       <c r="F133" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E133,Trigger)</f>
@@ -8168,7 +8227,7 @@
       </c>
       <c r="G133" s="13">
         <f>_xll.qlSwapRateHelperSpread($E133,Trigger)</f>
-        <v>7.6625E-4</v>
+        <v>7.535153171060805E-4</v>
       </c>
       <c r="H133" s="12" t="b">
         <v>0</v>
@@ -8181,11 +8240,11 @@
       </c>
       <c r="K133" s="11">
         <f>_xll.qlRateHelperEarliestDate($E133,Trigger)</f>
-        <v>41688</v>
+        <v>41757</v>
       </c>
       <c r="L133" s="10">
         <f>_xll.qlRateHelperLatestDate($E133,Trigger)</f>
-        <v>42234</v>
+        <v>42305</v>
       </c>
     </row>
     <row r="134" spans="2:14" x14ac:dyDescent="0.2">
@@ -8202,7 +8261,7 @@
       </c>
       <c r="E134" s="14" t="str">
         <f>'1M_SwapsFromBasis'!L9</f>
-        <v>USD_YC1MRH_AM1LBASIS21M#0000</v>
+        <v>USD_YC1MRH_AM1LBASIS21M#0002</v>
       </c>
       <c r="F134" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E134,Trigger)</f>
@@ -8210,7 +8269,7 @@
       </c>
       <c r="G134" s="13">
         <f>_xll.qlSwapRateHelperSpread($E134,Trigger)</f>
-        <v>7.6953125000000003E-4</v>
+        <v>7.5676723174434061E-4</v>
       </c>
       <c r="H134" s="12" t="b">
         <v>0</v>
@@ -8223,11 +8282,11 @@
       </c>
       <c r="K134" s="11">
         <f>_xll.qlRateHelperEarliestDate($E134,Trigger)</f>
-        <v>41688</v>
+        <v>41757</v>
       </c>
       <c r="L134" s="10">
         <f>_xll.qlRateHelperLatestDate($E134,Trigger)</f>
-        <v>42326</v>
+        <v>42397</v>
       </c>
     </row>
     <row r="135" spans="2:14" x14ac:dyDescent="0.2">
@@ -8244,15 +8303,15 @@
       </c>
       <c r="E135" s="14" t="str">
         <f>'1M_SwapsFromBasis'!L10</f>
-        <v>USD_YC1MRH_AM1LBASIS2Y#0000</v>
+        <v>USD_YC1MRH_AM1LBASIS2Y#0002</v>
       </c>
       <c r="F135" s="13">
         <f>_xll.qlRateHelperQuoteValue($E135,Trigger)</f>
-        <v>4.28E-3</v>
+        <v>5.4000000000000003E-3</v>
       </c>
       <c r="G135" s="13">
         <f>_xll.qlSwapRateHelperSpread($E135,Trigger)</f>
-        <v>7.7000000000000007E-4</v>
+        <v>7.5999999999999993E-4</v>
       </c>
       <c r="H135" s="12" t="b">
         <v>1</v>
@@ -8265,11 +8324,11 @@
       </c>
       <c r="K135" s="11">
         <f>_xll.qlRateHelperEarliestDate($E135,Trigger)</f>
-        <v>41688</v>
+        <v>41757</v>
       </c>
       <c r="L135" s="10">
         <f>_xll.qlRateHelperLatestDate($E135,Trigger)</f>
-        <v>42418</v>
+        <v>42488</v>
       </c>
     </row>
     <row r="136" spans="2:14" x14ac:dyDescent="0.2">
@@ -8286,15 +8345,15 @@
       </c>
       <c r="E136" s="14" t="str">
         <f>'1M_SwapsFromBasis'!L11</f>
-        <v>USD_YC1MRH_AM1LBASIS3Y#0000</v>
+        <v>USD_YC1MRH_AM1LBASIS3Y#0002</v>
       </c>
       <c r="F136" s="13">
         <f>_xll.qlRateHelperQuoteValue($E136,Trigger)</f>
-        <v>6.8399999999999997E-3</v>
+        <v>1.0009999999999998E-2</v>
       </c>
       <c r="G136" s="13">
         <f>_xll.qlSwapRateHelperSpread($E136,Trigger)</f>
-        <v>7.5999999999999993E-4</v>
+        <v>7.7000000000000007E-4</v>
       </c>
       <c r="H136" s="12" t="b">
         <v>1</v>
@@ -8307,11 +8366,11 @@
       </c>
       <c r="K136" s="11">
         <f>_xll.qlRateHelperEarliestDate($E136,Trigger)</f>
-        <v>41688</v>
+        <v>41757</v>
       </c>
       <c r="L136" s="10">
         <f>_xll.qlRateHelperLatestDate($E136,Trigger)</f>
-        <v>42786</v>
+        <v>42853</v>
       </c>
     </row>
     <row r="137" spans="2:14" x14ac:dyDescent="0.2">
@@ -8328,15 +8387,15 @@
       </c>
       <c r="E137" s="14" t="str">
         <f>'1M_SwapsFromBasis'!L12</f>
-        <v>USD_YC1MRH_AM1LBASIS4Y#0000</v>
+        <v>USD_YC1MRH_AM1LBASIS4Y#0002</v>
       </c>
       <c r="F137" s="13">
         <f>_xll.qlRateHelperQuoteValue($E137,Trigger)</f>
-        <v>1.0379999999999999E-2</v>
+        <v>1.4420000000000002E-2</v>
       </c>
       <c r="G137" s="13">
         <f>_xll.qlSwapRateHelperSpread($E137,Trigger)</f>
-        <v>7.5000000000000002E-4</v>
+        <v>7.7999999999999999E-4</v>
       </c>
       <c r="H137" s="12" t="b">
         <v>1</v>
@@ -8349,11 +8408,11 @@
       </c>
       <c r="K137" s="11">
         <f>_xll.qlRateHelperEarliestDate($E137,Trigger)</f>
-        <v>41688</v>
+        <v>41757</v>
       </c>
       <c r="L137" s="10">
         <f>_xll.qlRateHelperLatestDate($E137,Trigger)</f>
-        <v>43150</v>
+        <v>43220</v>
       </c>
     </row>
     <row r="138" spans="2:14" x14ac:dyDescent="0.2">
@@ -8370,15 +8429,15 @@
       </c>
       <c r="E138" s="14" t="str">
         <f>'1M_SwapsFromBasis'!L13</f>
-        <v>USD_YC1MRH_AM1LBASIS5Y#0000</v>
+        <v>USD_YC1MRH_AM1LBASIS5Y#0002</v>
       </c>
       <c r="F138" s="13">
         <f>_xll.qlRateHelperQuoteValue($E138,Trigger)</f>
-        <v>1.3999999999999999E-2</v>
+        <v>1.8069999999999999E-2</v>
       </c>
       <c r="G138" s="13">
         <f>_xll.qlSwapRateHelperSpread($E138,Trigger)</f>
-        <v>7.3999999999999999E-4</v>
+        <v>7.9000000000000001E-4</v>
       </c>
       <c r="H138" s="12" t="b">
         <v>1</v>
@@ -8391,11 +8450,11 @@
       </c>
       <c r="K138" s="11">
         <f>_xll.qlRateHelperEarliestDate($E138,Trigger)</f>
-        <v>41688</v>
+        <v>41757</v>
       </c>
       <c r="L138" s="10">
         <f>_xll.qlRateHelperLatestDate($E138,Trigger)</f>
-        <v>43514</v>
+        <v>43584</v>
       </c>
     </row>
     <row r="139" spans="2:14" x14ac:dyDescent="0.2">
@@ -8412,15 +8471,15 @@
       </c>
       <c r="E139" s="14" t="str">
         <f>'1M_SwapsFromBasis'!L14</f>
-        <v>USD_YC1MRH_AM1LBASIS6Y#0000</v>
+        <v>USD_YC1MRH_AM1LBASIS6Y#0002</v>
       </c>
       <c r="F139" s="13">
         <f>_xll.qlRateHelperQuoteValue($E139,Trigger)</f>
-        <v>1.7299999999999999E-2</v>
+        <v>2.0969999999999999E-2</v>
       </c>
       <c r="G139" s="13">
         <f>_xll.qlSwapRateHelperSpread($E139,Trigger)</f>
-        <v>7.0999999999999991E-4</v>
+        <v>7.7999999999999999E-4</v>
       </c>
       <c r="H139" s="12" t="b">
         <v>1</v>
@@ -8433,11 +8492,11 @@
       </c>
       <c r="K139" s="11">
         <f>_xll.qlRateHelperEarliestDate($E139,Trigger)</f>
-        <v>41688</v>
+        <v>41757</v>
       </c>
       <c r="L139" s="10">
         <f>_xll.qlRateHelperLatestDate($E139,Trigger)</f>
-        <v>43879</v>
+        <v>43949</v>
       </c>
     </row>
     <row r="140" spans="2:14" x14ac:dyDescent="0.2">
@@ -8454,15 +8513,15 @@
       </c>
       <c r="E140" s="14" t="str">
         <f>'1M_SwapsFromBasis'!L15</f>
-        <v>USD_YC1MRH_AM1LBASIS7Y#0000</v>
+        <v>USD_YC1MRH_AM1LBASIS7Y#0002</v>
       </c>
       <c r="F140" s="13">
         <f>_xll.qlRateHelperQuoteValue($E140,Trigger)</f>
-        <v>2.0080000000000001E-2</v>
+        <v>2.3250000000000003E-2</v>
       </c>
       <c r="G140" s="13">
         <f>_xll.qlSwapRateHelperSpread($E140,Trigger)</f>
-        <v>6.9000000000000008E-4</v>
+        <v>7.5999999999999993E-4</v>
       </c>
       <c r="H140" s="12" t="b">
         <v>1</v>
@@ -8475,11 +8534,11 @@
       </c>
       <c r="K140" s="11">
         <f>_xll.qlRateHelperEarliestDate($E140,Trigger)</f>
-        <v>41688</v>
+        <v>41757</v>
       </c>
       <c r="L140" s="10">
         <f>_xll.qlRateHelperLatestDate($E140,Trigger)</f>
-        <v>44245</v>
+        <v>44314</v>
       </c>
     </row>
     <row r="141" spans="2:14" x14ac:dyDescent="0.2">
@@ -8496,15 +8555,15 @@
       </c>
       <c r="E141" s="14" t="str">
         <f>'1M_SwapsFromBasis'!L16</f>
-        <v>USD_YC1MRH_AM1LBASIS8Y#0000</v>
+        <v>USD_YC1MRH_AM1LBASIS8Y#0002</v>
       </c>
       <c r="F141" s="13">
         <f>_xll.qlRateHelperQuoteValue($E141,Trigger)</f>
-        <v>2.2409999999999996E-2</v>
+        <v>2.5080000000000002E-2</v>
       </c>
       <c r="G141" s="13">
         <f>_xll.qlSwapRateHelperSpread($E141,Trigger)</f>
-        <v>6.4999999999999997E-4</v>
+        <v>7.2000000000000005E-4</v>
       </c>
       <c r="H141" s="12" t="b">
         <v>1</v>
@@ -8517,11 +8576,11 @@
       </c>
       <c r="K141" s="11">
         <f>_xll.qlRateHelperEarliestDate($E141,Trigger)</f>
-        <v>41688</v>
+        <v>41757</v>
       </c>
       <c r="L141" s="10">
         <f>_xll.qlRateHelperLatestDate($E141,Trigger)</f>
-        <v>44610</v>
+        <v>44679</v>
       </c>
     </row>
     <row r="142" spans="2:14" x14ac:dyDescent="0.2">
@@ -8538,15 +8597,15 @@
       </c>
       <c r="E142" s="14" t="str">
         <f>'1M_SwapsFromBasis'!L17</f>
-        <v>USD_YC1MRH_AM1LBASIS9Y#0000</v>
+        <v>USD_YC1MRH_AM1LBASIS9Y#0002</v>
       </c>
       <c r="F142" s="13">
         <f>_xll.qlRateHelperQuoteValue($E142,Trigger)</f>
-        <v>2.4370000000000003E-2</v>
+        <v>2.657E-2</v>
       </c>
       <c r="G142" s="13">
         <f>_xll.qlSwapRateHelperSpread($E142,Trigger)</f>
-        <v>6.2E-4</v>
+        <v>6.9000000000000008E-4</v>
       </c>
       <c r="H142" s="12" t="b">
         <v>1</v>
@@ -8559,11 +8618,11 @@
       </c>
       <c r="K142" s="11">
         <f>_xll.qlRateHelperEarliestDate($E142,Trigger)</f>
-        <v>41688</v>
+        <v>41757</v>
       </c>
       <c r="L142" s="10">
         <f>_xll.qlRateHelperLatestDate($E142,Trigger)</f>
-        <v>44977</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="143" spans="2:14" x14ac:dyDescent="0.2">
@@ -8580,15 +8639,15 @@
       </c>
       <c r="E143" s="14" t="str">
         <f>'1M_SwapsFromBasis'!L18</f>
-        <v>USD_YC1MRH_AM1LBASIS10Y#0000</v>
+        <v>USD_YC1MRH_AM1LBASIS10Y#0002</v>
       </c>
       <c r="F143" s="13">
         <f>_xll.qlRateHelperQuoteValue($E143,Trigger)</f>
-        <v>2.6020000000000001E-2</v>
+        <v>2.7820000000000001E-2</v>
       </c>
       <c r="G143" s="13">
         <f>_xll.qlSwapRateHelperSpread($E143,Trigger)</f>
-        <v>5.8E-4</v>
+        <v>6.6E-4</v>
       </c>
       <c r="H143" s="12" t="b">
         <v>1</v>
@@ -8601,11 +8660,11 @@
       </c>
       <c r="K143" s="11">
         <f>_xll.qlRateHelperEarliestDate($E143,Trigger)</f>
-        <v>41688</v>
+        <v>41757</v>
       </c>
       <c r="L143" s="10">
         <f>_xll.qlRateHelperLatestDate($E143,Trigger)</f>
-        <v>45341</v>
+        <v>45411</v>
       </c>
     </row>
     <row r="144" spans="2:14" x14ac:dyDescent="0.2">
@@ -8622,7 +8681,7 @@
       </c>
       <c r="E144" s="14" t="str">
         <f>'1M_SwapsFromBasis'!L19</f>
-        <v>USD_YC1MRH_AM1LBASIS11Y#0000</v>
+        <v>USD_YC1MRH_AM1LBASIS11Y#0002</v>
       </c>
       <c r="F144" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E144,Trigger)</f>
@@ -8630,7 +8689,7 @@
       </c>
       <c r="G144" s="13">
         <f>_xll.qlSwapRateHelperSpread($E144,Trigger)</f>
-        <v>5.4592716289096415E-4</v>
+        <v>6.2833487400039227E-4</v>
       </c>
       <c r="H144" s="12" t="b">
         <v>0</v>
@@ -8643,11 +8702,11 @@
       </c>
       <c r="K144" s="11">
         <f>_xll.qlRateHelperEarliestDate($E144,Trigger)</f>
-        <v>41688</v>
+        <v>41757</v>
       </c>
       <c r="L144" s="10">
         <f>_xll.qlRateHelperLatestDate($E144,Trigger)</f>
-        <v>45706</v>
+        <v>45775</v>
       </c>
     </row>
     <row r="145" spans="2:12" x14ac:dyDescent="0.2">
@@ -8664,15 +8723,15 @@
       </c>
       <c r="E145" s="14" t="str">
         <f>'1M_SwapsFromBasis'!L20</f>
-        <v>USD_YC1MRH_AM1LBASIS12Y#0000</v>
+        <v>USD_YC1MRH_AM1LBASIS12Y#0002</v>
       </c>
       <c r="F145" s="13">
         <f>_xll.qlRateHelperQuoteValue($E145,Trigger)</f>
-        <v>2.8670000000000001E-2</v>
+        <v>2.981E-2</v>
       </c>
       <c r="G145" s="13">
         <f>_xll.qlSwapRateHelperSpread($E145,Trigger)</f>
-        <v>5.2000000000000006E-4</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="H145" s="12" t="b">
         <v>1</v>
@@ -8685,11 +8744,11 @@
       </c>
       <c r="K145" s="11">
         <f>_xll.qlRateHelperEarliestDate($E145,Trigger)</f>
-        <v>41688</v>
+        <v>41757</v>
       </c>
       <c r="L145" s="10">
         <f>_xll.qlRateHelperLatestDate($E145,Trigger)</f>
-        <v>46071</v>
+        <v>46140</v>
       </c>
     </row>
     <row r="146" spans="2:12" x14ac:dyDescent="0.2">
@@ -8706,7 +8765,7 @@
       </c>
       <c r="E146" s="14" t="str">
         <f>'1M_SwapsFromBasis'!L21</f>
-        <v>USD_YC1MRH_AM1LBASIS13Y#0000</v>
+        <v>USD_YC1MRH_AM1LBASIS13Y#0002</v>
       </c>
       <c r="F146" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E146,Trigger)</f>
@@ -8714,7 +8773,7 @@
       </c>
       <c r="G146" s="13">
         <f>_xll.qlSwapRateHelperSpread($E146,Trigger)</f>
-        <v>4.9766154400837637E-4</v>
+        <v>5.7880405657142651E-4</v>
       </c>
       <c r="H146" s="12" t="b">
         <v>0</v>
@@ -8727,11 +8786,11 @@
       </c>
       <c r="K146" s="11">
         <f>_xll.qlRateHelperEarliestDate($E146,Trigger)</f>
-        <v>41688</v>
+        <v>41757</v>
       </c>
       <c r="L146" s="10">
         <f>_xll.qlRateHelperLatestDate($E146,Trigger)</f>
-        <v>46436</v>
+        <v>46505</v>
       </c>
     </row>
     <row r="147" spans="2:12" x14ac:dyDescent="0.2">
@@ -8748,7 +8807,7 @@
       </c>
       <c r="E147" s="14" t="str">
         <f>'1M_SwapsFromBasis'!L22</f>
-        <v>USD_YC1MRH_AM1LBASIS14Y#0000</v>
+        <v>USD_YC1MRH_AM1LBASIS14Y#0002</v>
       </c>
       <c r="F147" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E147,Trigger)</f>
@@ -8756,7 +8815,7 @@
       </c>
       <c r="G147" s="13">
         <f>_xll.qlSwapRateHelperSpread($E147,Trigger)</f>
-        <v>4.7776120796248539E-4</v>
+        <v>5.6312897505900476E-4</v>
       </c>
       <c r="H147" s="12" t="b">
         <v>0</v>
@@ -8769,11 +8828,11 @@
       </c>
       <c r="K147" s="11">
         <f>_xll.qlRateHelperEarliestDate($E147,Trigger)</f>
-        <v>41688</v>
+        <v>41757</v>
       </c>
       <c r="L147" s="10">
         <f>_xll.qlRateHelperLatestDate($E147,Trigger)</f>
-        <v>46801</v>
+        <v>46871</v>
       </c>
     </row>
     <row r="148" spans="2:12" x14ac:dyDescent="0.2">
@@ -8790,15 +8849,15 @@
       </c>
       <c r="E148" s="14" t="str">
         <f>'1M_SwapsFromBasis'!L23</f>
-        <v>USD_YC1MRH_AM1LBASIS15Y#0000</v>
+        <v>USD_YC1MRH_AM1LBASIS15Y#0002</v>
       </c>
       <c r="F148" s="13">
         <f>_xll.qlRateHelperQuoteValue($E148,Trigger)</f>
-        <v>3.1260000000000003E-2</v>
+        <v>3.175E-2</v>
       </c>
       <c r="G148" s="13">
         <f>_xll.qlSwapRateHelperSpread($E148,Trigger)</f>
-        <v>4.5999999999999996E-4</v>
+        <v>5.5000000000000003E-4</v>
       </c>
       <c r="H148" s="12" t="b">
         <v>1</v>
@@ -8811,11 +8870,11 @@
       </c>
       <c r="K148" s="11">
         <f>_xll.qlRateHelperEarliestDate($E148,Trigger)</f>
-        <v>41688</v>
+        <v>41757</v>
       </c>
       <c r="L148" s="10">
         <f>_xll.qlRateHelperLatestDate($E148,Trigger)</f>
-        <v>47168</v>
+        <v>47238</v>
       </c>
     </row>
     <row r="149" spans="2:12" x14ac:dyDescent="0.2">
@@ -8832,7 +8891,7 @@
       </c>
       <c r="E149" s="14" t="str">
         <f>'1M_SwapsFromBasis'!L24</f>
-        <v>USD_YC1MRH_AM1LBASIS16Y#0000</v>
+        <v>USD_YC1MRH_AM1LBASIS16Y#0002</v>
       </c>
       <c r="F149" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E149,Trigger)</f>
@@ -8840,7 +8899,7 @@
       </c>
       <c r="G149" s="13">
         <f>_xll.qlSwapRateHelperSpread($E149,Trigger)</f>
-        <v>4.4413639892853558E-4</v>
+        <v>5.3701493368919339E-4</v>
       </c>
       <c r="H149" s="12" t="b">
         <v>0</v>
@@ -8853,11 +8912,11 @@
       </c>
       <c r="K149" s="11">
         <f>_xll.qlRateHelperEarliestDate($E149,Trigger)</f>
-        <v>41688</v>
+        <v>41757</v>
       </c>
       <c r="L149" s="10">
         <f>_xll.qlRateHelperLatestDate($E149,Trigger)</f>
-        <v>47532</v>
+        <v>47602</v>
       </c>
     </row>
     <row r="150" spans="2:12" x14ac:dyDescent="0.2">
@@ -8874,7 +8933,7 @@
       </c>
       <c r="E150" s="14" t="str">
         <f>'1M_SwapsFromBasis'!L25</f>
-        <v>USD_YC1MRH_AM1LBASIS17Y#0000</v>
+        <v>USD_YC1MRH_AM1LBASIS17Y#0002</v>
       </c>
       <c r="F150" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E150,Trigger)</f>
@@ -8882,7 +8941,7 @@
       </c>
       <c r="G150" s="13">
         <f>_xll.qlSwapRateHelperSpread($E150,Trigger)</f>
-        <v>4.3015876623547669E-4</v>
+        <v>5.2406180945142975E-4</v>
       </c>
       <c r="H150" s="12" t="b">
         <v>0</v>
@@ -8895,11 +8954,11 @@
       </c>
       <c r="K150" s="11">
         <f>_xll.qlRateHelperEarliestDate($E150,Trigger)</f>
-        <v>41688</v>
+        <v>41757</v>
       </c>
       <c r="L150" s="10">
         <f>_xll.qlRateHelperLatestDate($E150,Trigger)</f>
-        <v>47897</v>
+        <v>47966</v>
       </c>
     </row>
     <row r="151" spans="2:12" x14ac:dyDescent="0.2">
@@ -8916,7 +8975,7 @@
       </c>
       <c r="E151" s="14" t="str">
         <f>'1M_SwapsFromBasis'!L26</f>
-        <v>USD_YC1MRH_AM1LBASIS18Y#0000</v>
+        <v>USD_YC1MRH_AM1LBASIS18Y#0002</v>
       </c>
       <c r="F151" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E151,Trigger)</f>
@@ -8924,7 +8983,7 @@
       </c>
       <c r="G151" s="13">
         <f>_xll.qlSwapRateHelperSpread($E151,Trigger)</f>
-        <v>4.1811293407815E-4</v>
+        <v>5.1160121836906923E-4</v>
       </c>
       <c r="H151" s="12" t="b">
         <v>0</v>
@@ -8937,11 +8996,11 @@
       </c>
       <c r="K151" s="11">
         <f>_xll.qlRateHelperEarliestDate($E151,Trigger)</f>
-        <v>41688</v>
+        <v>41757</v>
       </c>
       <c r="L151" s="10">
         <f>_xll.qlRateHelperLatestDate($E151,Trigger)</f>
-        <v>48262</v>
+        <v>48332</v>
       </c>
     </row>
     <row r="152" spans="2:12" x14ac:dyDescent="0.2">
@@ -8958,7 +9017,7 @@
       </c>
       <c r="E152" s="14" t="str">
         <f>'1M_SwapsFromBasis'!L27</f>
-        <v>USD_YC1MRH_AM1LBASIS19Y#0000</v>
+        <v>USD_YC1MRH_AM1LBASIS19Y#0002</v>
       </c>
       <c r="F152" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E152,Trigger)</f>
@@ -8966,7 +9025,7 @@
       </c>
       <c r="G152" s="13">
         <f>_xll.qlSwapRateHelperSpread($E152,Trigger)</f>
-        <v>4.0804473461388219E-4</v>
+        <v>5.000937515244726E-4</v>
       </c>
       <c r="H152" s="12" t="b">
         <v>0</v>
@@ -8979,11 +9038,11 @@
       </c>
       <c r="K152" s="11">
         <f>_xll.qlRateHelperEarliestDate($E152,Trigger)</f>
-        <v>41688</v>
+        <v>41757</v>
       </c>
       <c r="L152" s="10">
         <f>_xll.qlRateHelperLatestDate($E152,Trigger)</f>
-        <v>48628</v>
+        <v>48697</v>
       </c>
     </row>
     <row r="153" spans="2:12" x14ac:dyDescent="0.2">
@@ -9000,15 +9059,15 @@
       </c>
       <c r="E153" s="14" t="str">
         <f>'1M_SwapsFromBasis'!L28</f>
-        <v>USD_YC1MRH_AM1LBASIS20Y#0000</v>
+        <v>USD_YC1MRH_AM1LBASIS20Y#0002</v>
       </c>
       <c r="F153" s="13">
         <f>_xll.qlRateHelperQuoteValue($E153,Trigger)</f>
-        <v>3.3500000000000002E-2</v>
+        <v>3.3419999999999998E-2</v>
       </c>
       <c r="G153" s="13">
         <f>_xll.qlSwapRateHelperSpread($E153,Trigger)</f>
-        <v>4.0000000000000002E-4</v>
+        <v>4.8999999999999998E-4</v>
       </c>
       <c r="H153" s="12" t="b">
         <v>1</v>
@@ -9021,11 +9080,11 @@
       </c>
       <c r="K153" s="11">
         <f>_xll.qlRateHelperEarliestDate($E153,Trigger)</f>
-        <v>41688</v>
+        <v>41757</v>
       </c>
       <c r="L153" s="10">
         <f>_xll.qlRateHelperLatestDate($E153,Trigger)</f>
-        <v>48995</v>
+        <v>49062</v>
       </c>
     </row>
     <row r="154" spans="2:12" x14ac:dyDescent="0.2">
@@ -9042,7 +9101,7 @@
       </c>
       <c r="E154" s="14" t="str">
         <f>'1M_SwapsFromBasis'!L29</f>
-        <v>USD_YC1MRH_AM1LBASIS21Y#0000</v>
+        <v>USD_YC1MRH_AM1LBASIS21Y#0002</v>
       </c>
       <c r="F154" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E154,Trigger)</f>
@@ -9050,7 +9109,7 @@
       </c>
       <c r="G154" s="13">
         <f>_xll.qlSwapRateHelperSpread($E154,Trigger)</f>
-        <v>3.9393070299228766E-4</v>
+        <v>4.8164569359751531E-4</v>
       </c>
       <c r="H154" s="12" t="b">
         <v>0</v>
@@ -9063,11 +9122,11 @@
       </c>
       <c r="K154" s="11">
         <f>_xll.qlRateHelperEarliestDate($E154,Trigger)</f>
-        <v>41688</v>
+        <v>41757</v>
       </c>
       <c r="L154" s="10">
         <f>_xll.qlRateHelperLatestDate($E154,Trigger)</f>
-        <v>49359</v>
+        <v>49429</v>
       </c>
     </row>
     <row r="155" spans="2:12" x14ac:dyDescent="0.2">
@@ -9084,7 +9143,7 @@
       </c>
       <c r="E155" s="14" t="str">
         <f>'1M_SwapsFromBasis'!L30</f>
-        <v>USD_YC1MRH_AM1LBASIS22Y#0000</v>
+        <v>USD_YC1MRH_AM1LBASIS22Y#0002</v>
       </c>
       <c r="F155" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E155,Trigger)</f>
@@ -9092,7 +9151,7 @@
       </c>
       <c r="G155" s="13">
         <f>_xll.qlSwapRateHelperSpread($E155,Trigger)</f>
-        <v>3.8941337874035957E-4</v>
+        <v>4.7481711699689415E-4</v>
       </c>
       <c r="H155" s="12" t="b">
         <v>0</v>
@@ -9105,11 +9164,11 @@
       </c>
       <c r="K155" s="11">
         <f>_xll.qlRateHelperEarliestDate($E155,Trigger)</f>
-        <v>41688</v>
+        <v>41757</v>
       </c>
       <c r="L155" s="10">
         <f>_xll.qlRateHelperLatestDate($E155,Trigger)</f>
-        <v>49723</v>
+        <v>49793</v>
       </c>
     </row>
     <row r="156" spans="2:12" x14ac:dyDescent="0.2">
@@ -9126,7 +9185,7 @@
       </c>
       <c r="E156" s="14" t="str">
         <f>'1M_SwapsFromBasis'!L31</f>
-        <v>USD_YC1MRH_AM1LBASIS23Y#0000</v>
+        <v>USD_YC1MRH_AM1LBASIS23Y#0002</v>
       </c>
       <c r="F156" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E156,Trigger)</f>
@@ -9134,7 +9193,7 @@
       </c>
       <c r="G156" s="13">
         <f>_xll.qlSwapRateHelperSpread($E156,Trigger)</f>
-        <v>3.8593070299228763E-4</v>
+        <v>4.6916569359751526E-4</v>
       </c>
       <c r="H156" s="12" t="b">
         <v>0</v>
@@ -9147,11 +9206,11 @@
       </c>
       <c r="K156" s="11">
         <f>_xll.qlRateHelperEarliestDate($E156,Trigger)</f>
-        <v>41688</v>
+        <v>41757</v>
       </c>
       <c r="L156" s="10">
         <f>_xll.qlRateHelperLatestDate($E156,Trigger)</f>
-        <v>50089</v>
+        <v>50158</v>
       </c>
     </row>
     <row r="157" spans="2:12" x14ac:dyDescent="0.2">
@@ -9168,7 +9227,7 @@
       </c>
       <c r="E157" s="14" t="str">
         <f>'1M_SwapsFromBasis'!L32</f>
-        <v>USD_YC1MRH_AM1LBASIS24Y#0000</v>
+        <v>USD_YC1MRH_AM1LBASIS24Y#0002</v>
       </c>
       <c r="F157" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E157,Trigger)</f>
@@ -9176,7 +9235,7 @@
       </c>
       <c r="G157" s="13">
         <f>_xll.qlSwapRateHelperSpread($E157,Trigger)</f>
-        <v>3.8296535149614385E-4</v>
+        <v>4.643428467987576E-4</v>
       </c>
       <c r="H157" s="12" t="b">
         <v>0</v>
@@ -9189,11 +9248,11 @@
       </c>
       <c r="K157" s="11">
         <f>_xll.qlRateHelperEarliestDate($E157,Trigger)</f>
-        <v>41688</v>
+        <v>41757</v>
       </c>
       <c r="L157" s="10">
         <f>_xll.qlRateHelperLatestDate($E157,Trigger)</f>
-        <v>50454</v>
+        <v>50523</v>
       </c>
     </row>
     <row r="158" spans="2:12" x14ac:dyDescent="0.2">
@@ -9210,15 +9269,15 @@
       </c>
       <c r="E158" s="14" t="str">
         <f>'1M_SwapsFromBasis'!L33</f>
-        <v>USD_YC1MRH_AM1LBASIS25Y#0000</v>
+        <v>USD_YC1MRH_AM1LBASIS25Y#0002</v>
       </c>
       <c r="F158" s="13">
         <f>_xll.qlRateHelperQuoteValue($E158,Trigger)</f>
-        <v>3.4619999999999998E-2</v>
+        <v>3.415E-2</v>
       </c>
       <c r="G158" s="13">
         <f>_xll.qlSwapRateHelperSpread($E158,Trigger)</f>
-        <v>3.7999999999999997E-4</v>
+        <v>4.5999999999999996E-4</v>
       </c>
       <c r="H158" s="12" t="b">
         <v>1</v>
@@ -9231,11 +9290,11 @@
       </c>
       <c r="K158" s="11">
         <f>_xll.qlRateHelperEarliestDate($E158,Trigger)</f>
-        <v>41688</v>
+        <v>41757</v>
       </c>
       <c r="L158" s="10">
         <f>_xll.qlRateHelperLatestDate($E158,Trigger)</f>
-        <v>50819</v>
+        <v>50888</v>
       </c>
     </row>
     <row r="159" spans="2:12" x14ac:dyDescent="0.2">
@@ -9252,7 +9311,7 @@
       </c>
       <c r="E159" s="14" t="str">
         <f>'1M_SwapsFromBasis'!L34</f>
-        <v>USD_YC1MRH_AM1LBASIS26Y#0000</v>
+        <v>USD_YC1MRH_AM1LBASIS26Y#0002</v>
       </c>
       <c r="F159" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E159,Trigger)</f>
@@ -9260,7 +9319,7 @@
       </c>
       <c r="G159" s="13">
         <f>_xll.qlSwapRateHelperSpread($E159,Trigger)</f>
-        <v>3.7662078910231369E-4</v>
+        <v>4.5584229192074537E-4</v>
       </c>
       <c r="H159" s="12" t="b">
         <v>0</v>
@@ -9273,11 +9332,11 @@
       </c>
       <c r="K159" s="11">
         <f>_xll.qlRateHelperEarliestDate($E159,Trigger)</f>
-        <v>41688</v>
+        <v>41757</v>
       </c>
       <c r="L159" s="10">
         <f>_xll.qlRateHelperLatestDate($E159,Trigger)</f>
-        <v>51186</v>
+        <v>51256</v>
       </c>
     </row>
     <row r="160" spans="2:12" x14ac:dyDescent="0.2">
@@ -9294,7 +9353,7 @@
       </c>
       <c r="E160" s="14" t="str">
         <f>'1M_SwapsFromBasis'!L35</f>
-        <v>USD_YC1MRH_AM1LBASIS27Y#0000</v>
+        <v>USD_YC1MRH_AM1LBASIS27Y#0002</v>
       </c>
       <c r="F160" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E160,Trigger)</f>
@@ -9302,7 +9361,7 @@
       </c>
       <c r="G160" s="13">
         <f>_xll.qlSwapRateHelperSpread($E160,Trigger)</f>
-        <v>3.7282771880308492E-4</v>
+        <v>4.5178972256099386E-4</v>
       </c>
       <c r="H160" s="12" t="b">
         <v>0</v>
@@ -9315,11 +9374,11 @@
       </c>
       <c r="K160" s="11">
         <f>_xll.qlRateHelperEarliestDate($E160,Trigger)</f>
-        <v>41688</v>
+        <v>41757</v>
       </c>
       <c r="L160" s="10">
         <f>_xll.qlRateHelperLatestDate($E160,Trigger)</f>
-        <v>51550</v>
+        <v>51620</v>
       </c>
     </row>
     <row r="161" spans="2:12" x14ac:dyDescent="0.2">
@@ -9336,7 +9395,7 @@
       </c>
       <c r="E161" s="14" t="str">
         <f>'1M_SwapsFromBasis'!L36</f>
-        <v>USD_YC1MRH_AM1LBASIS28Y#0000</v>
+        <v>USD_YC1MRH_AM1LBASIS28Y#0002</v>
       </c>
       <c r="F161" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E161,Trigger)</f>
@@ -9344,7 +9403,7 @@
       </c>
       <c r="G161" s="13">
         <f>_xll.qlSwapRateHelperSpread($E161,Trigger)</f>
-        <v>3.6872425395269933E-4</v>
+        <v>4.4781600724086966E-4</v>
       </c>
       <c r="H161" s="12" t="b">
         <v>0</v>
@@ -9357,11 +9416,11 @@
       </c>
       <c r="K161" s="11">
         <f>_xll.qlRateHelperEarliestDate($E161,Trigger)</f>
-        <v>41688</v>
+        <v>41757</v>
       </c>
       <c r="L161" s="10">
         <f>_xll.qlRateHelperLatestDate($E161,Trigger)</f>
-        <v>51915</v>
+        <v>51984</v>
       </c>
     </row>
     <row r="162" spans="2:12" x14ac:dyDescent="0.2">
@@ -9378,7 +9437,7 @@
       </c>
       <c r="E162" s="14" t="str">
         <f>'1M_SwapsFromBasis'!L37</f>
-        <v>USD_YC1MRH_AM1LBASIS29Y#0000</v>
+        <v>USD_YC1MRH_AM1LBASIS29Y#0002</v>
       </c>
       <c r="F162" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E162,Trigger)</f>
@@ -9386,7 +9445,7 @@
       </c>
       <c r="G162" s="13">
         <f>_xll.qlSwapRateHelperSpread($E162,Trigger)</f>
-        <v>3.6441385940154245E-4</v>
+        <v>4.4389486128049692E-4</v>
       </c>
       <c r="H162" s="12" t="b">
         <v>0</v>
@@ -9399,11 +9458,11 @@
       </c>
       <c r="K162" s="11">
         <f>_xll.qlRateHelperEarliestDate($E162,Trigger)</f>
-        <v>41688</v>
+        <v>41757</v>
       </c>
       <c r="L162" s="10">
         <f>_xll.qlRateHelperLatestDate($E162,Trigger)</f>
-        <v>52280</v>
+        <v>52349</v>
       </c>
     </row>
     <row r="163" spans="2:12" x14ac:dyDescent="0.2">
@@ -9420,15 +9479,15 @@
       </c>
       <c r="E163" s="14" t="str">
         <f>'1M_SwapsFromBasis'!L38</f>
-        <v>USD_YC1MRH_AM1LBASIS30Y#0000</v>
+        <v>USD_YC1MRH_AM1LBASIS30Y#0002</v>
       </c>
       <c r="F163" s="13">
         <f>_xll.qlRateHelperQuoteValue($E163,Trigger)</f>
-        <v>3.5220000000000001E-2</v>
+        <v>3.4450000000000001E-2</v>
       </c>
       <c r="G163" s="13">
         <f>_xll.qlSwapRateHelperSpread($E163,Trigger)</f>
-        <v>3.6000000000000002E-4</v>
+        <v>4.4000000000000002E-4</v>
       </c>
       <c r="H163" s="12" t="b">
         <v>1</v>
@@ -9441,11 +9500,11 @@
       </c>
       <c r="K163" s="11">
         <f>_xll.qlRateHelperEarliestDate($E163,Trigger)</f>
-        <v>41688</v>
+        <v>41757</v>
       </c>
       <c r="L163" s="10">
         <f>_xll.qlRateHelperLatestDate($E163,Trigger)</f>
-        <v>52645</v>
+        <v>52715</v>
       </c>
     </row>
     <row r="164" spans="2:12" x14ac:dyDescent="0.2">
@@ -9462,7 +9521,7 @@
       </c>
       <c r="E164" s="14" t="str">
         <f>'1M_SwapsFromBasis'!L39</f>
-        <v>USD_YC1MRH_AM1LBASIS35Y#0000</v>
+        <v>USD_YC1MRH_AM1LBASIS35Y#0002</v>
       </c>
       <c r="F164" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E164,Trigger)</f>
@@ -9470,7 +9529,7 @@
       </c>
       <c r="G164" s="13">
         <f>_xll.qlSwapRateHelperSpread($E164,Trigger)</f>
-        <v>3.6000000000000002E-4</v>
+        <v>4.4000000000000002E-4</v>
       </c>
       <c r="H164" s="12" t="b">
         <v>0</v>
@@ -9483,11 +9542,11 @@
       </c>
       <c r="K164" s="11">
         <f>_xll.qlRateHelperEarliestDate($E164,Trigger)</f>
-        <v>41688</v>
+        <v>41757</v>
       </c>
       <c r="L164" s="10">
         <f>_xll.qlRateHelperLatestDate($E164,Trigger)</f>
-        <v>54472</v>
+        <v>54541</v>
       </c>
     </row>
     <row r="165" spans="2:12" x14ac:dyDescent="0.2">
@@ -9504,15 +9563,15 @@
       </c>
       <c r="E165" s="14" t="str">
         <f>'1M_SwapsFromBasis'!L40</f>
-        <v>USD_YC1MRH_AM1LBASIS40Y#0000</v>
+        <v>USD_YC1MRH_AM1LBASIS40Y#0002</v>
       </c>
       <c r="F165" s="13">
         <f>_xll.qlRateHelperQuoteValue($E165,Trigger)</f>
-        <v>3.5369999999999999E-2</v>
+        <v>3.4630000000000001E-2</v>
       </c>
       <c r="G165" s="13">
         <f>_xll.qlSwapRateHelperSpread($E165,Trigger)</f>
-        <v>3.6000000000000002E-4</v>
+        <v>4.4000000000000002E-4</v>
       </c>
       <c r="H165" s="12" t="b">
         <v>1</v>
@@ -9525,11 +9584,11 @@
       </c>
       <c r="K165" s="11">
         <f>_xll.qlRateHelperEarliestDate($E165,Trigger)</f>
-        <v>41688</v>
+        <v>41757</v>
       </c>
       <c r="L165" s="10">
         <f>_xll.qlRateHelperLatestDate($E165,Trigger)</f>
-        <v>56298</v>
+        <v>56367</v>
       </c>
     </row>
     <row r="166" spans="2:12" x14ac:dyDescent="0.2">
@@ -9546,15 +9605,15 @@
       </c>
       <c r="E166" s="14" t="str">
         <f>'1M_SwapsFromBasis'!L41</f>
-        <v>USD_YC1MRH_AM1LBASIS50Y#0000</v>
+        <v>USD_YC1MRH_AM1LBASIS50Y#0002</v>
       </c>
       <c r="F166" s="13">
         <f>_xll.qlRateHelperQuoteValue($E166,Trigger)</f>
-        <v>3.524E-2</v>
+        <v>3.4450000000000001E-2</v>
       </c>
       <c r="G166" s="13">
         <f>_xll.qlSwapRateHelperSpread($E166,Trigger)</f>
-        <v>3.6000000000000002E-4</v>
+        <v>4.4000000000000002E-4</v>
       </c>
       <c r="H166" s="12" t="b">
         <v>1</v>
@@ -9567,11 +9626,11 @@
       </c>
       <c r="K166" s="11">
         <f>_xll.qlRateHelperEarliestDate($E166,Trigger)</f>
-        <v>41688</v>
+        <v>41757</v>
       </c>
       <c r="L166" s="10">
         <f>_xll.qlRateHelperLatestDate($E166,Trigger)</f>
-        <v>59950</v>
+        <v>60020</v>
       </c>
     </row>
     <row r="167" spans="2:12" x14ac:dyDescent="0.2">
@@ -9588,7 +9647,7 @@
       </c>
       <c r="E167" s="7" t="str">
         <f>'1M_SwapsFromBasis'!L42</f>
-        <v>USD_YC1MRH_AM1LBASIS60Y#0000</v>
+        <v>USD_YC1MRH_AM1LBASIS60Y#0002</v>
       </c>
       <c r="F167" s="6" t="e">
         <f>_xll.qlRateHelperQuoteValue($E167,Trigger)</f>
@@ -9596,7 +9655,7 @@
       </c>
       <c r="G167" s="6">
         <f>_xll.qlSwapRateHelperSpread($E167,Trigger)</f>
-        <v>3.6000000000000002E-4</v>
+        <v>4.4000000000000002E-4</v>
       </c>
       <c r="H167" s="5" t="b">
         <v>0</v>
@@ -9609,11 +9668,11 @@
       </c>
       <c r="K167" s="4">
         <f>_xll.qlRateHelperEarliestDate($E167,Trigger)</f>
-        <v>41688</v>
+        <v>41757</v>
       </c>
       <c r="L167" s="3">
         <f>_xll.qlRateHelperLatestDate($E167,Trigger)</f>
-        <v>63604</v>
+        <v>63674</v>
       </c>
     </row>
   </sheetData>
@@ -9632,8 +9691,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -9652,10 +9711,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="172" t="s">
+      <c r="A1" s="177" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="173"/>
+      <c r="B1" s="178"/>
       <c r="D1" s="53" t="s">
         <v>79</v>
       </c>
@@ -9687,7 +9746,7 @@
       </c>
       <c r="E2" s="41">
         <f>_xll.qlRateHelperRate($D2)</f>
-        <v>1.939E-3</v>
+        <v>1.5139999999999999E-3</v>
       </c>
       <c r="F2" s="41" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D2)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D2)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D2)),_xll.qlSwapRateHelperSpread($D2))</f>
@@ -9695,19 +9754,19 @@
       </c>
       <c r="G2" s="40">
         <f>_xll.qlRateHelperEarliestDate($D2)</f>
-        <v>41688</v>
+        <v>41757</v>
       </c>
       <c r="H2" s="39">
         <f>_xll.qlRateHelperLatestDate($D2)</f>
-        <v>41702</v>
+        <v>41771</v>
       </c>
       <c r="I2" s="34">
-        <v>0.99990328143267748</v>
+        <v>0.99992453209754129</v>
       </c>
       <c r="K2" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="L2" s="91">
+      <c r="L2" s="90">
         <v>1.939E-3</v>
       </c>
     </row>
@@ -9723,7 +9782,7 @@
       </c>
       <c r="E3" s="41">
         <f>_xll.qlRateHelperRate($D3)</f>
-        <v>1.923E-3</v>
+        <v>1.529E-3</v>
       </c>
       <c r="F3" s="41" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D3)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D3)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D3)),_xll.qlSwapRateHelperSpread($D3))</f>
@@ -9731,19 +9790,19 @@
       </c>
       <c r="G3" s="40">
         <f>_xll.qlRateHelperEarliestDate($D3)</f>
-        <v>41688</v>
+        <v>41757</v>
       </c>
       <c r="H3" s="39">
         <f>_xll.qlRateHelperLatestDate($D3)</f>
-        <v>41709</v>
+        <v>41778</v>
       </c>
       <c r="I3" s="34">
-        <v>0.99986567118283365</v>
+        <v>0.99989518500694174</v>
       </c>
       <c r="K3" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="L3" s="91">
+      <c r="L3" s="90">
         <v>1.923E-3</v>
       </c>
     </row>
@@ -9759,7 +9818,7 @@
       </c>
       <c r="E4" s="41">
         <f>_xll.qlRateHelperRate($D4)</f>
-        <v>1.915E-3</v>
+        <v>1.523E-3</v>
       </c>
       <c r="F4" s="41" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D4)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D4)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D4)),_xll.qlSwapRateHelperSpread($D4))</f>
@@ -9767,19 +9826,19 @@
       </c>
       <c r="G4" s="40">
         <f>_xll.qlRateHelperEarliestDate($D4)</f>
-        <v>41688</v>
+        <v>41757</v>
       </c>
       <c r="H4" s="39">
         <f>_xll.qlRateHelperLatestDate($D4)</f>
-        <v>41716</v>
+        <v>41787</v>
       </c>
       <c r="I4" s="34">
-        <v>0.99982806234765753</v>
+        <v>0.99985745429891848</v>
       </c>
       <c r="K4" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="L4" s="91">
+      <c r="L4" s="90">
         <v>1.915E-3</v>
       </c>
     </row>
@@ -9795,7 +9854,7 @@
       </c>
       <c r="E5" s="41">
         <f>_xll.qlRateHelperRate($D5)</f>
-        <v>1.72E-3</v>
+        <v>1.5199999999999999E-3</v>
       </c>
       <c r="F5" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D5)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D5)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D5)),_xll.qlSwapRateHelperSpread($D5))</f>
@@ -9803,19 +9862,19 @@
       </c>
       <c r="G5" s="40">
         <f>_xll.qlRateHelperEarliestDate($D5)</f>
-        <v>41688</v>
+        <v>41757</v>
       </c>
       <c r="H5" s="39">
         <f>_xll.qlRateHelperLatestDate($D5)</f>
-        <v>41751</v>
+        <v>41820</v>
       </c>
       <c r="I5" s="34">
-        <v>0.99969003938993084</v>
+        <v>0.99971912055011103</v>
       </c>
       <c r="K5" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="L5" s="91">
+      <c r="L5" s="90">
         <v>1.9300000000000001E-3</v>
       </c>
     </row>
@@ -9832,7 +9891,7 @@
       </c>
       <c r="E6" s="41">
         <f>_xll.qlRateHelperRate($D6)</f>
-        <v>1.7399999999999998E-3</v>
+        <v>1.5299999999999999E-3</v>
       </c>
       <c r="F6" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D6)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D6)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D6)),_xll.qlSwapRateHelperSpread($D6))</f>
@@ -9840,26 +9899,26 @@
       </c>
       <c r="G6" s="40">
         <f>_xll.qlRateHelperEarliestDate($D6)</f>
-        <v>41688</v>
+        <v>41757</v>
       </c>
       <c r="H6" s="39">
         <f>_xll.qlRateHelperLatestDate($D6)</f>
-        <v>41778</v>
+        <v>41848</v>
       </c>
       <c r="I6" s="34">
-        <v>0.9995651570517301</v>
+        <v>0.99960176146919555</v>
       </c>
       <c r="K6" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="L6" s="91">
+      <c r="L6" s="90">
         <v>1.9499999999999999E-3</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="44" t="str">
         <f>_xll.ohGroup(RateHelperPrefix&amp;"_RateHelpersSelected",_xll.ohPack(Selected!D2:D126),TRUE,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_RateHelpersSelected#0000</v>
+        <v>USD_YC1MRH_RateHelpersSelected#0003</v>
       </c>
       <c r="B7" s="43" t="str">
         <f>_xll.ohRangeRetrieveError(RateHelpersSelected)</f>
@@ -9870,7 +9929,7 @@
       </c>
       <c r="E7" s="41">
         <f>_xll.qlRateHelperRate($D7)</f>
-        <v>1.7699999999999999E-3</v>
+        <v>1.5499999999999999E-3</v>
       </c>
       <c r="F7" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D7)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D7)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D7)),_xll.qlSwapRateHelperSpread($D7))</f>
@@ -9878,19 +9937,19 @@
       </c>
       <c r="G7" s="40">
         <f>_xll.qlRateHelperEarliestDate($D7)</f>
-        <v>41688</v>
+        <v>41757</v>
       </c>
       <c r="H7" s="39">
         <f>_xll.qlRateHelperLatestDate($D7)</f>
-        <v>41808</v>
+        <v>41879</v>
       </c>
       <c r="I7" s="34">
-        <v>0.9993764171948939</v>
+        <v>0.99947184427123714</v>
       </c>
       <c r="K7" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="L7" s="91">
+      <c r="L7" s="90">
         <v>1.98E-3</v>
       </c>
     </row>
@@ -9900,7 +9959,7 @@
       </c>
       <c r="E8" s="41">
         <f>_xll.qlRateHelperRate($D8)</f>
-        <v>1.8E-3</v>
+        <v>1.57E-3</v>
       </c>
       <c r="F8" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D8)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D8)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D8)),_xll.qlSwapRateHelperSpread($D8))</f>
@@ -9908,19 +9967,19 @@
       </c>
       <c r="G8" s="40">
         <f>_xll.qlRateHelperEarliestDate($D8)</f>
-        <v>41688</v>
+        <v>41757</v>
       </c>
       <c r="H8" s="39">
         <f>_xll.qlRateHelperLatestDate($D8)</f>
-        <v>41838</v>
+        <v>41911</v>
       </c>
       <c r="I8" s="34">
-        <v>0.99922560881578515</v>
+        <v>0.99928775390691382</v>
       </c>
       <c r="K8" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="L8" s="91">
+      <c r="L8" s="90">
         <v>2.0200000000000001E-3</v>
       </c>
     </row>
@@ -9930,7 +9989,7 @@
       </c>
       <c r="E9" s="41">
         <f>_xll.qlRateHelperRate($D9)</f>
-        <v>1.8500000000000001E-3</v>
+        <v>1.58E-3</v>
       </c>
       <c r="F9" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D9)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D9)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D9)),_xll.qlSwapRateHelperSpread($D9))</f>
@@ -9938,19 +9997,19 @@
       </c>
       <c r="G9" s="40">
         <f>_xll.qlRateHelperEarliestDate($D9)</f>
-        <v>41688</v>
+        <v>41757</v>
       </c>
       <c r="H9" s="39">
         <f>_xll.qlRateHelperLatestDate($D9)</f>
-        <v>41869</v>
+        <v>41940</v>
       </c>
       <c r="I9" s="34">
-        <v>0.99906979739853519</v>
+        <v>0.99915708030481587</v>
       </c>
       <c r="K9" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="L9" s="91">
+      <c r="L9" s="90">
         <v>2.0600000000000002E-3</v>
       </c>
     </row>
@@ -9960,7 +10019,7 @@
       </c>
       <c r="E10" s="41">
         <f>_xll.qlRateHelperRate($D10)</f>
-        <v>1.9E-3</v>
+        <v>1.6100000000000001E-3</v>
       </c>
       <c r="F10" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D10)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D10)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D10)),_xll.qlSwapRateHelperSpread($D10))</f>
@@ -9968,19 +10027,19 @@
       </c>
       <c r="G10" s="40">
         <f>_xll.qlRateHelperEarliestDate($D10)</f>
-        <v>41688</v>
+        <v>41757</v>
       </c>
       <c r="H10" s="39">
         <f>_xll.qlRateHelperLatestDate($D10)</f>
-        <v>41900</v>
+        <v>41971</v>
       </c>
       <c r="I10" s="34">
-        <v>0.9988640102772971</v>
+        <v>0.99901741362619978</v>
       </c>
       <c r="K10" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="L10" s="91">
+      <c r="L10" s="90">
         <v>2.1099999999999999E-3</v>
       </c>
     </row>
@@ -9990,7 +10049,7 @@
       </c>
       <c r="E11" s="41">
         <f>_xll.qlRateHelperRate($D11)</f>
-        <v>1.9500000000000001E-3</v>
+        <v>1.64E-3</v>
       </c>
       <c r="F11" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D11)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D11)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D11)),_xll.qlSwapRateHelperSpread($D11))</f>
@@ -9998,19 +10057,19 @@
       </c>
       <c r="G11" s="40">
         <f>_xll.qlRateHelperEarliestDate($D11)</f>
-        <v>41688</v>
+        <v>41757</v>
       </c>
       <c r="H11" s="39">
         <f>_xll.qlRateHelperLatestDate($D11)</f>
-        <v>41932</v>
+        <v>42002</v>
       </c>
       <c r="I11" s="34">
-        <v>0.99864582529111579</v>
+        <v>0.99887776647082127</v>
       </c>
       <c r="K11" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="L11" s="91">
+      <c r="L11" s="90">
         <v>2.1700000000000001E-3</v>
       </c>
     </row>
@@ -10020,7 +10079,7 @@
       </c>
       <c r="E12" s="41">
         <f>_xll.qlRateHelperRate($D12)</f>
-        <v>2.0100000000000001E-3</v>
+        <v>1.6799999999999999E-3</v>
       </c>
       <c r="F12" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D12)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D12)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D12)),_xll.qlSwapRateHelperSpread($D12))</f>
@@ -10028,19 +10087,19 @@
       </c>
       <c r="G12" s="40">
         <f>_xll.qlRateHelperEarliestDate($D12)</f>
-        <v>41688</v>
+        <v>41757</v>
       </c>
       <c r="H12" s="39">
         <f>_xll.qlRateHelperLatestDate($D12)</f>
-        <v>41961</v>
+        <v>42032</v>
       </c>
       <c r="I12" s="34">
-        <v>0.99843759401909371</v>
+        <v>0.99869264264854218</v>
       </c>
       <c r="K12" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="L12" s="91">
+      <c r="L12" s="90">
         <v>2.2200000000000002E-3</v>
       </c>
     </row>
@@ -10050,7 +10109,7 @@
       </c>
       <c r="E13" s="41">
         <f>_xll.qlRateHelperRate($D13)</f>
-        <v>2.0700000000000002E-3</v>
+        <v>1.7299999999999998E-3</v>
       </c>
       <c r="F13" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D13)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D13)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D13)),_xll.qlSwapRateHelperSpread($D13))</f>
@@ -10058,19 +10117,19 @@
       </c>
       <c r="G13" s="40">
         <f>_xll.qlRateHelperEarliestDate($D13)</f>
-        <v>41688</v>
+        <v>41757</v>
       </c>
       <c r="H13" s="39">
         <f>_xll.qlRateHelperLatestDate($D13)</f>
-        <v>41991</v>
+        <v>42062</v>
       </c>
       <c r="I13" s="34">
-        <v>0.99821852694987301</v>
+        <v>0.99850216840123829</v>
       </c>
       <c r="K13" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="L13" s="91">
+      <c r="L13" s="90">
         <v>2.2899999999999999E-3</v>
       </c>
     </row>
@@ -10080,7 +10139,7 @@
       </c>
       <c r="E14" s="41">
         <f>_xll.qlRateHelperRate($D14)</f>
-        <v>2.1299999999999999E-3</v>
+        <v>1.7899999999999999E-3</v>
       </c>
       <c r="F14" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D14)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D14)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D14)),_xll.qlSwapRateHelperSpread($D14))</f>
@@ -10088,19 +10147,19 @@
       </c>
       <c r="G14" s="40">
         <f>_xll.qlRateHelperEarliestDate($D14)</f>
-        <v>41688</v>
+        <v>41757</v>
       </c>
       <c r="H14" s="39">
         <f>_xll.qlRateHelperLatestDate($D14)</f>
-        <v>42023</v>
+        <v>42093</v>
       </c>
       <c r="I14" s="34">
-        <v>0.99798301868747141</v>
+        <v>0.99830202439009907</v>
       </c>
       <c r="K14" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="L14" s="91">
+      <c r="L14" s="90">
         <v>2.3700000000000001E-3</v>
       </c>
     </row>
@@ -10110,7 +10169,7 @@
       </c>
       <c r="E15" s="41">
         <f>_xll.qlRateHelperRate($D15)</f>
-        <v>2.2000000000000001E-3</v>
+        <v>1.8599999999999999E-3</v>
       </c>
       <c r="F15" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D15)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D15)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D15)),_xll.qlSwapRateHelperSpread($D15))</f>
@@ -10118,19 +10177,19 @@
       </c>
       <c r="G15" s="40">
         <f>_xll.qlRateHelperEarliestDate($D15)</f>
-        <v>41688</v>
+        <v>41757</v>
       </c>
       <c r="H15" s="39">
         <f>_xll.qlRateHelperLatestDate($D15)</f>
-        <v>42053</v>
+        <v>42122</v>
       </c>
       <c r="I15" s="34">
-        <v>0.99775472082569361</v>
+        <v>0.99810486798772535</v>
       </c>
       <c r="K15" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="L15" s="91">
+      <c r="L15" s="90">
         <v>2.4399999999999999E-3</v>
       </c>
     </row>
@@ -10140,27 +10199,27 @@
       </c>
       <c r="E16" s="41">
         <f>_xll.qlRateHelperRate($D16)</f>
-        <v>4.28E-3</v>
+        <v>5.4000000000000003E-3</v>
       </c>
       <c r="F16" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D16)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D16)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D16)),_xll.qlSwapRateHelperSpread($D16))</f>
-        <v>7.7000000000000007E-4</v>
+        <v>7.5999999999999993E-4</v>
       </c>
       <c r="G16" s="40">
         <f>_xll.qlRateHelperEarliestDate($D16)</f>
-        <v>41688</v>
+        <v>41757</v>
       </c>
       <c r="H16" s="39">
         <f>_xll.qlRateHelperLatestDate($D16)</f>
-        <v>42418</v>
+        <v>42488</v>
       </c>
       <c r="I16" s="34">
-        <v>0.99289668095385053</v>
+        <v>0.99061751387238151</v>
       </c>
       <c r="K16" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="L16" s="91">
+      <c r="L16" s="90">
         <v>4.7000000000000002E-3</v>
       </c>
     </row>
@@ -10170,27 +10229,27 @@
       </c>
       <c r="E17" s="41">
         <f>_xll.qlRateHelperRate($D17)</f>
-        <v>6.8399999999999997E-3</v>
+        <v>1.0009999999999998E-2</v>
       </c>
       <c r="F17" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D17)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D17)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D17)),_xll.qlSwapRateHelperSpread($D17))</f>
-        <v>7.5999999999999993E-4</v>
+        <v>7.7000000000000007E-4</v>
       </c>
       <c r="G17" s="40">
         <f>_xll.qlRateHelperEarliestDate($D17)</f>
-        <v>41688</v>
+        <v>41757</v>
       </c>
       <c r="H17" s="39">
         <f>_xll.qlRateHelperLatestDate($D17)</f>
-        <v>42786</v>
+        <v>42853</v>
       </c>
       <c r="I17" s="34">
-        <v>0.98161270007302959</v>
+        <v>0.97222616971583364</v>
       </c>
       <c r="K17" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="L17" s="91">
+      <c r="L17" s="90">
         <v>7.4000000000000003E-3</v>
       </c>
     </row>
@@ -10200,27 +10259,27 @@
       </c>
       <c r="E18" s="41">
         <f>_xll.qlRateHelperRate($D18)</f>
-        <v>1.0379999999999999E-2</v>
+        <v>1.4420000000000002E-2</v>
       </c>
       <c r="F18" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D18)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D18)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D18)),_xll.qlSwapRateHelperSpread($D18))</f>
-        <v>7.5000000000000002E-4</v>
+        <v>7.7999999999999999E-4</v>
       </c>
       <c r="G18" s="40">
         <f>_xll.qlRateHelperEarliestDate($D18)</f>
-        <v>41688</v>
+        <v>41757</v>
       </c>
       <c r="H18" s="39">
         <f>_xll.qlRateHelperLatestDate($D18)</f>
-        <v>43150</v>
+        <v>43220</v>
       </c>
       <c r="I18" s="34">
-        <v>0.96153034655751501</v>
+        <v>0.94587359150400696</v>
       </c>
       <c r="K18" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="L18" s="91">
+      <c r="L18" s="90">
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
@@ -10230,27 +10289,27 @@
       </c>
       <c r="E19" s="41">
         <f>_xll.qlRateHelperRate($D19)</f>
-        <v>1.3999999999999999E-2</v>
+        <v>1.8069999999999999E-2</v>
       </c>
       <c r="F19" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D19)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D19)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D19)),_xll.qlSwapRateHelperSpread($D19))</f>
-        <v>7.3999999999999999E-4</v>
+        <v>7.9000000000000001E-4</v>
       </c>
       <c r="G19" s="40">
         <f>_xll.qlRateHelperEarliestDate($D19)</f>
-        <v>41688</v>
+        <v>41757</v>
       </c>
       <c r="H19" s="39">
         <f>_xll.qlRateHelperLatestDate($D19)</f>
-        <v>43514</v>
+        <v>43584</v>
       </c>
       <c r="I19" s="34">
-        <v>0.93451272270901065</v>
+        <v>0.9154675955328706</v>
       </c>
       <c r="K19" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="L19" s="91">
+      <c r="L19" s="90">
         <v>1.469E-2</v>
       </c>
     </row>
@@ -10260,27 +10319,27 @@
       </c>
       <c r="E20" s="41">
         <f>_xll.qlRateHelperRate($D20)</f>
-        <v>1.7299999999999999E-2</v>
+        <v>2.0969999999999999E-2</v>
       </c>
       <c r="F20" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D20)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D20)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D20)),_xll.qlSwapRateHelperSpread($D20))</f>
-        <v>7.0999999999999991E-4</v>
+        <v>7.7999999999999999E-4</v>
       </c>
       <c r="G20" s="40">
         <f>_xll.qlRateHelperEarliestDate($D20)</f>
-        <v>41688</v>
+        <v>41757</v>
       </c>
       <c r="H20" s="39">
         <f>_xll.qlRateHelperLatestDate($D20)</f>
-        <v>43879</v>
+        <v>43949</v>
       </c>
       <c r="I20" s="34">
-        <v>0.90288942585040832</v>
+        <v>0.88318347663869146</v>
       </c>
       <c r="K20" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="L20" s="91">
+      <c r="L20" s="90">
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
@@ -10290,27 +10349,27 @@
       </c>
       <c r="E21" s="41">
         <f>_xll.qlRateHelperRate($D21)</f>
-        <v>2.0080000000000001E-2</v>
+        <v>2.3250000000000003E-2</v>
       </c>
       <c r="F21" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D21)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D21)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D21)),_xll.qlSwapRateHelperSpread($D21))</f>
-        <v>6.9000000000000008E-4</v>
+        <v>7.5999999999999993E-4</v>
       </c>
       <c r="G21" s="40">
         <f>_xll.qlRateHelperEarliestDate($D21)</f>
-        <v>41688</v>
+        <v>41757</v>
       </c>
       <c r="H21" s="39">
         <f>_xll.qlRateHelperLatestDate($D21)</f>
-        <v>44245</v>
+        <v>44314</v>
       </c>
       <c r="I21" s="34">
-        <v>0.86936960800553642</v>
+        <v>0.85053450483042892</v>
       </c>
       <c r="K21" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="L21" s="91">
+      <c r="L21" s="90">
         <v>2.0830000000000001E-2</v>
       </c>
     </row>
@@ -10320,27 +10379,27 @@
       </c>
       <c r="E22" s="41">
         <f>_xll.qlRateHelperRate($D22)</f>
-        <v>2.2409999999999996E-2</v>
+        <v>2.5080000000000002E-2</v>
       </c>
       <c r="F22" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D22)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D22)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D22)),_xll.qlSwapRateHelperSpread($D22))</f>
-        <v>6.4999999999999997E-4</v>
+        <v>7.2000000000000005E-4</v>
       </c>
       <c r="G22" s="40">
         <f>_xll.qlRateHelperEarliestDate($D22)</f>
-        <v>41688</v>
+        <v>41757</v>
       </c>
       <c r="H22" s="39">
         <f>_xll.qlRateHelperLatestDate($D22)</f>
-        <v>44610</v>
+        <v>44679</v>
       </c>
       <c r="I22" s="34">
-        <v>0.83498663377573867</v>
+        <v>0.81796767936722448</v>
       </c>
       <c r="K22" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="L22" s="91">
+      <c r="L22" s="90">
         <v>2.3140000000000001E-2</v>
       </c>
     </row>
@@ -10350,27 +10409,27 @@
       </c>
       <c r="E23" s="41">
         <f>_xll.qlRateHelperRate($D23)</f>
-        <v>2.4370000000000003E-2</v>
+        <v>2.657E-2</v>
       </c>
       <c r="F23" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D23)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D23)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D23)),_xll.qlSwapRateHelperSpread($D23))</f>
-        <v>6.2E-4</v>
+        <v>6.9000000000000008E-4</v>
       </c>
       <c r="G23" s="40">
         <f>_xll.qlRateHelperEarliestDate($D23)</f>
-        <v>41688</v>
+        <v>41757</v>
       </c>
       <c r="H23" s="39">
         <f>_xll.qlRateHelperLatestDate($D23)</f>
-        <v>44977</v>
+        <v>45044</v>
       </c>
       <c r="I23" s="34">
-        <v>0.80051872114484368</v>
+        <v>0.78605924433347796</v>
       </c>
       <c r="K23" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="L23" s="91">
+      <c r="L23" s="90">
         <v>2.5100000000000001E-2</v>
       </c>
     </row>
@@ -10380,27 +10439,27 @@
       </c>
       <c r="E24" s="41">
         <f>_xll.qlRateHelperRate($D24)</f>
-        <v>2.6020000000000001E-2</v>
+        <v>2.7820000000000001E-2</v>
       </c>
       <c r="F24" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D24)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D24)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D24)),_xll.qlSwapRateHelperSpread($D24))</f>
-        <v>5.8E-4</v>
+        <v>6.6E-4</v>
       </c>
       <c r="G24" s="40">
         <f>_xll.qlRateHelperEarliestDate($D24)</f>
-        <v>41688</v>
+        <v>41757</v>
       </c>
       <c r="H24" s="39">
         <f>_xll.qlRateHelperLatestDate($D24)</f>
-        <v>45341</v>
+        <v>45411</v>
       </c>
       <c r="I24" s="34">
-        <v>0.76660752114984476</v>
+        <v>0.75466303632784548</v>
       </c>
       <c r="K24" s="32" t="s">
         <v>135</v>
       </c>
-      <c r="L24" s="91">
+      <c r="L24" s="90">
         <v>2.6790000000000001E-2</v>
       </c>
     </row>
@@ -10410,27 +10469,27 @@
       </c>
       <c r="E25" s="41">
         <f>_xll.qlRateHelperRate($D25)</f>
-        <v>2.8670000000000001E-2</v>
+        <v>2.981E-2</v>
       </c>
       <c r="F25" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D25)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D25)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D25)),_xll.qlSwapRateHelperSpread($D25))</f>
-        <v>5.2000000000000006E-4</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="G25" s="40">
         <f>_xll.qlRateHelperEarliestDate($D25)</f>
-        <v>41688</v>
+        <v>41757</v>
       </c>
       <c r="H25" s="39">
         <f>_xll.qlRateHelperLatestDate($D25)</f>
-        <v>46071</v>
+        <v>46140</v>
       </c>
       <c r="I25" s="34">
-        <v>0.70082224480617128</v>
+        <v>0.69437729499293444</v>
       </c>
       <c r="K25" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="L25" s="91">
+      <c r="L25" s="90">
         <v>2.947E-2</v>
       </c>
     </row>
@@ -10440,27 +10499,27 @@
       </c>
       <c r="E26" s="41">
         <f>_xll.qlRateHelperRate($D26)</f>
-        <v>3.1260000000000003E-2</v>
+        <v>3.175E-2</v>
       </c>
       <c r="F26" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D26)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D26)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D26)),_xll.qlSwapRateHelperSpread($D26))</f>
-        <v>4.5999999999999996E-4</v>
+        <v>5.5000000000000003E-4</v>
       </c>
       <c r="G26" s="40">
         <f>_xll.qlRateHelperEarliestDate($D26)</f>
-        <v>41688</v>
+        <v>41757</v>
       </c>
       <c r="H26" s="39">
         <f>_xll.qlRateHelperLatestDate($D26)</f>
-        <v>47168</v>
+        <v>47238</v>
       </c>
       <c r="I26" s="34">
-        <v>0.61250586800665918</v>
+        <v>0.61299253340741444</v>
       </c>
       <c r="K26" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="L26" s="91">
+      <c r="L26" s="90">
         <v>3.2009999999999997E-2</v>
       </c>
     </row>
@@ -10470,27 +10529,27 @@
       </c>
       <c r="E27" s="41">
         <f>_xll.qlRateHelperRate($D27)</f>
-        <v>3.3500000000000002E-2</v>
+        <v>3.3419999999999998E-2</v>
       </c>
       <c r="F27" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D27)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D27)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D27)),_xll.qlSwapRateHelperSpread($D27))</f>
-        <v>4.0000000000000002E-4</v>
+        <v>4.8999999999999998E-4</v>
       </c>
       <c r="G27" s="40">
         <f>_xll.qlRateHelperEarliestDate($D27)</f>
-        <v>41688</v>
+        <v>41757</v>
       </c>
       <c r="H27" s="39">
         <f>_xll.qlRateHelperLatestDate($D27)</f>
-        <v>48995</v>
+        <v>49062</v>
       </c>
       <c r="I27" s="34">
-        <v>0.49312996477480447</v>
+        <v>0.50111831101919546</v>
       </c>
       <c r="K27" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="L27" s="91">
+      <c r="L27" s="90">
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
@@ -10500,27 +10559,27 @@
       </c>
       <c r="E28" s="41">
         <f>_xll.qlRateHelperRate($D28)</f>
-        <v>3.4619999999999998E-2</v>
+        <v>3.415E-2</v>
       </c>
       <c r="F28" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D28)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D28)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D28)),_xll.qlSwapRateHelperSpread($D28))</f>
-        <v>3.7999999999999997E-4</v>
+        <v>4.5999999999999996E-4</v>
       </c>
       <c r="G28" s="40">
         <f>_xll.qlRateHelperEarliestDate($D28)</f>
-        <v>41688</v>
+        <v>41757</v>
       </c>
       <c r="H28" s="39">
         <f>_xll.qlRateHelperLatestDate($D28)</f>
-        <v>50819</v>
+        <v>50888</v>
       </c>
       <c r="I28" s="34">
-        <v>0.40012070752831741</v>
+        <v>0.41349026703428843</v>
       </c>
       <c r="K28" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="L28" s="91">
+      <c r="L28" s="90">
         <v>3.4959999999999998E-2</v>
       </c>
     </row>
@@ -10530,27 +10589,27 @@
       </c>
       <c r="E29" s="41">
         <f>_xll.qlRateHelperRate($D29)</f>
-        <v>3.5220000000000001E-2</v>
+        <v>3.4450000000000001E-2</v>
       </c>
       <c r="F29" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D29)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D29)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D29)),_xll.qlSwapRateHelperSpread($D29))</f>
-        <v>3.6000000000000002E-4</v>
+        <v>4.4000000000000002E-4</v>
       </c>
       <c r="G29" s="40">
         <f>_xll.qlRateHelperEarliestDate($D29)</f>
-        <v>41688</v>
+        <v>41757</v>
       </c>
       <c r="H29" s="39">
         <f>_xll.qlRateHelperLatestDate($D29)</f>
-        <v>52645</v>
+        <v>52715</v>
       </c>
       <c r="I29" s="34">
-        <v>0.32656019262652825</v>
+        <v>0.34407565138422247</v>
       </c>
       <c r="K29" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="L29" s="91">
+      <c r="L29" s="90">
         <v>3.5490000000000001E-2</v>
       </c>
     </row>
@@ -10560,27 +10619,27 @@
       </c>
       <c r="E30" s="41">
         <f>_xll.qlRateHelperRate($D30)</f>
-        <v>3.5369999999999999E-2</v>
+        <v>3.4630000000000001E-2</v>
       </c>
       <c r="F30" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D30)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D30)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D30)),_xll.qlSwapRateHelperSpread($D30))</f>
-        <v>3.6000000000000002E-4</v>
+        <v>4.4000000000000002E-4</v>
       </c>
       <c r="G30" s="40">
         <f>_xll.qlRateHelperEarliestDate($D30)</f>
-        <v>41688</v>
+        <v>41757</v>
       </c>
       <c r="H30" s="39">
         <f>_xll.qlRateHelperLatestDate($D30)</f>
-        <v>56298</v>
+        <v>56367</v>
       </c>
       <c r="I30" s="34">
-        <v>0.22831625594470767</v>
+        <v>0.24196330852161022</v>
       </c>
       <c r="K30" s="32" t="s">
         <v>141</v>
       </c>
-      <c r="L30" s="91">
+      <c r="L30" s="90">
         <v>3.5619999999999999E-2</v>
       </c>
     </row>
@@ -10590,27 +10649,27 @@
       </c>
       <c r="E31" s="41">
         <f>_xll.qlRateHelperRate($D31)</f>
-        <v>3.524E-2</v>
+        <v>3.4450000000000001E-2</v>
       </c>
       <c r="F31" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D31)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D31)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D31)),_xll.qlSwapRateHelperSpread($D31))</f>
-        <v>3.6000000000000002E-4</v>
+        <v>4.4000000000000002E-4</v>
       </c>
       <c r="G31" s="40">
         <f>_xll.qlRateHelperEarliestDate($D31)</f>
-        <v>41688</v>
+        <v>41757</v>
       </c>
       <c r="H31" s="39">
         <f>_xll.qlRateHelperLatestDate($D31)</f>
-        <v>59950</v>
+        <v>60020</v>
       </c>
       <c r="I31" s="34">
-        <v>0.16368928964546794</v>
+        <v>0.17555809485144094</v>
       </c>
       <c r="K31" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="L31" s="91">
+      <c r="L31" s="90">
         <v>3.5459999999999998E-2</v>
       </c>
     </row>
@@ -12913,208 +12972,324 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3" style="92" customWidth="1"/>
-    <col min="2" max="2" width="3.42578125" style="92" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" style="92" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" style="92" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.85546875" style="92" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" style="92" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.5703125" style="92" customWidth="1"/>
-    <col min="8" max="8" width="4.7109375" style="92" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="92"/>
+    <col min="1" max="1" width="3" style="91" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="91" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="91" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" style="91" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" style="91" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" style="91" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" style="91" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" style="91" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" style="91" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" style="91" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.7109375" style="91" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.5703125" style="91" customWidth="1"/>
+    <col min="13" max="13" width="4.7109375" style="91" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="91"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="112" t="s">
-        <v>188</v>
-      </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="E1" s="110" t="str">
-        <f>Currency&amp;"_YC"&amp;$D$1&amp;"RH"</f>
-        <v>USD_YC1MRH</v>
-      </c>
-      <c r="H1" s="96"/>
-    </row>
-    <row r="2" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="103"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109" t="s">
-        <v>149</v>
-      </c>
-      <c r="D2" s="109" t="s">
-        <v>148</v>
-      </c>
-      <c r="E2" s="108" t="str">
-        <f>$E$1&amp;"_Deposits.xml"</f>
-        <v>USD_YC1MRH_Deposits.xml</v>
-      </c>
-      <c r="F2" s="107">
-        <f ca="1">IF(Serialize,_xll.ohObjectSave(F3:F7,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>5</v>
-      </c>
-      <c r="G2" s="106" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
-        <v/>
-      </c>
-      <c r="H2" s="96"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="103"/>
-      <c r="B3" s="105" t="s">
-        <v>147</v>
-      </c>
-      <c r="C3" s="101"/>
-      <c r="D3" s="100" t="str">
-        <f>Currency&amp;B3&amp;"D_SYNTH"&amp;$D$1&amp;QuoteSuffix</f>
-        <v>USDSND_SYNTH1M_Quote</v>
-      </c>
-      <c r="E3" s="99" t="str">
-        <f>$E$1&amp;"_"&amp;$B3&amp;"D"</f>
-        <v>USD_YC1MRH_SND</v>
-      </c>
-      <c r="F3" s="104" t="str">
-        <f>_xll.qlDepositRateHelper2(E3,D3,"1d",2,"target","following",FALSE,"act/360",Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_SND#0000</v>
-      </c>
-      <c r="G3" s="97" t="str">
-        <f>_xll.ohRangeRetrieveError(F3)</f>
-        <v/>
-      </c>
-      <c r="H3" s="96"/>
-      <c r="J3" s="92" t="str">
-        <f>_xll.ohObjectCallerAddress(D3)</f>
-        <v>'[USD_Market.xlsm]1M'!R5C4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="103"/>
-      <c r="B4" s="102" t="s">
-        <v>146</v>
-      </c>
-      <c r="C4" s="101" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;$B4</f>
-        <v>UsdLiborSW</v>
-      </c>
-      <c r="D4" s="100" t="str">
-        <f>Currency&amp;B4&amp;"D_SYNTH"&amp;$D$1&amp;QuoteSuffix</f>
-        <v>USDSWD_SYNTH1M_Quote</v>
-      </c>
-      <c r="E4" s="99" t="str">
-        <f>$E$1&amp;"_"&amp;$B4&amp;"D"</f>
-        <v>USD_YC1MRH_SWD</v>
-      </c>
-      <c r="F4" s="98" t="str">
-        <f>_xll.qlDepositRateHelper(E4,D4,C4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_SWD#0000</v>
-      </c>
-      <c r="G4" s="97" t="str">
-        <f>_xll.ohRangeRetrieveError(F4)</f>
-        <v/>
-      </c>
-      <c r="H4" s="96"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="103"/>
-      <c r="B5" s="102" t="s">
-        <v>145</v>
-      </c>
-      <c r="C5" s="101" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;$B5</f>
-        <v>UsdLibor2W</v>
-      </c>
-      <c r="D5" s="100" t="str">
-        <f>Currency&amp;B5&amp;"D_SYNTH"&amp;$D$1&amp;QuoteSuffix</f>
-        <v>USD2WD_SYNTH1M_Quote</v>
-      </c>
-      <c r="E5" s="99" t="str">
-        <f>$E$1&amp;"_"&amp;$B5&amp;"D"</f>
-        <v>USD_YC1MRH_2WD</v>
-      </c>
-      <c r="F5" s="98" t="str">
-        <f>_xll.qlDepositRateHelper(E5,D5,C5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_2WD#0000</v>
-      </c>
-      <c r="G5" s="97" t="str">
-        <f>_xll.ohRangeRetrieveError(F5)</f>
-        <v/>
-      </c>
-      <c r="H5" s="96"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="103"/>
-      <c r="B6" s="102" t="s">
-        <v>144</v>
-      </c>
-      <c r="C6" s="101" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;$B6</f>
-        <v>UsdLibor3W</v>
-      </c>
-      <c r="D6" s="100" t="str">
-        <f>Currency&amp;B6&amp;"D_SYNTH"&amp;$D$1&amp;QuoteSuffix</f>
-        <v>USD3WD_SYNTH1M_Quote</v>
-      </c>
-      <c r="E6" s="99" t="str">
-        <f>$E$1&amp;"_"&amp;$B6&amp;"D"</f>
-        <v>USD_YC1MRH_3WD</v>
-      </c>
-      <c r="F6" s="98" t="str">
-        <f>_xll.qlDepositRateHelper(E6,D6,C6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_3WD#0000</v>
-      </c>
-      <c r="G6" s="97" t="str">
-        <f>_xll.ohRangeRetrieveError(F6)</f>
-        <v/>
-      </c>
-      <c r="H6" s="96"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="103"/>
-      <c r="B7" s="102" t="s">
-        <v>143</v>
-      </c>
-      <c r="C7" s="101" t="str">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="110" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="185" t="str">
         <f>PROPER(Currency)&amp;FamilyName&amp;$B7</f>
         <v>UsdLibor1M</v>
       </c>
-      <c r="D7" s="100" t="str">
-        <f>Currency&amp;B7&amp;"D_SYNTH"&amp;$D$1&amp;QuoteSuffix</f>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="J1" s="108" t="str">
+        <f>Currency&amp;"_YC"&amp;$I$1&amp;"RH"</f>
+        <v>USD_YC1MRH</v>
+      </c>
+      <c r="M1" s="95"/>
+    </row>
+    <row r="2" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="101"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107" t="s">
+        <v>190</v>
+      </c>
+      <c r="D2" s="107" t="s">
+        <v>191</v>
+      </c>
+      <c r="E2" s="107" t="s">
+        <v>192</v>
+      </c>
+      <c r="F2" s="107" t="s">
+        <v>193</v>
+      </c>
+      <c r="G2" s="107" t="s">
+        <v>194</v>
+      </c>
+      <c r="H2" s="107" t="s">
+        <v>195</v>
+      </c>
+      <c r="I2" s="107" t="s">
+        <v>148</v>
+      </c>
+      <c r="J2" s="106" t="str">
+        <f>$J$1&amp;"_Deposits.xml"</f>
+        <v>USD_YC1MRH_Deposits.xml</v>
+      </c>
+      <c r="K2" s="105" t="str">
+        <f>IF(Serialize,_xll.ohObjectSave(K3:K7,SerializationPath&amp;J2,FileOverwrite,Serialize),"---")</f>
+        <v>---</v>
+      </c>
+      <c r="L2" s="104" t="str">
+        <f>_xll.ohRangeRetrieveError(K2)</f>
+        <v/>
+      </c>
+      <c r="M2" s="95"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="101"/>
+      <c r="B3" s="103" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" s="181" t="s">
+        <v>196</v>
+      </c>
+      <c r="D3" s="183">
+        <f>_xll.qlInterestRateIndexFixingDays($F$1,Trigger)</f>
+        <v>2</v>
+      </c>
+      <c r="E3" s="181" t="s">
+        <v>198</v>
+      </c>
+      <c r="F3" s="181" t="s">
+        <v>199</v>
+      </c>
+      <c r="G3" s="179" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" s="181" t="str">
+        <f>_xll.qlInterestRateIndexDayCounter($F$1,Trigger)</f>
+        <v>Actual/360</v>
+      </c>
+      <c r="I3" s="99" t="str">
+        <f>Currency&amp;B3&amp;"D_SYNTH"&amp;$I$1&amp;QuoteSuffix</f>
+        <v>USDSND_SYNTH1M_Quote</v>
+      </c>
+      <c r="J3" s="98" t="str">
+        <f>$J$1&amp;"_"&amp;$B3&amp;"D"</f>
+        <v>USD_YC1MRH_SND</v>
+      </c>
+      <c r="K3" s="102" t="str">
+        <f>_xll.qlDepositRateHelper2(J3,I3,C3,D3,E3,F3,G3,H3,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>USD_YC1MRH_SND#0046</v>
+      </c>
+      <c r="L3" s="96" t="str">
+        <f>_xll.ohRangeRetrieveError(K3)</f>
+        <v/>
+      </c>
+      <c r="M3" s="95"/>
+      <c r="O3" s="91" t="str">
+        <f>_xll.ohObjectCallerAddress(I3)</f>
+        <v>[USD_SynthQuotesFeed.xlsx]Contribution!R3C4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="101"/>
+      <c r="B4" s="100" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" s="182" t="s">
+        <v>197</v>
+      </c>
+      <c r="D4" s="184">
+        <f>_xll.qlInterestRateIndexFixingDays($F$1,Trigger)</f>
+        <v>2</v>
+      </c>
+      <c r="E4" s="182" t="s">
+        <v>198</v>
+      </c>
+      <c r="F4" s="182" t="s">
+        <v>199</v>
+      </c>
+      <c r="G4" s="180" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="182" t="str">
+        <f>_xll.qlInterestRateIndexDayCounter($F$1,Trigger)</f>
+        <v>Actual/360</v>
+      </c>
+      <c r="I4" s="99" t="str">
+        <f>Currency&amp;B4&amp;"D_SYNTH"&amp;$I$1&amp;QuoteSuffix</f>
+        <v>USDSWD_SYNTH1M_Quote</v>
+      </c>
+      <c r="J4" s="98" t="str">
+        <f>$J$1&amp;"_"&amp;$B4&amp;"D"</f>
+        <v>USD_YC1MRH_SWD</v>
+      </c>
+      <c r="K4" s="97" t="str">
+        <f>_xll.qlDepositRateHelper2(J4,I4,C4,D4,E4,F4,G4,H4,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>USD_YC1MRH_SWD#0004</v>
+      </c>
+      <c r="L4" s="96" t="str">
+        <f>_xll.ohRangeRetrieveError(K4)</f>
+        <v/>
+      </c>
+      <c r="M4" s="95"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="101"/>
+      <c r="B5" s="100" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" s="182" t="s">
+        <v>145</v>
+      </c>
+      <c r="D5" s="184">
+        <f>_xll.qlInterestRateIndexFixingDays($F$1,Trigger)</f>
+        <v>2</v>
+      </c>
+      <c r="E5" s="182" t="s">
+        <v>198</v>
+      </c>
+      <c r="F5" s="182" t="s">
+        <v>199</v>
+      </c>
+      <c r="G5" s="180" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="182" t="str">
+        <f>_xll.qlInterestRateIndexDayCounter($F$1,Trigger)</f>
+        <v>Actual/360</v>
+      </c>
+      <c r="I5" s="99" t="str">
+        <f>Currency&amp;B5&amp;"D_SYNTH"&amp;$I$1&amp;QuoteSuffix</f>
+        <v>USD2WD_SYNTH1M_Quote</v>
+      </c>
+      <c r="J5" s="98" t="str">
+        <f>$J$1&amp;"_"&amp;$B5&amp;"D"</f>
+        <v>USD_YC1MRH_2WD</v>
+      </c>
+      <c r="K5" s="97" t="str">
+        <f>_xll.qlDepositRateHelper2(J5,I5,C5,D5,E5,F5,G5,H5,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>USD_YC1MRH_2WD#0003</v>
+      </c>
+      <c r="L5" s="96" t="str">
+        <f>_xll.ohRangeRetrieveError(K5)</f>
+        <v/>
+      </c>
+      <c r="M5" s="95"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="101"/>
+      <c r="B6" s="100" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" s="182" t="s">
+        <v>144</v>
+      </c>
+      <c r="D6" s="184">
+        <f>_xll.qlInterestRateIndexFixingDays($F$1,Trigger)</f>
+        <v>2</v>
+      </c>
+      <c r="E6" s="182" t="s">
+        <v>198</v>
+      </c>
+      <c r="F6" s="182" t="s">
+        <v>199</v>
+      </c>
+      <c r="G6" s="180" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="182" t="str">
+        <f>_xll.qlInterestRateIndexDayCounter($F$1,Trigger)</f>
+        <v>Actual/360</v>
+      </c>
+      <c r="I6" s="99" t="str">
+        <f>Currency&amp;B6&amp;"D_SYNTH"&amp;$I$1&amp;QuoteSuffix</f>
+        <v>USD3WD_SYNTH1M_Quote</v>
+      </c>
+      <c r="J6" s="98" t="str">
+        <f>$J$1&amp;"_"&amp;$B6&amp;"D"</f>
+        <v>USD_YC1MRH_3WD</v>
+      </c>
+      <c r="K6" s="97" t="str">
+        <f>_xll.qlDepositRateHelper2(J6,I6,C6,D6,E6,F6,G6,H6,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>USD_YC1MRH_3WD#0003</v>
+      </c>
+      <c r="L6" s="96" t="str">
+        <f>_xll.ohRangeRetrieveError(K6)</f>
+        <v/>
+      </c>
+      <c r="M6" s="95"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="101"/>
+      <c r="B7" s="100" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" s="182" t="s">
+        <v>143</v>
+      </c>
+      <c r="D7" s="184">
+        <f>_xll.qlInterestRateIndexFixingDays($F$1,Trigger)</f>
+        <v>2</v>
+      </c>
+      <c r="E7" s="182" t="s">
+        <v>198</v>
+      </c>
+      <c r="F7" s="182" t="s">
+        <v>158</v>
+      </c>
+      <c r="G7" s="180" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="182" t="str">
+        <f>_xll.qlInterestRateIndexDayCounter($F$1,Trigger)</f>
+        <v>Actual/360</v>
+      </c>
+      <c r="I7" s="99" t="str">
+        <f>Currency&amp;B7&amp;"D_SYNTH"&amp;$I$1&amp;QuoteSuffix</f>
         <v>USD1MD_SYNTH1M_Quote</v>
       </c>
-      <c r="E7" s="99" t="str">
-        <f>$E$1&amp;"_"&amp;$B7&amp;"D"</f>
+      <c r="J7" s="98" t="str">
+        <f>$J$1&amp;"_"&amp;$B7&amp;"D"</f>
         <v>USD_YC1MRH_1MD</v>
       </c>
-      <c r="F7" s="98" t="str">
-        <f>_xll.qlDepositRateHelper(E7,D7,C7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_1MD#0000</v>
-      </c>
-      <c r="G7" s="97" t="str">
-        <f>_xll.ohRangeRetrieveError(F7)</f>
+      <c r="K7" s="97" t="str">
+        <f>_xll.qlDepositRateHelper2(J7,I7,C7,D7,E7,F7,G7,H7,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>USD_YC1MRH_1MD#0004</v>
+      </c>
+      <c r="L7" s="96" t="str">
+        <f>_xll.ohRangeRetrieveError(K7)</f>
         <v/>
       </c>
-      <c r="H7" s="96"/>
-    </row>
-    <row r="8" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="95"/>
-      <c r="B8" s="94"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="94"/>
-      <c r="E8" s="94"/>
-      <c r="F8" s="94"/>
-      <c r="G8" s="94"/>
+      <c r="M7" s="95"/>
+    </row>
+    <row r="8" spans="1:15" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="94"/>
+      <c r="B8" s="93"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="93"/>
+      <c r="G8" s="93"/>
       <c r="H8" s="93"/>
+      <c r="I8" s="93"/>
+      <c r="J8" s="93"/>
+      <c r="K8" s="93"/>
+      <c r="L8" s="93"/>
+      <c r="M8" s="92"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -13134,51 +13309,51 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" style="92" customWidth="1"/>
-    <col min="2" max="2" width="4.7109375" style="92" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5703125" style="92" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.7109375" style="92" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.85546875" style="92" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.85546875" style="92" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" style="92" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" style="92" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.140625" style="92" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" style="92" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.140625" style="92" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.7109375" style="131" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21" style="92" customWidth="1"/>
-    <col min="14" max="14" width="3.7109375" style="92" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="92"/>
+    <col min="1" max="1" width="1.7109375" style="91" customWidth="1"/>
+    <col min="2" max="2" width="4.7109375" style="91" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" style="91" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.7109375" style="91" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.85546875" style="91" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.85546875" style="91" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" style="91" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" style="91" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.140625" style="91" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" style="91" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.140625" style="91" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.7109375" style="129" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21" style="91" customWidth="1"/>
+    <col min="14" max="14" width="3.7109375" style="91" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="91"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="163" t="s">
-        <v>189</v>
-      </c>
-      <c r="B1" s="150"/>
-      <c r="C1" s="150"/>
-      <c r="D1" s="150"/>
-      <c r="E1" s="150"/>
-      <c r="F1" s="150"/>
-      <c r="G1" s="150"/>
-      <c r="H1" s="150"/>
-      <c r="I1" s="150"/>
-      <c r="J1" s="150"/>
-      <c r="K1" s="151"/>
-      <c r="L1" s="150"/>
-      <c r="M1" s="150"/>
-      <c r="N1" s="149"/>
+      <c r="A1" s="161" t="s">
+        <v>188</v>
+      </c>
+      <c r="B1" s="148"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="148"/>
+      <c r="E1" s="148"/>
+      <c r="F1" s="148"/>
+      <c r="G1" s="148"/>
+      <c r="H1" s="148"/>
+      <c r="I1" s="148"/>
+      <c r="J1" s="148"/>
+      <c r="K1" s="149"/>
+      <c r="L1" s="148"/>
+      <c r="M1" s="148"/>
+      <c r="N1" s="147"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="103"/>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
+      <c r="A2" s="101"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="109"/>
       <c r="J2" s="12" t="s">
         <v>143</v>
       </c>
@@ -13188,588 +13363,588 @@
       </c>
       <c r="L2" s="12" t="str">
         <f>Discounting</f>
-        <v>UsdYC</v>
-      </c>
-      <c r="M2" s="111"/>
-      <c r="N2" s="134"/>
+        <v>UsdON</v>
+      </c>
+      <c r="M2" s="109"/>
+      <c r="N2" s="132"/>
     </row>
     <row r="3" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="103"/>
-      <c r="B3" s="109" t="s">
-        <v>178</v>
-      </c>
-      <c r="C3" s="109" t="s">
+      <c r="A3" s="101"/>
+      <c r="B3" s="107" t="s">
         <v>177</v>
       </c>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109" t="s">
+      <c r="C3" s="107" t="s">
         <v>176</v>
       </c>
-      <c r="G3" s="109" t="s">
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107" t="s">
         <v>175</v>
       </c>
-      <c r="H3" s="109" t="s">
+      <c r="G3" s="107" t="s">
         <v>174</v>
       </c>
-      <c r="I3" s="109" t="s">
+      <c r="H3" s="107" t="s">
         <v>173</v>
       </c>
-      <c r="J3" s="109" t="s">
+      <c r="I3" s="107" t="s">
+        <v>172</v>
+      </c>
+      <c r="J3" s="107" t="s">
         <v>148</v>
       </c>
-      <c r="K3" s="148" t="str">
+      <c r="K3" s="146" t="str">
         <f>K2&amp;"_Swaps.xml"</f>
         <v>USD_YC1MRH_Swaps.xml</v>
       </c>
-      <c r="L3" s="147">
-        <f ca="1">IF(Serialize,_xll.ohObjectSave(L4:L16,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>12</v>
-      </c>
-      <c r="M3" s="106" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
+      <c r="L3" s="145" t="str">
+        <f>IF(Serialize,_xll.ohObjectSave(L4:L16,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
+        <v>---</v>
+      </c>
+      <c r="M3" s="104" t="str">
+        <f>_xll.ohRangeRetrieveError(L3)</f>
         <v/>
       </c>
-      <c r="N3" s="134"/>
+      <c r="N3" s="132"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="112"/>
-      <c r="B4" s="111"/>
-      <c r="C4" s="111"/>
-      <c r="D4" s="111"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="111"/>
-      <c r="H4" s="111"/>
-      <c r="I4" s="111"/>
-      <c r="J4" s="111"/>
-      <c r="K4" s="146" t="str">
+      <c r="A4" s="110"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="109"/>
+      <c r="J4" s="109"/>
+      <c r="K4" s="144" t="str">
         <f>$K$2&amp;"_x"&amp;$E6&amp;"_"&amp;FamilyName&amp;$J$2</f>
         <v>USD_YC1MRH_xX1S_Libor1M</v>
       </c>
-      <c r="L4" s="145" t="str">
+      <c r="L4" s="143" t="str">
         <f>IF(UPPER(FamilyName)="IBOR",_xll.qlEuribor($K4,$J$2,,Permanent,Trigger,ObjectOverwrite),IF(UPPER(FamilyName)="LIBOR",_xll.qlLibor($K4,Currency,$J$2,,Permanent,Trigger,ObjectOverwrite),"--"))</f>
-        <v>USD_YC1MRH_xX1S_Libor1M#0000</v>
-      </c>
-      <c r="M4" s="144" t="str">
+        <v>USD_YC1MRH_xX1S_Libor1M#0002</v>
+      </c>
+      <c r="M4" s="142" t="str">
         <f>_xll.ohRangeRetrieveError(L4)</f>
         <v/>
       </c>
-      <c r="N4" s="134"/>
+      <c r="N4" s="132"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="112"/>
-      <c r="B5" s="111"/>
-      <c r="C5" s="111"/>
-      <c r="D5" s="111"/>
-      <c r="E5" s="111"/>
-      <c r="F5" s="111"/>
-      <c r="G5" s="111"/>
-      <c r="H5" s="111"/>
-      <c r="I5" s="111"/>
-      <c r="J5" s="111"/>
-      <c r="K5" s="111"/>
-      <c r="L5" s="111"/>
-      <c r="M5" s="111"/>
-      <c r="N5" s="134"/>
+      <c r="A5" s="110"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="109"/>
+      <c r="I5" s="109"/>
+      <c r="J5" s="109"/>
+      <c r="K5" s="109"/>
+      <c r="L5" s="109"/>
+      <c r="M5" s="109"/>
+      <c r="N5" s="132"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="103"/>
-      <c r="B6" s="143" t="s">
-        <v>162</v>
-      </c>
-      <c r="C6" s="143" t="s">
-        <v>172</v>
-      </c>
-      <c r="D6" s="143">
+      <c r="A6" s="101"/>
+      <c r="B6" s="141" t="s">
+        <v>161</v>
+      </c>
+      <c r="C6" s="141" t="s">
+        <v>171</v>
+      </c>
+      <c r="D6" s="141">
         <v>2</v>
       </c>
-      <c r="E6" s="143" t="s">
+      <c r="E6" s="141" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="142" t="s">
-        <v>160</v>
-      </c>
-      <c r="G6" s="142" t="s">
+      <c r="F6" s="140" t="s">
         <v>159</v>
       </c>
-      <c r="H6" s="142" t="str">
+      <c r="G6" s="140" t="s">
+        <v>158</v>
+      </c>
+      <c r="H6" s="140" t="str">
         <f t="shared" ref="H6:H16" si="0">MoneyMarketDayCounter</f>
         <v>Actual/360</v>
       </c>
-      <c r="I6" s="140">
-        <v>0</v>
-      </c>
-      <c r="J6" s="139" t="str">
+      <c r="I6" s="138">
+        <v>0</v>
+      </c>
+      <c r="J6" s="137" t="str">
         <f t="shared" ref="J6:J16" si="1">Currency&amp;$D6&amp;$E6&amp;QuoteSuffix</f>
         <v>USD2X1S_Quote</v>
       </c>
-      <c r="K6" s="139" t="str">
+      <c r="K6" s="137" t="str">
         <f t="shared" ref="K6:K16" si="2">$K$2&amp;"_"&amp;$D6&amp;$E6</f>
         <v>USD_YC1MRH_2X1S</v>
       </c>
-      <c r="L6" s="137" t="str">
+      <c r="L6" s="135" t="str">
         <f>_xll.qlSwapRateHelper2(K6,$J6,$C6,Calendar,$F6,$G6,$H6,$L$4,$I6,B6,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_2X1S#0000</v>
-      </c>
-      <c r="M6" s="106" t="str">
+        <v>USD_YC1MRH_2X1S#0002</v>
+      </c>
+      <c r="M6" s="104" t="str">
         <f>_xll.ohRangeRetrieveError(L6)</f>
         <v/>
       </c>
-      <c r="N6" s="134"/>
+      <c r="N6" s="132"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="103"/>
-      <c r="B7" s="143" t="s">
-        <v>162</v>
-      </c>
-      <c r="C7" s="143" t="s">
-        <v>171</v>
-      </c>
-      <c r="D7" s="143">
+      <c r="A7" s="101"/>
+      <c r="B7" s="141" t="s">
+        <v>161</v>
+      </c>
+      <c r="C7" s="141" t="s">
+        <v>170</v>
+      </c>
+      <c r="D7" s="141">
         <v>3</v>
       </c>
-      <c r="E7" s="143" t="s">
+      <c r="E7" s="141" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="142" t="s">
-        <v>160</v>
-      </c>
-      <c r="G7" s="142" t="s">
+      <c r="F7" s="140" t="s">
         <v>159</v>
       </c>
-      <c r="H7" s="141" t="str">
+      <c r="G7" s="140" t="s">
+        <v>158</v>
+      </c>
+      <c r="H7" s="139" t="str">
         <f t="shared" si="0"/>
         <v>Actual/360</v>
       </c>
-      <c r="I7" s="140">
-        <v>0</v>
-      </c>
-      <c r="J7" s="139" t="str">
+      <c r="I7" s="138">
+        <v>0</v>
+      </c>
+      <c r="J7" s="137" t="str">
         <f t="shared" si="1"/>
         <v>USD3X1S_Quote</v>
       </c>
-      <c r="K7" s="138" t="str">
+      <c r="K7" s="136" t="str">
         <f t="shared" si="2"/>
         <v>USD_YC1MRH_3X1S</v>
       </c>
-      <c r="L7" s="137" t="str">
+      <c r="L7" s="135" t="str">
         <f>_xll.qlSwapRateHelper2(K7,$J7,$C7,Calendar,$F7,$G7,$H7,$L$4,$I7,B7,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_3X1S#0000</v>
-      </c>
-      <c r="M7" s="106" t="str">
+        <v>USD_YC1MRH_3X1S#0002</v>
+      </c>
+      <c r="M7" s="104" t="str">
         <f>_xll.ohRangeRetrieveError(L7)</f>
         <v/>
       </c>
-      <c r="N7" s="134"/>
+      <c r="N7" s="132"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="103"/>
-      <c r="B8" s="143" t="s">
-        <v>162</v>
-      </c>
-      <c r="C8" s="143" t="s">
-        <v>170</v>
-      </c>
-      <c r="D8" s="143">
+      <c r="A8" s="101"/>
+      <c r="B8" s="141" t="s">
+        <v>161</v>
+      </c>
+      <c r="C8" s="141" t="s">
+        <v>169</v>
+      </c>
+      <c r="D8" s="141">
         <v>4</v>
       </c>
-      <c r="E8" s="143" t="s">
+      <c r="E8" s="141" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="142" t="s">
-        <v>160</v>
-      </c>
-      <c r="G8" s="142" t="s">
+      <c r="F8" s="140" t="s">
         <v>159</v>
       </c>
-      <c r="H8" s="141" t="str">
+      <c r="G8" s="140" t="s">
+        <v>158</v>
+      </c>
+      <c r="H8" s="139" t="str">
         <f t="shared" si="0"/>
         <v>Actual/360</v>
       </c>
-      <c r="I8" s="140">
-        <v>0</v>
-      </c>
-      <c r="J8" s="139" t="str">
+      <c r="I8" s="138">
+        <v>0</v>
+      </c>
+      <c r="J8" s="137" t="str">
         <f t="shared" si="1"/>
         <v>USD4X1S_Quote</v>
       </c>
-      <c r="K8" s="138" t="str">
+      <c r="K8" s="136" t="str">
         <f t="shared" si="2"/>
         <v>USD_YC1MRH_4X1S</v>
       </c>
-      <c r="L8" s="137" t="str">
+      <c r="L8" s="135" t="str">
         <f>_xll.qlSwapRateHelper2(K8,$J8,$C8,Calendar,$F8,$G8,$H8,$L$4,$I8,B8,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_4X1S#0000</v>
-      </c>
-      <c r="M8" s="106" t="str">
+        <v>USD_YC1MRH_4X1S#0002</v>
+      </c>
+      <c r="M8" s="104" t="str">
         <f>_xll.ohRangeRetrieveError(L8)</f>
         <v/>
       </c>
-      <c r="N8" s="134"/>
+      <c r="N8" s="132"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="103"/>
-      <c r="B9" s="143" t="s">
-        <v>162</v>
-      </c>
-      <c r="C9" s="143" t="s">
-        <v>169</v>
-      </c>
-      <c r="D9" s="143">
+      <c r="A9" s="101"/>
+      <c r="B9" s="141" t="s">
+        <v>161</v>
+      </c>
+      <c r="C9" s="141" t="s">
+        <v>168</v>
+      </c>
+      <c r="D9" s="141">
         <v>5</v>
       </c>
-      <c r="E9" s="143" t="s">
+      <c r="E9" s="141" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="142" t="s">
-        <v>160</v>
-      </c>
-      <c r="G9" s="142" t="s">
+      <c r="F9" s="140" t="s">
         <v>159</v>
       </c>
-      <c r="H9" s="141" t="str">
+      <c r="G9" s="140" t="s">
+        <v>158</v>
+      </c>
+      <c r="H9" s="139" t="str">
         <f t="shared" si="0"/>
         <v>Actual/360</v>
       </c>
-      <c r="I9" s="140">
-        <v>0</v>
-      </c>
-      <c r="J9" s="139" t="str">
+      <c r="I9" s="138">
+        <v>0</v>
+      </c>
+      <c r="J9" s="137" t="str">
         <f t="shared" si="1"/>
         <v>USD5X1S_Quote</v>
       </c>
-      <c r="K9" s="138" t="str">
+      <c r="K9" s="136" t="str">
         <f t="shared" si="2"/>
         <v>USD_YC1MRH_5X1S</v>
       </c>
-      <c r="L9" s="137" t="str">
+      <c r="L9" s="135" t="str">
         <f>_xll.qlSwapRateHelper2(K9,$J9,$C9,Calendar,$F9,$G9,$H9,$L$4,$I9,B9,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_5X1S#0000</v>
-      </c>
-      <c r="M9" s="106" t="str">
+        <v>USD_YC1MRH_5X1S#0002</v>
+      </c>
+      <c r="M9" s="104" t="str">
         <f>_xll.ohRangeRetrieveError(L9)</f>
         <v/>
       </c>
-      <c r="N9" s="134"/>
+      <c r="N9" s="132"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="103"/>
-      <c r="B10" s="143" t="s">
-        <v>162</v>
-      </c>
-      <c r="C10" s="143" t="s">
-        <v>168</v>
-      </c>
-      <c r="D10" s="143">
+      <c r="A10" s="101"/>
+      <c r="B10" s="141" t="s">
+        <v>161</v>
+      </c>
+      <c r="C10" s="141" t="s">
+        <v>167</v>
+      </c>
+      <c r="D10" s="141">
         <v>6</v>
       </c>
-      <c r="E10" s="143" t="s">
+      <c r="E10" s="141" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="142" t="s">
-        <v>160</v>
-      </c>
-      <c r="G10" s="142" t="s">
+      <c r="F10" s="140" t="s">
         <v>159</v>
       </c>
-      <c r="H10" s="141" t="str">
+      <c r="G10" s="140" t="s">
+        <v>158</v>
+      </c>
+      <c r="H10" s="139" t="str">
         <f t="shared" si="0"/>
         <v>Actual/360</v>
       </c>
-      <c r="I10" s="140">
-        <v>0</v>
-      </c>
-      <c r="J10" s="139" t="str">
+      <c r="I10" s="138">
+        <v>0</v>
+      </c>
+      <c r="J10" s="137" t="str">
         <f t="shared" si="1"/>
         <v>USD6X1S_Quote</v>
       </c>
-      <c r="K10" s="138" t="str">
+      <c r="K10" s="136" t="str">
         <f t="shared" si="2"/>
         <v>USD_YC1MRH_6X1S</v>
       </c>
-      <c r="L10" s="137" t="str">
+      <c r="L10" s="135" t="str">
         <f>_xll.qlSwapRateHelper2(K10,$J10,$C10,Calendar,$F10,$G10,$H10,$L$4,$I10,B10,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_6X1S#0000</v>
-      </c>
-      <c r="M10" s="106" t="str">
+        <v>USD_YC1MRH_6X1S#0002</v>
+      </c>
+      <c r="M10" s="104" t="str">
         <f>_xll.ohRangeRetrieveError(L10)</f>
         <v/>
       </c>
-      <c r="N10" s="134"/>
+      <c r="N10" s="132"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="103"/>
-      <c r="B11" s="143" t="s">
-        <v>162</v>
-      </c>
-      <c r="C11" s="143" t="s">
-        <v>167</v>
-      </c>
-      <c r="D11" s="143">
+      <c r="A11" s="101"/>
+      <c r="B11" s="141" t="s">
+        <v>161</v>
+      </c>
+      <c r="C11" s="141" t="s">
+        <v>166</v>
+      </c>
+      <c r="D11" s="141">
         <v>7</v>
       </c>
-      <c r="E11" s="143" t="s">
+      <c r="E11" s="141" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="142" t="s">
-        <v>160</v>
-      </c>
-      <c r="G11" s="142" t="s">
+      <c r="F11" s="140" t="s">
         <v>159</v>
       </c>
-      <c r="H11" s="141" t="str">
+      <c r="G11" s="140" t="s">
+        <v>158</v>
+      </c>
+      <c r="H11" s="139" t="str">
         <f t="shared" si="0"/>
         <v>Actual/360</v>
       </c>
-      <c r="I11" s="140">
-        <v>0</v>
-      </c>
-      <c r="J11" s="139" t="str">
+      <c r="I11" s="138">
+        <v>0</v>
+      </c>
+      <c r="J11" s="137" t="str">
         <f t="shared" si="1"/>
         <v>USD7X1S_Quote</v>
       </c>
-      <c r="K11" s="138" t="str">
+      <c r="K11" s="136" t="str">
         <f t="shared" si="2"/>
         <v>USD_YC1MRH_7X1S</v>
       </c>
-      <c r="L11" s="137" t="str">
+      <c r="L11" s="135" t="str">
         <f>_xll.qlSwapRateHelper2(K11,$J11,$C11,Calendar,$F11,$G11,$H11,$L$4,$I11,B11,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_7X1S#0000</v>
-      </c>
-      <c r="M11" s="106" t="str">
+        <v>USD_YC1MRH_7X1S#0002</v>
+      </c>
+      <c r="M11" s="104" t="str">
         <f>_xll.ohRangeRetrieveError(L11)</f>
         <v/>
       </c>
-      <c r="N11" s="134"/>
+      <c r="N11" s="132"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="103"/>
-      <c r="B12" s="143" t="s">
-        <v>162</v>
-      </c>
-      <c r="C12" s="143" t="s">
-        <v>166</v>
-      </c>
-      <c r="D12" s="143">
+      <c r="A12" s="101"/>
+      <c r="B12" s="141" t="s">
+        <v>161</v>
+      </c>
+      <c r="C12" s="141" t="s">
+        <v>165</v>
+      </c>
+      <c r="D12" s="141">
         <v>8</v>
       </c>
-      <c r="E12" s="143" t="s">
+      <c r="E12" s="141" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="142" t="s">
-        <v>160</v>
-      </c>
-      <c r="G12" s="142" t="s">
+      <c r="F12" s="140" t="s">
         <v>159</v>
       </c>
-      <c r="H12" s="141" t="str">
+      <c r="G12" s="140" t="s">
+        <v>158</v>
+      </c>
+      <c r="H12" s="139" t="str">
         <f t="shared" si="0"/>
         <v>Actual/360</v>
       </c>
-      <c r="I12" s="140">
-        <v>0</v>
-      </c>
-      <c r="J12" s="139" t="str">
+      <c r="I12" s="138">
+        <v>0</v>
+      </c>
+      <c r="J12" s="137" t="str">
         <f t="shared" si="1"/>
         <v>USD8X1S_Quote</v>
       </c>
-      <c r="K12" s="138" t="str">
+      <c r="K12" s="136" t="str">
         <f t="shared" si="2"/>
         <v>USD_YC1MRH_8X1S</v>
       </c>
-      <c r="L12" s="137" t="str">
+      <c r="L12" s="135" t="str">
         <f>_xll.qlSwapRateHelper2(K12,$J12,$C12,Calendar,$F12,$G12,$H12,$L$4,$I12,B12,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_8X1S#0000</v>
-      </c>
-      <c r="M12" s="106" t="str">
+        <v>USD_YC1MRH_8X1S#0002</v>
+      </c>
+      <c r="M12" s="104" t="str">
         <f>_xll.ohRangeRetrieveError(L12)</f>
         <v/>
       </c>
-      <c r="N12" s="134"/>
+      <c r="N12" s="132"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="103"/>
-      <c r="B13" s="143" t="s">
-        <v>162</v>
-      </c>
-      <c r="C13" s="143" t="s">
-        <v>165</v>
-      </c>
-      <c r="D13" s="143">
+      <c r="A13" s="101"/>
+      <c r="B13" s="141" t="s">
+        <v>161</v>
+      </c>
+      <c r="C13" s="141" t="s">
+        <v>164</v>
+      </c>
+      <c r="D13" s="141">
         <v>9</v>
       </c>
-      <c r="E13" s="143" t="s">
+      <c r="E13" s="141" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="142" t="s">
-        <v>160</v>
-      </c>
-      <c r="G13" s="142" t="s">
+      <c r="F13" s="140" t="s">
         <v>159</v>
       </c>
-      <c r="H13" s="141" t="str">
+      <c r="G13" s="140" t="s">
+        <v>158</v>
+      </c>
+      <c r="H13" s="139" t="str">
         <f t="shared" si="0"/>
         <v>Actual/360</v>
       </c>
-      <c r="I13" s="140">
-        <v>0</v>
-      </c>
-      <c r="J13" s="139" t="str">
+      <c r="I13" s="138">
+        <v>0</v>
+      </c>
+      <c r="J13" s="137" t="str">
         <f t="shared" si="1"/>
         <v>USD9X1S_Quote</v>
       </c>
-      <c r="K13" s="138" t="str">
+      <c r="K13" s="136" t="str">
         <f t="shared" si="2"/>
         <v>USD_YC1MRH_9X1S</v>
       </c>
-      <c r="L13" s="137" t="str">
+      <c r="L13" s="135" t="str">
         <f>_xll.qlSwapRateHelper2(K13,$J13,$C13,Calendar,$F13,$G13,$H13,$L$4,$I13,B13,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_9X1S#0000</v>
-      </c>
-      <c r="M13" s="106" t="str">
+        <v>USD_YC1MRH_9X1S#0002</v>
+      </c>
+      <c r="M13" s="104" t="str">
         <f>_xll.ohRangeRetrieveError(L13)</f>
         <v/>
       </c>
-      <c r="N13" s="134"/>
+      <c r="N13" s="132"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="103"/>
-      <c r="B14" s="143" t="s">
-        <v>162</v>
-      </c>
-      <c r="C14" s="143" t="s">
-        <v>164</v>
-      </c>
-      <c r="D14" s="143">
+      <c r="A14" s="101"/>
+      <c r="B14" s="141" t="s">
+        <v>161</v>
+      </c>
+      <c r="C14" s="141" t="s">
+        <v>163</v>
+      </c>
+      <c r="D14" s="141">
         <v>10</v>
       </c>
-      <c r="E14" s="143" t="s">
+      <c r="E14" s="141" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="142" t="s">
-        <v>160</v>
-      </c>
-      <c r="G14" s="142" t="s">
+      <c r="F14" s="140" t="s">
         <v>159</v>
       </c>
-      <c r="H14" s="141" t="str">
+      <c r="G14" s="140" t="s">
+        <v>158</v>
+      </c>
+      <c r="H14" s="139" t="str">
         <f t="shared" si="0"/>
         <v>Actual/360</v>
       </c>
-      <c r="I14" s="140">
-        <v>0</v>
-      </c>
-      <c r="J14" s="139" t="str">
+      <c r="I14" s="138">
+        <v>0</v>
+      </c>
+      <c r="J14" s="137" t="str">
         <f t="shared" si="1"/>
         <v>USD10X1S_Quote</v>
       </c>
-      <c r="K14" s="138" t="str">
+      <c r="K14" s="136" t="str">
         <f t="shared" si="2"/>
         <v>USD_YC1MRH_10X1S</v>
       </c>
-      <c r="L14" s="137" t="str">
+      <c r="L14" s="135" t="str">
         <f>_xll.qlSwapRateHelper2(K14,$J14,$C14,Calendar,$F14,$G14,$H14,$L$4,$I14,B14,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_10X1S#0000</v>
-      </c>
-      <c r="M14" s="106" t="str">
+        <v>USD_YC1MRH_10X1S#0002</v>
+      </c>
+      <c r="M14" s="104" t="str">
         <f>_xll.ohRangeRetrieveError(L14)</f>
         <v/>
       </c>
-      <c r="N14" s="134"/>
+      <c r="N14" s="132"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="103"/>
-      <c r="B15" s="143" t="s">
+      <c r="A15" s="101"/>
+      <c r="B15" s="141" t="s">
+        <v>161</v>
+      </c>
+      <c r="C15" s="141" t="s">
         <v>162</v>
       </c>
-      <c r="C15" s="143" t="s">
-        <v>163</v>
-      </c>
-      <c r="D15" s="143">
+      <c r="D15" s="141">
         <v>11</v>
       </c>
-      <c r="E15" s="143" t="s">
+      <c r="E15" s="141" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="142" t="s">
-        <v>160</v>
-      </c>
-      <c r="G15" s="142" t="s">
+      <c r="F15" s="140" t="s">
         <v>159</v>
       </c>
-      <c r="H15" s="141" t="str">
+      <c r="G15" s="140" t="s">
+        <v>158</v>
+      </c>
+      <c r="H15" s="139" t="str">
         <f t="shared" si="0"/>
         <v>Actual/360</v>
       </c>
-      <c r="I15" s="140">
-        <v>0</v>
-      </c>
-      <c r="J15" s="139" t="str">
+      <c r="I15" s="138">
+        <v>0</v>
+      </c>
+      <c r="J15" s="137" t="str">
         <f t="shared" si="1"/>
         <v>USD11X1S_Quote</v>
       </c>
-      <c r="K15" s="138" t="str">
+      <c r="K15" s="136" t="str">
         <f t="shared" si="2"/>
         <v>USD_YC1MRH_11X1S</v>
       </c>
-      <c r="L15" s="137" t="str">
+      <c r="L15" s="135" t="str">
         <f>_xll.qlSwapRateHelper2(K15,$J15,$C15,Calendar,$F15,$G15,$H15,$L$4,$I15,B15,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_11X1S#0000</v>
-      </c>
-      <c r="M15" s="106" t="str">
+        <v>USD_YC1MRH_11X1S#0002</v>
+      </c>
+      <c r="M15" s="104" t="str">
         <f>_xll.ohRangeRetrieveError(L15)</f>
         <v/>
       </c>
-      <c r="N15" s="134"/>
+      <c r="N15" s="132"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="103"/>
-      <c r="B16" s="143" t="s">
-        <v>162</v>
-      </c>
-      <c r="C16" s="143" t="s">
+      <c r="A16" s="101"/>
+      <c r="B16" s="141" t="s">
         <v>161</v>
       </c>
-      <c r="D16" s="143">
+      <c r="C16" s="141" t="s">
+        <v>160</v>
+      </c>
+      <c r="D16" s="141">
         <v>12</v>
       </c>
-      <c r="E16" s="143" t="s">
+      <c r="E16" s="141" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="142" t="s">
-        <v>160</v>
-      </c>
-      <c r="G16" s="142" t="s">
+      <c r="F16" s="140" t="s">
         <v>159</v>
       </c>
-      <c r="H16" s="141" t="str">
+      <c r="G16" s="140" t="s">
+        <v>158</v>
+      </c>
+      <c r="H16" s="139" t="str">
         <f t="shared" si="0"/>
         <v>Actual/360</v>
       </c>
-      <c r="I16" s="140">
-        <v>0</v>
-      </c>
-      <c r="J16" s="139" t="str">
+      <c r="I16" s="138">
+        <v>0</v>
+      </c>
+      <c r="J16" s="137" t="str">
         <f t="shared" si="1"/>
         <v>USD12X1S_Quote</v>
       </c>
-      <c r="K16" s="138" t="str">
+      <c r="K16" s="136" t="str">
         <f t="shared" si="2"/>
         <v>USD_YC1MRH_12X1S</v>
       </c>
-      <c r="L16" s="137" t="str">
+      <c r="L16" s="135" t="str">
         <f>_xll.qlSwapRateHelper2(K16,$J16,$C16,Calendar,$F16,$G16,$H16,$L$4,$I16,B16,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_12X1S#0000</v>
-      </c>
-      <c r="M16" s="106" t="str">
+        <v>USD_YC1MRH_12X1S#0002</v>
+      </c>
+      <c r="M16" s="104" t="str">
         <f>_xll.ohRangeRetrieveError(L16)</f>
         <v/>
       </c>
-      <c r="N16" s="134"/>
+      <c r="N16" s="132"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="103"/>
+      <c r="A17" s="101"/>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
@@ -13777,28 +13952,28 @@
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
-      <c r="I17" s="136"/>
-      <c r="J17" s="135"/>
-      <c r="K17" s="135"/>
-      <c r="L17" s="135"/>
-      <c r="M17" s="135"/>
-      <c r="N17" s="134"/>
+      <c r="I17" s="134"/>
+      <c r="J17" s="133"/>
+      <c r="K17" s="133"/>
+      <c r="L17" s="133"/>
+      <c r="M17" s="133"/>
+      <c r="N17" s="132"/>
     </row>
     <row r="18" spans="1:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="95"/>
-      <c r="B18" s="94"/>
-      <c r="C18" s="94"/>
-      <c r="D18" s="94"/>
-      <c r="E18" s="94"/>
-      <c r="F18" s="94"/>
-      <c r="G18" s="94"/>
-      <c r="H18" s="94"/>
-      <c r="I18" s="94"/>
-      <c r="J18" s="94"/>
-      <c r="K18" s="94"/>
-      <c r="L18" s="133"/>
-      <c r="M18" s="133"/>
-      <c r="N18" s="132"/>
+      <c r="A18" s="94"/>
+      <c r="B18" s="93"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="93"/>
+      <c r="F18" s="93"/>
+      <c r="G18" s="93"/>
+      <c r="H18" s="93"/>
+      <c r="I18" s="93"/>
+      <c r="J18" s="93"/>
+      <c r="K18" s="93"/>
+      <c r="L18" s="131"/>
+      <c r="M18" s="131"/>
+      <c r="N18" s="130"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -13824,56 +13999,56 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" style="92" customWidth="1"/>
-    <col min="2" max="2" width="4.7109375" style="92" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.85546875" style="92" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.140625" style="92" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.7109375" style="92" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.85546875" style="92" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" style="92" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" style="92" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" style="92" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.28515625" style="92" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.5703125" style="92" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.42578125" style="131" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.5703125" style="92" customWidth="1"/>
-    <col min="14" max="14" width="3.85546875" style="92" customWidth="1"/>
-    <col min="15" max="15" width="2.5703125" style="92" customWidth="1"/>
-    <col min="16" max="16" width="4" style="92" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="3.28515625" style="92" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2.7109375" style="92" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="92"/>
+    <col min="1" max="1" width="1.7109375" style="91" customWidth="1"/>
+    <col min="2" max="2" width="4.7109375" style="91" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.85546875" style="91" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.140625" style="91" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.7109375" style="91" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.85546875" style="91" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" style="91" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" style="91" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" style="91" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" style="91" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.5703125" style="91" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.42578125" style="129" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.5703125" style="91" customWidth="1"/>
+    <col min="14" max="14" width="3.85546875" style="91" customWidth="1"/>
+    <col min="15" max="15" width="2.5703125" style="91" customWidth="1"/>
+    <col min="16" max="16" width="4" style="91" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.28515625" style="91" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2.7109375" style="91" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="91"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="163" t="s">
-        <v>190</v>
-      </c>
-      <c r="B1" s="150"/>
-      <c r="C1" s="150"/>
-      <c r="D1" s="150"/>
-      <c r="E1" s="150"/>
-      <c r="F1" s="150"/>
-      <c r="G1" s="150"/>
-      <c r="H1" s="150"/>
-      <c r="I1" s="150"/>
-      <c r="J1" s="150"/>
-      <c r="K1" s="151"/>
-      <c r="L1" s="150"/>
-      <c r="M1" s="150"/>
-      <c r="N1" s="149"/>
+      <c r="A1" s="161" t="s">
+        <v>189</v>
+      </c>
+      <c r="B1" s="148"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="148"/>
+      <c r="E1" s="148"/>
+      <c r="F1" s="148"/>
+      <c r="G1" s="148"/>
+      <c r="H1" s="148"/>
+      <c r="I1" s="148"/>
+      <c r="J1" s="148"/>
+      <c r="K1" s="149"/>
+      <c r="L1" s="148"/>
+      <c r="M1" s="148"/>
+      <c r="N1" s="147"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" s="103"/>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
+      <c r="A2" s="101"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
       <c r="I2" s="12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>143</v>
@@ -13884,2001 +14059,2001 @@
       </c>
       <c r="L2" s="12" t="str">
         <f>Discounting</f>
-        <v>UsdYC</v>
-      </c>
-      <c r="M2" s="111"/>
-      <c r="N2" s="134"/>
+        <v>UsdON</v>
+      </c>
+      <c r="M2" s="109"/>
+      <c r="N2" s="132"/>
     </row>
     <row r="3" spans="1:18" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="103"/>
-      <c r="B3" s="109" t="s">
-        <v>178</v>
-      </c>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109" t="s">
-        <v>176</v>
-      </c>
-      <c r="G3" s="109" t="s">
+      <c r="A3" s="101"/>
+      <c r="B3" s="107" t="s">
+        <v>177</v>
+      </c>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107" t="s">
         <v>175</v>
       </c>
-      <c r="H3" s="109" t="s">
+      <c r="G3" s="107" t="s">
         <v>174</v>
       </c>
-      <c r="I3" s="109" t="s">
+      <c r="H3" s="107" t="s">
         <v>173</v>
       </c>
-      <c r="J3" s="109" t="s">
+      <c r="I3" s="107" t="s">
+        <v>172</v>
+      </c>
+      <c r="J3" s="107" t="s">
         <v>148</v>
       </c>
-      <c r="K3" s="148" t="str">
+      <c r="K3" s="146" t="str">
         <f>K2&amp;"_SwapsFromBasis.xml"</f>
         <v>USD_YC1MRH_SwapsFromBasis.xml</v>
       </c>
-      <c r="L3" s="147">
-        <f ca="1">IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>38</v>
-      </c>
-      <c r="M3" s="152" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
+      <c r="L3" s="145" t="str">
+        <f>IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
+        <v>---</v>
+      </c>
+      <c r="M3" s="150" t="str">
+        <f>_xll.ohRangeRetrieveError(L3)</f>
         <v/>
       </c>
-      <c r="N3" s="134"/>
+      <c r="N3" s="132"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" s="112"/>
-      <c r="B4" s="111"/>
-      <c r="C4" s="111"/>
-      <c r="D4" s="111"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="111"/>
-      <c r="H4" s="111"/>
-      <c r="I4" s="111"/>
-      <c r="J4" s="111"/>
-      <c r="K4" s="146" t="str">
+      <c r="A4" s="110"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="109"/>
+      <c r="J4" s="109"/>
+      <c r="K4" s="144" t="str">
         <f>$K$2&amp;"_"&amp;$D6&amp;$E6&amp;"BASIS_"&amp;FamilyName&amp;$J$2</f>
         <v>USD_YC1MRH_AM1LBASIS_Libor1M</v>
       </c>
-      <c r="L4" s="145" t="str">
+      <c r="L4" s="143" t="str">
         <f>IF(UPPER(FamilyName)="IBOR",_xll.qlEuribor($K4,$J$2,,Permanent,Trigger,ObjectOverwrite),IF(UPPER(FamilyName)="LIBOR",_xll.qlLibor($K4,Currency,$J$2,,Permanent,Trigger,ObjectOverwrite),"--"))</f>
-        <v>USD_YC1MRH_AM1LBASIS_Libor1M#0000</v>
-      </c>
-      <c r="M4" s="144" t="str">
+        <v>USD_YC1MRH_AM1LBASIS_Libor1M#0002</v>
+      </c>
+      <c r="M4" s="142" t="str">
         <f>_xll.ohRangeRetrieveError(L4)</f>
         <v/>
       </c>
-      <c r="N4" s="134"/>
+      <c r="N4" s="132"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5" s="112"/>
-      <c r="B5" s="111"/>
-      <c r="C5" s="111"/>
-      <c r="D5" s="111"/>
-      <c r="E5" s="111"/>
-      <c r="F5" s="111"/>
-      <c r="G5" s="111"/>
-      <c r="H5" s="111"/>
-      <c r="I5" s="111"/>
-      <c r="J5" s="111"/>
-      <c r="K5" s="111"/>
-      <c r="L5" s="111"/>
-      <c r="M5" s="111"/>
-      <c r="N5" s="134"/>
+      <c r="A5" s="110"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="109"/>
+      <c r="I5" s="109"/>
+      <c r="J5" s="109"/>
+      <c r="K5" s="109"/>
+      <c r="L5" s="109"/>
+      <c r="M5" s="109"/>
+      <c r="N5" s="132"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" s="103"/>
-      <c r="B6" s="162" t="s">
-        <v>162</v>
-      </c>
-      <c r="C6" s="143" t="s">
+      <c r="A6" s="101"/>
+      <c r="B6" s="160" t="s">
+        <v>161</v>
+      </c>
+      <c r="C6" s="141" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="162" t="str">
+      <c r="D6" s="160" t="str">
         <f>VLOOKUP(Currency,Swap1MConventions,2)</f>
         <v>AM</v>
       </c>
-      <c r="E6" s="162" t="str">
+      <c r="E6" s="160" t="str">
         <f>VLOOKUP(Currency,Swap1MConventions,3)</f>
         <v>1L</v>
       </c>
-      <c r="F6" s="142" t="str">
+      <c r="F6" s="140" t="str">
         <f t="shared" ref="F6:F42" si="0">IF(UPPER(LEFT($D6))="A","Annual",IF(UPPER(LEFT($D6))="S","Semiannual","--"))</f>
         <v>Annual</v>
       </c>
-      <c r="G6" s="142" t="s">
-        <v>159</v>
-      </c>
-      <c r="H6" s="142" t="str">
+      <c r="G6" s="140" t="s">
+        <v>158</v>
+      </c>
+      <c r="H6" s="140" t="str">
         <f t="shared" ref="H6:H42" si="1">IF(UPPER(RIGHT($D6))="B",BondBasisDayCounter,IF(UPPER(RIGHT($D6))="M",MoneyMarketDayCounter,"--"))</f>
         <v>Actual/360</v>
       </c>
-      <c r="I6" s="140" t="str">
+      <c r="I6" s="138" t="str">
         <f t="shared" ref="I6:I42" si="2">Currency&amp;$I$2&amp;$E6&amp;$C6&amp;QuoteSuffix</f>
         <v>USD3L1L1Y_Quote</v>
       </c>
-      <c r="J6" s="139" t="str">
+      <c r="J6" s="137" t="str">
         <f t="shared" ref="J6:J42" si="3">Currency&amp;$D6&amp;$I$2&amp;$C6&amp;"_Quote"</f>
         <v>USDAM3L1Y_Quote</v>
       </c>
-      <c r="K6" s="139" t="str">
+      <c r="K6" s="137" t="str">
         <f t="shared" ref="K6:K42" si="4">$K$2&amp;"_"&amp;$D6&amp;$E6&amp;"BASIS"&amp;$C6</f>
         <v>USD_YC1MRH_AM1LBASIS1Y</v>
       </c>
-      <c r="L6" s="137" t="str">
+      <c r="L6" s="135" t="str">
         <f>_xll.qlSwapRateHelper2(K6,$J6,$C6,Calendar,$F6,$G6,$H6,$L$4,$I6,B6,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_AM1LBASIS1Y#0000</v>
-      </c>
-      <c r="M6" s="152" t="str">
+        <v>USD_YC1MRH_AM1LBASIS1Y#0002</v>
+      </c>
+      <c r="M6" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L6)</f>
         <v/>
       </c>
-      <c r="N6" s="134"/>
+      <c r="N6" s="132"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" s="103"/>
-      <c r="B7" s="143" t="str">
+      <c r="A7" s="101"/>
+      <c r="B7" s="141" t="str">
         <f t="shared" ref="B7:B42" si="5">B6</f>
         <v>0D</v>
       </c>
-      <c r="C7" s="143" t="s">
+      <c r="C7" s="141" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="143" t="str">
+      <c r="D7" s="141" t="str">
         <f t="shared" ref="D7:D42" si="6">D6</f>
         <v>AM</v>
       </c>
-      <c r="E7" s="143" t="str">
+      <c r="E7" s="141" t="str">
         <f t="shared" ref="E7:E42" si="7">E6</f>
         <v>1L</v>
       </c>
-      <c r="F7" s="141" t="str">
+      <c r="F7" s="139" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G7" s="141" t="s">
-        <v>159</v>
-      </c>
-      <c r="H7" s="141" t="str">
+      <c r="G7" s="139" t="s">
+        <v>158</v>
+      </c>
+      <c r="H7" s="139" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I7" s="140" t="str">
+      <c r="I7" s="138" t="str">
         <f t="shared" si="2"/>
         <v>USD3L1L15M_Quote</v>
       </c>
-      <c r="J7" s="139" t="str">
+      <c r="J7" s="137" t="str">
         <f t="shared" si="3"/>
         <v>USDAM3L15M_Quote</v>
       </c>
-      <c r="K7" s="139" t="str">
+      <c r="K7" s="137" t="str">
         <f t="shared" si="4"/>
         <v>USD_YC1MRH_AM1LBASIS15M</v>
       </c>
-      <c r="L7" s="137" t="str">
+      <c r="L7" s="135" t="str">
         <f>_xll.qlSwapRateHelper2(K7,$J7,$C7,Calendar,$F7,$G7,$H7,$L$4,$I7,B7,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_AM1LBASIS15M#0000</v>
-      </c>
-      <c r="M7" s="152" t="str">
+        <v>USD_YC1MRH_AM1LBASIS15M#0002</v>
+      </c>
+      <c r="M7" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L7)</f>
         <v/>
       </c>
-      <c r="N7" s="134"/>
+      <c r="N7" s="132"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A8" s="103"/>
-      <c r="B8" s="143" t="str">
+      <c r="A8" s="101"/>
+      <c r="B8" s="141" t="str">
         <f t="shared" si="5"/>
         <v>0D</v>
       </c>
-      <c r="C8" s="143" t="s">
+      <c r="C8" s="141" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="143" t="str">
+      <c r="D8" s="141" t="str">
         <f t="shared" si="6"/>
         <v>AM</v>
       </c>
-      <c r="E8" s="143" t="str">
+      <c r="E8" s="141" t="str">
         <f t="shared" si="7"/>
         <v>1L</v>
       </c>
-      <c r="F8" s="141" t="str">
+      <c r="F8" s="139" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G8" s="141" t="s">
-        <v>159</v>
-      </c>
-      <c r="H8" s="141" t="str">
+      <c r="G8" s="139" t="s">
+        <v>158</v>
+      </c>
+      <c r="H8" s="139" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I8" s="140" t="str">
+      <c r="I8" s="138" t="str">
         <f t="shared" si="2"/>
         <v>USD3L1L18M_Quote</v>
       </c>
-      <c r="J8" s="139" t="str">
+      <c r="J8" s="137" t="str">
         <f t="shared" si="3"/>
         <v>USDAM3L18M_Quote</v>
       </c>
-      <c r="K8" s="139" t="str">
+      <c r="K8" s="137" t="str">
         <f t="shared" si="4"/>
         <v>USD_YC1MRH_AM1LBASIS18M</v>
       </c>
-      <c r="L8" s="137" t="str">
+      <c r="L8" s="135" t="str">
         <f>_xll.qlSwapRateHelper2(K8,$J8,$C8,Calendar,$F8,$G8,$H8,$L$4,$I8,B8,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_AM1LBASIS18M#0000</v>
-      </c>
-      <c r="M8" s="152" t="str">
+        <v>USD_YC1MRH_AM1LBASIS18M#0002</v>
+      </c>
+      <c r="M8" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L8)</f>
         <v/>
       </c>
-      <c r="N8" s="134"/>
+      <c r="N8" s="132"/>
     </row>
     <row r="9" spans="1:18" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="103"/>
-      <c r="B9" s="143" t="str">
+      <c r="A9" s="101"/>
+      <c r="B9" s="141" t="str">
         <f t="shared" si="5"/>
         <v>0D</v>
       </c>
-      <c r="C9" s="143" t="s">
+      <c r="C9" s="141" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="143" t="str">
+      <c r="D9" s="141" t="str">
         <f t="shared" si="6"/>
         <v>AM</v>
       </c>
-      <c r="E9" s="143" t="str">
+      <c r="E9" s="141" t="str">
         <f t="shared" si="7"/>
         <v>1L</v>
       </c>
-      <c r="F9" s="141" t="str">
+      <c r="F9" s="139" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G9" s="141" t="s">
-        <v>159</v>
-      </c>
-      <c r="H9" s="141" t="str">
+      <c r="G9" s="139" t="s">
+        <v>158</v>
+      </c>
+      <c r="H9" s="139" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I9" s="140" t="str">
+      <c r="I9" s="138" t="str">
         <f t="shared" si="2"/>
         <v>USD3L1L21M_Quote</v>
       </c>
-      <c r="J9" s="139" t="str">
+      <c r="J9" s="137" t="str">
         <f t="shared" si="3"/>
         <v>USDAM3L21M_Quote</v>
       </c>
-      <c r="K9" s="139" t="str">
+      <c r="K9" s="137" t="str">
         <f t="shared" si="4"/>
         <v>USD_YC1MRH_AM1LBASIS21M</v>
       </c>
-      <c r="L9" s="137" t="str">
+      <c r="L9" s="135" t="str">
         <f>_xll.qlSwapRateHelper2(K9,$J9,$C9,Calendar,$F9,$G9,$H9,$L$4,$I9,B9,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_AM1LBASIS21M#0000</v>
-      </c>
-      <c r="M9" s="152" t="str">
+        <v>USD_YC1MRH_AM1LBASIS21M#0002</v>
+      </c>
+      <c r="M9" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L9)</f>
         <v/>
       </c>
-      <c r="N9" s="134"/>
+      <c r="N9" s="132"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A10" s="103"/>
-      <c r="B10" s="143" t="str">
+      <c r="A10" s="101"/>
+      <c r="B10" s="141" t="str">
         <f t="shared" si="5"/>
         <v>0D</v>
       </c>
-      <c r="C10" s="143" t="s">
+      <c r="C10" s="141" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="143" t="str">
+      <c r="D10" s="141" t="str">
         <f t="shared" si="6"/>
         <v>AM</v>
       </c>
-      <c r="E10" s="143" t="str">
+      <c r="E10" s="141" t="str">
         <f t="shared" si="7"/>
         <v>1L</v>
       </c>
-      <c r="F10" s="141" t="str">
+      <c r="F10" s="139" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G10" s="141" t="s">
-        <v>159</v>
-      </c>
-      <c r="H10" s="141" t="str">
+      <c r="G10" s="139" t="s">
+        <v>158</v>
+      </c>
+      <c r="H10" s="139" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I10" s="140" t="str">
+      <c r="I10" s="138" t="str">
         <f t="shared" si="2"/>
         <v>USD3L1L2Y_Quote</v>
       </c>
-      <c r="J10" s="139" t="str">
+      <c r="J10" s="137" t="str">
         <f t="shared" si="3"/>
         <v>USDAM3L2Y_Quote</v>
       </c>
-      <c r="K10" s="139" t="str">
+      <c r="K10" s="137" t="str">
         <f t="shared" si="4"/>
         <v>USD_YC1MRH_AM1LBASIS2Y</v>
       </c>
-      <c r="L10" s="137" t="str">
+      <c r="L10" s="135" t="str">
         <f>_xll.qlSwapRateHelper2(K10,$J10,$C10,Calendar,$F10,$G10,$H10,$L$4,$I10,B10,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_AM1LBASIS2Y#0000</v>
-      </c>
-      <c r="M10" s="152" t="str">
+        <v>USD_YC1MRH_AM1LBASIS2Y#0002</v>
+      </c>
+      <c r="M10" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L10)</f>
         <v/>
       </c>
-      <c r="N10" s="134"/>
-      <c r="P10" s="161" t="s">
+      <c r="N10" s="132"/>
+      <c r="P10" s="159" t="s">
         <v>110</v>
       </c>
-      <c r="Q10" s="160" t="s">
+      <c r="Q10" s="158" t="s">
         <v>107</v>
       </c>
-      <c r="R10" s="159" t="s">
-        <v>185</v>
+      <c r="R10" s="157" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" s="103"/>
-      <c r="B11" s="143" t="str">
+      <c r="A11" s="101"/>
+      <c r="B11" s="141" t="str">
         <f t="shared" si="5"/>
         <v>0D</v>
       </c>
-      <c r="C11" s="143" t="s">
+      <c r="C11" s="141" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="143" t="str">
+      <c r="D11" s="141" t="str">
         <f t="shared" si="6"/>
         <v>AM</v>
       </c>
-      <c r="E11" s="143" t="str">
+      <c r="E11" s="141" t="str">
         <f t="shared" si="7"/>
         <v>1L</v>
       </c>
-      <c r="F11" s="141" t="str">
+      <c r="F11" s="139" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G11" s="141" t="s">
-        <v>159</v>
-      </c>
-      <c r="H11" s="141" t="str">
+      <c r="G11" s="139" t="s">
+        <v>158</v>
+      </c>
+      <c r="H11" s="139" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I11" s="140" t="str">
+      <c r="I11" s="138" t="str">
         <f t="shared" si="2"/>
         <v>USD3L1L3Y_Quote</v>
       </c>
-      <c r="J11" s="139" t="str">
+      <c r="J11" s="137" t="str">
         <f t="shared" si="3"/>
         <v>USDAM3L3Y_Quote</v>
       </c>
-      <c r="K11" s="139" t="str">
+      <c r="K11" s="137" t="str">
         <f t="shared" si="4"/>
         <v>USD_YC1MRH_AM1LBASIS3Y</v>
       </c>
-      <c r="L11" s="137" t="str">
+      <c r="L11" s="135" t="str">
         <f>_xll.qlSwapRateHelper2(K11,$J11,$C11,Calendar,$F11,$G11,$H11,$L$4,$I11,B11,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_AM1LBASIS3Y#0000</v>
-      </c>
-      <c r="M11" s="152" t="str">
+        <v>USD_YC1MRH_AM1LBASIS3Y#0002</v>
+      </c>
+      <c r="M11" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L11)</f>
         <v/>
       </c>
-      <c r="N11" s="134"/>
-      <c r="P11" s="158" t="s">
+      <c r="N11" s="132"/>
+      <c r="P11" s="156" t="s">
         <v>108</v>
       </c>
-      <c r="Q11" s="153" t="s">
+      <c r="Q11" s="151" t="s">
         <v>107</v>
       </c>
-      <c r="R11" s="157" t="s">
-        <v>186</v>
+      <c r="R11" s="155" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12" s="103"/>
-      <c r="B12" s="143" t="str">
+      <c r="A12" s="101"/>
+      <c r="B12" s="141" t="str">
         <f t="shared" si="5"/>
         <v>0D</v>
       </c>
-      <c r="C12" s="143" t="s">
+      <c r="C12" s="141" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="143" t="str">
+      <c r="D12" s="141" t="str">
         <f t="shared" si="6"/>
         <v>AM</v>
       </c>
-      <c r="E12" s="143" t="str">
+      <c r="E12" s="141" t="str">
         <f t="shared" si="7"/>
         <v>1L</v>
       </c>
-      <c r="F12" s="141" t="str">
+      <c r="F12" s="139" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G12" s="141" t="s">
-        <v>159</v>
-      </c>
-      <c r="H12" s="141" t="str">
+      <c r="G12" s="139" t="s">
+        <v>158</v>
+      </c>
+      <c r="H12" s="139" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I12" s="140" t="str">
+      <c r="I12" s="138" t="str">
         <f t="shared" si="2"/>
         <v>USD3L1L4Y_Quote</v>
       </c>
-      <c r="J12" s="139" t="str">
+      <c r="J12" s="137" t="str">
         <f t="shared" si="3"/>
         <v>USDAM3L4Y_Quote</v>
       </c>
-      <c r="K12" s="139" t="str">
+      <c r="K12" s="137" t="str">
         <f t="shared" si="4"/>
         <v>USD_YC1MRH_AM1LBASIS4Y</v>
       </c>
-      <c r="L12" s="137" t="str">
+      <c r="L12" s="135" t="str">
         <f>_xll.qlSwapRateHelper2(K12,$J12,$C12,Calendar,$F12,$G12,$H12,$L$4,$I12,B12,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_AM1LBASIS4Y#0000</v>
-      </c>
-      <c r="M12" s="152" t="str">
+        <v>USD_YC1MRH_AM1LBASIS4Y#0002</v>
+      </c>
+      <c r="M12" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L12)</f>
         <v/>
       </c>
-      <c r="N12" s="134"/>
-      <c r="P12" s="158" t="s">
+      <c r="N12" s="132"/>
+      <c r="P12" s="156" t="s">
         <v>105</v>
       </c>
-      <c r="Q12" s="153" t="s">
+      <c r="Q12" s="151" t="s">
         <v>99</v>
       </c>
-      <c r="R12" s="157" t="s">
-        <v>185</v>
+      <c r="R12" s="155" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A13" s="103"/>
-      <c r="B13" s="143" t="str">
+      <c r="A13" s="101"/>
+      <c r="B13" s="141" t="str">
         <f t="shared" si="5"/>
         <v>0D</v>
       </c>
-      <c r="C13" s="143" t="s">
+      <c r="C13" s="141" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="143" t="str">
+      <c r="D13" s="141" t="str">
         <f t="shared" si="6"/>
         <v>AM</v>
       </c>
-      <c r="E13" s="143" t="str">
+      <c r="E13" s="141" t="str">
         <f t="shared" si="7"/>
         <v>1L</v>
       </c>
-      <c r="F13" s="141" t="str">
+      <c r="F13" s="139" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G13" s="141" t="s">
-        <v>159</v>
-      </c>
-      <c r="H13" s="141" t="str">
+      <c r="G13" s="139" t="s">
+        <v>158</v>
+      </c>
+      <c r="H13" s="139" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I13" s="140" t="str">
+      <c r="I13" s="138" t="str">
         <f t="shared" si="2"/>
         <v>USD3L1L5Y_Quote</v>
       </c>
-      <c r="J13" s="139" t="str">
+      <c r="J13" s="137" t="str">
         <f t="shared" si="3"/>
         <v>USDAM3L5Y_Quote</v>
       </c>
-      <c r="K13" s="139" t="str">
+      <c r="K13" s="137" t="str">
         <f t="shared" si="4"/>
         <v>USD_YC1MRH_AM1LBASIS5Y</v>
       </c>
-      <c r="L13" s="137" t="str">
+      <c r="L13" s="135" t="str">
         <f>_xll.qlSwapRateHelper2(K13,$J13,$C13,Calendar,$F13,$G13,$H13,$L$4,$I13,B13,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_AM1LBASIS5Y#0000</v>
-      </c>
-      <c r="M13" s="152" t="str">
+        <v>USD_YC1MRH_AM1LBASIS5Y#0002</v>
+      </c>
+      <c r="M13" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L13)</f>
         <v/>
       </c>
-      <c r="N13" s="134"/>
-      <c r="P13" s="158" t="s">
+      <c r="N13" s="132"/>
+      <c r="P13" s="156" t="s">
         <v>102</v>
       </c>
-      <c r="Q13" s="153" t="s">
+      <c r="Q13" s="151" t="s">
         <v>104</v>
       </c>
-      <c r="R13" s="157" t="s">
-        <v>185</v>
+      <c r="R13" s="155" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="103"/>
-      <c r="B14" s="143" t="str">
+      <c r="A14" s="101"/>
+      <c r="B14" s="141" t="str">
         <f t="shared" si="5"/>
         <v>0D</v>
       </c>
-      <c r="C14" s="143" t="s">
+      <c r="C14" s="141" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="143" t="str">
+      <c r="D14" s="141" t="str">
         <f t="shared" si="6"/>
         <v>AM</v>
       </c>
-      <c r="E14" s="143" t="str">
+      <c r="E14" s="141" t="str">
         <f t="shared" si="7"/>
         <v>1L</v>
       </c>
-      <c r="F14" s="141" t="str">
+      <c r="F14" s="139" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G14" s="141" t="s">
-        <v>159</v>
-      </c>
-      <c r="H14" s="141" t="str">
+      <c r="G14" s="139" t="s">
+        <v>158</v>
+      </c>
+      <c r="H14" s="139" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I14" s="140" t="str">
+      <c r="I14" s="138" t="str">
         <f t="shared" si="2"/>
         <v>USD3L1L6Y_Quote</v>
       </c>
-      <c r="J14" s="139" t="str">
+      <c r="J14" s="137" t="str">
         <f t="shared" si="3"/>
         <v>USDAM3L6Y_Quote</v>
       </c>
-      <c r="K14" s="139" t="str">
+      <c r="K14" s="137" t="str">
         <f t="shared" si="4"/>
         <v>USD_YC1MRH_AM1LBASIS6Y</v>
       </c>
-      <c r="L14" s="137" t="str">
+      <c r="L14" s="135" t="str">
         <f>_xll.qlSwapRateHelper2(K14,$J14,$C14,Calendar,$F14,$G14,$H14,$L$4,$I14,B14,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_AM1LBASIS6Y#0000</v>
-      </c>
-      <c r="M14" s="152" t="str">
+        <v>USD_YC1MRH_AM1LBASIS6Y#0002</v>
+      </c>
+      <c r="M14" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L14)</f>
         <v/>
       </c>
-      <c r="N14" s="134"/>
-      <c r="P14" s="156" t="s">
+      <c r="N14" s="132"/>
+      <c r="P14" s="154" t="s">
         <v>100</v>
       </c>
-      <c r="Q14" s="155" t="s">
+      <c r="Q14" s="153" t="s">
         <v>99</v>
       </c>
-      <c r="R14" s="154" t="s">
-        <v>185</v>
+      <c r="R14" s="152" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A15" s="103"/>
-      <c r="B15" s="143" t="str">
+      <c r="A15" s="101"/>
+      <c r="B15" s="141" t="str">
         <f t="shared" si="5"/>
         <v>0D</v>
       </c>
-      <c r="C15" s="143" t="s">
+      <c r="C15" s="141" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="143" t="str">
+      <c r="D15" s="141" t="str">
         <f t="shared" si="6"/>
         <v>AM</v>
       </c>
-      <c r="E15" s="143" t="str">
+      <c r="E15" s="141" t="str">
         <f t="shared" si="7"/>
         <v>1L</v>
       </c>
-      <c r="F15" s="141" t="str">
+      <c r="F15" s="139" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G15" s="141" t="s">
-        <v>159</v>
-      </c>
-      <c r="H15" s="141" t="str">
+      <c r="G15" s="139" t="s">
+        <v>158</v>
+      </c>
+      <c r="H15" s="139" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I15" s="140" t="str">
+      <c r="I15" s="138" t="str">
         <f t="shared" si="2"/>
         <v>USD3L1L7Y_Quote</v>
       </c>
-      <c r="J15" s="139" t="str">
+      <c r="J15" s="137" t="str">
         <f t="shared" si="3"/>
         <v>USDAM3L7Y_Quote</v>
       </c>
-      <c r="K15" s="139" t="str">
+      <c r="K15" s="137" t="str">
         <f t="shared" si="4"/>
         <v>USD_YC1MRH_AM1LBASIS7Y</v>
       </c>
-      <c r="L15" s="137" t="str">
+      <c r="L15" s="135" t="str">
         <f>_xll.qlSwapRateHelper2(K15,$J15,$C15,Calendar,$F15,$G15,$H15,$L$4,$I15,B15,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_AM1LBASIS7Y#0000</v>
-      </c>
-      <c r="M15" s="152" t="str">
+        <v>USD_YC1MRH_AM1LBASIS7Y#0002</v>
+      </c>
+      <c r="M15" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L15)</f>
         <v/>
       </c>
-      <c r="N15" s="134"/>
-      <c r="P15" s="153"/>
-      <c r="Q15" s="153"/>
-      <c r="R15" s="153"/>
+      <c r="N15" s="132"/>
+      <c r="P15" s="151"/>
+      <c r="Q15" s="151"/>
+      <c r="R15" s="151"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A16" s="103"/>
-      <c r="B16" s="143" t="str">
+      <c r="A16" s="101"/>
+      <c r="B16" s="141" t="str">
         <f t="shared" si="5"/>
         <v>0D</v>
       </c>
-      <c r="C16" s="143" t="s">
+      <c r="C16" s="141" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="143" t="str">
+      <c r="D16" s="141" t="str">
         <f t="shared" si="6"/>
         <v>AM</v>
       </c>
-      <c r="E16" s="143" t="str">
+      <c r="E16" s="141" t="str">
         <f t="shared" si="7"/>
         <v>1L</v>
       </c>
-      <c r="F16" s="141" t="str">
+      <c r="F16" s="139" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G16" s="141" t="s">
-        <v>159</v>
-      </c>
-      <c r="H16" s="141" t="str">
+      <c r="G16" s="139" t="s">
+        <v>158</v>
+      </c>
+      <c r="H16" s="139" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I16" s="140" t="str">
+      <c r="I16" s="138" t="str">
         <f t="shared" si="2"/>
         <v>USD3L1L8Y_Quote</v>
       </c>
-      <c r="J16" s="139" t="str">
+      <c r="J16" s="137" t="str">
         <f t="shared" si="3"/>
         <v>USDAM3L8Y_Quote</v>
       </c>
-      <c r="K16" s="139" t="str">
+      <c r="K16" s="137" t="str">
         <f t="shared" si="4"/>
         <v>USD_YC1MRH_AM1LBASIS8Y</v>
       </c>
-      <c r="L16" s="137" t="str">
+      <c r="L16" s="135" t="str">
         <f>_xll.qlSwapRateHelper2(K16,$J16,$C16,Calendar,$F16,$G16,$H16,$L$4,$I16,B16,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_AM1LBASIS8Y#0000</v>
-      </c>
-      <c r="M16" s="152" t="str">
+        <v>USD_YC1MRH_AM1LBASIS8Y#0002</v>
+      </c>
+      <c r="M16" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L16)</f>
         <v/>
       </c>
-      <c r="N16" s="134"/>
+      <c r="N16" s="132"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="103"/>
-      <c r="B17" s="143" t="str">
+      <c r="A17" s="101"/>
+      <c r="B17" s="141" t="str">
         <f t="shared" si="5"/>
         <v>0D</v>
       </c>
-      <c r="C17" s="143" t="s">
+      <c r="C17" s="141" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="143" t="str">
+      <c r="D17" s="141" t="str">
         <f t="shared" si="6"/>
         <v>AM</v>
       </c>
-      <c r="E17" s="143" t="str">
+      <c r="E17" s="141" t="str">
         <f t="shared" si="7"/>
         <v>1L</v>
       </c>
-      <c r="F17" s="141" t="str">
+      <c r="F17" s="139" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G17" s="141" t="s">
-        <v>159</v>
-      </c>
-      <c r="H17" s="141" t="str">
+      <c r="G17" s="139" t="s">
+        <v>158</v>
+      </c>
+      <c r="H17" s="139" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I17" s="140" t="str">
+      <c r="I17" s="138" t="str">
         <f t="shared" si="2"/>
         <v>USD3L1L9Y_Quote</v>
       </c>
-      <c r="J17" s="139" t="str">
+      <c r="J17" s="137" t="str">
         <f t="shared" si="3"/>
         <v>USDAM3L9Y_Quote</v>
       </c>
-      <c r="K17" s="139" t="str">
+      <c r="K17" s="137" t="str">
         <f t="shared" si="4"/>
         <v>USD_YC1MRH_AM1LBASIS9Y</v>
       </c>
-      <c r="L17" s="137" t="str">
+      <c r="L17" s="135" t="str">
         <f>_xll.qlSwapRateHelper2(K17,$J17,$C17,Calendar,$F17,$G17,$H17,$L$4,$I17,B17,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_AM1LBASIS9Y#0000</v>
-      </c>
-      <c r="M17" s="152" t="str">
+        <v>USD_YC1MRH_AM1LBASIS9Y#0002</v>
+      </c>
+      <c r="M17" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L17)</f>
         <v/>
       </c>
-      <c r="N17" s="134"/>
+      <c r="N17" s="132"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="103"/>
-      <c r="B18" s="143" t="str">
+      <c r="A18" s="101"/>
+      <c r="B18" s="141" t="str">
         <f t="shared" si="5"/>
         <v>0D</v>
       </c>
-      <c r="C18" s="143" t="s">
+      <c r="C18" s="141" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="143" t="str">
+      <c r="D18" s="141" t="str">
         <f t="shared" si="6"/>
         <v>AM</v>
       </c>
-      <c r="E18" s="143" t="str">
+      <c r="E18" s="141" t="str">
         <f t="shared" si="7"/>
         <v>1L</v>
       </c>
-      <c r="F18" s="141" t="str">
+      <c r="F18" s="139" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G18" s="141" t="s">
-        <v>159</v>
-      </c>
-      <c r="H18" s="141" t="str">
+      <c r="G18" s="139" t="s">
+        <v>158</v>
+      </c>
+      <c r="H18" s="139" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I18" s="140" t="str">
+      <c r="I18" s="138" t="str">
         <f t="shared" si="2"/>
         <v>USD3L1L10Y_Quote</v>
       </c>
-      <c r="J18" s="139" t="str">
+      <c r="J18" s="137" t="str">
         <f t="shared" si="3"/>
         <v>USDAM3L10Y_Quote</v>
       </c>
-      <c r="K18" s="139" t="str">
+      <c r="K18" s="137" t="str">
         <f t="shared" si="4"/>
         <v>USD_YC1MRH_AM1LBASIS10Y</v>
       </c>
-      <c r="L18" s="137" t="str">
+      <c r="L18" s="135" t="str">
         <f>_xll.qlSwapRateHelper2(K18,$J18,$C18,Calendar,$F18,$G18,$H18,$L$4,$I18,B18,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_AM1LBASIS10Y#0000</v>
-      </c>
-      <c r="M18" s="152" t="str">
+        <v>USD_YC1MRH_AM1LBASIS10Y#0002</v>
+      </c>
+      <c r="M18" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L18)</f>
         <v/>
       </c>
-      <c r="N18" s="134"/>
+      <c r="N18" s="132"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="103"/>
-      <c r="B19" s="143" t="str">
+      <c r="A19" s="101"/>
+      <c r="B19" s="141" t="str">
         <f t="shared" si="5"/>
         <v>0D</v>
       </c>
-      <c r="C19" s="143" t="s">
+      <c r="C19" s="141" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="143" t="str">
+      <c r="D19" s="141" t="str">
         <f t="shared" si="6"/>
         <v>AM</v>
       </c>
-      <c r="E19" s="143" t="str">
+      <c r="E19" s="141" t="str">
         <f t="shared" si="7"/>
         <v>1L</v>
       </c>
-      <c r="F19" s="141" t="str">
+      <c r="F19" s="139" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G19" s="141" t="s">
-        <v>159</v>
-      </c>
-      <c r="H19" s="141" t="str">
+      <c r="G19" s="139" t="s">
+        <v>158</v>
+      </c>
+      <c r="H19" s="139" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I19" s="140" t="str">
+      <c r="I19" s="138" t="str">
         <f t="shared" si="2"/>
         <v>USD3L1L11Y_Quote</v>
       </c>
-      <c r="J19" s="139" t="str">
+      <c r="J19" s="137" t="str">
         <f t="shared" si="3"/>
         <v>USDAM3L11Y_Quote</v>
       </c>
-      <c r="K19" s="139" t="str">
+      <c r="K19" s="137" t="str">
         <f t="shared" si="4"/>
         <v>USD_YC1MRH_AM1LBASIS11Y</v>
       </c>
-      <c r="L19" s="137" t="str">
+      <c r="L19" s="135" t="str">
         <f>_xll.qlSwapRateHelper2(K19,$J19,$C19,Calendar,$F19,$G19,$H19,$L$4,$I19,B19,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_AM1LBASIS11Y#0000</v>
-      </c>
-      <c r="M19" s="152" t="str">
+        <v>USD_YC1MRH_AM1LBASIS11Y#0002</v>
+      </c>
+      <c r="M19" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L19)</f>
         <v/>
       </c>
-      <c r="N19" s="134"/>
+      <c r="N19" s="132"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="103"/>
-      <c r="B20" s="143" t="str">
+      <c r="A20" s="101"/>
+      <c r="B20" s="141" t="str">
         <f t="shared" si="5"/>
         <v>0D</v>
       </c>
-      <c r="C20" s="143" t="s">
+      <c r="C20" s="141" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="143" t="str">
+      <c r="D20" s="141" t="str">
         <f t="shared" si="6"/>
         <v>AM</v>
       </c>
-      <c r="E20" s="143" t="str">
+      <c r="E20" s="141" t="str">
         <f t="shared" si="7"/>
         <v>1L</v>
       </c>
-      <c r="F20" s="141" t="str">
+      <c r="F20" s="139" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G20" s="141" t="s">
-        <v>159</v>
-      </c>
-      <c r="H20" s="141" t="str">
+      <c r="G20" s="139" t="s">
+        <v>158</v>
+      </c>
+      <c r="H20" s="139" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I20" s="140" t="str">
+      <c r="I20" s="138" t="str">
         <f t="shared" si="2"/>
         <v>USD3L1L12Y_Quote</v>
       </c>
-      <c r="J20" s="139" t="str">
+      <c r="J20" s="137" t="str">
         <f t="shared" si="3"/>
         <v>USDAM3L12Y_Quote</v>
       </c>
-      <c r="K20" s="139" t="str">
+      <c r="K20" s="137" t="str">
         <f t="shared" si="4"/>
         <v>USD_YC1MRH_AM1LBASIS12Y</v>
       </c>
-      <c r="L20" s="137" t="str">
+      <c r="L20" s="135" t="str">
         <f>_xll.qlSwapRateHelper2(K20,$J20,$C20,Calendar,$F20,$G20,$H20,$L$4,$I20,B20,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_AM1LBASIS12Y#0000</v>
-      </c>
-      <c r="M20" s="152" t="str">
+        <v>USD_YC1MRH_AM1LBASIS12Y#0002</v>
+      </c>
+      <c r="M20" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L20)</f>
         <v/>
       </c>
-      <c r="N20" s="134"/>
+      <c r="N20" s="132"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="103"/>
-      <c r="B21" s="143" t="str">
+      <c r="A21" s="101"/>
+      <c r="B21" s="141" t="str">
         <f t="shared" si="5"/>
         <v>0D</v>
       </c>
-      <c r="C21" s="143" t="s">
+      <c r="C21" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="143" t="str">
+      <c r="D21" s="141" t="str">
         <f t="shared" si="6"/>
         <v>AM</v>
       </c>
-      <c r="E21" s="143" t="str">
+      <c r="E21" s="141" t="str">
         <f t="shared" si="7"/>
         <v>1L</v>
       </c>
-      <c r="F21" s="141" t="str">
+      <c r="F21" s="139" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G21" s="141" t="s">
-        <v>159</v>
-      </c>
-      <c r="H21" s="141" t="str">
+      <c r="G21" s="139" t="s">
+        <v>158</v>
+      </c>
+      <c r="H21" s="139" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I21" s="140" t="str">
+      <c r="I21" s="138" t="str">
         <f t="shared" si="2"/>
         <v>USD3L1L13Y_Quote</v>
       </c>
-      <c r="J21" s="139" t="str">
+      <c r="J21" s="137" t="str">
         <f t="shared" si="3"/>
         <v>USDAM3L13Y_Quote</v>
       </c>
-      <c r="K21" s="139" t="str">
+      <c r="K21" s="137" t="str">
         <f t="shared" si="4"/>
         <v>USD_YC1MRH_AM1LBASIS13Y</v>
       </c>
-      <c r="L21" s="137" t="str">
+      <c r="L21" s="135" t="str">
         <f>_xll.qlSwapRateHelper2(K21,$J21,$C21,Calendar,$F21,$G21,$H21,$L$4,$I21,B21,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_AM1LBASIS13Y#0000</v>
-      </c>
-      <c r="M21" s="152" t="str">
+        <v>USD_YC1MRH_AM1LBASIS13Y#0002</v>
+      </c>
+      <c r="M21" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L21)</f>
         <v/>
       </c>
-      <c r="N21" s="134"/>
+      <c r="N21" s="132"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="103"/>
-      <c r="B22" s="143" t="str">
+      <c r="A22" s="101"/>
+      <c r="B22" s="141" t="str">
         <f t="shared" si="5"/>
         <v>0D</v>
       </c>
-      <c r="C22" s="143" t="s">
+      <c r="C22" s="141" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="143" t="str">
+      <c r="D22" s="141" t="str">
         <f t="shared" si="6"/>
         <v>AM</v>
       </c>
-      <c r="E22" s="143" t="str">
+      <c r="E22" s="141" t="str">
         <f t="shared" si="7"/>
         <v>1L</v>
       </c>
-      <c r="F22" s="141" t="str">
+      <c r="F22" s="139" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G22" s="141" t="s">
-        <v>159</v>
-      </c>
-      <c r="H22" s="141" t="str">
+      <c r="G22" s="139" t="s">
+        <v>158</v>
+      </c>
+      <c r="H22" s="139" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I22" s="140" t="str">
+      <c r="I22" s="138" t="str">
         <f t="shared" si="2"/>
         <v>USD3L1L14Y_Quote</v>
       </c>
-      <c r="J22" s="139" t="str">
+      <c r="J22" s="137" t="str">
         <f t="shared" si="3"/>
         <v>USDAM3L14Y_Quote</v>
       </c>
-      <c r="K22" s="139" t="str">
+      <c r="K22" s="137" t="str">
         <f t="shared" si="4"/>
         <v>USD_YC1MRH_AM1LBASIS14Y</v>
       </c>
-      <c r="L22" s="137" t="str">
+      <c r="L22" s="135" t="str">
         <f>_xll.qlSwapRateHelper2(K22,$J22,$C22,Calendar,$F22,$G22,$H22,$L$4,$I22,B22,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_AM1LBASIS14Y#0000</v>
-      </c>
-      <c r="M22" s="152" t="str">
+        <v>USD_YC1MRH_AM1LBASIS14Y#0002</v>
+      </c>
+      <c r="M22" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L22)</f>
         <v/>
       </c>
-      <c r="N22" s="134"/>
+      <c r="N22" s="132"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="103"/>
-      <c r="B23" s="143" t="str">
+      <c r="A23" s="101"/>
+      <c r="B23" s="141" t="str">
         <f t="shared" si="5"/>
         <v>0D</v>
       </c>
-      <c r="C23" s="143" t="s">
+      <c r="C23" s="141" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="143" t="str">
+      <c r="D23" s="141" t="str">
         <f t="shared" si="6"/>
         <v>AM</v>
       </c>
-      <c r="E23" s="143" t="str">
+      <c r="E23" s="141" t="str">
         <f t="shared" si="7"/>
         <v>1L</v>
       </c>
-      <c r="F23" s="141" t="str">
+      <c r="F23" s="139" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G23" s="141" t="s">
-        <v>159</v>
-      </c>
-      <c r="H23" s="141" t="str">
+      <c r="G23" s="139" t="s">
+        <v>158</v>
+      </c>
+      <c r="H23" s="139" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I23" s="140" t="str">
+      <c r="I23" s="138" t="str">
         <f t="shared" si="2"/>
         <v>USD3L1L15Y_Quote</v>
       </c>
-      <c r="J23" s="139" t="str">
+      <c r="J23" s="137" t="str">
         <f t="shared" si="3"/>
         <v>USDAM3L15Y_Quote</v>
       </c>
-      <c r="K23" s="139" t="str">
+      <c r="K23" s="137" t="str">
         <f t="shared" si="4"/>
         <v>USD_YC1MRH_AM1LBASIS15Y</v>
       </c>
-      <c r="L23" s="137" t="str">
+      <c r="L23" s="135" t="str">
         <f>_xll.qlSwapRateHelper2(K23,$J23,$C23,Calendar,$F23,$G23,$H23,$L$4,$I23,B23,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_AM1LBASIS15Y#0000</v>
-      </c>
-      <c r="M23" s="152" t="str">
+        <v>USD_YC1MRH_AM1LBASIS15Y#0002</v>
+      </c>
+      <c r="M23" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L23)</f>
         <v/>
       </c>
-      <c r="N23" s="134"/>
+      <c r="N23" s="132"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="103"/>
-      <c r="B24" s="143" t="str">
+      <c r="A24" s="101"/>
+      <c r="B24" s="141" t="str">
         <f t="shared" si="5"/>
         <v>0D</v>
       </c>
-      <c r="C24" s="143" t="s">
+      <c r="C24" s="141" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="143" t="str">
+      <c r="D24" s="141" t="str">
         <f t="shared" si="6"/>
         <v>AM</v>
       </c>
-      <c r="E24" s="143" t="str">
+      <c r="E24" s="141" t="str">
         <f t="shared" si="7"/>
         <v>1L</v>
       </c>
-      <c r="F24" s="141" t="str">
+      <c r="F24" s="139" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G24" s="141" t="s">
-        <v>159</v>
-      </c>
-      <c r="H24" s="141" t="str">
+      <c r="G24" s="139" t="s">
+        <v>158</v>
+      </c>
+      <c r="H24" s="139" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I24" s="140" t="str">
+      <c r="I24" s="138" t="str">
         <f t="shared" si="2"/>
         <v>USD3L1L16Y_Quote</v>
       </c>
-      <c r="J24" s="139" t="str">
+      <c r="J24" s="137" t="str">
         <f t="shared" si="3"/>
         <v>USDAM3L16Y_Quote</v>
       </c>
-      <c r="K24" s="139" t="str">
+      <c r="K24" s="137" t="str">
         <f t="shared" si="4"/>
         <v>USD_YC1MRH_AM1LBASIS16Y</v>
       </c>
-      <c r="L24" s="137" t="str">
+      <c r="L24" s="135" t="str">
         <f>_xll.qlSwapRateHelper2(K24,$J24,$C24,Calendar,$F24,$G24,$H24,$L$4,$I24,B24,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_AM1LBASIS16Y#0000</v>
-      </c>
-      <c r="M24" s="152" t="str">
+        <v>USD_YC1MRH_AM1LBASIS16Y#0002</v>
+      </c>
+      <c r="M24" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L24)</f>
         <v/>
       </c>
-      <c r="N24" s="134"/>
+      <c r="N24" s="132"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="103"/>
-      <c r="B25" s="143" t="str">
+      <c r="A25" s="101"/>
+      <c r="B25" s="141" t="str">
         <f t="shared" si="5"/>
         <v>0D</v>
       </c>
-      <c r="C25" s="143" t="s">
+      <c r="C25" s="141" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="143" t="str">
+      <c r="D25" s="141" t="str">
         <f t="shared" si="6"/>
         <v>AM</v>
       </c>
-      <c r="E25" s="143" t="str">
+      <c r="E25" s="141" t="str">
         <f t="shared" si="7"/>
         <v>1L</v>
       </c>
-      <c r="F25" s="141" t="str">
+      <c r="F25" s="139" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G25" s="141" t="s">
-        <v>159</v>
-      </c>
-      <c r="H25" s="141" t="str">
+      <c r="G25" s="139" t="s">
+        <v>158</v>
+      </c>
+      <c r="H25" s="139" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I25" s="140" t="str">
+      <c r="I25" s="138" t="str">
         <f t="shared" si="2"/>
         <v>USD3L1L17Y_Quote</v>
       </c>
-      <c r="J25" s="139" t="str">
+      <c r="J25" s="137" t="str">
         <f t="shared" si="3"/>
         <v>USDAM3L17Y_Quote</v>
       </c>
-      <c r="K25" s="139" t="str">
+      <c r="K25" s="137" t="str">
         <f t="shared" si="4"/>
         <v>USD_YC1MRH_AM1LBASIS17Y</v>
       </c>
-      <c r="L25" s="137" t="str">
+      <c r="L25" s="135" t="str">
         <f>_xll.qlSwapRateHelper2(K25,$J25,$C25,Calendar,$F25,$G25,$H25,$L$4,$I25,B25,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_AM1LBASIS17Y#0000</v>
-      </c>
-      <c r="M25" s="152" t="str">
+        <v>USD_YC1MRH_AM1LBASIS17Y#0002</v>
+      </c>
+      <c r="M25" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L25)</f>
         <v/>
       </c>
-      <c r="N25" s="134"/>
+      <c r="N25" s="132"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="103"/>
-      <c r="B26" s="143" t="str">
+      <c r="A26" s="101"/>
+      <c r="B26" s="141" t="str">
         <f t="shared" si="5"/>
         <v>0D</v>
       </c>
-      <c r="C26" s="143" t="s">
+      <c r="C26" s="141" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="143" t="str">
+      <c r="D26" s="141" t="str">
         <f t="shared" si="6"/>
         <v>AM</v>
       </c>
-      <c r="E26" s="143" t="str">
+      <c r="E26" s="141" t="str">
         <f t="shared" si="7"/>
         <v>1L</v>
       </c>
-      <c r="F26" s="141" t="str">
+      <c r="F26" s="139" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G26" s="141" t="s">
-        <v>159</v>
-      </c>
-      <c r="H26" s="141" t="str">
+      <c r="G26" s="139" t="s">
+        <v>158</v>
+      </c>
+      <c r="H26" s="139" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I26" s="140" t="str">
+      <c r="I26" s="138" t="str">
         <f t="shared" si="2"/>
         <v>USD3L1L18Y_Quote</v>
       </c>
-      <c r="J26" s="139" t="str">
+      <c r="J26" s="137" t="str">
         <f t="shared" si="3"/>
         <v>USDAM3L18Y_Quote</v>
       </c>
-      <c r="K26" s="139" t="str">
+      <c r="K26" s="137" t="str">
         <f t="shared" si="4"/>
         <v>USD_YC1MRH_AM1LBASIS18Y</v>
       </c>
-      <c r="L26" s="137" t="str">
+      <c r="L26" s="135" t="str">
         <f>_xll.qlSwapRateHelper2(K26,$J26,$C26,Calendar,$F26,$G26,$H26,$L$4,$I26,B26,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_AM1LBASIS18Y#0000</v>
-      </c>
-      <c r="M26" s="152" t="str">
+        <v>USD_YC1MRH_AM1LBASIS18Y#0002</v>
+      </c>
+      <c r="M26" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L26)</f>
         <v/>
       </c>
-      <c r="N26" s="134"/>
+      <c r="N26" s="132"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="103"/>
-      <c r="B27" s="143" t="str">
+      <c r="A27" s="101"/>
+      <c r="B27" s="141" t="str">
         <f t="shared" si="5"/>
         <v>0D</v>
       </c>
-      <c r="C27" s="143" t="s">
+      <c r="C27" s="141" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="143" t="str">
+      <c r="D27" s="141" t="str">
         <f t="shared" si="6"/>
         <v>AM</v>
       </c>
-      <c r="E27" s="143" t="str">
+      <c r="E27" s="141" t="str">
         <f t="shared" si="7"/>
         <v>1L</v>
       </c>
-      <c r="F27" s="141" t="str">
+      <c r="F27" s="139" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G27" s="141" t="s">
-        <v>159</v>
-      </c>
-      <c r="H27" s="141" t="str">
+      <c r="G27" s="139" t="s">
+        <v>158</v>
+      </c>
+      <c r="H27" s="139" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I27" s="140" t="str">
+      <c r="I27" s="138" t="str">
         <f t="shared" si="2"/>
         <v>USD3L1L19Y_Quote</v>
       </c>
-      <c r="J27" s="139" t="str">
+      <c r="J27" s="137" t="str">
         <f t="shared" si="3"/>
         <v>USDAM3L19Y_Quote</v>
       </c>
-      <c r="K27" s="139" t="str">
+      <c r="K27" s="137" t="str">
         <f t="shared" si="4"/>
         <v>USD_YC1MRH_AM1LBASIS19Y</v>
       </c>
-      <c r="L27" s="137" t="str">
+      <c r="L27" s="135" t="str">
         <f>_xll.qlSwapRateHelper2(K27,$J27,$C27,Calendar,$F27,$G27,$H27,$L$4,$I27,B27,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_AM1LBASIS19Y#0000</v>
-      </c>
-      <c r="M27" s="152" t="str">
+        <v>USD_YC1MRH_AM1LBASIS19Y#0002</v>
+      </c>
+      <c r="M27" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L27)</f>
         <v/>
       </c>
-      <c r="N27" s="134"/>
+      <c r="N27" s="132"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="103"/>
-      <c r="B28" s="143" t="str">
+      <c r="A28" s="101"/>
+      <c r="B28" s="141" t="str">
         <f t="shared" si="5"/>
         <v>0D</v>
       </c>
-      <c r="C28" s="143" t="s">
+      <c r="C28" s="141" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="143" t="str">
+      <c r="D28" s="141" t="str">
         <f t="shared" si="6"/>
         <v>AM</v>
       </c>
-      <c r="E28" s="143" t="str">
+      <c r="E28" s="141" t="str">
         <f t="shared" si="7"/>
         <v>1L</v>
       </c>
-      <c r="F28" s="141" t="str">
+      <c r="F28" s="139" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G28" s="141" t="s">
-        <v>159</v>
-      </c>
-      <c r="H28" s="141" t="str">
+      <c r="G28" s="139" t="s">
+        <v>158</v>
+      </c>
+      <c r="H28" s="139" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I28" s="140" t="str">
+      <c r="I28" s="138" t="str">
         <f t="shared" si="2"/>
         <v>USD3L1L20Y_Quote</v>
       </c>
-      <c r="J28" s="139" t="str">
+      <c r="J28" s="137" t="str">
         <f t="shared" si="3"/>
         <v>USDAM3L20Y_Quote</v>
       </c>
-      <c r="K28" s="139" t="str">
+      <c r="K28" s="137" t="str">
         <f t="shared" si="4"/>
         <v>USD_YC1MRH_AM1LBASIS20Y</v>
       </c>
-      <c r="L28" s="137" t="str">
+      <c r="L28" s="135" t="str">
         <f>_xll.qlSwapRateHelper2(K28,$J28,$C28,Calendar,$F28,$G28,$H28,$L$4,$I28,B28,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_AM1LBASIS20Y#0000</v>
-      </c>
-      <c r="M28" s="152" t="str">
+        <v>USD_YC1MRH_AM1LBASIS20Y#0002</v>
+      </c>
+      <c r="M28" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L28)</f>
         <v/>
       </c>
-      <c r="N28" s="134"/>
+      <c r="N28" s="132"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="103"/>
-      <c r="B29" s="143" t="str">
+      <c r="A29" s="101"/>
+      <c r="B29" s="141" t="str">
         <f t="shared" si="5"/>
         <v>0D</v>
       </c>
-      <c r="C29" s="143" t="s">
+      <c r="C29" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="143" t="str">
+      <c r="D29" s="141" t="str">
         <f t="shared" si="6"/>
         <v>AM</v>
       </c>
-      <c r="E29" s="143" t="str">
+      <c r="E29" s="141" t="str">
         <f t="shared" si="7"/>
         <v>1L</v>
       </c>
-      <c r="F29" s="141" t="str">
+      <c r="F29" s="139" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G29" s="141" t="s">
-        <v>159</v>
-      </c>
-      <c r="H29" s="141" t="str">
+      <c r="G29" s="139" t="s">
+        <v>158</v>
+      </c>
+      <c r="H29" s="139" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I29" s="140" t="str">
+      <c r="I29" s="138" t="str">
         <f t="shared" si="2"/>
         <v>USD3L1L21Y_Quote</v>
       </c>
-      <c r="J29" s="139" t="str">
+      <c r="J29" s="137" t="str">
         <f t="shared" si="3"/>
         <v>USDAM3L21Y_Quote</v>
       </c>
-      <c r="K29" s="139" t="str">
+      <c r="K29" s="137" t="str">
         <f t="shared" si="4"/>
         <v>USD_YC1MRH_AM1LBASIS21Y</v>
       </c>
-      <c r="L29" s="137" t="str">
+      <c r="L29" s="135" t="str">
         <f>_xll.qlSwapRateHelper2(K29,$J29,$C29,Calendar,$F29,$G29,$H29,$L$4,$I29,B29,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_AM1LBASIS21Y#0000</v>
-      </c>
-      <c r="M29" s="152" t="str">
+        <v>USD_YC1MRH_AM1LBASIS21Y#0002</v>
+      </c>
+      <c r="M29" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L29)</f>
         <v/>
       </c>
-      <c r="N29" s="134"/>
+      <c r="N29" s="132"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="103"/>
-      <c r="B30" s="143" t="str">
+      <c r="A30" s="101"/>
+      <c r="B30" s="141" t="str">
         <f t="shared" si="5"/>
         <v>0D</v>
       </c>
-      <c r="C30" s="143" t="s">
+      <c r="C30" s="141" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="143" t="str">
+      <c r="D30" s="141" t="str">
         <f t="shared" si="6"/>
         <v>AM</v>
       </c>
-      <c r="E30" s="143" t="str">
+      <c r="E30" s="141" t="str">
         <f t="shared" si="7"/>
         <v>1L</v>
       </c>
-      <c r="F30" s="141" t="str">
+      <c r="F30" s="139" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G30" s="141" t="s">
-        <v>159</v>
-      </c>
-      <c r="H30" s="141" t="str">
+      <c r="G30" s="139" t="s">
+        <v>158</v>
+      </c>
+      <c r="H30" s="139" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I30" s="140" t="str">
+      <c r="I30" s="138" t="str">
         <f t="shared" si="2"/>
         <v>USD3L1L22Y_Quote</v>
       </c>
-      <c r="J30" s="139" t="str">
+      <c r="J30" s="137" t="str">
         <f t="shared" si="3"/>
         <v>USDAM3L22Y_Quote</v>
       </c>
-      <c r="K30" s="139" t="str">
+      <c r="K30" s="137" t="str">
         <f t="shared" si="4"/>
         <v>USD_YC1MRH_AM1LBASIS22Y</v>
       </c>
-      <c r="L30" s="137" t="str">
+      <c r="L30" s="135" t="str">
         <f>_xll.qlSwapRateHelper2(K30,$J30,$C30,Calendar,$F30,$G30,$H30,$L$4,$I30,B30,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_AM1LBASIS22Y#0000</v>
-      </c>
-      <c r="M30" s="152" t="str">
+        <v>USD_YC1MRH_AM1LBASIS22Y#0002</v>
+      </c>
+      <c r="M30" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L30)</f>
         <v/>
       </c>
-      <c r="N30" s="134"/>
+      <c r="N30" s="132"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="103"/>
-      <c r="B31" s="143" t="str">
+      <c r="A31" s="101"/>
+      <c r="B31" s="141" t="str">
         <f t="shared" si="5"/>
         <v>0D</v>
       </c>
-      <c r="C31" s="143" t="s">
+      <c r="C31" s="141" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="143" t="str">
+      <c r="D31" s="141" t="str">
         <f t="shared" si="6"/>
         <v>AM</v>
       </c>
-      <c r="E31" s="143" t="str">
+      <c r="E31" s="141" t="str">
         <f t="shared" si="7"/>
         <v>1L</v>
       </c>
-      <c r="F31" s="141" t="str">
+      <c r="F31" s="139" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G31" s="141" t="s">
-        <v>159</v>
-      </c>
-      <c r="H31" s="141" t="str">
+      <c r="G31" s="139" t="s">
+        <v>158</v>
+      </c>
+      <c r="H31" s="139" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I31" s="140" t="str">
+      <c r="I31" s="138" t="str">
         <f t="shared" si="2"/>
         <v>USD3L1L23Y_Quote</v>
       </c>
-      <c r="J31" s="139" t="str">
+      <c r="J31" s="137" t="str">
         <f t="shared" si="3"/>
         <v>USDAM3L23Y_Quote</v>
       </c>
-      <c r="K31" s="139" t="str">
+      <c r="K31" s="137" t="str">
         <f t="shared" si="4"/>
         <v>USD_YC1MRH_AM1LBASIS23Y</v>
       </c>
-      <c r="L31" s="137" t="str">
+      <c r="L31" s="135" t="str">
         <f>_xll.qlSwapRateHelper2(K31,$J31,$C31,Calendar,$F31,$G31,$H31,$L$4,$I31,B31,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_AM1LBASIS23Y#0000</v>
-      </c>
-      <c r="M31" s="152" t="str">
+        <v>USD_YC1MRH_AM1LBASIS23Y#0002</v>
+      </c>
+      <c r="M31" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L31)</f>
         <v/>
       </c>
-      <c r="N31" s="134"/>
+      <c r="N31" s="132"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="103"/>
-      <c r="B32" s="143" t="str">
+      <c r="A32" s="101"/>
+      <c r="B32" s="141" t="str">
         <f t="shared" si="5"/>
         <v>0D</v>
       </c>
-      <c r="C32" s="143" t="s">
+      <c r="C32" s="141" t="s">
         <v>10</v>
       </c>
-      <c r="D32" s="143" t="str">
+      <c r="D32" s="141" t="str">
         <f t="shared" si="6"/>
         <v>AM</v>
       </c>
-      <c r="E32" s="143" t="str">
+      <c r="E32" s="141" t="str">
         <f t="shared" si="7"/>
         <v>1L</v>
       </c>
-      <c r="F32" s="141" t="str">
+      <c r="F32" s="139" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G32" s="141" t="s">
-        <v>159</v>
-      </c>
-      <c r="H32" s="141" t="str">
+      <c r="G32" s="139" t="s">
+        <v>158</v>
+      </c>
+      <c r="H32" s="139" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I32" s="140" t="str">
+      <c r="I32" s="138" t="str">
         <f t="shared" si="2"/>
         <v>USD3L1L24Y_Quote</v>
       </c>
-      <c r="J32" s="139" t="str">
+      <c r="J32" s="137" t="str">
         <f t="shared" si="3"/>
         <v>USDAM3L24Y_Quote</v>
       </c>
-      <c r="K32" s="139" t="str">
+      <c r="K32" s="137" t="str">
         <f t="shared" si="4"/>
         <v>USD_YC1MRH_AM1LBASIS24Y</v>
       </c>
-      <c r="L32" s="137" t="str">
+      <c r="L32" s="135" t="str">
         <f>_xll.qlSwapRateHelper2(K32,$J32,$C32,Calendar,$F32,$G32,$H32,$L$4,$I32,B32,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_AM1LBASIS24Y#0000</v>
-      </c>
-      <c r="M32" s="152" t="str">
+        <v>USD_YC1MRH_AM1LBASIS24Y#0002</v>
+      </c>
+      <c r="M32" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L32)</f>
         <v/>
       </c>
-      <c r="N32" s="134"/>
+      <c r="N32" s="132"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33" s="103"/>
-      <c r="B33" s="143" t="str">
+      <c r="A33" s="101"/>
+      <c r="B33" s="141" t="str">
         <f t="shared" si="5"/>
         <v>0D</v>
       </c>
-      <c r="C33" s="143" t="s">
+      <c r="C33" s="141" t="s">
         <v>9</v>
       </c>
-      <c r="D33" s="143" t="str">
+      <c r="D33" s="141" t="str">
         <f t="shared" si="6"/>
         <v>AM</v>
       </c>
-      <c r="E33" s="143" t="str">
+      <c r="E33" s="141" t="str">
         <f t="shared" si="7"/>
         <v>1L</v>
       </c>
-      <c r="F33" s="141" t="str">
+      <c r="F33" s="139" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G33" s="141" t="s">
-        <v>159</v>
-      </c>
-      <c r="H33" s="141" t="str">
+      <c r="G33" s="139" t="s">
+        <v>158</v>
+      </c>
+      <c r="H33" s="139" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I33" s="140" t="str">
+      <c r="I33" s="138" t="str">
         <f t="shared" si="2"/>
         <v>USD3L1L25Y_Quote</v>
       </c>
-      <c r="J33" s="139" t="str">
+      <c r="J33" s="137" t="str">
         <f t="shared" si="3"/>
         <v>USDAM3L25Y_Quote</v>
       </c>
-      <c r="K33" s="139" t="str">
+      <c r="K33" s="137" t="str">
         <f t="shared" si="4"/>
         <v>USD_YC1MRH_AM1LBASIS25Y</v>
       </c>
-      <c r="L33" s="137" t="str">
+      <c r="L33" s="135" t="str">
         <f>_xll.qlSwapRateHelper2(K33,$J33,$C33,Calendar,$F33,$G33,$H33,$L$4,$I33,B33,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_AM1LBASIS25Y#0000</v>
-      </c>
-      <c r="M33" s="152" t="str">
+        <v>USD_YC1MRH_AM1LBASIS25Y#0002</v>
+      </c>
+      <c r="M33" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L33)</f>
         <v/>
       </c>
-      <c r="N33" s="134"/>
+      <c r="N33" s="132"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34" s="103"/>
-      <c r="B34" s="143" t="str">
+      <c r="A34" s="101"/>
+      <c r="B34" s="141" t="str">
         <f t="shared" si="5"/>
         <v>0D</v>
       </c>
-      <c r="C34" s="143" t="s">
+      <c r="C34" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="D34" s="143" t="str">
+      <c r="D34" s="141" t="str">
         <f t="shared" si="6"/>
         <v>AM</v>
       </c>
-      <c r="E34" s="143" t="str">
+      <c r="E34" s="141" t="str">
         <f t="shared" si="7"/>
         <v>1L</v>
       </c>
-      <c r="F34" s="141" t="str">
+      <c r="F34" s="139" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G34" s="141" t="s">
-        <v>159</v>
-      </c>
-      <c r="H34" s="141" t="str">
+      <c r="G34" s="139" t="s">
+        <v>158</v>
+      </c>
+      <c r="H34" s="139" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I34" s="140" t="str">
+      <c r="I34" s="138" t="str">
         <f t="shared" si="2"/>
         <v>USD3L1L26Y_Quote</v>
       </c>
-      <c r="J34" s="139" t="str">
+      <c r="J34" s="137" t="str">
         <f t="shared" si="3"/>
         <v>USDAM3L26Y_Quote</v>
       </c>
-      <c r="K34" s="139" t="str">
+      <c r="K34" s="137" t="str">
         <f t="shared" si="4"/>
         <v>USD_YC1MRH_AM1LBASIS26Y</v>
       </c>
-      <c r="L34" s="137" t="str">
+      <c r="L34" s="135" t="str">
         <f>_xll.qlSwapRateHelper2(K34,$J34,$C34,Calendar,$F34,$G34,$H34,$L$4,$I34,B34,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_AM1LBASIS26Y#0000</v>
-      </c>
-      <c r="M34" s="152" t="str">
+        <v>USD_YC1MRH_AM1LBASIS26Y#0002</v>
+      </c>
+      <c r="M34" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L34)</f>
         <v/>
       </c>
-      <c r="N34" s="134"/>
+      <c r="N34" s="132"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35" s="103"/>
-      <c r="B35" s="143" t="str">
+      <c r="A35" s="101"/>
+      <c r="B35" s="141" t="str">
         <f t="shared" si="5"/>
         <v>0D</v>
       </c>
-      <c r="C35" s="143" t="s">
+      <c r="C35" s="141" t="s">
         <v>7</v>
       </c>
-      <c r="D35" s="143" t="str">
+      <c r="D35" s="141" t="str">
         <f t="shared" si="6"/>
         <v>AM</v>
       </c>
-      <c r="E35" s="143" t="str">
+      <c r="E35" s="141" t="str">
         <f t="shared" si="7"/>
         <v>1L</v>
       </c>
-      <c r="F35" s="141" t="str">
+      <c r="F35" s="139" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G35" s="141" t="s">
-        <v>159</v>
-      </c>
-      <c r="H35" s="141" t="str">
+      <c r="G35" s="139" t="s">
+        <v>158</v>
+      </c>
+      <c r="H35" s="139" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I35" s="140" t="str">
+      <c r="I35" s="138" t="str">
         <f t="shared" si="2"/>
         <v>USD3L1L27Y_Quote</v>
       </c>
-      <c r="J35" s="139" t="str">
+      <c r="J35" s="137" t="str">
         <f t="shared" si="3"/>
         <v>USDAM3L27Y_Quote</v>
       </c>
-      <c r="K35" s="139" t="str">
+      <c r="K35" s="137" t="str">
         <f t="shared" si="4"/>
         <v>USD_YC1MRH_AM1LBASIS27Y</v>
       </c>
-      <c r="L35" s="137" t="str">
+      <c r="L35" s="135" t="str">
         <f>_xll.qlSwapRateHelper2(K35,$J35,$C35,Calendar,$F35,$G35,$H35,$L$4,$I35,B35,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_AM1LBASIS27Y#0000</v>
-      </c>
-      <c r="M35" s="152" t="str">
+        <v>USD_YC1MRH_AM1LBASIS27Y#0002</v>
+      </c>
+      <c r="M35" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L35)</f>
         <v/>
       </c>
-      <c r="N35" s="134"/>
+      <c r="N35" s="132"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A36" s="103"/>
-      <c r="B36" s="143" t="str">
+      <c r="A36" s="101"/>
+      <c r="B36" s="141" t="str">
         <f t="shared" si="5"/>
         <v>0D</v>
       </c>
-      <c r="C36" s="143" t="s">
+      <c r="C36" s="141" t="s">
         <v>6</v>
       </c>
-      <c r="D36" s="143" t="str">
+      <c r="D36" s="141" t="str">
         <f t="shared" si="6"/>
         <v>AM</v>
       </c>
-      <c r="E36" s="143" t="str">
+      <c r="E36" s="141" t="str">
         <f t="shared" si="7"/>
         <v>1L</v>
       </c>
-      <c r="F36" s="141" t="str">
+      <c r="F36" s="139" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G36" s="141" t="s">
-        <v>159</v>
-      </c>
-      <c r="H36" s="141" t="str">
+      <c r="G36" s="139" t="s">
+        <v>158</v>
+      </c>
+      <c r="H36" s="139" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I36" s="140" t="str">
+      <c r="I36" s="138" t="str">
         <f t="shared" si="2"/>
         <v>USD3L1L28Y_Quote</v>
       </c>
-      <c r="J36" s="139" t="str">
+      <c r="J36" s="137" t="str">
         <f t="shared" si="3"/>
         <v>USDAM3L28Y_Quote</v>
       </c>
-      <c r="K36" s="139" t="str">
+      <c r="K36" s="137" t="str">
         <f t="shared" si="4"/>
         <v>USD_YC1MRH_AM1LBASIS28Y</v>
       </c>
-      <c r="L36" s="137" t="str">
+      <c r="L36" s="135" t="str">
         <f>_xll.qlSwapRateHelper2(K36,$J36,$C36,Calendar,$F36,$G36,$H36,$L$4,$I36,B36,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_AM1LBASIS28Y#0000</v>
-      </c>
-      <c r="M36" s="152" t="str">
+        <v>USD_YC1MRH_AM1LBASIS28Y#0002</v>
+      </c>
+      <c r="M36" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L36)</f>
         <v/>
       </c>
-      <c r="N36" s="134"/>
+      <c r="N36" s="132"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A37" s="103"/>
-      <c r="B37" s="143" t="str">
+      <c r="A37" s="101"/>
+      <c r="B37" s="141" t="str">
         <f t="shared" si="5"/>
         <v>0D</v>
       </c>
-      <c r="C37" s="143" t="s">
+      <c r="C37" s="141" t="s">
         <v>5</v>
       </c>
-      <c r="D37" s="143" t="str">
+      <c r="D37" s="141" t="str">
         <f t="shared" si="6"/>
         <v>AM</v>
       </c>
-      <c r="E37" s="143" t="str">
+      <c r="E37" s="141" t="str">
         <f t="shared" si="7"/>
         <v>1L</v>
       </c>
-      <c r="F37" s="141" t="str">
+      <c r="F37" s="139" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G37" s="141" t="s">
-        <v>159</v>
-      </c>
-      <c r="H37" s="141" t="str">
+      <c r="G37" s="139" t="s">
+        <v>158</v>
+      </c>
+      <c r="H37" s="139" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I37" s="140" t="str">
+      <c r="I37" s="138" t="str">
         <f t="shared" si="2"/>
         <v>USD3L1L29Y_Quote</v>
       </c>
-      <c r="J37" s="139" t="str">
+      <c r="J37" s="137" t="str">
         <f t="shared" si="3"/>
         <v>USDAM3L29Y_Quote</v>
       </c>
-      <c r="K37" s="139" t="str">
+      <c r="K37" s="137" t="str">
         <f t="shared" si="4"/>
         <v>USD_YC1MRH_AM1LBASIS29Y</v>
       </c>
-      <c r="L37" s="137" t="str">
+      <c r="L37" s="135" t="str">
         <f>_xll.qlSwapRateHelper2(K37,$J37,$C37,Calendar,$F37,$G37,$H37,$L$4,$I37,B37,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_AM1LBASIS29Y#0000</v>
-      </c>
-      <c r="M37" s="152" t="str">
+        <v>USD_YC1MRH_AM1LBASIS29Y#0002</v>
+      </c>
+      <c r="M37" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L37)</f>
         <v/>
       </c>
-      <c r="N37" s="134"/>
+      <c r="N37" s="132"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A38" s="103"/>
-      <c r="B38" s="143" t="str">
+      <c r="A38" s="101"/>
+      <c r="B38" s="141" t="str">
         <f t="shared" si="5"/>
         <v>0D</v>
       </c>
-      <c r="C38" s="143" t="s">
+      <c r="C38" s="141" t="s">
         <v>4</v>
       </c>
-      <c r="D38" s="143" t="str">
+      <c r="D38" s="141" t="str">
         <f t="shared" si="6"/>
         <v>AM</v>
       </c>
-      <c r="E38" s="143" t="str">
+      <c r="E38" s="141" t="str">
         <f t="shared" si="7"/>
         <v>1L</v>
       </c>
-      <c r="F38" s="141" t="str">
+      <c r="F38" s="139" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G38" s="141" t="s">
-        <v>159</v>
-      </c>
-      <c r="H38" s="141" t="str">
+      <c r="G38" s="139" t="s">
+        <v>158</v>
+      </c>
+      <c r="H38" s="139" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I38" s="140" t="str">
+      <c r="I38" s="138" t="str">
         <f t="shared" si="2"/>
         <v>USD3L1L30Y_Quote</v>
       </c>
-      <c r="J38" s="139" t="str">
+      <c r="J38" s="137" t="str">
         <f t="shared" si="3"/>
         <v>USDAM3L30Y_Quote</v>
       </c>
-      <c r="K38" s="139" t="str">
+      <c r="K38" s="137" t="str">
         <f t="shared" si="4"/>
         <v>USD_YC1MRH_AM1LBASIS30Y</v>
       </c>
-      <c r="L38" s="137" t="str">
+      <c r="L38" s="135" t="str">
         <f>_xll.qlSwapRateHelper2(K38,$J38,$C38,Calendar,$F38,$G38,$H38,$L$4,$I38,B38,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_AM1LBASIS30Y#0000</v>
-      </c>
-      <c r="M38" s="152" t="str">
+        <v>USD_YC1MRH_AM1LBASIS30Y#0002</v>
+      </c>
+      <c r="M38" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L38)</f>
         <v/>
       </c>
-      <c r="N38" s="134"/>
+      <c r="N38" s="132"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A39" s="103"/>
-      <c r="B39" s="143" t="str">
+      <c r="A39" s="101"/>
+      <c r="B39" s="141" t="str">
         <f t="shared" si="5"/>
         <v>0D</v>
       </c>
-      <c r="C39" s="143" t="s">
+      <c r="C39" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="D39" s="143" t="str">
+      <c r="D39" s="141" t="str">
         <f t="shared" si="6"/>
         <v>AM</v>
       </c>
-      <c r="E39" s="143" t="str">
+      <c r="E39" s="141" t="str">
         <f t="shared" si="7"/>
         <v>1L</v>
       </c>
-      <c r="F39" s="141" t="str">
+      <c r="F39" s="139" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G39" s="141" t="s">
-        <v>159</v>
-      </c>
-      <c r="H39" s="141" t="str">
+      <c r="G39" s="139" t="s">
+        <v>158</v>
+      </c>
+      <c r="H39" s="139" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I39" s="140" t="str">
+      <c r="I39" s="138" t="str">
         <f t="shared" si="2"/>
         <v>USD3L1L35Y_Quote</v>
       </c>
-      <c r="J39" s="139" t="str">
+      <c r="J39" s="137" t="str">
         <f t="shared" si="3"/>
         <v>USDAM3L35Y_Quote</v>
       </c>
-      <c r="K39" s="139" t="str">
+      <c r="K39" s="137" t="str">
         <f t="shared" si="4"/>
         <v>USD_YC1MRH_AM1LBASIS35Y</v>
       </c>
-      <c r="L39" s="137" t="str">
+      <c r="L39" s="135" t="str">
         <f>_xll.qlSwapRateHelper2(K39,$J39,$C39,Calendar,$F39,$G39,$H39,$L$4,$I39,B39,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_AM1LBASIS35Y#0000</v>
-      </c>
-      <c r="M39" s="152" t="str">
+        <v>USD_YC1MRH_AM1LBASIS35Y#0002</v>
+      </c>
+      <c r="M39" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L39)</f>
         <v/>
       </c>
-      <c r="N39" s="134"/>
+      <c r="N39" s="132"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A40" s="103"/>
-      <c r="B40" s="143" t="str">
+      <c r="A40" s="101"/>
+      <c r="B40" s="141" t="str">
         <f t="shared" si="5"/>
         <v>0D</v>
       </c>
-      <c r="C40" s="143" t="s">
+      <c r="C40" s="141" t="s">
         <v>2</v>
       </c>
-      <c r="D40" s="143" t="str">
+      <c r="D40" s="141" t="str">
         <f t="shared" si="6"/>
         <v>AM</v>
       </c>
-      <c r="E40" s="143" t="str">
+      <c r="E40" s="141" t="str">
         <f t="shared" si="7"/>
         <v>1L</v>
       </c>
-      <c r="F40" s="141" t="str">
+      <c r="F40" s="139" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G40" s="141" t="s">
-        <v>159</v>
-      </c>
-      <c r="H40" s="141" t="str">
+      <c r="G40" s="139" t="s">
+        <v>158</v>
+      </c>
+      <c r="H40" s="139" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I40" s="140" t="str">
+      <c r="I40" s="138" t="str">
         <f t="shared" si="2"/>
         <v>USD3L1L40Y_Quote</v>
       </c>
-      <c r="J40" s="139" t="str">
+      <c r="J40" s="137" t="str">
         <f t="shared" si="3"/>
         <v>USDAM3L40Y_Quote</v>
       </c>
-      <c r="K40" s="139" t="str">
+      <c r="K40" s="137" t="str">
         <f t="shared" si="4"/>
         <v>USD_YC1MRH_AM1LBASIS40Y</v>
       </c>
-      <c r="L40" s="137" t="str">
+      <c r="L40" s="135" t="str">
         <f>_xll.qlSwapRateHelper2(K40,$J40,$C40,Calendar,$F40,$G40,$H40,$L$4,$I40,B40,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_AM1LBASIS40Y#0000</v>
-      </c>
-      <c r="M40" s="152" t="str">
+        <v>USD_YC1MRH_AM1LBASIS40Y#0002</v>
+      </c>
+      <c r="M40" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L40)</f>
         <v/>
       </c>
-      <c r="N40" s="134"/>
+      <c r="N40" s="132"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A41" s="103"/>
-      <c r="B41" s="143" t="str">
+      <c r="A41" s="101"/>
+      <c r="B41" s="141" t="str">
         <f t="shared" si="5"/>
         <v>0D</v>
       </c>
-      <c r="C41" s="143" t="s">
-        <v>1</v>
-      </c>
-      <c r="D41" s="143" t="str">
+      <c r="C41" s="141" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" s="141" t="str">
         <f t="shared" si="6"/>
         <v>AM</v>
       </c>
-      <c r="E41" s="143" t="str">
+      <c r="E41" s="141" t="str">
         <f t="shared" si="7"/>
         <v>1L</v>
       </c>
-      <c r="F41" s="141" t="str">
+      <c r="F41" s="139" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G41" s="141" t="s">
-        <v>159</v>
-      </c>
-      <c r="H41" s="141" t="str">
+      <c r="G41" s="139" t="s">
+        <v>158</v>
+      </c>
+      <c r="H41" s="139" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I41" s="140" t="str">
+      <c r="I41" s="138" t="str">
         <f t="shared" si="2"/>
         <v>USD3L1L50Y_Quote</v>
       </c>
-      <c r="J41" s="139" t="str">
+      <c r="J41" s="137" t="str">
         <f t="shared" si="3"/>
         <v>USDAM3L50Y_Quote</v>
       </c>
-      <c r="K41" s="139" t="str">
+      <c r="K41" s="137" t="str">
         <f t="shared" si="4"/>
         <v>USD_YC1MRH_AM1LBASIS50Y</v>
       </c>
-      <c r="L41" s="137" t="str">
+      <c r="L41" s="135" t="str">
         <f>_xll.qlSwapRateHelper2(K41,$J41,$C41,Calendar,$F41,$G41,$H41,$L$4,$I41,B41,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_AM1LBASIS50Y#0000</v>
-      </c>
-      <c r="M41" s="152" t="str">
+        <v>USD_YC1MRH_AM1LBASIS50Y#0002</v>
+      </c>
+      <c r="M41" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L41)</f>
         <v/>
       </c>
-      <c r="N41" s="134"/>
+      <c r="N41" s="132"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A42" s="103"/>
-      <c r="B42" s="143" t="str">
+      <c r="A42" s="101"/>
+      <c r="B42" s="141" t="str">
         <f t="shared" si="5"/>
         <v>0D</v>
       </c>
-      <c r="C42" s="143" t="s">
-        <v>0</v>
-      </c>
-      <c r="D42" s="143" t="str">
+      <c r="C42" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="D42" s="141" t="str">
         <f t="shared" si="6"/>
         <v>AM</v>
       </c>
-      <c r="E42" s="143" t="str">
+      <c r="E42" s="141" t="str">
         <f t="shared" si="7"/>
         <v>1L</v>
       </c>
-      <c r="F42" s="141" t="str">
+      <c r="F42" s="139" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G42" s="141" t="s">
-        <v>159</v>
-      </c>
-      <c r="H42" s="141" t="str">
+      <c r="G42" s="139" t="s">
+        <v>158</v>
+      </c>
+      <c r="H42" s="139" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I42" s="140" t="str">
+      <c r="I42" s="138" t="str">
         <f t="shared" si="2"/>
         <v>USD3L1L60Y_Quote</v>
       </c>
-      <c r="J42" s="139" t="str">
+      <c r="J42" s="137" t="str">
         <f t="shared" si="3"/>
         <v>USDAM3L60Y_Quote</v>
       </c>
-      <c r="K42" s="139" t="str">
+      <c r="K42" s="137" t="str">
         <f t="shared" si="4"/>
         <v>USD_YC1MRH_AM1LBASIS60Y</v>
       </c>
-      <c r="L42" s="137" t="str">
+      <c r="L42" s="135" t="str">
         <f>_xll.qlSwapRateHelper2(K42,$J42,$C42,Calendar,$F42,$G42,$H42,$L$4,$I42,B42,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_AM1LBASIS60Y#0000</v>
-      </c>
-      <c r="M42" s="152" t="str">
+        <v>USD_YC1MRH_AM1LBASIS60Y#0002</v>
+      </c>
+      <c r="M42" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(L42)</f>
         <v/>
       </c>
-      <c r="N42" s="134"/>
+      <c r="N42" s="132"/>
     </row>
     <row r="43" spans="1:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="95"/>
-      <c r="B43" s="94"/>
-      <c r="C43" s="94"/>
-      <c r="D43" s="94"/>
-      <c r="E43" s="94"/>
-      <c r="F43" s="94"/>
-      <c r="G43" s="94"/>
-      <c r="H43" s="94"/>
-      <c r="I43" s="94"/>
-      <c r="J43" s="94"/>
-      <c r="K43" s="94"/>
-      <c r="L43" s="133"/>
-      <c r="M43" s="133"/>
-      <c r="N43" s="132"/>
+      <c r="A43" s="94"/>
+      <c r="B43" s="93"/>
+      <c r="C43" s="93"/>
+      <c r="D43" s="93"/>
+      <c r="E43" s="93"/>
+      <c r="F43" s="93"/>
+      <c r="G43" s="93"/>
+      <c r="H43" s="93"/>
+      <c r="I43" s="93"/>
+      <c r="J43" s="93"/>
+      <c r="K43" s="93"/>
+      <c r="L43" s="131"/>
+      <c r="M43" s="131"/>
+      <c r="N43" s="130"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/QuantLibXL/Data2/XLS/USD_YC1MBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/USD_YC1MBootstrapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="15300" windowHeight="7995" tabRatio="835" activeTab="2"/>
+    <workbookView xWindow="15285" yWindow="-15" windowWidth="15330" windowHeight="7695" tabRatio="835" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="General Settings" sheetId="6" r:id="rId1"/>
@@ -219,7 +219,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="149">
   <si>
     <t>60Y</t>
   </si>
@@ -533,96 +533,6 @@
     <t>General Settings</t>
   </si>
   <si>
-    <t>USD_YC1MRH_2WD</t>
-  </si>
-  <si>
-    <t>USD_YC1MRH_3WD</t>
-  </si>
-  <si>
-    <t>USD_YC1MRH_1MD</t>
-  </si>
-  <si>
-    <t>USD_YC1MRH_2X1S</t>
-  </si>
-  <si>
-    <t>USD_YC1MRH_3X1S</t>
-  </si>
-  <si>
-    <t>USD_YC1MRH_4X1S</t>
-  </si>
-  <si>
-    <t>USD_YC1MRH_5X1S</t>
-  </si>
-  <si>
-    <t>USD_YC1MRH_6X1S</t>
-  </si>
-  <si>
-    <t>USD_YC1MRH_7X1S</t>
-  </si>
-  <si>
-    <t>USD_YC1MRH_8X1S</t>
-  </si>
-  <si>
-    <t>USD_YC1MRH_9X1S</t>
-  </si>
-  <si>
-    <t>USD_YC1MRH_10X1S</t>
-  </si>
-  <si>
-    <t>USD_YC1MRH_11X1S</t>
-  </si>
-  <si>
-    <t>USD_YC1MRH_12X1S</t>
-  </si>
-  <si>
-    <t>USD_YC1MRH_AM1LBASIS2Y</t>
-  </si>
-  <si>
-    <t>USD_YC1MRH_AM1LBASIS3Y</t>
-  </si>
-  <si>
-    <t>USD_YC1MRH_AM1LBASIS4Y</t>
-  </si>
-  <si>
-    <t>USD_YC1MRH_AM1LBASIS5Y</t>
-  </si>
-  <si>
-    <t>USD_YC1MRH_AM1LBASIS6Y</t>
-  </si>
-  <si>
-    <t>USD_YC1MRH_AM1LBASIS7Y</t>
-  </si>
-  <si>
-    <t>USD_YC1MRH_AM1LBASIS8Y</t>
-  </si>
-  <si>
-    <t>USD_YC1MRH_AM1LBASIS9Y</t>
-  </si>
-  <si>
-    <t>USD_YC1MRH_AM1LBASIS10Y</t>
-  </si>
-  <si>
-    <t>USD_YC1MRH_AM1LBASIS12Y</t>
-  </si>
-  <si>
-    <t>USD_YC1MRH_AM1LBASIS15Y</t>
-  </si>
-  <si>
-    <t>USD_YC1MRH_AM1LBASIS20Y</t>
-  </si>
-  <si>
-    <t>USD_YC1MRH_AM1LBASIS25Y</t>
-  </si>
-  <si>
-    <t>USD_YC1MRH_AM1LBASIS30Y</t>
-  </si>
-  <si>
-    <t>USD_YC1MRH_AM1LBASIS40Y</t>
-  </si>
-  <si>
-    <t>USD_YC1MRH_AM1LBASIS50Y</t>
-  </si>
-  <si>
     <t>1M</t>
   </si>
   <si>
@@ -753,6 +663,9 @@
   </si>
   <si>
     <t>USD_YCRH_SwapsFromBasis</t>
+  </si>
+  <si>
+    <t>Ibor Index</t>
   </si>
 </sst>
 </file>
@@ -1618,7 +1531,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="30" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1753,6 +1665,9 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2100,24 +2015,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="2.7109375" style="160" customWidth="1"/>
-    <col min="3" max="3" width="18" style="160" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" style="160" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22" style="160" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="2.7109375" style="160" customWidth="1"/>
-    <col min="8" max="8" width="4" style="160" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.28515625" style="160" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="2.7109375" style="160" customWidth="1"/>
-    <col min="12" max="12" width="18.5703125" style="160" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="53.7109375" style="160" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="2.7109375" style="160" customWidth="1"/>
-    <col min="15" max="16384" width="8" style="160"/>
+    <col min="1" max="2" width="2.7109375" style="159" customWidth="1"/>
+    <col min="3" max="3" width="18" style="159" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" style="159" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" style="159" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="2.7109375" style="159" customWidth="1"/>
+    <col min="8" max="8" width="4" style="159" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.28515625" style="159" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="2.7109375" style="159" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" style="159" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="53.7109375" style="159" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2.7109375" style="159" customWidth="1"/>
+    <col min="15" max="16384" width="8" style="159"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="160" t="str">
+      <c r="B1" s="159" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
-        <v>QuantLibXL 1.4.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Apr 18 2014 11:20:01</v>
+        <v>QuantLibXL 1.4.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Apr 29 2014 14:47:17</v>
       </c>
     </row>
     <row r="2" spans="2:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2129,7 +2044,7 @@
       <c r="E2" s="170"/>
       <c r="F2" s="171"/>
       <c r="K2" s="169" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="L2" s="170"/>
       <c r="M2" s="170"/>
@@ -2141,10 +2056,10 @@
       <c r="D3" s="58"/>
       <c r="E3" s="58"/>
       <c r="F3" s="57"/>
-      <c r="K3" s="123"/>
-      <c r="L3" s="126"/>
-      <c r="M3" s="126"/>
-      <c r="N3" s="125"/>
+      <c r="K3" s="122"/>
+      <c r="L3" s="125"/>
+      <c r="M3" s="125"/>
+      <c r="N3" s="124"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B4" s="60"/>
@@ -2156,18 +2071,18 @@
       </c>
       <c r="E4" s="58"/>
       <c r="F4" s="57"/>
-      <c r="H4" s="162" t="s">
+      <c r="H4" s="161" t="s">
         <v>101</v>
       </c>
-      <c r="I4" s="163"/>
-      <c r="K4" s="123"/>
-      <c r="L4" s="122" t="s">
-        <v>144</v>
-      </c>
-      <c r="M4" s="116" t="b">
-        <v>0</v>
-      </c>
-      <c r="N4" s="121"/>
+      <c r="I4" s="162"/>
+      <c r="K4" s="122"/>
+      <c r="L4" s="121" t="s">
+        <v>114</v>
+      </c>
+      <c r="M4" s="115" t="b">
+        <v>0</v>
+      </c>
+      <c r="N4" s="120"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B5" s="60"/>
@@ -2179,18 +2094,18 @@
       </c>
       <c r="E5" s="58"/>
       <c r="F5" s="57"/>
-      <c r="H5" s="164" t="s">
+      <c r="H5" s="163" t="s">
         <v>99</v>
       </c>
-      <c r="I5" s="165" t="s">
+      <c r="I5" s="164" t="s">
         <v>98</v>
       </c>
-      <c r="K5" s="123"/>
-      <c r="L5" s="122" t="s">
-        <v>143</v>
-      </c>
-      <c r="M5" s="124"/>
-      <c r="N5" s="121"/>
+      <c r="K5" s="122"/>
+      <c r="L5" s="121" t="s">
+        <v>113</v>
+      </c>
+      <c r="M5" s="123"/>
+      <c r="N5" s="120"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B6" s="60"/>
@@ -2203,20 +2118,20 @@
       </c>
       <c r="E6" s="58"/>
       <c r="F6" s="57"/>
-      <c r="H6" s="164" t="s">
+      <c r="H6" s="163" t="s">
         <v>96</v>
       </c>
-      <c r="I6" s="165" t="s">
+      <c r="I6" s="164" t="s">
         <v>95</v>
       </c>
-      <c r="K6" s="123"/>
-      <c r="L6" s="122" t="s">
-        <v>142</v>
-      </c>
-      <c r="M6" s="113" t="b">
-        <v>1</v>
-      </c>
-      <c r="N6" s="121"/>
+      <c r="K6" s="122"/>
+      <c r="L6" s="121" t="s">
+        <v>112</v>
+      </c>
+      <c r="M6" s="112" t="b">
+        <v>1</v>
+      </c>
+      <c r="N6" s="120"/>
     </row>
     <row r="7" spans="2:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="60"/>
@@ -2229,14 +2144,14 @@
       </c>
       <c r="E7" s="58"/>
       <c r="F7" s="57"/>
-      <c r="H7" s="164" t="s">
+      <c r="H7" s="163" t="s">
         <v>93</v>
       </c>
-      <c r="I7" s="165"/>
-      <c r="K7" s="120"/>
-      <c r="L7" s="119"/>
-      <c r="M7" s="119"/>
-      <c r="N7" s="118"/>
+      <c r="I7" s="164"/>
+      <c r="K7" s="119"/>
+      <c r="L7" s="118"/>
+      <c r="M7" s="118"/>
+      <c r="N7" s="117"/>
     </row>
     <row r="8" spans="2:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="60"/>
@@ -2249,16 +2164,16 @@
       </c>
       <c r="E8" s="58"/>
       <c r="F8" s="57"/>
-      <c r="H8" s="166" t="s">
+      <c r="H8" s="165" t="s">
         <v>91</v>
       </c>
-      <c r="I8" s="167" t="s">
+      <c r="I8" s="166" t="s">
         <v>90</v>
       </c>
-      <c r="K8" s="161"/>
-      <c r="L8" s="161"/>
-      <c r="M8" s="161"/>
-      <c r="N8" s="161"/>
+      <c r="K8" s="160"/>
+      <c r="L8" s="160"/>
+      <c r="M8" s="160"/>
+      <c r="N8" s="160"/>
     </row>
     <row r="9" spans="2:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="60"/>
@@ -2272,7 +2187,7 @@
       <c r="E9" s="58"/>
       <c r="F9" s="57"/>
       <c r="K9" s="169" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="L9" s="170"/>
       <c r="M9" s="170"/>
@@ -2288,10 +2203,10 @@
       </c>
       <c r="E10" s="58"/>
       <c r="F10" s="57"/>
-      <c r="K10" s="115"/>
-      <c r="L10" s="117"/>
-      <c r="M10" s="117"/>
-      <c r="N10" s="112"/>
+      <c r="K10" s="114"/>
+      <c r="L10" s="116"/>
+      <c r="M10" s="116"/>
+      <c r="N10" s="111"/>
     </row>
     <row r="11" spans="2:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B11" s="60"/>
@@ -2301,14 +2216,14 @@
       <c r="D11" s="85"/>
       <c r="E11" s="58"/>
       <c r="F11" s="57"/>
-      <c r="K11" s="115"/>
-      <c r="L11" s="114" t="s">
-        <v>140</v>
-      </c>
-      <c r="M11" s="116" t="s">
-        <v>139</v>
-      </c>
-      <c r="N11" s="112"/>
+      <c r="K11" s="114"/>
+      <c r="L11" s="113" t="s">
+        <v>110</v>
+      </c>
+      <c r="M11" s="115" t="s">
+        <v>109</v>
+      </c>
+      <c r="N11" s="111"/>
     </row>
     <row r="12" spans="2:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B12" s="60"/>
@@ -2320,14 +2235,14 @@
       </c>
       <c r="E12" s="58"/>
       <c r="F12" s="57"/>
-      <c r="K12" s="115"/>
-      <c r="L12" s="114" t="s">
-        <v>138</v>
-      </c>
-      <c r="M12" s="113" t="s">
-        <v>137</v>
-      </c>
-      <c r="N12" s="112"/>
+      <c r="K12" s="114"/>
+      <c r="L12" s="113" t="s">
+        <v>108</v>
+      </c>
+      <c r="M12" s="112" t="s">
+        <v>107</v>
+      </c>
+      <c r="N12" s="111"/>
     </row>
     <row r="13" spans="2:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B13" s="60"/>
@@ -2335,14 +2250,14 @@
       <c r="D13" s="65"/>
       <c r="E13" s="58"/>
       <c r="F13" s="57"/>
-      <c r="K13" s="115"/>
-      <c r="L13" s="114" t="s">
-        <v>169</v>
-      </c>
-      <c r="M13" s="116" t="s">
-        <v>168</v>
-      </c>
-      <c r="N13" s="112"/>
+      <c r="K13" s="114"/>
+      <c r="L13" s="113" t="s">
+        <v>139</v>
+      </c>
+      <c r="M13" s="115" t="s">
+        <v>138</v>
+      </c>
+      <c r="N13" s="111"/>
     </row>
     <row r="14" spans="2:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B14" s="60"/>
@@ -2351,19 +2266,19 @@
       </c>
       <c r="D14" s="82" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D16,NDays,Calendar,RateHelpersSelected,DayCounter,,,Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
-        <v>_USDYC1M#0008</v>
+        <v>_USDYC1M#0002</v>
       </c>
       <c r="E14" s="58"/>
       <c r="F14" s="57"/>
-      <c r="K14" s="115"/>
-      <c r="L14" s="114" t="s">
-        <v>167</v>
-      </c>
-      <c r="M14" s="116" t="str">
+      <c r="K14" s="114"/>
+      <c r="L14" s="113" t="s">
+        <v>137</v>
+      </c>
+      <c r="M14" s="115" t="str">
         <f>PROPER(Currency)&amp;"ON"</f>
         <v>UsdON</v>
       </c>
-      <c r="N14" s="112"/>
+      <c r="N14" s="111"/>
     </row>
     <row r="15" spans="2:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B15" s="60"/>
@@ -2376,15 +2291,15 @@
       </c>
       <c r="E15" s="58"/>
       <c r="F15" s="57"/>
-      <c r="K15" s="115"/>
-      <c r="L15" s="114" t="s">
-        <v>166</v>
-      </c>
-      <c r="M15" s="116" t="str">
+      <c r="K15" s="114"/>
+      <c r="L15" s="113" t="s">
+        <v>136</v>
+      </c>
+      <c r="M15" s="115" t="str">
         <f>PROPER(Currency)&amp;"STD"</f>
         <v>UsdSTD</v>
       </c>
-      <c r="N15" s="112"/>
+      <c r="N15" s="111"/>
     </row>
     <row r="16" spans="2:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B16" s="60"/>
@@ -2397,14 +2312,14 @@
       </c>
       <c r="E16" s="58"/>
       <c r="F16" s="57"/>
-      <c r="K16" s="115"/>
-      <c r="L16" s="114" t="s">
-        <v>171</v>
-      </c>
-      <c r="M16" s="116" t="s">
-        <v>170</v>
-      </c>
-      <c r="N16" s="112"/>
+      <c r="K16" s="114"/>
+      <c r="L16" s="113" t="s">
+        <v>141</v>
+      </c>
+      <c r="M16" s="115" t="s">
+        <v>140</v>
+      </c>
+      <c r="N16" s="111"/>
     </row>
     <row r="17" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="60"/>
@@ -2416,10 +2331,10 @@
       </c>
       <c r="E17" s="58"/>
       <c r="F17" s="57"/>
-      <c r="K17" s="111"/>
-      <c r="L17" s="110"/>
-      <c r="M17" s="110"/>
-      <c r="N17" s="109"/>
+      <c r="K17" s="110"/>
+      <c r="L17" s="109"/>
+      <c r="M17" s="109"/>
+      <c r="N17" s="108"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B18" s="60"/>
@@ -2530,7 +2445,7 @@
       <c r="B27" s="60"/>
       <c r="C27" s="64">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve)</f>
-        <v>41757</v>
+        <v>41761</v>
       </c>
       <c r="D27" s="63">
         <f>MAX(_xll.ohPack(Selected!I1:I126))</f>
@@ -2543,11 +2458,11 @@
       <c r="B28" s="60"/>
       <c r="C28" s="62">
         <f>MAX(_xll.ohPack(Selected!H2:H126))</f>
-        <v>60022</v>
+        <v>60029</v>
       </c>
       <c r="D28" s="61">
         <f>MIN(_xll.ohPack(Selected!I1:I126))</f>
-        <v>0.17750999608966272</v>
+        <v>0.1789730811447677</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="57"/>
@@ -2557,7 +2472,7 @@
       <c r="C29" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="D29" s="168" t="str">
+      <c r="D29" s="167" t="str">
         <f>_xll.ohRangeRetrieveError(Selected!I1)</f>
         <v/>
       </c>
@@ -2629,7 +2544,7 @@
   <dimension ref="A1:N161"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -2690,12 +2605,12 @@
         <v>53</v>
       </c>
       <c r="E2" s="14" t="str">
-        <f>'1M_Deposits'!E3</f>
-        <v>USD_YC1MRH_SWD#0006</v>
+        <f>'1M_Deposits'!F3</f>
+        <v>USD_YC1MRH_SWD#0001</v>
       </c>
       <c r="F2" s="13">
         <f>_xll.qlRateHelperQuoteValue($E2,Trigger)</f>
-        <v>1.6130000000000001E-3</v>
+        <v>1.519E-3</v>
       </c>
       <c r="G2" s="13"/>
       <c r="H2" s="12" t="b">
@@ -2709,11 +2624,11 @@
       </c>
       <c r="K2" s="11">
         <f>_xll.qlRateHelperEarliestDate($E2,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L2" s="10">
         <f>_xll.qlRateHelperLatestDate($E2,Trigger)</f>
-        <v>41766</v>
+        <v>41773</v>
       </c>
       <c r="M2" s="1">
         <v>40</v>
@@ -2729,12 +2644,12 @@
         <v>51</v>
       </c>
       <c r="E3" s="14" t="str">
-        <f>'1M_Deposits'!E4</f>
-        <v>USD_YC1MRH_1MD#0006</v>
+        <f>'1M_Deposits'!F4</f>
+        <v>USD_YC1MRH_1MD#0001</v>
       </c>
       <c r="F3" s="13">
         <f>_xll.qlRateHelperQuoteValue($E3,Trigger)</f>
-        <v>1.5200000000000001E-3</v>
+        <v>1.505E-3</v>
       </c>
       <c r="G3" s="13"/>
       <c r="H3" s="12" t="b">
@@ -2748,11 +2663,11 @@
       </c>
       <c r="K3" s="11">
         <f>_xll.qlRateHelperEarliestDate($E3,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L3" s="10">
         <f>_xll.qlRateHelperLatestDate($E3,Trigger)</f>
-        <v>41789</v>
+        <v>41799</v>
       </c>
       <c r="M3" s="1">
         <v>70</v>
@@ -5429,11 +5344,11 @@
       </c>
       <c r="E70" s="21" t="str">
         <f>'1M_Swaps'!L6</f>
-        <v>USD_YC1MRH_2X1S#0003</v>
+        <v>USD_YC1MRH_2X1S#0001</v>
       </c>
       <c r="F70" s="20">
         <f>_xll.qlRateHelperQuoteValue($E70,Trigger)</f>
-        <v>1.5199999999999999E-3</v>
+        <v>1.5100000000000001E-3</v>
       </c>
       <c r="G70" s="20">
         <f>_xll.qlSwapRateHelperSpread($E70,Trigger)</f>
@@ -5450,11 +5365,11 @@
       </c>
       <c r="K70" s="18">
         <f>_xll.qlRateHelperEarliestDate($E70,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L70" s="17">
         <f>_xll.qlRateHelperLatestDate($E70,Trigger)</f>
-        <v>41820</v>
+        <v>41827</v>
       </c>
       <c r="M70" s="22"/>
     </row>
@@ -5468,11 +5383,11 @@
       </c>
       <c r="E71" s="14" t="str">
         <f>'1M_Swaps'!L7</f>
-        <v>USD_YC1MRH_3X1S#0003</v>
+        <v>USD_YC1MRH_3X1S#0001</v>
       </c>
       <c r="F71" s="13">
         <f>_xll.qlRateHelperQuoteValue($E71,Trigger)</f>
-        <v>1.5299999999999999E-3</v>
+        <v>1.5100000000000001E-3</v>
       </c>
       <c r="G71" s="13">
         <f>_xll.qlSwapRateHelperSpread($E71,Trigger)</f>
@@ -5489,11 +5404,11 @@
       </c>
       <c r="K71" s="11">
         <f>_xll.qlRateHelperEarliestDate($E71,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L71" s="10">
         <f>_xll.qlRateHelperLatestDate($E71,Trigger)</f>
-        <v>41850</v>
+        <v>41858</v>
       </c>
       <c r="M71" s="25"/>
     </row>
@@ -5507,11 +5422,11 @@
       </c>
       <c r="E72" s="14" t="str">
         <f>'1M_Swaps'!L8</f>
-        <v>USD_YC1MRH_4X1S#0003</v>
+        <v>USD_YC1MRH_4X1S#0001</v>
       </c>
       <c r="F72" s="13">
         <f>_xll.qlRateHelperQuoteValue($E72,Trigger)</f>
-        <v>1.5499999999999999E-3</v>
+        <v>1.5100000000000001E-3</v>
       </c>
       <c r="G72" s="13">
         <f>_xll.qlSwapRateHelperSpread($E72,Trigger)</f>
@@ -5528,11 +5443,11 @@
       </c>
       <c r="K72" s="11">
         <f>_xll.qlRateHelperEarliestDate($E72,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L72" s="10">
         <f>_xll.qlRateHelperLatestDate($E72,Trigger)</f>
-        <v>41880</v>
+        <v>41890</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.2">
@@ -5545,11 +5460,11 @@
       </c>
       <c r="E73" s="14" t="str">
         <f>'1M_Swaps'!L9</f>
-        <v>USD_YC1MRH_5X1S#0003</v>
+        <v>USD_YC1MRH_5X1S#0001</v>
       </c>
       <c r="F73" s="13">
         <f>_xll.qlRateHelperQuoteValue($E73,Trigger)</f>
-        <v>1.57E-3</v>
+        <v>1.5100000000000001E-3</v>
       </c>
       <c r="G73" s="13">
         <f>_xll.qlSwapRateHelperSpread($E73,Trigger)</f>
@@ -5566,11 +5481,11 @@
       </c>
       <c r="K73" s="11">
         <f>_xll.qlRateHelperEarliestDate($E73,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L73" s="10">
         <f>_xll.qlRateHelperLatestDate($E73,Trigger)</f>
-        <v>41912</v>
+        <v>41919</v>
       </c>
     </row>
     <row r="74" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5583,11 +5498,11 @@
       </c>
       <c r="E74" s="14" t="str">
         <f>'1M_Swaps'!L10</f>
-        <v>USD_YC1MRH_6X1S#0003</v>
+        <v>USD_YC1MRH_6X1S#0001</v>
       </c>
       <c r="F74" s="13">
         <f>_xll.qlRateHelperQuoteValue($E74,Trigger)</f>
-        <v>1.5900000000000001E-3</v>
+        <v>1.5299999999999999E-3</v>
       </c>
       <c r="G74" s="13">
         <f>_xll.qlSwapRateHelperSpread($E74,Trigger)</f>
@@ -5604,11 +5519,11 @@
       </c>
       <c r="K74" s="11">
         <f>_xll.qlRateHelperEarliestDate($E74,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L74" s="10">
         <f>_xll.qlRateHelperLatestDate($E74,Trigger)</f>
-        <v>41942</v>
+        <v>41950</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.2">
@@ -5621,11 +5536,11 @@
       </c>
       <c r="E75" s="14" t="str">
         <f>'1M_Swaps'!L11</f>
-        <v>USD_YC1MRH_7X1S#0003</v>
+        <v>USD_YC1MRH_7X1S#0001</v>
       </c>
       <c r="F75" s="13">
         <f>_xll.qlRateHelperQuoteValue($E75,Trigger)</f>
-        <v>1.6100000000000001E-3</v>
+        <v>1.56E-3</v>
       </c>
       <c r="G75" s="13">
         <f>_xll.qlSwapRateHelperSpread($E75,Trigger)</f>
@@ -5642,11 +5557,11 @@
       </c>
       <c r="K75" s="11">
         <f>_xll.qlRateHelperEarliestDate($E75,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L75" s="10">
         <f>_xll.qlRateHelperLatestDate($E75,Trigger)</f>
-        <v>41971</v>
+        <v>41981</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.2">
@@ -5659,11 +5574,11 @@
       </c>
       <c r="E76" s="14" t="str">
         <f>'1M_Swaps'!L12</f>
-        <v>USD_YC1MRH_8X1S#0003</v>
+        <v>USD_YC1MRH_8X1S#0001</v>
       </c>
       <c r="F76" s="13">
         <f>_xll.qlRateHelperQuoteValue($E76,Trigger)</f>
-        <v>1.64E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="G76" s="13">
         <f>_xll.qlSwapRateHelperSpread($E76,Trigger)</f>
@@ -5680,11 +5595,11 @@
       </c>
       <c r="K76" s="11">
         <f>_xll.qlRateHelperEarliestDate($E76,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L76" s="10">
         <f>_xll.qlRateHelperLatestDate($E76,Trigger)</f>
-        <v>42003</v>
+        <v>42011</v>
       </c>
     </row>
     <row r="77" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5697,11 +5612,11 @@
       </c>
       <c r="E77" s="14" t="str">
         <f>'1M_Swaps'!L13</f>
-        <v>USD_YC1MRH_9X1S#0003</v>
+        <v>USD_YC1MRH_9X1S#0001</v>
       </c>
       <c r="F77" s="13">
         <f>_xll.qlRateHelperQuoteValue($E77,Trigger)</f>
-        <v>1.6799999999999999E-3</v>
+        <v>1.64E-3</v>
       </c>
       <c r="G77" s="13">
         <f>_xll.qlSwapRateHelperSpread($E77,Trigger)</f>
@@ -5718,11 +5633,11 @@
       </c>
       <c r="K77" s="11">
         <f>_xll.qlRateHelperEarliestDate($E77,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L77" s="10">
         <f>_xll.qlRateHelperLatestDate($E77,Trigger)</f>
-        <v>42034</v>
+        <v>42044</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.2">
@@ -5735,11 +5650,11 @@
       </c>
       <c r="E78" s="14" t="str">
         <f>'1M_Swaps'!L14</f>
-        <v>USD_YC1MRH_10X1S#0003</v>
+        <v>USD_YC1MRH_10X1S#0001</v>
       </c>
       <c r="F78" s="13">
         <f>_xll.qlRateHelperQuoteValue($E78,Trigger)</f>
-        <v>1.7299999999999998E-3</v>
+        <v>1.6899999999999999E-3</v>
       </c>
       <c r="G78" s="13">
         <f>_xll.qlSwapRateHelperSpread($E78,Trigger)</f>
@@ -5756,11 +5671,11 @@
       </c>
       <c r="K78" s="11">
         <f>_xll.qlRateHelperEarliestDate($E78,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L78" s="10">
         <f>_xll.qlRateHelperLatestDate($E78,Trigger)</f>
-        <v>42062</v>
+        <v>42072</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.2">
@@ -5773,11 +5688,11 @@
       </c>
       <c r="E79" s="14" t="str">
         <f>'1M_Swaps'!L15</f>
-        <v>USD_YC1MRH_11X1S#0003</v>
+        <v>USD_YC1MRH_11X1S#0001</v>
       </c>
       <c r="F79" s="13">
         <f>_xll.qlRateHelperQuoteValue($E79,Trigger)</f>
-        <v>1.7899999999999999E-3</v>
+        <v>1.7499999999999998E-3</v>
       </c>
       <c r="G79" s="13">
         <f>_xll.qlSwapRateHelperSpread($E79,Trigger)</f>
@@ -5794,11 +5709,11 @@
       </c>
       <c r="K79" s="11">
         <f>_xll.qlRateHelperEarliestDate($E79,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L79" s="10">
         <f>_xll.qlRateHelperLatestDate($E79,Trigger)</f>
-        <v>42093</v>
+        <v>42101</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.2">
@@ -5811,11 +5726,11 @@
       </c>
       <c r="E80" s="7" t="str">
         <f>'1M_Swaps'!L16</f>
-        <v>USD_YC1MRH_12X1S#0003</v>
+        <v>USD_YC1MRH_12X1S#0001</v>
       </c>
       <c r="F80" s="6">
         <f>_xll.qlRateHelperQuoteValue($E80,Trigger)</f>
-        <v>1.8699999999999999E-3</v>
+        <v>1.8400000000000001E-3</v>
       </c>
       <c r="G80" s="6">
         <f>_xll.qlSwapRateHelperSpread($E80,Trigger)</f>
@@ -5832,11 +5747,11 @@
       </c>
       <c r="K80" s="4">
         <f>_xll.qlRateHelperEarliestDate($E80,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L80" s="3">
         <f>_xll.qlRateHelperLatestDate($E80,Trigger)</f>
-        <v>42124</v>
+        <v>42131</v>
       </c>
     </row>
     <row r="81" spans="2:14" x14ac:dyDescent="0.2">
@@ -7821,15 +7736,15 @@
       </c>
       <c r="E125" s="21" t="str">
         <f>'1M_SwapsFromBasis'!L6</f>
-        <v>USD_YC1MRH_AM1LBASIS1Y#0003</v>
+        <v>USD_YC1MRH_AM1LBASIS1Y#0001</v>
       </c>
       <c r="F125" s="20">
         <f>_xll.qlRateHelperQuoteValue($E125,Trigger)</f>
-        <v>2.6199999999999999E-3</v>
+        <v>2.5600000000000002E-3</v>
       </c>
       <c r="G125" s="20">
         <f>_xll.qlSwapRateHelperSpread($E125,Trigger)</f>
-        <v>7.5000000000000002E-4</v>
+        <v>7.2999999999999996E-4</v>
       </c>
       <c r="H125" s="19" t="b">
         <v>0</v>
@@ -7842,11 +7757,11 @@
       </c>
       <c r="K125" s="18">
         <f>_xll.qlRateHelperEarliestDate($E125,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L125" s="17">
         <f>_xll.qlRateHelperLatestDate($E125,Trigger)</f>
-        <v>42124</v>
+        <v>42131</v>
       </c>
     </row>
     <row r="126" spans="2:14" x14ac:dyDescent="0.2">
@@ -7863,7 +7778,7 @@
       </c>
       <c r="E126" s="14" t="str">
         <f>'1M_SwapsFromBasis'!L7</f>
-        <v>USD_YC1MRH_AM1LBASIS15M#0003</v>
+        <v>USD_YC1MRH_AM1LBASIS15M#0001</v>
       </c>
       <c r="F126" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E126,Trigger)</f>
@@ -7871,7 +7786,7 @@
       </c>
       <c r="G126" s="13">
         <f>_xll.qlSwapRateHelperSpread($E126,Trigger)</f>
-        <v>7.5729686115362483E-4</v>
+        <v>7.3311696721376331E-4</v>
       </c>
       <c r="H126" s="12" t="b">
         <v>0</v>
@@ -7884,11 +7799,11 @@
       </c>
       <c r="K126" s="11">
         <f>_xll.qlRateHelperEarliestDate($E126,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L126" s="10">
         <f>_xll.qlRateHelperLatestDate($E126,Trigger)</f>
-        <v>42215</v>
+        <v>42223</v>
       </c>
     </row>
     <row r="127" spans="2:14" x14ac:dyDescent="0.2">
@@ -7905,7 +7820,7 @@
       </c>
       <c r="E127" s="14" t="str">
         <f>'1M_SwapsFromBasis'!L8</f>
-        <v>USD_YC1MRH_AM1LBASIS18M#0003</v>
+        <v>USD_YC1MRH_AM1LBASIS18M#0001</v>
       </c>
       <c r="F127" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E127,Trigger)</f>
@@ -7913,7 +7828,7 @@
       </c>
       <c r="G127" s="13">
         <f>_xll.qlSwapRateHelperSpread($E127,Trigger)</f>
-        <v>7.6271872230724961E-4</v>
+        <v>7.352964344275267E-4</v>
       </c>
       <c r="H127" s="12" t="b">
         <v>0</v>
@@ -7926,11 +7841,11 @@
       </c>
       <c r="K127" s="11">
         <f>_xll.qlRateHelperEarliestDate($E127,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L127" s="10">
         <f>_xll.qlRateHelperLatestDate($E127,Trigger)</f>
-        <v>42307</v>
+        <v>42317</v>
       </c>
     </row>
     <row r="128" spans="2:14" x14ac:dyDescent="0.2">
@@ -7947,7 +7862,7 @@
       </c>
       <c r="E128" s="14" t="str">
         <f>'1M_SwapsFromBasis'!L9</f>
-        <v>USD_YC1MRH_AM1LBASIS21M#0003</v>
+        <v>USD_YC1MRH_AM1LBASIS21M#0001</v>
       </c>
       <c r="F128" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E128,Trigger)</f>
@@ -7955,7 +7870,7 @@
       </c>
       <c r="G128" s="13">
         <f>_xll.qlSwapRateHelperSpread($E128,Trigger)</f>
-        <v>7.6678122230724967E-4</v>
+        <v>7.3732768442752667E-4</v>
       </c>
       <c r="H128" s="12" t="b">
         <v>0</v>
@@ -7968,11 +7883,11 @@
       </c>
       <c r="K128" s="11">
         <f>_xll.qlRateHelperEarliestDate($E128,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L128" s="10">
         <f>_xll.qlRateHelperLatestDate($E128,Trigger)</f>
-        <v>42398</v>
+        <v>42408</v>
       </c>
     </row>
     <row r="129" spans="2:12" x14ac:dyDescent="0.2">
@@ -7989,15 +7904,15 @@
       </c>
       <c r="E129" s="14" t="str">
         <f>'1M_SwapsFromBasis'!L10</f>
-        <v>USD_YC1MRH_AM1LBASIS2Y#0003</v>
+        <v>USD_YC1MRH_AM1LBASIS2Y#0001</v>
       </c>
       <c r="F129" s="13">
         <f>_xll.qlRateHelperQuoteValue($E129,Trigger)</f>
-        <v>5.3700000000000006E-3</v>
+        <v>5.3100000000000005E-3</v>
       </c>
       <c r="G129" s="13">
         <f>_xll.qlSwapRateHelperSpread($E129,Trigger)</f>
-        <v>7.7000000000000007E-4</v>
+        <v>7.3999999999999999E-4</v>
       </c>
       <c r="H129" s="12" t="b">
         <v>1</v>
@@ -8010,11 +7925,11 @@
       </c>
       <c r="K129" s="11">
         <f>_xll.qlRateHelperEarliestDate($E129,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L129" s="10">
         <f>_xll.qlRateHelperLatestDate($E129,Trigger)</f>
-        <v>42489</v>
+        <v>42499</v>
       </c>
     </row>
     <row r="130" spans="2:12" x14ac:dyDescent="0.2">
@@ -8031,15 +7946,15 @@
       </c>
       <c r="E130" s="14" t="str">
         <f>'1M_SwapsFromBasis'!L11</f>
-        <v>USD_YC1MRH_AM1LBASIS3Y#0003</v>
+        <v>USD_YC1MRH_AM1LBASIS3Y#0001</v>
       </c>
       <c r="F130" s="13">
         <f>_xll.qlRateHelperQuoteValue($E130,Trigger)</f>
-        <v>9.92E-3</v>
+        <v>9.689999999999999E-3</v>
       </c>
       <c r="G130" s="13">
         <f>_xll.qlSwapRateHelperSpread($E130,Trigger)</f>
-        <v>7.7999999999999999E-4</v>
+        <v>7.5999999999999993E-4</v>
       </c>
       <c r="H130" s="12" t="b">
         <v>1</v>
@@ -8052,11 +7967,11 @@
       </c>
       <c r="K130" s="11">
         <f>_xll.qlRateHelperEarliestDate($E130,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L130" s="10">
         <f>_xll.qlRateHelperLatestDate($E130,Trigger)</f>
-        <v>42853</v>
+        <v>42863</v>
       </c>
     </row>
     <row r="131" spans="2:12" x14ac:dyDescent="0.2">
@@ -8073,15 +7988,15 @@
       </c>
       <c r="E131" s="14" t="str">
         <f>'1M_SwapsFromBasis'!L12</f>
-        <v>USD_YC1MRH_AM1LBASIS4Y#0003</v>
+        <v>USD_YC1MRH_AM1LBASIS4Y#0001</v>
       </c>
       <c r="F131" s="13">
         <f>_xll.qlRateHelperQuoteValue($E131,Trigger)</f>
-        <v>1.431E-2</v>
+        <v>1.387E-2</v>
       </c>
       <c r="G131" s="13">
         <f>_xll.qlSwapRateHelperSpread($E131,Trigger)</f>
-        <v>7.9000000000000001E-4</v>
+        <v>7.7999999999999999E-4</v>
       </c>
       <c r="H131" s="12" t="b">
         <v>1</v>
@@ -8094,11 +8009,11 @@
       </c>
       <c r="K131" s="11">
         <f>_xll.qlRateHelperEarliestDate($E131,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L131" s="10">
         <f>_xll.qlRateHelperLatestDate($E131,Trigger)</f>
-        <v>43220</v>
+        <v>43228</v>
       </c>
     </row>
     <row r="132" spans="2:12" x14ac:dyDescent="0.2">
@@ -8115,15 +8030,15 @@
       </c>
       <c r="E132" s="14" t="str">
         <f>'1M_SwapsFromBasis'!L13</f>
-        <v>USD_YC1MRH_AM1LBASIS5Y#0003</v>
+        <v>USD_YC1MRH_AM1LBASIS5Y#0001</v>
       </c>
       <c r="F132" s="13">
         <f>_xll.qlRateHelperQuoteValue($E132,Trigger)</f>
-        <v>1.7950000000000001E-2</v>
+        <v>1.736E-2</v>
       </c>
       <c r="G132" s="13">
         <f>_xll.qlSwapRateHelperSpread($E132,Trigger)</f>
-        <v>8.0000000000000004E-4</v>
+        <v>7.9000000000000001E-4</v>
       </c>
       <c r="H132" s="12" t="b">
         <v>1</v>
@@ -8136,11 +8051,11 @@
       </c>
       <c r="K132" s="11">
         <f>_xll.qlRateHelperEarliestDate($E132,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L132" s="10">
         <f>_xll.qlRateHelperLatestDate($E132,Trigger)</f>
-        <v>43585</v>
+        <v>43592</v>
       </c>
     </row>
     <row r="133" spans="2:12" x14ac:dyDescent="0.2">
@@ -8157,15 +8072,15 @@
       </c>
       <c r="E133" s="14" t="str">
         <f>'1M_SwapsFromBasis'!L14</f>
-        <v>USD_YC1MRH_AM1LBASIS6Y#0003</v>
+        <v>USD_YC1MRH_AM1LBASIS6Y#0001</v>
       </c>
       <c r="F133" s="13">
         <f>_xll.qlRateHelperQuoteValue($E133,Trigger)</f>
-        <v>2.0840000000000001E-2</v>
+        <v>2.0220000000000002E-2</v>
       </c>
       <c r="G133" s="13">
         <f>_xll.qlSwapRateHelperSpread($E133,Trigger)</f>
-        <v>7.9000000000000001E-4</v>
+        <v>7.7999999999999999E-4</v>
       </c>
       <c r="H133" s="12" t="b">
         <v>1</v>
@@ -8178,11 +8093,11 @@
       </c>
       <c r="K133" s="11">
         <f>_xll.qlRateHelperEarliestDate($E133,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L133" s="10">
         <f>_xll.qlRateHelperLatestDate($E133,Trigger)</f>
-        <v>43951</v>
+        <v>43958</v>
       </c>
     </row>
     <row r="134" spans="2:12" x14ac:dyDescent="0.2">
@@ -8199,15 +8114,15 @@
       </c>
       <c r="E134" s="14" t="str">
         <f>'1M_SwapsFromBasis'!L15</f>
-        <v>USD_YC1MRH_AM1LBASIS7Y#0003</v>
+        <v>USD_YC1MRH_AM1LBASIS7Y#0001</v>
       </c>
       <c r="F134" s="13">
         <f>_xll.qlRateHelperQuoteValue($E134,Trigger)</f>
-        <v>2.3109999999999999E-2</v>
+        <v>2.2550000000000001E-2</v>
       </c>
       <c r="G134" s="13">
         <f>_xll.qlSwapRateHelperSpread($E134,Trigger)</f>
-        <v>7.7000000000000007E-4</v>
+        <v>7.5999999999999993E-4</v>
       </c>
       <c r="H134" s="12" t="b">
         <v>1</v>
@@ -8220,11 +8135,11 @@
       </c>
       <c r="K134" s="11">
         <f>_xll.qlRateHelperEarliestDate($E134,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L134" s="10">
         <f>_xll.qlRateHelperLatestDate($E134,Trigger)</f>
-        <v>44316</v>
+        <v>44323</v>
       </c>
     </row>
     <row r="135" spans="2:12" x14ac:dyDescent="0.2">
@@ -8241,11 +8156,11 @@
       </c>
       <c r="E135" s="14" t="str">
         <f>'1M_SwapsFromBasis'!L16</f>
-        <v>USD_YC1MRH_AM1LBASIS8Y#0003</v>
+        <v>USD_YC1MRH_AM1LBASIS8Y#0001</v>
       </c>
       <c r="F135" s="13">
         <f>_xll.qlRateHelperQuoteValue($E135,Trigger)</f>
-        <v>2.4920000000000001E-2</v>
+        <v>2.443E-2</v>
       </c>
       <c r="G135" s="13">
         <f>_xll.qlSwapRateHelperSpread($E135,Trigger)</f>
@@ -8262,11 +8177,11 @@
       </c>
       <c r="K135" s="11">
         <f>_xll.qlRateHelperEarliestDate($E135,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L135" s="10">
         <f>_xll.qlRateHelperLatestDate($E135,Trigger)</f>
-        <v>44680</v>
+        <v>44690</v>
       </c>
     </row>
     <row r="136" spans="2:12" x14ac:dyDescent="0.2">
@@ -8283,15 +8198,15 @@
       </c>
       <c r="E136" s="14" t="str">
         <f>'1M_SwapsFromBasis'!L17</f>
-        <v>USD_YC1MRH_AM1LBASIS9Y#0003</v>
+        <v>USD_YC1MRH_AM1LBASIS9Y#0001</v>
       </c>
       <c r="F136" s="13">
         <f>_xll.qlRateHelperQuoteValue($E136,Trigger)</f>
-        <v>2.6409999999999999E-2</v>
+        <v>2.596E-2</v>
       </c>
       <c r="G136" s="13">
         <f>_xll.qlSwapRateHelperSpread($E136,Trigger)</f>
-        <v>6.9000000000000008E-4</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="H136" s="12" t="b">
         <v>1</v>
@@ -8304,11 +8219,11 @@
       </c>
       <c r="K136" s="11">
         <f>_xll.qlRateHelperEarliestDate($E136,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L136" s="10">
         <f>_xll.qlRateHelperLatestDate($E136,Trigger)</f>
-        <v>45044</v>
+        <v>45054</v>
       </c>
     </row>
     <row r="137" spans="2:12" x14ac:dyDescent="0.2">
@@ -8325,11 +8240,11 @@
       </c>
       <c r="E137" s="14" t="str">
         <f>'1M_SwapsFromBasis'!L18</f>
-        <v>USD_YC1MRH_AM1LBASIS10Y#0003</v>
+        <v>USD_YC1MRH_AM1LBASIS10Y#0001</v>
       </c>
       <c r="F137" s="13">
         <f>_xll.qlRateHelperQuoteValue($E137,Trigger)</f>
-        <v>2.7660000000000001E-2</v>
+        <v>2.7229999999999997E-2</v>
       </c>
       <c r="G137" s="13">
         <f>_xll.qlSwapRateHelperSpread($E137,Trigger)</f>
@@ -8346,11 +8261,11 @@
       </c>
       <c r="K137" s="11">
         <f>_xll.qlRateHelperEarliestDate($E137,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L137" s="10">
         <f>_xll.qlRateHelperLatestDate($E137,Trigger)</f>
-        <v>45412</v>
+        <v>45419</v>
       </c>
     </row>
     <row r="138" spans="2:12" x14ac:dyDescent="0.2">
@@ -8367,7 +8282,7 @@
       </c>
       <c r="E138" s="14" t="str">
         <f>'1M_SwapsFromBasis'!L19</f>
-        <v>USD_YC1MRH_AM1LBASIS11Y#0003</v>
+        <v>USD_YC1MRH_AM1LBASIS11Y#0001</v>
       </c>
       <c r="F138" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E138,Trigger)</f>
@@ -8375,7 +8290,7 @@
       </c>
       <c r="G138" s="13">
         <f>_xll.qlSwapRateHelperSpread($E138,Trigger)</f>
-        <v>6.2954201605593129E-4</v>
+        <v>6.3061835717770581E-4</v>
       </c>
       <c r="H138" s="12" t="b">
         <v>0</v>
@@ -8388,11 +8303,11 @@
       </c>
       <c r="K138" s="11">
         <f>_xll.qlRateHelperEarliestDate($E138,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L138" s="10">
         <f>_xll.qlRateHelperLatestDate($E138,Trigger)</f>
-        <v>45777</v>
+        <v>45784</v>
       </c>
     </row>
     <row r="139" spans="2:12" x14ac:dyDescent="0.2">
@@ -8409,15 +8324,15 @@
       </c>
       <c r="E139" s="14" t="str">
         <f>'1M_SwapsFromBasis'!L20</f>
-        <v>USD_YC1MRH_AM1LBASIS12Y#0003</v>
+        <v>USD_YC1MRH_AM1LBASIS12Y#0001</v>
       </c>
       <c r="F139" s="13">
         <f>_xll.qlRateHelperQuoteValue($E139,Trigger)</f>
-        <v>2.9649999999999999E-2</v>
+        <v>2.9239999999999999E-2</v>
       </c>
       <c r="G139" s="13">
         <f>_xll.qlSwapRateHelperSpread($E139,Trigger)</f>
-        <v>5.9999999999999995E-4</v>
+        <v>6.0999999999999997E-4</v>
       </c>
       <c r="H139" s="12" t="b">
         <v>1</v>
@@ -8430,11 +8345,11 @@
       </c>
       <c r="K139" s="11">
         <f>_xll.qlRateHelperEarliestDate($E139,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L139" s="10">
         <f>_xll.qlRateHelperLatestDate($E139,Trigger)</f>
-        <v>46142</v>
+        <v>46149</v>
       </c>
     </row>
     <row r="140" spans="2:12" x14ac:dyDescent="0.2">
@@ -8451,7 +8366,7 @@
       </c>
       <c r="E140" s="14" t="str">
         <f>'1M_SwapsFromBasis'!L21</f>
-        <v>USD_YC1MRH_AM1LBASIS13Y#0003</v>
+        <v>USD_YC1MRH_AM1LBASIS13Y#0001</v>
       </c>
       <c r="F140" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E140,Trigger)</f>
@@ -8459,7 +8374,7 @@
       </c>
       <c r="G140" s="13">
         <f>_xll.qlSwapRateHelperSpread($E140,Trigger)</f>
-        <v>5.757726332874083E-4</v>
+        <v>5.8963438572116813E-4</v>
       </c>
       <c r="H140" s="12" t="b">
         <v>0</v>
@@ -8472,11 +8387,11 @@
       </c>
       <c r="K140" s="11">
         <f>_xll.qlRateHelperEarliestDate($E140,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L140" s="10">
         <f>_xll.qlRateHelperLatestDate($E140,Trigger)</f>
-        <v>46507</v>
+        <v>46514</v>
       </c>
     </row>
     <row r="141" spans="2:12" x14ac:dyDescent="0.2">
@@ -8493,7 +8408,7 @@
       </c>
       <c r="E141" s="14" t="str">
         <f>'1M_SwapsFromBasis'!L22</f>
-        <v>USD_YC1MRH_AM1LBASIS14Y#0003</v>
+        <v>USD_YC1MRH_AM1LBASIS14Y#0001</v>
       </c>
       <c r="F141" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E141,Trigger)</f>
@@ -8501,7 +8416,7 @@
       </c>
       <c r="G141" s="13">
         <f>_xll.qlSwapRateHelperSpread($E141,Trigger)</f>
-        <v>5.5635116826440476E-4</v>
+        <v>5.6910056809496203E-4</v>
       </c>
       <c r="H141" s="12" t="b">
         <v>0</v>
@@ -8514,11 +8429,11 @@
       </c>
       <c r="K141" s="11">
         <f>_xll.qlRateHelperEarliestDate($E141,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L141" s="10">
         <f>_xll.qlRateHelperLatestDate($E141,Trigger)</f>
-        <v>46871</v>
+        <v>46881</v>
       </c>
     </row>
     <row r="142" spans="2:12" x14ac:dyDescent="0.2">
@@ -8535,15 +8450,15 @@
       </c>
       <c r="E142" s="14" t="str">
         <f>'1M_SwapsFromBasis'!L23</f>
-        <v>USD_YC1MRH_AM1LBASIS15Y#0003</v>
+        <v>USD_YC1MRH_AM1LBASIS15Y#0001</v>
       </c>
       <c r="F142" s="13">
         <f>_xll.qlRateHelperQuoteValue($E142,Trigger)</f>
-        <v>3.1539999999999999E-2</v>
+        <v>3.1219999999999998E-2</v>
       </c>
       <c r="G142" s="13">
         <f>_xll.qlSwapRateHelperSpread($E142,Trigger)</f>
-        <v>5.4000000000000001E-4</v>
+        <v>5.5000000000000003E-4</v>
       </c>
       <c r="H142" s="12" t="b">
         <v>1</v>
@@ -8556,11 +8471,11 @@
       </c>
       <c r="K142" s="11">
         <f>_xll.qlRateHelperEarliestDate($E142,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L142" s="10">
         <f>_xll.qlRateHelperLatestDate($E142,Trigger)</f>
-        <v>47238</v>
+        <v>47246</v>
       </c>
     </row>
     <row r="143" spans="2:12" x14ac:dyDescent="0.2">
@@ -8577,7 +8492,7 @@
       </c>
       <c r="E143" s="14" t="str">
         <f>'1M_SwapsFromBasis'!L24</f>
-        <v>USD_YC1MRH_AM1LBASIS16Y#0003</v>
+        <v>USD_YC1MRH_AM1LBASIS16Y#0001</v>
       </c>
       <c r="F143" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E143,Trigger)</f>
@@ -8585,7 +8500,7 @@
       </c>
       <c r="G143" s="13">
         <f>_xll.qlSwapRateHelperSpread($E143,Trigger)</f>
-        <v>5.2527510406342581E-4</v>
+        <v>5.335977602889361E-4</v>
       </c>
       <c r="H143" s="12" t="b">
         <v>0</v>
@@ -8598,11 +8513,11 @@
       </c>
       <c r="K143" s="11">
         <f>_xll.qlRateHelperEarliestDate($E143,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L143" s="10">
         <f>_xll.qlRateHelperLatestDate($E143,Trigger)</f>
-        <v>47603</v>
+        <v>47610</v>
       </c>
     </row>
     <row r="144" spans="2:12" x14ac:dyDescent="0.2">
@@ -8619,7 +8534,7 @@
       </c>
       <c r="E144" s="14" t="str">
         <f>'1M_SwapsFromBasis'!L25</f>
-        <v>USD_YC1MRH_AM1LBASIS17Y#0003</v>
+        <v>USD_YC1MRH_AM1LBASIS17Y#0001</v>
       </c>
       <c r="F144" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E144,Trigger)</f>
@@ -8627,7 +8542,7 @@
       </c>
       <c r="G144" s="13">
         <f>_xll.qlSwapRateHelperSpread($E144,Trigger)</f>
-        <v>5.1189877802479953E-4</v>
+        <v>5.1981343171056925E-4</v>
       </c>
       <c r="H144" s="12" t="b">
         <v>0</v>
@@ -8640,11 +8555,11 @@
       </c>
       <c r="K144" s="11">
         <f>_xll.qlRateHelperEarliestDate($E144,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L144" s="10">
         <f>_xll.qlRateHelperLatestDate($E144,Trigger)</f>
-        <v>47968</v>
+        <v>47975</v>
       </c>
     </row>
     <row r="145" spans="2:12" x14ac:dyDescent="0.2">
@@ -8661,7 +8576,7 @@
       </c>
       <c r="E145" s="14" t="str">
         <f>'1M_SwapsFromBasis'!L26</f>
-        <v>USD_YC1MRH_AM1LBASIS18Y#0003</v>
+        <v>USD_YC1MRH_AM1LBASIS18Y#0001</v>
       </c>
       <c r="F145" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E145,Trigger)</f>
@@ -8669,7 +8584,7 @@
       </c>
       <c r="G145" s="13">
         <f>_xll.qlSwapRateHelperSpread($E145,Trigger)</f>
-        <v>4.9988489995446048E-4</v>
+        <v>5.0823022298773432E-4</v>
       </c>
       <c r="H145" s="12" t="b">
         <v>0</v>
@@ -8682,11 +8597,11 @@
       </c>
       <c r="K145" s="11">
         <f>_xll.qlRateHelperEarliestDate($E145,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L145" s="10">
         <f>_xll.qlRateHelperLatestDate($E145,Trigger)</f>
-        <v>48334</v>
+        <v>48341</v>
       </c>
     </row>
     <row r="146" spans="2:12" x14ac:dyDescent="0.2">
@@ -8703,7 +8618,7 @@
       </c>
       <c r="E146" s="14" t="str">
         <f>'1M_SwapsFromBasis'!L27</f>
-        <v>USD_YC1MRH_AM1LBASIS19Y#0003</v>
+        <v>USD_YC1MRH_AM1LBASIS19Y#0001</v>
       </c>
       <c r="F146" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E146,Trigger)</f>
@@ -8711,7 +8626,7 @@
       </c>
       <c r="G146" s="13">
         <f>_xll.qlSwapRateHelperSpread($E146,Trigger)</f>
-        <v>4.8924734792274763E-4</v>
+        <v>4.9843134284326617E-4</v>
       </c>
       <c r="H146" s="12" t="b">
         <v>0</v>
@@ -8724,11 +8639,11 @@
       </c>
       <c r="K146" s="11">
         <f>_xll.qlRateHelperEarliestDate($E146,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L146" s="10">
         <f>_xll.qlRateHelperLatestDate($E146,Trigger)</f>
-        <v>48698</v>
+        <v>48708</v>
       </c>
     </row>
     <row r="147" spans="2:12" x14ac:dyDescent="0.2">
@@ -8745,15 +8660,15 @@
       </c>
       <c r="E147" s="14" t="str">
         <f>'1M_SwapsFromBasis'!L28</f>
-        <v>USD_YC1MRH_AM1LBASIS20Y#0003</v>
+        <v>USD_YC1MRH_AM1LBASIS20Y#0001</v>
       </c>
       <c r="F147" s="13">
         <f>_xll.qlRateHelperQuoteValue($E147,Trigger)</f>
-        <v>3.32E-2</v>
+        <v>3.2930000000000001E-2</v>
       </c>
       <c r="G147" s="13">
         <f>_xll.qlSwapRateHelperSpread($E147,Trigger)</f>
-        <v>4.7999999999999996E-4</v>
+        <v>4.8999999999999998E-4</v>
       </c>
       <c r="H147" s="12" t="b">
         <v>1</v>
@@ -8766,11 +8681,11 @@
       </c>
       <c r="K147" s="11">
         <f>_xll.qlRateHelperEarliestDate($E147,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L147" s="10">
         <f>_xll.qlRateHelperLatestDate($E147,Trigger)</f>
-        <v>49062</v>
+        <v>49072</v>
       </c>
     </row>
     <row r="148" spans="2:12" x14ac:dyDescent="0.2">
@@ -8787,7 +8702,7 @@
       </c>
       <c r="E148" s="14" t="str">
         <f>'1M_SwapsFromBasis'!L29</f>
-        <v>USD_YC1MRH_AM1LBASIS21Y#0003</v>
+        <v>USD_YC1MRH_AM1LBASIS21Y#0001</v>
       </c>
       <c r="F148" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E148,Trigger)</f>
@@ -8795,7 +8710,7 @@
       </c>
       <c r="G148" s="13">
         <f>_xll.qlSwapRateHelperSpread($E148,Trigger)</f>
-        <v>4.7211591782069575E-4</v>
+        <v>4.8256925397596327E-4</v>
       </c>
       <c r="H148" s="12" t="b">
         <v>0</v>
@@ -8808,11 +8723,11 @@
       </c>
       <c r="K148" s="11">
         <f>_xll.qlRateHelperEarliestDate($E148,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L148" s="10">
         <f>_xll.qlRateHelperLatestDate($E148,Trigger)</f>
-        <v>49429</v>
+        <v>49437</v>
       </c>
     </row>
     <row r="149" spans="2:12" x14ac:dyDescent="0.2">
@@ -8829,7 +8744,7 @@
       </c>
       <c r="E149" s="14" t="str">
         <f>'1M_SwapsFromBasis'!L30</f>
-        <v>USD_YC1MRH_AM1LBASIS22Y#0003</v>
+        <v>USD_YC1MRH_AM1LBASIS22Y#0001</v>
       </c>
       <c r="F149" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E149,Trigger)</f>
@@ -8837,7 +8752,7 @@
       </c>
       <c r="G149" s="13">
         <f>_xll.qlSwapRateHelperSpread($E149,Trigger)</f>
-        <v>4.654048972758697E-4</v>
+        <v>4.7597156746995406E-4</v>
       </c>
       <c r="H149" s="12" t="b">
         <v>0</v>
@@ -8850,11 +8765,11 @@
       </c>
       <c r="K149" s="11">
         <f>_xll.qlRateHelperEarliestDate($E149,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L149" s="10">
         <f>_xll.qlRateHelperLatestDate($E149,Trigger)</f>
-        <v>49795</v>
+        <v>49802</v>
       </c>
     </row>
     <row r="150" spans="2:12" x14ac:dyDescent="0.2">
@@ -8871,7 +8786,7 @@
       </c>
       <c r="E150" s="14" t="str">
         <f>'1M_SwapsFromBasis'!L31</f>
-        <v>USD_YC1MRH_AM1LBASIS23Y#0003</v>
+        <v>USD_YC1MRH_AM1LBASIS23Y#0001</v>
       </c>
       <c r="F150" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E150,Trigger)</f>
@@ -8879,7 +8794,7 @@
       </c>
       <c r="G150" s="13">
         <f>_xll.qlSwapRateHelperSpread($E150,Trigger)</f>
-        <v>4.5963591782069571E-4</v>
+        <v>4.7008925397596323E-4</v>
       </c>
       <c r="H150" s="12" t="b">
         <v>0</v>
@@ -8892,11 +8807,11 @@
       </c>
       <c r="K150" s="11">
         <f>_xll.qlRateHelperEarliestDate($E150,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L150" s="10">
         <f>_xll.qlRateHelperLatestDate($E150,Trigger)</f>
-        <v>50160</v>
+        <v>50167</v>
       </c>
     </row>
     <row r="151" spans="2:12" x14ac:dyDescent="0.2">
@@ -8913,7 +8828,7 @@
       </c>
       <c r="E151" s="14" t="str">
         <f>'1M_SwapsFromBasis'!L32</f>
-        <v>USD_YC1MRH_AM1LBASIS24Y#0003</v>
+        <v>USD_YC1MRH_AM1LBASIS24Y#0001</v>
       </c>
       <c r="F151" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E151,Trigger)</f>
@@ -8921,7 +8836,7 @@
       </c>
       <c r="G151" s="13">
         <f>_xll.qlSwapRateHelperSpread($E151,Trigger)</f>
-        <v>4.5457795891034784E-4</v>
+        <v>4.6480462698798164E-4</v>
       </c>
       <c r="H151" s="12" t="b">
         <v>0</v>
@@ -8934,11 +8849,11 @@
       </c>
       <c r="K151" s="11">
         <f>_xll.qlRateHelperEarliestDate($E151,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L151" s="10">
         <f>_xll.qlRateHelperLatestDate($E151,Trigger)</f>
-        <v>50525</v>
+        <v>50532</v>
       </c>
     </row>
     <row r="152" spans="2:12" x14ac:dyDescent="0.2">
@@ -8955,15 +8870,15 @@
       </c>
       <c r="E152" s="14" t="str">
         <f>'1M_SwapsFromBasis'!L33</f>
-        <v>USD_YC1MRH_AM1LBASIS25Y#0003</v>
+        <v>USD_YC1MRH_AM1LBASIS25Y#0001</v>
       </c>
       <c r="F152" s="13">
         <f>_xll.qlRateHelperQuoteValue($E152,Trigger)</f>
-        <v>3.3919999999999999E-2</v>
+        <v>3.3689999999999998E-2</v>
       </c>
       <c r="G152" s="13">
         <f>_xll.qlSwapRateHelperSpread($E152,Trigger)</f>
-        <v>4.4999999999999999E-4</v>
+        <v>4.5999999999999996E-4</v>
       </c>
       <c r="H152" s="12" t="b">
         <v>1</v>
@@ -8976,11 +8891,11 @@
       </c>
       <c r="K152" s="11">
         <f>_xll.qlRateHelperEarliestDate($E152,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L152" s="10">
         <f>_xll.qlRateHelperLatestDate($E152,Trigger)</f>
-        <v>50889</v>
+        <v>50899</v>
       </c>
     </row>
     <row r="153" spans="2:12" x14ac:dyDescent="0.2">
@@ -8997,7 +8912,7 @@
       </c>
       <c r="E153" s="14" t="str">
         <f>'1M_SwapsFromBasis'!L34</f>
-        <v>USD_YC1MRH_AM1LBASIS26Y#0003</v>
+        <v>USD_YC1MRH_AM1LBASIS26Y#0001</v>
       </c>
       <c r="F153" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E153,Trigger)</f>
@@ -9005,7 +8920,7 @@
       </c>
       <c r="G153" s="13">
         <f>_xll.qlSwapRateHelperSpread($E153,Trigger)</f>
-        <v>4.4570122465379124E-4</v>
+        <v>4.55565223807211E-4</v>
       </c>
       <c r="H153" s="12" t="b">
         <v>0</v>
@@ -9018,11 +8933,11 @@
       </c>
       <c r="K153" s="11">
         <f>_xll.qlRateHelperEarliestDate($E153,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L153" s="10">
         <f>_xll.qlRateHelperLatestDate($E153,Trigger)</f>
-        <v>51256</v>
+        <v>51264</v>
       </c>
     </row>
     <row r="154" spans="2:12" x14ac:dyDescent="0.2">
@@ -9039,7 +8954,7 @@
       </c>
       <c r="E154" s="14" t="str">
         <f>'1M_SwapsFromBasis'!L35</f>
-        <v>USD_YC1MRH_AM1LBASIS27Y#0003</v>
+        <v>USD_YC1MRH_AM1LBASIS27Y#0001</v>
       </c>
       <c r="F154" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E154,Trigger)</f>
@@ -9047,7 +8962,7 @@
       </c>
       <c r="G154" s="13">
         <f>_xll.qlSwapRateHelperSpread($E154,Trigger)</f>
-        <v>4.4160163287172168E-4</v>
+        <v>4.5142029840961468E-4</v>
       </c>
       <c r="H154" s="12" t="b">
         <v>0</v>
@@ -9060,11 +8975,11 @@
       </c>
       <c r="K154" s="11">
         <f>_xll.qlRateHelperEarliestDate($E154,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L154" s="10">
         <f>_xll.qlRateHelperLatestDate($E154,Trigger)</f>
-        <v>51621</v>
+        <v>51628</v>
       </c>
     </row>
     <row r="155" spans="2:12" x14ac:dyDescent="0.2">
@@ -9081,7 +8996,7 @@
       </c>
       <c r="E155" s="14" t="str">
         <f>'1M_SwapsFromBasis'!L36</f>
-        <v>USD_YC1MRH_AM1LBASIS28Y#0003</v>
+        <v>USD_YC1MRH_AM1LBASIS28Y#0001</v>
       </c>
       <c r="F155" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E155,Trigger)</f>
@@ -9089,7 +9004,7 @@
       </c>
       <c r="G155" s="13">
         <f>_xll.qlSwapRateHelperSpread($E155,Trigger)</f>
-        <v>4.3765142876275647E-4</v>
+        <v>4.474927611084128E-4</v>
       </c>
       <c r="H155" s="12" t="b">
         <v>0</v>
@@ -9102,11 +9017,11 @@
       </c>
       <c r="K155" s="11">
         <f>_xll.qlRateHelperEarliestDate($E155,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L155" s="10">
         <f>_xll.qlRateHelperLatestDate($E155,Trigger)</f>
-        <v>51986</v>
+        <v>51993</v>
       </c>
     </row>
     <row r="156" spans="2:12" x14ac:dyDescent="0.2">
@@ -9123,7 +9038,7 @@
       </c>
       <c r="E156" s="14" t="str">
         <f>'1M_SwapsFromBasis'!L37</f>
-        <v>USD_YC1MRH_AM1LBASIS29Y#0003</v>
+        <v>USD_YC1MRH_AM1LBASIS29Y#0001</v>
       </c>
       <c r="F156" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E156,Trigger)</f>
@@ -9131,7 +9046,7 @@
       </c>
       <c r="G156" s="13">
         <f>_xll.qlSwapRateHelperSpread($E156,Trigger)</f>
-        <v>4.3380081643586089E-4</v>
+        <v>4.4371014920480736E-4</v>
       </c>
       <c r="H156" s="12" t="b">
         <v>0</v>
@@ -9144,11 +9059,11 @@
       </c>
       <c r="K156" s="11">
         <f>_xll.qlRateHelperEarliestDate($E156,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L156" s="10">
         <f>_xll.qlRateHelperLatestDate($E156,Trigger)</f>
-        <v>52351</v>
+        <v>52358</v>
       </c>
     </row>
     <row r="157" spans="2:12" x14ac:dyDescent="0.2">
@@ -9165,15 +9080,15 @@
       </c>
       <c r="E157" s="14" t="str">
         <f>'1M_SwapsFromBasis'!L38</f>
-        <v>USD_YC1MRH_AM1LBASIS30Y#0003</v>
+        <v>USD_YC1MRH_AM1LBASIS30Y#0001</v>
       </c>
       <c r="F157" s="13">
         <f>_xll.qlRateHelperQuoteValue($E157,Trigger)</f>
-        <v>3.422E-2</v>
+        <v>3.4040000000000001E-2</v>
       </c>
       <c r="G157" s="13">
         <f>_xll.qlSwapRateHelperSpread($E157,Trigger)</f>
-        <v>4.2999999999999999E-4</v>
+        <v>4.4000000000000002E-4</v>
       </c>
       <c r="H157" s="12" t="b">
         <v>1</v>
@@ -9186,11 +9101,11 @@
       </c>
       <c r="K157" s="11">
         <f>_xll.qlRateHelperEarliestDate($E157,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L157" s="10">
         <f>_xll.qlRateHelperLatestDate($E157,Trigger)</f>
-        <v>52716</v>
+        <v>52726</v>
       </c>
     </row>
     <row r="158" spans="2:12" x14ac:dyDescent="0.2">
@@ -9207,7 +9122,7 @@
       </c>
       <c r="E158" s="14" t="str">
         <f>'1M_SwapsFromBasis'!L39</f>
-        <v>USD_YC1MRH_AM1LBASIS35Y#0003</v>
+        <v>USD_YC1MRH_AM1LBASIS35Y#0001</v>
       </c>
       <c r="F158" s="13" t="e">
         <f>_xll.qlRateHelperQuoteValue($E158,Trigger)</f>
@@ -9215,7 +9130,7 @@
       </c>
       <c r="G158" s="13">
         <f>_xll.qlSwapRateHelperSpread($E158,Trigger)</f>
-        <v>4.2999999999999999E-4</v>
+        <v>4.4000000000000002E-4</v>
       </c>
       <c r="H158" s="12" t="b">
         <v>0</v>
@@ -9228,11 +9143,11 @@
       </c>
       <c r="K158" s="11">
         <f>_xll.qlRateHelperEarliestDate($E158,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L158" s="10">
         <f>_xll.qlRateHelperLatestDate($E158,Trigger)</f>
-        <v>54543</v>
+        <v>54550</v>
       </c>
     </row>
     <row r="159" spans="2:12" x14ac:dyDescent="0.2">
@@ -9249,15 +9164,15 @@
       </c>
       <c r="E159" s="14" t="str">
         <f>'1M_SwapsFromBasis'!L40</f>
-        <v>USD_YC1MRH_AM1LBASIS40Y#0003</v>
+        <v>USD_YC1MRH_AM1LBASIS40Y#0001</v>
       </c>
       <c r="F159" s="13">
         <f>_xll.qlRateHelperQuoteValue($E159,Trigger)</f>
-        <v>3.4390000000000004E-2</v>
+        <v>3.4230000000000003E-2</v>
       </c>
       <c r="G159" s="13">
         <f>_xll.qlSwapRateHelperSpread($E159,Trigger)</f>
-        <v>4.2999999999999999E-4</v>
+        <v>4.4000000000000002E-4</v>
       </c>
       <c r="H159" s="12" t="b">
         <v>1</v>
@@ -9270,11 +9185,11 @@
       </c>
       <c r="K159" s="11">
         <f>_xll.qlRateHelperEarliestDate($E159,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L159" s="10">
         <f>_xll.qlRateHelperLatestDate($E159,Trigger)</f>
-        <v>56369</v>
+        <v>56376</v>
       </c>
     </row>
     <row r="160" spans="2:12" x14ac:dyDescent="0.2">
@@ -9291,15 +9206,15 @@
       </c>
       <c r="E160" s="14" t="str">
         <f>'1M_SwapsFromBasis'!L41</f>
-        <v>USD_YC1MRH_AM1LBASIS50Y#0003</v>
+        <v>USD_YC1MRH_AM1LBASIS50Y#0001</v>
       </c>
       <c r="F160" s="13">
         <f>_xll.qlRateHelperQuoteValue($E160,Trigger)</f>
-        <v>3.422E-2</v>
+        <v>3.4040000000000001E-2</v>
       </c>
       <c r="G160" s="13">
         <f>_xll.qlSwapRateHelperSpread($E160,Trigger)</f>
-        <v>4.2999999999999999E-4</v>
+        <v>4.4000000000000002E-4</v>
       </c>
       <c r="H160" s="12" t="b">
         <v>1</v>
@@ -9312,11 +9227,11 @@
       </c>
       <c r="K160" s="11">
         <f>_xll.qlRateHelperEarliestDate($E160,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L160" s="10">
         <f>_xll.qlRateHelperLatestDate($E160,Trigger)</f>
-        <v>60022</v>
+        <v>60029</v>
       </c>
     </row>
     <row r="161" spans="2:12" x14ac:dyDescent="0.2">
@@ -9333,7 +9248,7 @@
       </c>
       <c r="E161" s="7" t="str">
         <f>'1M_SwapsFromBasis'!L42</f>
-        <v>USD_YC1MRH_AM1LBASIS60Y#0003</v>
+        <v>USD_YC1MRH_AM1LBASIS60Y#0001</v>
       </c>
       <c r="F161" s="6" t="e">
         <f>_xll.qlRateHelperQuoteValue($E161,Trigger)</f>
@@ -9341,7 +9256,7 @@
       </c>
       <c r="G161" s="6">
         <f>_xll.qlSwapRateHelperSpread($E161,Trigger)</f>
-        <v>4.2999999999999999E-4</v>
+        <v>4.4000000000000002E-4</v>
       </c>
       <c r="H161" s="5" t="b">
         <v>0</v>
@@ -9354,11 +9269,11 @@
       </c>
       <c r="K161" s="4">
         <f>_xll.qlRateHelperEarliestDate($E161,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L161" s="3">
         <f>_xll.qlRateHelperLatestDate($E161,Trigger)</f>
-        <v>63674</v>
+        <v>63682</v>
       </c>
     </row>
   </sheetData>
@@ -9375,7 +9290,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:L126"/>
+  <dimension ref="A1:I126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
@@ -9384,19 +9299,17 @@
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="36.85546875" style="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26" style="32" customWidth="1"/>
+    <col min="2" max="2" width="9" style="32" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.28515625" style="32" customWidth="1"/>
     <col min="4" max="4" width="24.42578125" style="33" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" style="33" customWidth="1"/>
     <col min="6" max="6" width="8" style="33" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="17.28515625" style="33" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" style="32" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="32"/>
-    <col min="11" max="11" width="24.42578125" style="32" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="32"/>
+    <col min="10" max="16384" width="9.140625" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="176" t="s">
         <v>71</v>
       </c>
@@ -9419,7 +9332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="50" t="s">
         <v>68</v>
       </c>
@@ -9432,7 +9345,7 @@
       </c>
       <c r="E2" s="41">
         <f>_xll.qlRateHelperRate($D2)</f>
-        <v>1.6130000000000001E-3</v>
+        <v>1.519E-3</v>
       </c>
       <c r="F2" s="41" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D2)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D2)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D2)),_xll.qlSwapRateHelperSpread($D2))</f>
@@ -9440,23 +9353,17 @@
       </c>
       <c r="G2" s="40">
         <f>_xll.qlRateHelperEarliestDate($D2)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="H2" s="39">
         <f>_xll.qlRateHelperLatestDate($D2)</f>
-        <v>41766</v>
+        <v>41773</v>
       </c>
       <c r="I2" s="34">
-        <v>0.99993612654787711</v>
-      </c>
-      <c r="K2" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="L2" s="90">
-        <v>1.939E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0.99994142766641969</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="46" t="s">
         <v>67</v>
       </c>
@@ -9468,7 +9375,7 @@
       </c>
       <c r="E3" s="41">
         <f>_xll.qlRateHelperRate($D3)</f>
-        <v>1.5200000000000001E-3</v>
+        <v>1.505E-3</v>
       </c>
       <c r="F3" s="41" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D3)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D3)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D3)),_xll.qlSwapRateHelperSpread($D3))</f>
@@ -9476,23 +9383,17 @@
       </c>
       <c r="G3" s="40">
         <f>_xll.qlRateHelperEarliestDate($D3)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="H3" s="39">
         <f>_xll.qlRateHelperLatestDate($D3)</f>
-        <v>41789</v>
+        <v>41799</v>
       </c>
       <c r="I3" s="34">
-        <v>0.99986473521378705</v>
-      </c>
-      <c r="K3" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="L3" s="90">
-        <v>1.923E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0.99981453271266385</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="46" t="s">
         <v>66</v>
       </c>
@@ -9504,7 +9405,7 @@
       </c>
       <c r="E4" s="41">
         <f>_xll.qlRateHelperRate($D4)</f>
-        <v>1.5199999999999999E-3</v>
+        <v>1.5100000000000001E-3</v>
       </c>
       <c r="F4" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D4)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D4)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D4)),_xll.qlSwapRateHelperSpread($D4))</f>
@@ -9512,23 +9413,17 @@
       </c>
       <c r="G4" s="40">
         <f>_xll.qlRateHelperEarliestDate($D4)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="H4" s="39">
         <f>_xll.qlRateHelperLatestDate($D4)</f>
-        <v>41820</v>
+        <v>41827</v>
       </c>
       <c r="I4" s="34">
-        <v>0.99973371490001273</v>
-      </c>
-      <c r="K4" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="L4" s="90">
-        <v>1.915E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0.99972789461754619</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="46" t="s">
         <v>65</v>
       </c>
@@ -9540,7 +9435,7 @@
       </c>
       <c r="E5" s="41">
         <f>_xll.qlRateHelperRate($D5)</f>
-        <v>1.5299999999999999E-3</v>
+        <v>1.5100000000000001E-3</v>
       </c>
       <c r="F5" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D5)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D5)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D5)),_xll.qlSwapRateHelperSpread($D5))</f>
@@ -9548,23 +9443,17 @@
       </c>
       <c r="G5" s="40">
         <f>_xll.qlRateHelperEarliestDate($D5)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="H5" s="39">
         <f>_xll.qlRateHelperLatestDate($D5)</f>
-        <v>41850</v>
+        <v>41858</v>
       </c>
       <c r="I5" s="34">
-        <v>0.99960693739483286</v>
-      </c>
-      <c r="K5" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="L5" s="90">
-        <v>1.9300000000000001E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0.99960011310101904</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="46" t="s">
         <v>63</v>
       </c>
@@ -9577,7 +9466,7 @@
       </c>
       <c r="E6" s="41">
         <f>_xll.qlRateHelperRate($D6)</f>
-        <v>1.5499999999999999E-3</v>
+        <v>1.5100000000000001E-3</v>
       </c>
       <c r="F6" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D6)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D6)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D6)),_xll.qlSwapRateHelperSpread($D6))</f>
@@ -9585,26 +9474,20 @@
       </c>
       <c r="G6" s="40">
         <f>_xll.qlRateHelperEarliestDate($D6)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="H6" s="39">
         <f>_xll.qlRateHelperLatestDate($D6)</f>
-        <v>41880</v>
+        <v>41890</v>
       </c>
       <c r="I6" s="34">
-        <v>0.99948017596646987</v>
-      </c>
-      <c r="K6" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="L6" s="90">
-        <v>1.9499999999999999E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+        <v>0.99946822673140723</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="44" t="str">
         <f>_xll.ohGroup(RateHelperPrefix&amp;"_RateHelpersSelected",_xll.ohPack(Selected!D2:D126),TRUE,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_RateHelpersSelected#0008</v>
+        <v>USD_YC1MRH_RateHelpersSelected#0002</v>
       </c>
       <c r="B7" s="43" t="str">
         <f>_xll.ohRangeRetrieveError(RateHelpersSelected)</f>
@@ -9615,7 +9498,7 @@
       </c>
       <c r="E7" s="41">
         <f>_xll.qlRateHelperRate($D7)</f>
-        <v>1.57E-3</v>
+        <v>1.5100000000000001E-3</v>
       </c>
       <c r="F7" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D7)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D7)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D7)),_xll.qlSwapRateHelperSpread($D7))</f>
@@ -9623,29 +9506,23 @@
       </c>
       <c r="G7" s="40">
         <f>_xll.qlRateHelperEarliestDate($D7)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="H7" s="39">
         <f>_xll.qlRateHelperLatestDate($D7)</f>
-        <v>41912</v>
+        <v>41919</v>
       </c>
       <c r="I7" s="34">
-        <v>0.99929498149414331</v>
-      </c>
-      <c r="K7" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="L7" s="90">
-        <v>1.98E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0.99934871973943873</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D8" s="42" t="str">
         <v>USD_YC1MRH_6X1S</v>
       </c>
       <c r="E8" s="41">
         <f>_xll.qlRateHelperRate($D8)</f>
-        <v>1.5900000000000001E-3</v>
+        <v>1.5299999999999999E-3</v>
       </c>
       <c r="F8" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D8)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D8)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D8)),_xll.qlSwapRateHelperSpread($D8))</f>
@@ -9653,29 +9530,23 @@
       </c>
       <c r="G8" s="40">
         <f>_xll.qlRateHelperEarliestDate($D8)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="H8" s="39">
         <f>_xll.qlRateHelperLatestDate($D8)</f>
-        <v>41942</v>
+        <v>41950</v>
       </c>
       <c r="I8" s="34">
-        <v>0.99915858372207433</v>
-      </c>
-      <c r="K8" s="32" t="s">
-        <v>110</v>
-      </c>
-      <c r="L8" s="90">
-        <v>2.0200000000000001E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0.9991709866876396</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D9" s="42" t="str">
         <v>USD_YC1MRH_7X1S</v>
       </c>
       <c r="E9" s="41">
         <f>_xll.qlRateHelperRate($D9)</f>
-        <v>1.6100000000000001E-3</v>
+        <v>1.56E-3</v>
       </c>
       <c r="F9" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D9)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D9)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D9)),_xll.qlSwapRateHelperSpread($D9))</f>
@@ -9683,29 +9554,23 @@
       </c>
       <c r="G9" s="40">
         <f>_xll.qlRateHelperEarliestDate($D9)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="H9" s="39">
         <f>_xll.qlRateHelperLatestDate($D9)</f>
-        <v>41971</v>
+        <v>41981</v>
       </c>
       <c r="I9" s="34">
-        <v>0.99902675023938159</v>
-      </c>
-      <c r="K9" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="L9" s="90">
-        <v>2.0600000000000002E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0.99903507658186308</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D10" s="42" t="str">
         <v>USD_YC1MRH_8X1S</v>
       </c>
       <c r="E10" s="41">
         <f>_xll.qlRateHelperRate($D10)</f>
-        <v>1.64E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="F10" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D10)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D10)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D10)),_xll.qlSwapRateHelperSpread($D10))</f>
@@ -9713,29 +9578,23 @@
       </c>
       <c r="G10" s="40">
         <f>_xll.qlRateHelperEarliestDate($D10)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="H10" s="39">
         <f>_xll.qlRateHelperLatestDate($D10)</f>
-        <v>42003</v>
+        <v>42011</v>
       </c>
       <c r="I10" s="34">
-        <v>0.99888129899706812</v>
-      </c>
-      <c r="K10" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="L10" s="90">
-        <v>2.1099999999999999E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0.99890356827504756</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D11" s="42" t="str">
         <v>USD_YC1MRH_9X1S</v>
       </c>
       <c r="E11" s="41">
         <f>_xll.qlRateHelperRate($D11)</f>
-        <v>1.6799999999999999E-3</v>
+        <v>1.64E-3</v>
       </c>
       <c r="F11" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D11)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D11)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D11)),_xll.qlSwapRateHelperSpread($D11))</f>
@@ -9743,29 +9602,23 @@
       </c>
       <c r="G11" s="40">
         <f>_xll.qlRateHelperEarliestDate($D11)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="H11" s="39">
         <f>_xll.qlRateHelperLatestDate($D11)</f>
-        <v>42034</v>
+        <v>42044</v>
       </c>
       <c r="I11" s="34">
-        <v>0.99869041330046482</v>
-      </c>
-      <c r="K11" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="L11" s="90">
-        <v>2.1700000000000001E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0.99870892913182741</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D12" s="42" t="str">
         <v>USD_YC1MRH_10X1S</v>
       </c>
       <c r="E12" s="41">
         <f>_xll.qlRateHelperRate($D12)</f>
-        <v>1.7299999999999998E-3</v>
+        <v>1.6899999999999999E-3</v>
       </c>
       <c r="F12" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D12)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D12)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D12)),_xll.qlSwapRateHelperSpread($D12))</f>
@@ -9773,29 +9626,23 @@
       </c>
       <c r="G12" s="40">
         <f>_xll.qlRateHelperEarliestDate($D12)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="H12" s="39">
         <f>_xll.qlRateHelperLatestDate($D12)</f>
-        <v>42062</v>
+        <v>42072</v>
       </c>
       <c r="I12" s="34">
-        <v>0.99850813178445064</v>
-      </c>
-      <c r="K12" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="L12" s="90">
-        <v>2.2200000000000002E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0.99853128132479263</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D13" s="42" t="str">
         <v>USD_YC1MRH_11X1S</v>
       </c>
       <c r="E13" s="41">
         <f>_xll.qlRateHelperRate($D13)</f>
-        <v>1.7899999999999999E-3</v>
+        <v>1.7499999999999998E-3</v>
       </c>
       <c r="F13" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D13)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D13)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D13)),_xll.qlSwapRateHelperSpread($D13))</f>
@@ -9803,29 +9650,23 @@
       </c>
       <c r="G13" s="40">
         <f>_xll.qlRateHelperEarliestDate($D13)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="H13" s="39">
         <f>_xll.qlRateHelperLatestDate($D13)</f>
-        <v>42093</v>
+        <v>42101</v>
       </c>
       <c r="I13" s="34">
-        <v>0.99830662393706926</v>
-      </c>
-      <c r="K13" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="L13" s="90">
-        <v>2.2899999999999999E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0.9983444368511607</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D14" s="42" t="str">
         <v>USD_YC1MRH_12X1S</v>
       </c>
       <c r="E14" s="41">
         <f>_xll.qlRateHelperRate($D14)</f>
-        <v>1.8699999999999999E-3</v>
+        <v>1.8400000000000001E-3</v>
       </c>
       <c r="F14" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D14)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D14)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D14)),_xll.qlSwapRateHelperSpread($D14))</f>
@@ -9833,209 +9674,167 @@
       </c>
       <c r="G14" s="40">
         <f>_xll.qlRateHelperEarliestDate($D14)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="H14" s="39">
         <f>_xll.qlRateHelperLatestDate($D14)</f>
-        <v>42124</v>
+        <v>42131</v>
       </c>
       <c r="I14" s="34">
-        <v>0.99809656288192961</v>
-      </c>
-      <c r="K14" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="L14" s="90">
-        <v>2.3700000000000001E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0.99812020257852729</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D15" s="42" t="str">
         <v>USD_YC1MRH_AM1LBASIS2Y</v>
       </c>
       <c r="E15" s="41">
         <f>_xll.qlRateHelperRate($D15)</f>
-        <v>5.3700000000000006E-3</v>
+        <v>5.3100000000000005E-3</v>
       </c>
       <c r="F15" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D15)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D15)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D15)),_xll.qlSwapRateHelperSpread($D15))</f>
-        <v>7.7000000000000007E-4</v>
+        <v>7.3999999999999999E-4</v>
       </c>
       <c r="G15" s="40">
         <f>_xll.qlRateHelperEarliestDate($D15)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="H15" s="39">
         <f>_xll.qlRateHelperLatestDate($D15)</f>
-        <v>42489</v>
+        <v>42499</v>
       </c>
       <c r="I15" s="34">
-        <v>0.99071181361444727</v>
-      </c>
-      <c r="K15" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="L15" s="90">
-        <v>2.4399999999999999E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0.99072536325923832</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D16" s="42" t="str">
         <v>USD_YC1MRH_AM1LBASIS3Y</v>
       </c>
       <c r="E16" s="41">
         <f>_xll.qlRateHelperRate($D16)</f>
-        <v>9.92E-3</v>
+        <v>9.689999999999999E-3</v>
       </c>
       <c r="F16" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D16)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D16)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D16)),_xll.qlSwapRateHelperSpread($D16))</f>
-        <v>7.7999999999999999E-4</v>
+        <v>7.5999999999999993E-4</v>
       </c>
       <c r="G16" s="40">
         <f>_xll.qlRateHelperEarliestDate($D16)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="H16" s="39">
         <f>_xll.qlRateHelperLatestDate($D16)</f>
-        <v>42853</v>
+        <v>42863</v>
       </c>
       <c r="I16" s="34">
-        <v>0.9725742226909786</v>
-      </c>
-      <c r="K16" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="L16" s="90">
-        <v>4.7000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="4:12" x14ac:dyDescent="0.2">
+        <v>0.97311696989826724</v>
+      </c>
+    </row>
+    <row r="17" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D17" s="42" t="str">
         <v>USD_YC1MRH_AM1LBASIS4Y</v>
       </c>
       <c r="E17" s="41">
         <f>_xll.qlRateHelperRate($D17)</f>
-        <v>1.431E-2</v>
+        <v>1.387E-2</v>
       </c>
       <c r="F17" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D17)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D17)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D17)),_xll.qlSwapRateHelperSpread($D17))</f>
-        <v>7.9000000000000001E-4</v>
+        <v>7.7999999999999999E-4</v>
       </c>
       <c r="G17" s="40">
         <f>_xll.qlRateHelperEarliestDate($D17)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="H17" s="39">
         <f>_xll.qlRateHelperLatestDate($D17)</f>
-        <v>43220</v>
+        <v>43228</v>
       </c>
       <c r="I17" s="34">
-        <v>0.94641033299594257</v>
-      </c>
-      <c r="K17" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="L17" s="90">
-        <v>7.4000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="4:12" x14ac:dyDescent="0.2">
+        <v>0.94803798836974584</v>
+      </c>
+    </row>
+    <row r="18" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D18" s="42" t="str">
         <v>USD_YC1MRH_AM1LBASIS5Y</v>
       </c>
       <c r="E18" s="41">
         <f>_xll.qlRateHelperRate($D18)</f>
-        <v>1.7950000000000001E-2</v>
+        <v>1.736E-2</v>
       </c>
       <c r="F18" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D18)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D18)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D18)),_xll.qlSwapRateHelperSpread($D18))</f>
-        <v>8.0000000000000004E-4</v>
+        <v>7.9000000000000001E-4</v>
       </c>
       <c r="G18" s="40">
         <f>_xll.qlRateHelperEarliestDate($D18)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="H18" s="39">
         <f>_xll.qlRateHelperLatestDate($D18)</f>
-        <v>43585</v>
+        <v>43592</v>
       </c>
       <c r="I18" s="34">
-        <v>0.91612803008288601</v>
-      </c>
-      <c r="K18" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="L18" s="90">
-        <v>1.0999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="4:12" x14ac:dyDescent="0.2">
+        <v>0.91886809677341219</v>
+      </c>
+    </row>
+    <row r="19" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D19" s="42" t="str">
         <v>USD_YC1MRH_AM1LBASIS6Y</v>
       </c>
       <c r="E19" s="41">
         <f>_xll.qlRateHelperRate($D19)</f>
-        <v>2.0840000000000001E-2</v>
+        <v>2.0220000000000002E-2</v>
       </c>
       <c r="F19" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D19)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D19)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D19)),_xll.qlSwapRateHelperSpread($D19))</f>
-        <v>7.9000000000000001E-4</v>
+        <v>7.7999999999999999E-4</v>
       </c>
       <c r="G19" s="40">
         <f>_xll.qlRateHelperEarliestDate($D19)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="H19" s="39">
         <f>_xll.qlRateHelperLatestDate($D19)</f>
-        <v>43951</v>
+        <v>43958</v>
       </c>
       <c r="I19" s="34">
-        <v>0.88396977585999015</v>
-      </c>
-      <c r="K19" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="L19" s="90">
-        <v>1.469E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="4:12" x14ac:dyDescent="0.2">
+        <v>0.88731979028332308</v>
+      </c>
+    </row>
+    <row r="20" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D20" s="42" t="str">
         <v>USD_YC1MRH_AM1LBASIS7Y</v>
       </c>
       <c r="E20" s="41">
         <f>_xll.qlRateHelperRate($D20)</f>
-        <v>2.3109999999999999E-2</v>
+        <v>2.2550000000000001E-2</v>
       </c>
       <c r="F20" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D20)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D20)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D20)),_xll.qlSwapRateHelperSpread($D20))</f>
-        <v>7.7000000000000007E-4</v>
+        <v>7.5999999999999993E-4</v>
       </c>
       <c r="G20" s="40">
         <f>_xll.qlRateHelperEarliestDate($D20)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="H20" s="39">
         <f>_xll.qlRateHelperLatestDate($D20)</f>
-        <v>44316</v>
+        <v>44323</v>
       </c>
       <c r="I20" s="34">
-        <v>0.85147953918041963</v>
-      </c>
-      <c r="K20" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="L20" s="90">
-        <v>1.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="4:12" x14ac:dyDescent="0.2">
+        <v>0.85486134855011819</v>
+      </c>
+    </row>
+    <row r="21" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D21" s="42" t="str">
         <v>USD_YC1MRH_AM1LBASIS8Y</v>
       </c>
       <c r="E21" s="41">
         <f>_xll.qlRateHelperRate($D21)</f>
-        <v>2.4920000000000001E-2</v>
+        <v>2.443E-2</v>
       </c>
       <c r="F21" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D21)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D21)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D21)),_xll.qlSwapRateHelperSpread($D21))</f>
@@ -10043,59 +9842,47 @@
       </c>
       <c r="G21" s="40">
         <f>_xll.qlRateHelperEarliestDate($D21)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="H21" s="39">
         <f>_xll.qlRateHelperLatestDate($D21)</f>
-        <v>44680</v>
+        <v>44690</v>
       </c>
       <c r="I21" s="34">
-        <v>0.81919772920342915</v>
-      </c>
-      <c r="K21" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="L21" s="90">
-        <v>2.0830000000000001E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="4:12" x14ac:dyDescent="0.2">
+        <v>0.82233166196025964</v>
+      </c>
+    </row>
+    <row r="22" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D22" s="42" t="str">
         <v>USD_YC1MRH_AM1LBASIS9Y</v>
       </c>
       <c r="E22" s="41">
         <f>_xll.qlRateHelperRate($D22)</f>
-        <v>2.6409999999999999E-2</v>
+        <v>2.596E-2</v>
       </c>
       <c r="F22" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D22)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D22)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D22)),_xll.qlSwapRateHelperSpread($D22))</f>
-        <v>6.9000000000000008E-4</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="G22" s="40">
         <f>_xll.qlRateHelperEarliestDate($D22)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="H22" s="39">
         <f>_xll.qlRateHelperLatestDate($D22)</f>
-        <v>45044</v>
+        <v>45054</v>
       </c>
       <c r="I22" s="34">
-        <v>0.78734389464145249</v>
-      </c>
-      <c r="K22" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="L22" s="90">
-        <v>2.3140000000000001E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="4:12" x14ac:dyDescent="0.2">
+        <v>0.7905225021485297</v>
+      </c>
+    </row>
+    <row r="23" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D23" s="42" t="str">
         <v>USD_YC1MRH_AM1LBASIS10Y</v>
       </c>
       <c r="E23" s="41">
         <f>_xll.qlRateHelperRate($D23)</f>
-        <v>2.7660000000000001E-2</v>
+        <v>2.7229999999999997E-2</v>
       </c>
       <c r="F23" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D23)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D23)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D23)),_xll.qlSwapRateHelperSpread($D23))</f>
@@ -10103,233 +9890,185 @@
       </c>
       <c r="G23" s="40">
         <f>_xll.qlRateHelperEarliestDate($D23)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="H23" s="39">
         <f>_xll.qlRateHelperLatestDate($D23)</f>
-        <v>45412</v>
+        <v>45419</v>
       </c>
       <c r="I23" s="34">
-        <v>0.75596548176287104</v>
-      </c>
-      <c r="K23" s="32" t="s">
-        <v>125</v>
-      </c>
-      <c r="L23" s="90">
-        <v>2.5100000000000001E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="4:12" x14ac:dyDescent="0.2">
+        <v>0.75927488264733967</v>
+      </c>
+    </row>
+    <row r="24" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D24" s="42" t="str">
         <v>USD_YC1MRH_AM1LBASIS12Y</v>
       </c>
       <c r="E24" s="41">
         <f>_xll.qlRateHelperRate($D24)</f>
-        <v>2.9649999999999999E-2</v>
+        <v>2.9239999999999999E-2</v>
       </c>
       <c r="F24" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D24)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D24)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D24)),_xll.qlSwapRateHelperSpread($D24))</f>
-        <v>5.9999999999999995E-4</v>
+        <v>6.0999999999999997E-4</v>
       </c>
       <c r="G24" s="40">
         <f>_xll.qlRateHelperEarliestDate($D24)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="H24" s="39">
         <f>_xll.qlRateHelperLatestDate($D24)</f>
-        <v>46142</v>
+        <v>46149</v>
       </c>
       <c r="I24" s="34">
-        <v>0.69575521748768687</v>
-      </c>
-      <c r="K24" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="L24" s="90">
-        <v>2.6790000000000001E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="4:12" x14ac:dyDescent="0.2">
+        <v>0.69932582442866242</v>
+      </c>
+    </row>
+    <row r="25" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D25" s="42" t="str">
         <v>USD_YC1MRH_AM1LBASIS15Y</v>
       </c>
       <c r="E25" s="41">
         <f>_xll.qlRateHelperRate($D25)</f>
-        <v>3.1539999999999999E-2</v>
+        <v>3.1219999999999998E-2</v>
       </c>
       <c r="F25" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D25)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D25)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D25)),_xll.qlSwapRateHelperSpread($D25))</f>
-        <v>5.4000000000000001E-4</v>
+        <v>5.5000000000000003E-4</v>
       </c>
       <c r="G25" s="40">
         <f>_xll.qlRateHelperEarliestDate($D25)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="H25" s="39">
         <f>_xll.qlRateHelperLatestDate($D25)</f>
-        <v>47238</v>
+        <v>47246</v>
       </c>
       <c r="I25" s="34">
-        <v>0.61508152164585272</v>
-      </c>
-      <c r="K25" s="32" t="s">
-        <v>127</v>
-      </c>
-      <c r="L25" s="90">
-        <v>2.947E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="4:12" x14ac:dyDescent="0.2">
+        <v>0.61794103510978937</v>
+      </c>
+    </row>
+    <row r="26" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D26" s="42" t="str">
         <v>USD_YC1MRH_AM1LBASIS20Y</v>
       </c>
       <c r="E26" s="41">
         <f>_xll.qlRateHelperRate($D26)</f>
-        <v>3.32E-2</v>
+        <v>3.2930000000000001E-2</v>
       </c>
       <c r="F26" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D26)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D26)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D26)),_xll.qlSwapRateHelperSpread($D26))</f>
-        <v>4.7999999999999996E-4</v>
+        <v>4.8999999999999998E-4</v>
       </c>
       <c r="G26" s="40">
         <f>_xll.qlRateHelperEarliestDate($D26)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="H26" s="39">
         <f>_xll.qlRateHelperLatestDate($D26)</f>
-        <v>49062</v>
+        <v>49072</v>
       </c>
       <c r="I26" s="34">
-        <v>0.50349635279999405</v>
-      </c>
-      <c r="K26" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="L26" s="90">
-        <v>3.2009999999999997E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="4:12" x14ac:dyDescent="0.2">
+        <v>0.50594731488130384</v>
+      </c>
+    </row>
+    <row r="27" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D27" s="42" t="str">
         <v>USD_YC1MRH_AM1LBASIS25Y</v>
       </c>
       <c r="E27" s="41">
         <f>_xll.qlRateHelperRate($D27)</f>
-        <v>3.3919999999999999E-2</v>
+        <v>3.3689999999999998E-2</v>
       </c>
       <c r="F27" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D27)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D27)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D27)),_xll.qlSwapRateHelperSpread($D27))</f>
-        <v>4.4999999999999999E-4</v>
+        <v>4.5999999999999996E-4</v>
       </c>
       <c r="G27" s="40">
         <f>_xll.qlRateHelperEarliestDate($D27)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="H27" s="39">
         <f>_xll.qlRateHelperLatestDate($D27)</f>
-        <v>50889</v>
+        <v>50899</v>
       </c>
       <c r="I27" s="34">
-        <v>0.41602857889556877</v>
-      </c>
-      <c r="K27" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="L27" s="90">
-        <v>3.4000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="4:12" x14ac:dyDescent="0.2">
+        <v>0.41801594833419592</v>
+      </c>
+    </row>
+    <row r="28" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D28" s="42" t="str">
         <v>USD_YC1MRH_AM1LBASIS30Y</v>
       </c>
       <c r="E28" s="41">
         <f>_xll.qlRateHelperRate($D28)</f>
-        <v>3.422E-2</v>
+        <v>3.4040000000000001E-2</v>
       </c>
       <c r="F28" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D28)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D28)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D28)),_xll.qlSwapRateHelperSpread($D28))</f>
-        <v>4.2999999999999999E-4</v>
+        <v>4.4000000000000002E-4</v>
       </c>
       <c r="G28" s="40">
         <f>_xll.qlRateHelperEarliestDate($D28)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="H28" s="39">
         <f>_xll.qlRateHelperLatestDate($D28)</f>
-        <v>52716</v>
+        <v>52726</v>
       </c>
       <c r="I28" s="34">
-        <v>0.34656134112447501</v>
-      </c>
-      <c r="K28" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="L28" s="90">
-        <v>3.4959999999999998E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="4:12" x14ac:dyDescent="0.2">
+        <v>0.34777926274597054</v>
+      </c>
+    </row>
+    <row r="29" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D29" s="42" t="str">
         <v>USD_YC1MRH_AM1LBASIS40Y</v>
       </c>
       <c r="E29" s="41">
         <f>_xll.qlRateHelperRate($D29)</f>
-        <v>3.4390000000000004E-2</v>
+        <v>3.4230000000000003E-2</v>
       </c>
       <c r="F29" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D29)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D29)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D29)),_xll.qlSwapRateHelperSpread($D29))</f>
-        <v>4.2999999999999999E-4</v>
+        <v>4.4000000000000002E-4</v>
       </c>
       <c r="G29" s="40">
         <f>_xll.qlRateHelperEarliestDate($D29)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="H29" s="39">
         <f>_xll.qlRateHelperLatestDate($D29)</f>
-        <v>56369</v>
+        <v>56376</v>
       </c>
       <c r="I29" s="34">
-        <v>0.2444183783512465</v>
-      </c>
-      <c r="K29" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="L29" s="90">
-        <v>3.5490000000000001E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="4:12" x14ac:dyDescent="0.2">
+        <v>0.24546727961885489</v>
+      </c>
+    </row>
+    <row r="30" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D30" s="42" t="str">
         <v>USD_YC1MRH_AM1LBASIS50Y</v>
       </c>
       <c r="E30" s="41">
         <f>_xll.qlRateHelperRate($D30)</f>
-        <v>3.422E-2</v>
+        <v>3.4040000000000001E-2</v>
       </c>
       <c r="F30" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D30)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D30)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D30)),_xll.qlSwapRateHelperSpread($D30))</f>
-        <v>4.2999999999999999E-4</v>
+        <v>4.4000000000000002E-4</v>
       </c>
       <c r="G30" s="40">
         <f>_xll.qlRateHelperEarliestDate($D30)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="H30" s="39">
         <f>_xll.qlRateHelperLatestDate($D30)</f>
-        <v>60022</v>
+        <v>60029</v>
       </c>
       <c r="I30" s="34">
-        <v>0.17750999608966272</v>
-      </c>
-      <c r="K30" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="L30" s="90">
-        <v>3.5619999999999999E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="4:12" x14ac:dyDescent="0.2">
+        <v>0.1789730811447677</v>
+      </c>
+    </row>
+    <row r="31" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D31" s="42" t="e">
         <v>#N/A</v>
       </c>
@@ -10352,14 +10091,8 @@
       <c r="I31" s="34" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K31" s="32" t="s">
-        <v>133</v>
-      </c>
-      <c r="L31" s="90">
-        <v>3.5459999999999998E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="4:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D32" s="42" t="e">
         <v>#N/A</v>
       </c>
@@ -12658,112 +12391,126 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3" style="91" customWidth="1"/>
-    <col min="2" max="2" width="3.42578125" style="91" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" style="91" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" style="91" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" style="91" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.5703125" style="91" customWidth="1"/>
-    <col min="7" max="7" width="4.7109375" style="91" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="91"/>
+    <col min="1" max="1" width="3" style="90" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="90" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="90" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" style="90" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" style="90" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" style="90" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" style="90" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" style="90" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="90"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="108" t="s">
-        <v>175</v>
-      </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="D1" s="106" t="str">
-        <f>Currency&amp;"_YC"&amp;$C$1&amp;"RH"</f>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="107" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" s="105" t="str">
+        <f>Currency&amp;"_YC"&amp;$D$1&amp;"RH"</f>
         <v>USD_YC1MRH</v>
       </c>
-      <c r="G1" s="95"/>
-    </row>
-    <row r="2" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="101"/>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105" t="s">
-        <v>136</v>
-      </c>
-      <c r="D2" s="104" t="str">
-        <f>$D$1&amp;"_Deposits.xml"</f>
+      <c r="H1" s="94"/>
+    </row>
+    <row r="2" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="100"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="104" t="s">
+        <v>148</v>
+      </c>
+      <c r="D2" s="104" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2" s="103" t="str">
+        <f>$E$1&amp;"_Deposits.xml"</f>
         <v>USD_YC1MRH_Deposits.xml</v>
       </c>
-      <c r="E2" s="103" t="str">
-        <f>IF(Serialize,_xll.ohObjectSave(E3:E4,SerializationPath&amp;D2,FileOverwrite,Serialize),"---")</f>
+      <c r="F2" s="102" t="str">
+        <f>IF(Serialize,_xll.ohObjectSave(F3:F4,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
         <v>---</v>
       </c>
-      <c r="F2" s="102" t="str">
-        <f>_xll.ohRangeRetrieveError(E2)</f>
+      <c r="G2" s="101" t="str">
+        <f>_xll.ohRangeRetrieveError(F2)</f>
         <v/>
       </c>
-      <c r="G2" s="95"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="101"/>
-      <c r="B3" s="100" t="s">
-        <v>135</v>
-      </c>
-      <c r="C3" s="99" t="str">
-        <f>Currency&amp;B3&amp;"D_SYNTH"&amp;$C$1&amp;QuoteSuffix</f>
+      <c r="H2" s="94"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="100"/>
+      <c r="B3" s="99" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="168" t="str">
+        <f>Currency&amp;FamilyName&amp;B3</f>
+        <v>USDLiborSW</v>
+      </c>
+      <c r="D3" s="98" t="str">
+        <f>Currency&amp;B3&amp;"D_SYNTH"&amp;$D$1&amp;QuoteSuffix</f>
         <v>USDSWD_SYNTH1M_Quote</v>
       </c>
-      <c r="D3" s="98" t="str">
-        <f>$D$1&amp;"_"&amp;$B3&amp;"D"</f>
+      <c r="E3" s="97" t="str">
+        <f>$E$1&amp;"_"&amp;$B3&amp;"D"</f>
         <v>USD_YC1MRH_SWD</v>
       </c>
-      <c r="E3" s="97" t="str">
-        <f>_xll.qlDepositRateHelper(D3,C3,Currency&amp;FamilyName&amp;B3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_SWD#0006</v>
-      </c>
       <c r="F3" s="96" t="str">
-        <f>_xll.ohRangeRetrieveError(E3)</f>
+        <f>_xll.qlDepositRateHelper(E3,D3,C3,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>USD_YC1MRH_SWD#0001</v>
+      </c>
+      <c r="G3" s="95" t="str">
+        <f>_xll.ohRangeRetrieveError(F3)</f>
         <v/>
       </c>
-      <c r="G3" s="95"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="101"/>
-      <c r="B4" s="100" t="s">
-        <v>134</v>
-      </c>
-      <c r="C4" s="99" t="str">
-        <f>Currency&amp;B4&amp;"D_SYNTH"&amp;$C$1&amp;QuoteSuffix</f>
+      <c r="H3" s="94"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="100"/>
+      <c r="B4" s="99" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="168" t="str">
+        <f>Currency&amp;FamilyName&amp;B4</f>
+        <v>USDLibor1M</v>
+      </c>
+      <c r="D4" s="98" t="str">
+        <f>Currency&amp;B4&amp;"D_SYNTH"&amp;$D$1&amp;QuoteSuffix</f>
         <v>USD1MD_SYNTH1M_Quote</v>
       </c>
-      <c r="D4" s="98" t="str">
-        <f>$D$1&amp;"_"&amp;$B4&amp;"D"</f>
+      <c r="E4" s="97" t="str">
+        <f>$E$1&amp;"_"&amp;$B4&amp;"D"</f>
         <v>USD_YC1MRH_1MD</v>
       </c>
-      <c r="E4" s="97" t="str">
-        <f>_xll.qlDepositRateHelper(D4,C4,Currency&amp;FamilyName&amp;B4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_1MD#0006</v>
-      </c>
       <c r="F4" s="96" t="str">
-        <f>_xll.ohRangeRetrieveError(E4)</f>
+        <f>_xll.qlDepositRateHelper(E4,D4,C4,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>USD_YC1MRH_1MD#0001</v>
+      </c>
+      <c r="G4" s="95" t="str">
+        <f>_xll.ohRangeRetrieveError(F4)</f>
         <v/>
       </c>
-      <c r="G4" s="95"/>
-    </row>
-    <row r="5" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="94"/>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
+      <c r="H4" s="94"/>
+    </row>
+    <row r="5" spans="1:8" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="93"/>
+      <c r="B5" s="92"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="92"/>
       <c r="G5" s="92"/>
+      <c r="H5" s="91"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -12783,53 +12530,53 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" style="91" customWidth="1"/>
-    <col min="2" max="2" width="4.7109375" style="91" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5703125" style="91" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.7109375" style="91" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.85546875" style="91" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.85546875" style="91" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" style="91" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" style="91" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.140625" style="91" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" style="91" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.140625" style="91" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.7109375" style="127" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21" style="91" customWidth="1"/>
-    <col min="14" max="14" width="3.7109375" style="91" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="91"/>
+    <col min="1" max="1" width="1.7109375" style="90" customWidth="1"/>
+    <col min="2" max="2" width="4.7109375" style="90" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" style="90" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.7109375" style="90" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.85546875" style="90" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.85546875" style="90" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" style="90" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" style="90" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.140625" style="90" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" style="90" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.140625" style="90" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.7109375" style="126" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21" style="90" customWidth="1"/>
+    <col min="14" max="14" width="3.7109375" style="90" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="90"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="159" t="s">
-        <v>176</v>
-      </c>
-      <c r="B1" s="146"/>
-      <c r="C1" s="146"/>
-      <c r="D1" s="146"/>
-      <c r="E1" s="146"/>
-      <c r="F1" s="146"/>
-      <c r="G1" s="146"/>
-      <c r="H1" s="146"/>
-      <c r="I1" s="146"/>
-      <c r="J1" s="146"/>
-      <c r="K1" s="147"/>
-      <c r="L1" s="146"/>
-      <c r="M1" s="146"/>
-      <c r="N1" s="145"/>
+      <c r="A1" s="158" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" s="145"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
+      <c r="I1" s="145"/>
+      <c r="J1" s="145"/>
+      <c r="K1" s="146"/>
+      <c r="L1" s="145"/>
+      <c r="M1" s="145"/>
+      <c r="N1" s="144"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="101"/>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
+      <c r="A2" s="100"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
       <c r="J2" s="12" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="K2" s="12" t="str">
         <f>Currency&amp;"_YC"&amp;$J$2&amp;"RH"</f>
@@ -12839,586 +12586,586 @@
         <f>Discounting</f>
         <v>UsdON</v>
       </c>
-      <c r="M2" s="107"/>
-      <c r="N2" s="130"/>
+      <c r="M2" s="106"/>
+      <c r="N2" s="129"/>
     </row>
     <row r="3" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="101"/>
-      <c r="B3" s="105" t="s">
-        <v>165</v>
-      </c>
-      <c r="C3" s="105" t="s">
-        <v>164</v>
-      </c>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105" t="s">
-        <v>163</v>
-      </c>
-      <c r="G3" s="105" t="s">
-        <v>162</v>
-      </c>
-      <c r="H3" s="105" t="s">
-        <v>161</v>
-      </c>
-      <c r="I3" s="105" t="s">
-        <v>160</v>
-      </c>
-      <c r="J3" s="105" t="s">
-        <v>136</v>
-      </c>
-      <c r="K3" s="144" t="str">
+      <c r="A3" s="100"/>
+      <c r="B3" s="104" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" s="104" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104" t="s">
+        <v>133</v>
+      </c>
+      <c r="G3" s="104" t="s">
+        <v>132</v>
+      </c>
+      <c r="H3" s="104" t="s">
+        <v>131</v>
+      </c>
+      <c r="I3" s="104" t="s">
+        <v>130</v>
+      </c>
+      <c r="J3" s="104" t="s">
+        <v>106</v>
+      </c>
+      <c r="K3" s="143" t="str">
         <f>K2&amp;"_Swaps.xml"</f>
         <v>USD_YC1MRH_Swaps.xml</v>
       </c>
-      <c r="L3" s="143" t="str">
+      <c r="L3" s="142" t="str">
         <f>IF(Serialize,_xll.ohObjectSave(L4:L16,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
         <v>---</v>
       </c>
-      <c r="M3" s="102" t="str">
+      <c r="M3" s="101" t="str">
         <f>_xll.ohRangeRetrieveError(L3)</f>
         <v/>
       </c>
-      <c r="N3" s="130"/>
+      <c r="N3" s="129"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="108"/>
-      <c r="B4" s="107"/>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="107"/>
-      <c r="H4" s="107"/>
-      <c r="I4" s="107"/>
-      <c r="J4" s="107"/>
-      <c r="K4" s="142" t="str">
+      <c r="A4" s="107"/>
+      <c r="B4" s="106"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="106"/>
+      <c r="J4" s="106"/>
+      <c r="K4" s="141" t="str">
         <f>$K$2&amp;"_x"&amp;$E6&amp;"_"&amp;FamilyName&amp;$J$2</f>
         <v>USD_YC1MRH_xX1S_Libor1M</v>
       </c>
-      <c r="L4" s="141" t="str">
+      <c r="L4" s="140" t="str">
         <f>IF(UPPER(FamilyName)="IBOR",_xll.qlEuribor($K4,$J$2,,Permanent,Trigger,ObjectOverwrite),IF(UPPER(FamilyName)="LIBOR",_xll.qlLibor($K4,Currency,$J$2,,Permanent,Trigger,ObjectOverwrite),"--"))</f>
-        <v>USD_YC1MRH_xX1S_Libor1M#0003</v>
-      </c>
-      <c r="M4" s="140" t="str">
+        <v>USD_YC1MRH_xX1S_Libor1M#0001</v>
+      </c>
+      <c r="M4" s="139" t="str">
         <f>_xll.ohRangeRetrieveError(L4)</f>
         <v/>
       </c>
-      <c r="N4" s="130"/>
+      <c r="N4" s="129"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="108"/>
-      <c r="B5" s="107"/>
-      <c r="C5" s="107"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="107"/>
-      <c r="F5" s="107"/>
-      <c r="G5" s="107"/>
-      <c r="H5" s="107"/>
-      <c r="I5" s="107"/>
-      <c r="J5" s="107"/>
-      <c r="K5" s="107"/>
-      <c r="L5" s="107"/>
-      <c r="M5" s="107"/>
-      <c r="N5" s="130"/>
+      <c r="A5" s="107"/>
+      <c r="B5" s="106"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="106"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="106"/>
+      <c r="J5" s="106"/>
+      <c r="K5" s="106"/>
+      <c r="L5" s="106"/>
+      <c r="M5" s="106"/>
+      <c r="N5" s="129"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="101"/>
-      <c r="B6" s="139" t="s">
-        <v>149</v>
-      </c>
-      <c r="C6" s="139" t="s">
-        <v>159</v>
-      </c>
-      <c r="D6" s="139">
+      <c r="A6" s="100"/>
+      <c r="B6" s="138" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="138" t="s">
+        <v>129</v>
+      </c>
+      <c r="D6" s="138">
         <v>2</v>
       </c>
-      <c r="E6" s="139" t="s">
+      <c r="E6" s="138" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="138" t="s">
-        <v>147</v>
-      </c>
-      <c r="G6" s="138" t="s">
-        <v>146</v>
-      </c>
-      <c r="H6" s="138" t="str">
+      <c r="F6" s="137" t="s">
+        <v>117</v>
+      </c>
+      <c r="G6" s="137" t="s">
+        <v>116</v>
+      </c>
+      <c r="H6" s="137" t="str">
         <f t="shared" ref="H6:H16" si="0">MoneyMarketDayCounter</f>
         <v>Actual/360</v>
       </c>
-      <c r="I6" s="136">
-        <v>0</v>
-      </c>
-      <c r="J6" s="135" t="str">
+      <c r="I6" s="135">
+        <v>0</v>
+      </c>
+      <c r="J6" s="134" t="str">
         <f t="shared" ref="J6:J16" si="1">Currency&amp;$D6&amp;$E6&amp;QuoteSuffix</f>
         <v>USD2X1S_Quote</v>
       </c>
-      <c r="K6" s="135" t="str">
+      <c r="K6" s="134" t="str">
         <f t="shared" ref="K6:K16" si="2">$K$2&amp;"_"&amp;$D6&amp;$E6</f>
         <v>USD_YC1MRH_2X1S</v>
       </c>
-      <c r="L6" s="133" t="str">
+      <c r="L6" s="132" t="str">
         <f>_xll.qlSwapRateHelper2(K6,$J6,$C6,Calendar,$F6,$G6,$H6,$L$4,$I6,B6,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_2X1S#0003</v>
-      </c>
-      <c r="M6" s="102" t="str">
+        <v>USD_YC1MRH_2X1S#0001</v>
+      </c>
+      <c r="M6" s="101" t="str">
         <f>_xll.ohRangeRetrieveError(L6)</f>
         <v/>
       </c>
-      <c r="N6" s="130"/>
+      <c r="N6" s="129"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="101"/>
-      <c r="B7" s="139" t="s">
-        <v>149</v>
-      </c>
-      <c r="C7" s="139" t="s">
-        <v>158</v>
-      </c>
-      <c r="D7" s="139">
+      <c r="A7" s="100"/>
+      <c r="B7" s="138" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="138" t="s">
+        <v>128</v>
+      </c>
+      <c r="D7" s="138">
         <v>3</v>
       </c>
-      <c r="E7" s="139" t="s">
+      <c r="E7" s="138" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="138" t="s">
-        <v>147</v>
-      </c>
-      <c r="G7" s="138" t="s">
-        <v>146</v>
-      </c>
-      <c r="H7" s="137" t="str">
+      <c r="F7" s="137" t="s">
+        <v>117</v>
+      </c>
+      <c r="G7" s="137" t="s">
+        <v>116</v>
+      </c>
+      <c r="H7" s="136" t="str">
         <f t="shared" si="0"/>
         <v>Actual/360</v>
       </c>
-      <c r="I7" s="136">
-        <v>0</v>
-      </c>
-      <c r="J7" s="135" t="str">
+      <c r="I7" s="135">
+        <v>0</v>
+      </c>
+      <c r="J7" s="134" t="str">
         <f t="shared" si="1"/>
         <v>USD3X1S_Quote</v>
       </c>
-      <c r="K7" s="134" t="str">
+      <c r="K7" s="133" t="str">
         <f t="shared" si="2"/>
         <v>USD_YC1MRH_3X1S</v>
       </c>
-      <c r="L7" s="133" t="str">
+      <c r="L7" s="132" t="str">
         <f>_xll.qlSwapRateHelper2(K7,$J7,$C7,Calendar,$F7,$G7,$H7,$L$4,$I7,B7,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_3X1S#0003</v>
-      </c>
-      <c r="M7" s="102" t="str">
+        <v>USD_YC1MRH_3X1S#0001</v>
+      </c>
+      <c r="M7" s="101" t="str">
         <f>_xll.ohRangeRetrieveError(L7)</f>
         <v/>
       </c>
-      <c r="N7" s="130"/>
+      <c r="N7" s="129"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="101"/>
-      <c r="B8" s="139" t="s">
-        <v>149</v>
-      </c>
-      <c r="C8" s="139" t="s">
-        <v>157</v>
-      </c>
-      <c r="D8" s="139">
+      <c r="A8" s="100"/>
+      <c r="B8" s="138" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" s="138" t="s">
+        <v>127</v>
+      </c>
+      <c r="D8" s="138">
         <v>4</v>
       </c>
-      <c r="E8" s="139" t="s">
+      <c r="E8" s="138" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="138" t="s">
-        <v>147</v>
-      </c>
-      <c r="G8" s="138" t="s">
-        <v>146</v>
-      </c>
-      <c r="H8" s="137" t="str">
+      <c r="F8" s="137" t="s">
+        <v>117</v>
+      </c>
+      <c r="G8" s="137" t="s">
+        <v>116</v>
+      </c>
+      <c r="H8" s="136" t="str">
         <f t="shared" si="0"/>
         <v>Actual/360</v>
       </c>
-      <c r="I8" s="136">
-        <v>0</v>
-      </c>
-      <c r="J8" s="135" t="str">
+      <c r="I8" s="135">
+        <v>0</v>
+      </c>
+      <c r="J8" s="134" t="str">
         <f t="shared" si="1"/>
         <v>USD4X1S_Quote</v>
       </c>
-      <c r="K8" s="134" t="str">
+      <c r="K8" s="133" t="str">
         <f t="shared" si="2"/>
         <v>USD_YC1MRH_4X1S</v>
       </c>
-      <c r="L8" s="133" t="str">
+      <c r="L8" s="132" t="str">
         <f>_xll.qlSwapRateHelper2(K8,$J8,$C8,Calendar,$F8,$G8,$H8,$L$4,$I8,B8,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_4X1S#0003</v>
-      </c>
-      <c r="M8" s="102" t="str">
+        <v>USD_YC1MRH_4X1S#0001</v>
+      </c>
+      <c r="M8" s="101" t="str">
         <f>_xll.ohRangeRetrieveError(L8)</f>
         <v/>
       </c>
-      <c r="N8" s="130"/>
+      <c r="N8" s="129"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="101"/>
-      <c r="B9" s="139" t="s">
-        <v>149</v>
-      </c>
-      <c r="C9" s="139" t="s">
-        <v>156</v>
-      </c>
-      <c r="D9" s="139">
+      <c r="A9" s="100"/>
+      <c r="B9" s="138" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" s="138" t="s">
+        <v>126</v>
+      </c>
+      <c r="D9" s="138">
         <v>5</v>
       </c>
-      <c r="E9" s="139" t="s">
+      <c r="E9" s="138" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="138" t="s">
-        <v>147</v>
-      </c>
-      <c r="G9" s="138" t="s">
-        <v>146</v>
-      </c>
-      <c r="H9" s="137" t="str">
+      <c r="F9" s="137" t="s">
+        <v>117</v>
+      </c>
+      <c r="G9" s="137" t="s">
+        <v>116</v>
+      </c>
+      <c r="H9" s="136" t="str">
         <f t="shared" si="0"/>
         <v>Actual/360</v>
       </c>
-      <c r="I9" s="136">
-        <v>0</v>
-      </c>
-      <c r="J9" s="135" t="str">
+      <c r="I9" s="135">
+        <v>0</v>
+      </c>
+      <c r="J9" s="134" t="str">
         <f t="shared" si="1"/>
         <v>USD5X1S_Quote</v>
       </c>
-      <c r="K9" s="134" t="str">
+      <c r="K9" s="133" t="str">
         <f t="shared" si="2"/>
         <v>USD_YC1MRH_5X1S</v>
       </c>
-      <c r="L9" s="133" t="str">
+      <c r="L9" s="132" t="str">
         <f>_xll.qlSwapRateHelper2(K9,$J9,$C9,Calendar,$F9,$G9,$H9,$L$4,$I9,B9,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_5X1S#0003</v>
-      </c>
-      <c r="M9" s="102" t="str">
+        <v>USD_YC1MRH_5X1S#0001</v>
+      </c>
+      <c r="M9" s="101" t="str">
         <f>_xll.ohRangeRetrieveError(L9)</f>
         <v/>
       </c>
-      <c r="N9" s="130"/>
+      <c r="N9" s="129"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="101"/>
-      <c r="B10" s="139" t="s">
-        <v>149</v>
-      </c>
-      <c r="C10" s="139" t="s">
-        <v>155</v>
-      </c>
-      <c r="D10" s="139">
+      <c r="A10" s="100"/>
+      <c r="B10" s="138" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" s="138" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" s="138">
         <v>6</v>
       </c>
-      <c r="E10" s="139" t="s">
+      <c r="E10" s="138" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="138" t="s">
-        <v>147</v>
-      </c>
-      <c r="G10" s="138" t="s">
-        <v>146</v>
-      </c>
-      <c r="H10" s="137" t="str">
+      <c r="F10" s="137" t="s">
+        <v>117</v>
+      </c>
+      <c r="G10" s="137" t="s">
+        <v>116</v>
+      </c>
+      <c r="H10" s="136" t="str">
         <f t="shared" si="0"/>
         <v>Actual/360</v>
       </c>
-      <c r="I10" s="136">
-        <v>0</v>
-      </c>
-      <c r="J10" s="135" t="str">
+      <c r="I10" s="135">
+        <v>0</v>
+      </c>
+      <c r="J10" s="134" t="str">
         <f t="shared" si="1"/>
         <v>USD6X1S_Quote</v>
       </c>
-      <c r="K10" s="134" t="str">
+      <c r="K10" s="133" t="str">
         <f t="shared" si="2"/>
         <v>USD_YC1MRH_6X1S</v>
       </c>
-      <c r="L10" s="133" t="str">
+      <c r="L10" s="132" t="str">
         <f>_xll.qlSwapRateHelper2(K10,$J10,$C10,Calendar,$F10,$G10,$H10,$L$4,$I10,B10,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_6X1S#0003</v>
-      </c>
-      <c r="M10" s="102" t="str">
+        <v>USD_YC1MRH_6X1S#0001</v>
+      </c>
+      <c r="M10" s="101" t="str">
         <f>_xll.ohRangeRetrieveError(L10)</f>
         <v/>
       </c>
-      <c r="N10" s="130"/>
+      <c r="N10" s="129"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="101"/>
-      <c r="B11" s="139" t="s">
-        <v>149</v>
-      </c>
-      <c r="C11" s="139" t="s">
-        <v>154</v>
-      </c>
-      <c r="D11" s="139">
+      <c r="A11" s="100"/>
+      <c r="B11" s="138" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" s="138" t="s">
+        <v>124</v>
+      </c>
+      <c r="D11" s="138">
         <v>7</v>
       </c>
-      <c r="E11" s="139" t="s">
+      <c r="E11" s="138" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="138" t="s">
-        <v>147</v>
-      </c>
-      <c r="G11" s="138" t="s">
-        <v>146</v>
-      </c>
-      <c r="H11" s="137" t="str">
+      <c r="F11" s="137" t="s">
+        <v>117</v>
+      </c>
+      <c r="G11" s="137" t="s">
+        <v>116</v>
+      </c>
+      <c r="H11" s="136" t="str">
         <f t="shared" si="0"/>
         <v>Actual/360</v>
       </c>
-      <c r="I11" s="136">
-        <v>0</v>
-      </c>
-      <c r="J11" s="135" t="str">
+      <c r="I11" s="135">
+        <v>0</v>
+      </c>
+      <c r="J11" s="134" t="str">
         <f t="shared" si="1"/>
         <v>USD7X1S_Quote</v>
       </c>
-      <c r="K11" s="134" t="str">
+      <c r="K11" s="133" t="str">
         <f t="shared" si="2"/>
         <v>USD_YC1MRH_7X1S</v>
       </c>
-      <c r="L11" s="133" t="str">
+      <c r="L11" s="132" t="str">
         <f>_xll.qlSwapRateHelper2(K11,$J11,$C11,Calendar,$F11,$G11,$H11,$L$4,$I11,B11,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_7X1S#0003</v>
-      </c>
-      <c r="M11" s="102" t="str">
+        <v>USD_YC1MRH_7X1S#0001</v>
+      </c>
+      <c r="M11" s="101" t="str">
         <f>_xll.ohRangeRetrieveError(L11)</f>
         <v/>
       </c>
-      <c r="N11" s="130"/>
+      <c r="N11" s="129"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="101"/>
-      <c r="B12" s="139" t="s">
-        <v>149</v>
-      </c>
-      <c r="C12" s="139" t="s">
-        <v>153</v>
-      </c>
-      <c r="D12" s="139">
+      <c r="A12" s="100"/>
+      <c r="B12" s="138" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12" s="138" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" s="138">
         <v>8</v>
       </c>
-      <c r="E12" s="139" t="s">
+      <c r="E12" s="138" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="138" t="s">
-        <v>147</v>
-      </c>
-      <c r="G12" s="138" t="s">
-        <v>146</v>
-      </c>
-      <c r="H12" s="137" t="str">
+      <c r="F12" s="137" t="s">
+        <v>117</v>
+      </c>
+      <c r="G12" s="137" t="s">
+        <v>116</v>
+      </c>
+      <c r="H12" s="136" t="str">
         <f t="shared" si="0"/>
         <v>Actual/360</v>
       </c>
-      <c r="I12" s="136">
-        <v>0</v>
-      </c>
-      <c r="J12" s="135" t="str">
+      <c r="I12" s="135">
+        <v>0</v>
+      </c>
+      <c r="J12" s="134" t="str">
         <f t="shared" si="1"/>
         <v>USD8X1S_Quote</v>
       </c>
-      <c r="K12" s="134" t="str">
+      <c r="K12" s="133" t="str">
         <f t="shared" si="2"/>
         <v>USD_YC1MRH_8X1S</v>
       </c>
-      <c r="L12" s="133" t="str">
+      <c r="L12" s="132" t="str">
         <f>_xll.qlSwapRateHelper2(K12,$J12,$C12,Calendar,$F12,$G12,$H12,$L$4,$I12,B12,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_8X1S#0003</v>
-      </c>
-      <c r="M12" s="102" t="str">
+        <v>USD_YC1MRH_8X1S#0001</v>
+      </c>
+      <c r="M12" s="101" t="str">
         <f>_xll.ohRangeRetrieveError(L12)</f>
         <v/>
       </c>
-      <c r="N12" s="130"/>
+      <c r="N12" s="129"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="101"/>
-      <c r="B13" s="139" t="s">
-        <v>149</v>
-      </c>
-      <c r="C13" s="139" t="s">
-        <v>152</v>
-      </c>
-      <c r="D13" s="139">
+      <c r="A13" s="100"/>
+      <c r="B13" s="138" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" s="138" t="s">
+        <v>122</v>
+      </c>
+      <c r="D13" s="138">
         <v>9</v>
       </c>
-      <c r="E13" s="139" t="s">
+      <c r="E13" s="138" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="138" t="s">
-        <v>147</v>
-      </c>
-      <c r="G13" s="138" t="s">
-        <v>146</v>
-      </c>
-      <c r="H13" s="137" t="str">
+      <c r="F13" s="137" t="s">
+        <v>117</v>
+      </c>
+      <c r="G13" s="137" t="s">
+        <v>116</v>
+      </c>
+      <c r="H13" s="136" t="str">
         <f t="shared" si="0"/>
         <v>Actual/360</v>
       </c>
-      <c r="I13" s="136">
-        <v>0</v>
-      </c>
-      <c r="J13" s="135" t="str">
+      <c r="I13" s="135">
+        <v>0</v>
+      </c>
+      <c r="J13" s="134" t="str">
         <f t="shared" si="1"/>
         <v>USD9X1S_Quote</v>
       </c>
-      <c r="K13" s="134" t="str">
+      <c r="K13" s="133" t="str">
         <f t="shared" si="2"/>
         <v>USD_YC1MRH_9X1S</v>
       </c>
-      <c r="L13" s="133" t="str">
+      <c r="L13" s="132" t="str">
         <f>_xll.qlSwapRateHelper2(K13,$J13,$C13,Calendar,$F13,$G13,$H13,$L$4,$I13,B13,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_9X1S#0003</v>
-      </c>
-      <c r="M13" s="102" t="str">
+        <v>USD_YC1MRH_9X1S#0001</v>
+      </c>
+      <c r="M13" s="101" t="str">
         <f>_xll.ohRangeRetrieveError(L13)</f>
         <v/>
       </c>
-      <c r="N13" s="130"/>
+      <c r="N13" s="129"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="101"/>
-      <c r="B14" s="139" t="s">
-        <v>149</v>
-      </c>
-      <c r="C14" s="139" t="s">
-        <v>151</v>
-      </c>
-      <c r="D14" s="139">
+      <c r="A14" s="100"/>
+      <c r="B14" s="138" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" s="138" t="s">
+        <v>121</v>
+      </c>
+      <c r="D14" s="138">
         <v>10</v>
       </c>
-      <c r="E14" s="139" t="s">
+      <c r="E14" s="138" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="138" t="s">
-        <v>147</v>
-      </c>
-      <c r="G14" s="138" t="s">
-        <v>146</v>
-      </c>
-      <c r="H14" s="137" t="str">
+      <c r="F14" s="137" t="s">
+        <v>117</v>
+      </c>
+      <c r="G14" s="137" t="s">
+        <v>116</v>
+      </c>
+      <c r="H14" s="136" t="str">
         <f t="shared" si="0"/>
         <v>Actual/360</v>
       </c>
-      <c r="I14" s="136">
-        <v>0</v>
-      </c>
-      <c r="J14" s="135" t="str">
+      <c r="I14" s="135">
+        <v>0</v>
+      </c>
+      <c r="J14" s="134" t="str">
         <f t="shared" si="1"/>
         <v>USD10X1S_Quote</v>
       </c>
-      <c r="K14" s="134" t="str">
+      <c r="K14" s="133" t="str">
         <f t="shared" si="2"/>
         <v>USD_YC1MRH_10X1S</v>
       </c>
-      <c r="L14" s="133" t="str">
+      <c r="L14" s="132" t="str">
         <f>_xll.qlSwapRateHelper2(K14,$J14,$C14,Calendar,$F14,$G14,$H14,$L$4,$I14,B14,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_10X1S#0003</v>
-      </c>
-      <c r="M14" s="102" t="str">
+        <v>USD_YC1MRH_10X1S#0001</v>
+      </c>
+      <c r="M14" s="101" t="str">
         <f>_xll.ohRangeRetrieveError(L14)</f>
         <v/>
       </c>
-      <c r="N14" s="130"/>
+      <c r="N14" s="129"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="101"/>
-      <c r="B15" s="139" t="s">
-        <v>149</v>
-      </c>
-      <c r="C15" s="139" t="s">
-        <v>150</v>
-      </c>
-      <c r="D15" s="139">
+      <c r="A15" s="100"/>
+      <c r="B15" s="138" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15" s="138" t="s">
+        <v>120</v>
+      </c>
+      <c r="D15" s="138">
         <v>11</v>
       </c>
-      <c r="E15" s="139" t="s">
+      <c r="E15" s="138" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="138" t="s">
-        <v>147</v>
-      </c>
-      <c r="G15" s="138" t="s">
-        <v>146</v>
-      </c>
-      <c r="H15" s="137" t="str">
+      <c r="F15" s="137" t="s">
+        <v>117</v>
+      </c>
+      <c r="G15" s="137" t="s">
+        <v>116</v>
+      </c>
+      <c r="H15" s="136" t="str">
         <f t="shared" si="0"/>
         <v>Actual/360</v>
       </c>
-      <c r="I15" s="136">
-        <v>0</v>
-      </c>
-      <c r="J15" s="135" t="str">
+      <c r="I15" s="135">
+        <v>0</v>
+      </c>
+      <c r="J15" s="134" t="str">
         <f t="shared" si="1"/>
         <v>USD11X1S_Quote</v>
       </c>
-      <c r="K15" s="134" t="str">
+      <c r="K15" s="133" t="str">
         <f t="shared" si="2"/>
         <v>USD_YC1MRH_11X1S</v>
       </c>
-      <c r="L15" s="133" t="str">
+      <c r="L15" s="132" t="str">
         <f>_xll.qlSwapRateHelper2(K15,$J15,$C15,Calendar,$F15,$G15,$H15,$L$4,$I15,B15,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_11X1S#0003</v>
-      </c>
-      <c r="M15" s="102" t="str">
+        <v>USD_YC1MRH_11X1S#0001</v>
+      </c>
+      <c r="M15" s="101" t="str">
         <f>_xll.ohRangeRetrieveError(L15)</f>
         <v/>
       </c>
-      <c r="N15" s="130"/>
+      <c r="N15" s="129"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="101"/>
-      <c r="B16" s="139" t="s">
-        <v>149</v>
-      </c>
-      <c r="C16" s="139" t="s">
-        <v>148</v>
-      </c>
-      <c r="D16" s="139">
+      <c r="A16" s="100"/>
+      <c r="B16" s="138" t="s">
+        <v>119</v>
+      </c>
+      <c r="C16" s="138" t="s">
+        <v>118</v>
+      </c>
+      <c r="D16" s="138">
         <v>12</v>
       </c>
-      <c r="E16" s="139" t="s">
+      <c r="E16" s="138" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="138" t="s">
-        <v>147</v>
-      </c>
-      <c r="G16" s="138" t="s">
-        <v>146</v>
-      </c>
-      <c r="H16" s="137" t="str">
+      <c r="F16" s="137" t="s">
+        <v>117</v>
+      </c>
+      <c r="G16" s="137" t="s">
+        <v>116</v>
+      </c>
+      <c r="H16" s="136" t="str">
         <f t="shared" si="0"/>
         <v>Actual/360</v>
       </c>
-      <c r="I16" s="136">
-        <v>0</v>
-      </c>
-      <c r="J16" s="135" t="str">
+      <c r="I16" s="135">
+        <v>0</v>
+      </c>
+      <c r="J16" s="134" t="str">
         <f t="shared" si="1"/>
         <v>USD12X1S_Quote</v>
       </c>
-      <c r="K16" s="134" t="str">
+      <c r="K16" s="133" t="str">
         <f t="shared" si="2"/>
         <v>USD_YC1MRH_12X1S</v>
       </c>
-      <c r="L16" s="133" t="str">
+      <c r="L16" s="132" t="str">
         <f>_xll.qlSwapRateHelper2(K16,$J16,$C16,Calendar,$F16,$G16,$H16,$L$4,$I16,B16,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_12X1S#0003</v>
-      </c>
-      <c r="M16" s="102" t="str">
+        <v>USD_YC1MRH_12X1S#0001</v>
+      </c>
+      <c r="M16" s="101" t="str">
         <f>_xll.ohRangeRetrieveError(L16)</f>
         <v/>
       </c>
-      <c r="N16" s="130"/>
+      <c r="N16" s="129"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="101"/>
+      <c r="A17" s="100"/>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
@@ -13426,28 +13173,28 @@
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
-      <c r="I17" s="132"/>
-      <c r="J17" s="131"/>
-      <c r="K17" s="131"/>
-      <c r="L17" s="131"/>
-      <c r="M17" s="131"/>
-      <c r="N17" s="130"/>
+      <c r="I17" s="131"/>
+      <c r="J17" s="130"/>
+      <c r="K17" s="130"/>
+      <c r="L17" s="130"/>
+      <c r="M17" s="130"/>
+      <c r="N17" s="129"/>
     </row>
     <row r="18" spans="1:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="94"/>
-      <c r="B18" s="93"/>
-      <c r="C18" s="93"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="93"/>
-      <c r="F18" s="93"/>
-      <c r="G18" s="93"/>
-      <c r="H18" s="93"/>
-      <c r="I18" s="93"/>
-      <c r="J18" s="93"/>
-      <c r="K18" s="93"/>
-      <c r="L18" s="129"/>
-      <c r="M18" s="129"/>
-      <c r="N18" s="128"/>
+      <c r="A18" s="93"/>
+      <c r="B18" s="92"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="92"/>
+      <c r="G18" s="92"/>
+      <c r="H18" s="92"/>
+      <c r="I18" s="92"/>
+      <c r="J18" s="92"/>
+      <c r="K18" s="92"/>
+      <c r="L18" s="128"/>
+      <c r="M18" s="128"/>
+      <c r="N18" s="127"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -13475,59 +13222,59 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" style="91" customWidth="1"/>
-    <col min="2" max="2" width="4.7109375" style="91" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.85546875" style="91" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.140625" style="91" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.7109375" style="91" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.85546875" style="91" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" style="91" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" style="91" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" style="91" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.28515625" style="91" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.5703125" style="91" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.42578125" style="127" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.5703125" style="91" customWidth="1"/>
-    <col min="14" max="14" width="3.85546875" style="91" customWidth="1"/>
-    <col min="15" max="15" width="2.5703125" style="91" customWidth="1"/>
-    <col min="16" max="16" width="4" style="91" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="3.28515625" style="91" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2.7109375" style="91" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="91"/>
+    <col min="1" max="1" width="1.7109375" style="90" customWidth="1"/>
+    <col min="2" max="2" width="4.7109375" style="90" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.85546875" style="90" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.140625" style="90" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.7109375" style="90" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.85546875" style="90" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" style="90" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" style="90" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" style="90" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" style="90" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.5703125" style="90" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.42578125" style="126" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.5703125" style="90" customWidth="1"/>
+    <col min="14" max="14" width="3.85546875" style="90" customWidth="1"/>
+    <col min="15" max="15" width="2.5703125" style="90" customWidth="1"/>
+    <col min="16" max="16" width="4" style="90" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.28515625" style="90" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2.7109375" style="90" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="90"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="159" t="s">
-        <v>177</v>
-      </c>
-      <c r="B1" s="146"/>
-      <c r="C1" s="146"/>
-      <c r="D1" s="146"/>
-      <c r="E1" s="146"/>
-      <c r="F1" s="146"/>
-      <c r="G1" s="146"/>
-      <c r="H1" s="146"/>
-      <c r="I1" s="146"/>
-      <c r="J1" s="146"/>
-      <c r="K1" s="147"/>
-      <c r="L1" s="146"/>
-      <c r="M1" s="146"/>
-      <c r="N1" s="145"/>
+      <c r="A1" s="158" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="145"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
+      <c r="I1" s="145"/>
+      <c r="J1" s="145"/>
+      <c r="K1" s="146"/>
+      <c r="L1" s="145"/>
+      <c r="M1" s="145"/>
+      <c r="N1" s="144"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" s="101"/>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
+      <c r="A2" s="100"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
       <c r="I2" s="12" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="K2" s="12" t="str">
         <f>Currency&amp;"_YC"&amp;$J$2&amp;"RH"</f>
@@ -13537,1999 +13284,1999 @@
         <f>Discounting</f>
         <v>UsdON</v>
       </c>
-      <c r="M2" s="107"/>
-      <c r="N2" s="130"/>
+      <c r="M2" s="106"/>
+      <c r="N2" s="129"/>
     </row>
     <row r="3" spans="1:18" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="101"/>
-      <c r="B3" s="105" t="s">
-        <v>165</v>
-      </c>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105" t="s">
-        <v>163</v>
-      </c>
-      <c r="G3" s="105" t="s">
-        <v>162</v>
-      </c>
-      <c r="H3" s="105" t="s">
-        <v>161</v>
-      </c>
-      <c r="I3" s="105" t="s">
-        <v>160</v>
-      </c>
-      <c r="J3" s="105" t="s">
-        <v>136</v>
-      </c>
-      <c r="K3" s="144" t="str">
+      <c r="A3" s="100"/>
+      <c r="B3" s="104" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104" t="s">
+        <v>133</v>
+      </c>
+      <c r="G3" s="104" t="s">
+        <v>132</v>
+      </c>
+      <c r="H3" s="104" t="s">
+        <v>131</v>
+      </c>
+      <c r="I3" s="104" t="s">
+        <v>130</v>
+      </c>
+      <c r="J3" s="104" t="s">
+        <v>106</v>
+      </c>
+      <c r="K3" s="143" t="str">
         <f>K2&amp;"_SwapsFromBasis.xml"</f>
         <v>USD_YC1MRH_SwapsFromBasis.xml</v>
       </c>
-      <c r="L3" s="143" t="str">
+      <c r="L3" s="142" t="str">
         <f>IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
         <v>---</v>
       </c>
-      <c r="M3" s="148" t="str">
+      <c r="M3" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(L3)</f>
         <v/>
       </c>
-      <c r="N3" s="130"/>
+      <c r="N3" s="129"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" s="108"/>
-      <c r="B4" s="107"/>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="107"/>
-      <c r="H4" s="107"/>
-      <c r="I4" s="107"/>
-      <c r="J4" s="107"/>
-      <c r="K4" s="142" t="str">
+      <c r="A4" s="107"/>
+      <c r="B4" s="106"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="106"/>
+      <c r="J4" s="106"/>
+      <c r="K4" s="141" t="str">
         <f>$K$2&amp;"_"&amp;$D6&amp;$E6&amp;"BASIS_"&amp;FamilyName&amp;$J$2</f>
         <v>USD_YC1MRH_AM1LBASIS_Libor1M</v>
       </c>
-      <c r="L4" s="141" t="str">
+      <c r="L4" s="140" t="str">
         <f>IF(UPPER(FamilyName)="IBOR",_xll.qlEuribor($K4,$J$2,,Permanent,Trigger,ObjectOverwrite),IF(UPPER(FamilyName)="LIBOR",_xll.qlLibor($K4,Currency,$J$2,,Permanent,Trigger,ObjectOverwrite),"--"))</f>
-        <v>USD_YC1MRH_AM1LBASIS_Libor1M#0003</v>
-      </c>
-      <c r="M4" s="140" t="str">
+        <v>USD_YC1MRH_AM1LBASIS_Libor1M#0001</v>
+      </c>
+      <c r="M4" s="139" t="str">
         <f>_xll.ohRangeRetrieveError(L4)</f>
         <v/>
       </c>
-      <c r="N4" s="130"/>
+      <c r="N4" s="129"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5" s="108"/>
-      <c r="B5" s="107"/>
-      <c r="C5" s="107"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="107"/>
-      <c r="F5" s="107"/>
-      <c r="G5" s="107"/>
-      <c r="H5" s="107"/>
-      <c r="I5" s="107"/>
-      <c r="J5" s="107"/>
-      <c r="K5" s="107"/>
-      <c r="L5" s="107"/>
-      <c r="M5" s="107"/>
-      <c r="N5" s="130"/>
+      <c r="A5" s="107"/>
+      <c r="B5" s="106"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="106"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="106"/>
+      <c r="J5" s="106"/>
+      <c r="K5" s="106"/>
+      <c r="L5" s="106"/>
+      <c r="M5" s="106"/>
+      <c r="N5" s="129"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" s="101"/>
-      <c r="B6" s="158" t="s">
-        <v>149</v>
-      </c>
-      <c r="C6" s="139" t="s">
+      <c r="A6" s="100"/>
+      <c r="B6" s="157" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="138" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="158" t="str">
+      <c r="D6" s="157" t="str">
         <f>VLOOKUP(Currency,Swap1MConventions,2)</f>
         <v>AM</v>
       </c>
-      <c r="E6" s="158" t="str">
+      <c r="E6" s="157" t="str">
         <f>VLOOKUP(Currency,Swap1MConventions,3)</f>
         <v>1L</v>
       </c>
-      <c r="F6" s="138" t="str">
+      <c r="F6" s="137" t="str">
         <f t="shared" ref="F6:F42" si="0">IF(UPPER(LEFT($D6))="A","Annual",IF(UPPER(LEFT($D6))="S","Semiannual","--"))</f>
         <v>Annual</v>
       </c>
-      <c r="G6" s="138" t="s">
-        <v>146</v>
-      </c>
-      <c r="H6" s="138" t="str">
+      <c r="G6" s="137" t="s">
+        <v>116</v>
+      </c>
+      <c r="H6" s="137" t="str">
         <f t="shared" ref="H6:H42" si="1">IF(UPPER(RIGHT($D6))="B",BondBasisDayCounter,IF(UPPER(RIGHT($D6))="M",MoneyMarketDayCounter,"--"))</f>
         <v>Actual/360</v>
       </c>
-      <c r="I6" s="136" t="str">
+      <c r="I6" s="135" t="str">
         <f t="shared" ref="I6:I42" si="2">Currency&amp;$I$2&amp;$E6&amp;$C6&amp;QuoteSuffix</f>
         <v>USD3L1L1Y_Quote</v>
       </c>
-      <c r="J6" s="135" t="str">
+      <c r="J6" s="134" t="str">
         <f t="shared" ref="J6:J42" si="3">Currency&amp;$D6&amp;$I$2&amp;$C6&amp;"_Quote"</f>
         <v>USDAM3L1Y_Quote</v>
       </c>
-      <c r="K6" s="135" t="str">
+      <c r="K6" s="134" t="str">
         <f t="shared" ref="K6:K42" si="4">$K$2&amp;"_"&amp;$D6&amp;$E6&amp;"BASIS"&amp;$C6</f>
         <v>USD_YC1MRH_AM1LBASIS1Y</v>
       </c>
-      <c r="L6" s="133" t="str">
+      <c r="L6" s="132" t="str">
         <f>_xll.qlSwapRateHelper2(K6,$J6,$C6,Calendar,$F6,$G6,$H6,$L$4,$I6,B6,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_AM1LBASIS1Y#0003</v>
-      </c>
-      <c r="M6" s="148" t="str">
+        <v>USD_YC1MRH_AM1LBASIS1Y#0001</v>
+      </c>
+      <c r="M6" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(L6)</f>
         <v/>
       </c>
-      <c r="N6" s="130"/>
+      <c r="N6" s="129"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" s="101"/>
-      <c r="B7" s="139" t="str">
+      <c r="A7" s="100"/>
+      <c r="B7" s="138" t="str">
         <f t="shared" ref="B7:B42" si="5">B6</f>
         <v>0D</v>
       </c>
-      <c r="C7" s="139" t="s">
+      <c r="C7" s="138" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="139" t="str">
+      <c r="D7" s="138" t="str">
         <f t="shared" ref="D7:D42" si="6">D6</f>
         <v>AM</v>
       </c>
-      <c r="E7" s="139" t="str">
+      <c r="E7" s="138" t="str">
         <f t="shared" ref="E7:E42" si="7">E6</f>
         <v>1L</v>
       </c>
-      <c r="F7" s="137" t="str">
+      <c r="F7" s="136" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G7" s="137" t="s">
-        <v>146</v>
-      </c>
-      <c r="H7" s="137" t="str">
+      <c r="G7" s="136" t="s">
+        <v>116</v>
+      </c>
+      <c r="H7" s="136" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I7" s="136" t="str">
+      <c r="I7" s="135" t="str">
         <f t="shared" si="2"/>
         <v>USD3L1L15M_Quote</v>
       </c>
-      <c r="J7" s="135" t="str">
+      <c r="J7" s="134" t="str">
         <f t="shared" si="3"/>
         <v>USDAM3L15M_Quote</v>
       </c>
-      <c r="K7" s="135" t="str">
+      <c r="K7" s="134" t="str">
         <f t="shared" si="4"/>
         <v>USD_YC1MRH_AM1LBASIS15M</v>
       </c>
-      <c r="L7" s="133" t="str">
+      <c r="L7" s="132" t="str">
         <f>_xll.qlSwapRateHelper2(K7,$J7,$C7,Calendar,$F7,$G7,$H7,$L$4,$I7,B7,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_AM1LBASIS15M#0003</v>
-      </c>
-      <c r="M7" s="148" t="str">
+        <v>USD_YC1MRH_AM1LBASIS15M#0001</v>
+      </c>
+      <c r="M7" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(L7)</f>
         <v/>
       </c>
-      <c r="N7" s="130"/>
+      <c r="N7" s="129"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A8" s="101"/>
-      <c r="B8" s="139" t="str">
+      <c r="A8" s="100"/>
+      <c r="B8" s="138" t="str">
         <f t="shared" si="5"/>
         <v>0D</v>
       </c>
-      <c r="C8" s="139" t="s">
+      <c r="C8" s="138" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="139" t="str">
+      <c r="D8" s="138" t="str">
         <f t="shared" si="6"/>
         <v>AM</v>
       </c>
-      <c r="E8" s="139" t="str">
+      <c r="E8" s="138" t="str">
         <f t="shared" si="7"/>
         <v>1L</v>
       </c>
-      <c r="F8" s="137" t="str">
+      <c r="F8" s="136" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G8" s="137" t="s">
-        <v>146</v>
-      </c>
-      <c r="H8" s="137" t="str">
+      <c r="G8" s="136" t="s">
+        <v>116</v>
+      </c>
+      <c r="H8" s="136" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I8" s="136" t="str">
+      <c r="I8" s="135" t="str">
         <f t="shared" si="2"/>
         <v>USD3L1L18M_Quote</v>
       </c>
-      <c r="J8" s="135" t="str">
+      <c r="J8" s="134" t="str">
         <f t="shared" si="3"/>
         <v>USDAM3L18M_Quote</v>
       </c>
-      <c r="K8" s="135" t="str">
+      <c r="K8" s="134" t="str">
         <f t="shared" si="4"/>
         <v>USD_YC1MRH_AM1LBASIS18M</v>
       </c>
-      <c r="L8" s="133" t="str">
+      <c r="L8" s="132" t="str">
         <f>_xll.qlSwapRateHelper2(K8,$J8,$C8,Calendar,$F8,$G8,$H8,$L$4,$I8,B8,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_AM1LBASIS18M#0003</v>
-      </c>
-      <c r="M8" s="148" t="str">
+        <v>USD_YC1MRH_AM1LBASIS18M#0001</v>
+      </c>
+      <c r="M8" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(L8)</f>
         <v/>
       </c>
-      <c r="N8" s="130"/>
+      <c r="N8" s="129"/>
     </row>
     <row r="9" spans="1:18" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="101"/>
-      <c r="B9" s="139" t="str">
+      <c r="A9" s="100"/>
+      <c r="B9" s="138" t="str">
         <f t="shared" si="5"/>
         <v>0D</v>
       </c>
-      <c r="C9" s="139" t="s">
+      <c r="C9" s="138" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="139" t="str">
+      <c r="D9" s="138" t="str">
         <f t="shared" si="6"/>
         <v>AM</v>
       </c>
-      <c r="E9" s="139" t="str">
+      <c r="E9" s="138" t="str">
         <f t="shared" si="7"/>
         <v>1L</v>
       </c>
-      <c r="F9" s="137" t="str">
+      <c r="F9" s="136" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G9" s="137" t="s">
-        <v>146</v>
-      </c>
-      <c r="H9" s="137" t="str">
+      <c r="G9" s="136" t="s">
+        <v>116</v>
+      </c>
+      <c r="H9" s="136" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I9" s="136" t="str">
+      <c r="I9" s="135" t="str">
         <f t="shared" si="2"/>
         <v>USD3L1L21M_Quote</v>
       </c>
-      <c r="J9" s="135" t="str">
+      <c r="J9" s="134" t="str">
         <f t="shared" si="3"/>
         <v>USDAM3L21M_Quote</v>
       </c>
-      <c r="K9" s="135" t="str">
+      <c r="K9" s="134" t="str">
         <f t="shared" si="4"/>
         <v>USD_YC1MRH_AM1LBASIS21M</v>
       </c>
-      <c r="L9" s="133" t="str">
+      <c r="L9" s="132" t="str">
         <f>_xll.qlSwapRateHelper2(K9,$J9,$C9,Calendar,$F9,$G9,$H9,$L$4,$I9,B9,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_AM1LBASIS21M#0003</v>
-      </c>
-      <c r="M9" s="148" t="str">
+        <v>USD_YC1MRH_AM1LBASIS21M#0001</v>
+      </c>
+      <c r="M9" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(L9)</f>
         <v/>
       </c>
-      <c r="N9" s="130"/>
+      <c r="N9" s="129"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A10" s="101"/>
-      <c r="B10" s="139" t="str">
+      <c r="A10" s="100"/>
+      <c r="B10" s="138" t="str">
         <f t="shared" si="5"/>
         <v>0D</v>
       </c>
-      <c r="C10" s="139" t="s">
+      <c r="C10" s="138" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="139" t="str">
+      <c r="D10" s="138" t="str">
         <f t="shared" si="6"/>
         <v>AM</v>
       </c>
-      <c r="E10" s="139" t="str">
+      <c r="E10" s="138" t="str">
         <f t="shared" si="7"/>
         <v>1L</v>
       </c>
-      <c r="F10" s="137" t="str">
+      <c r="F10" s="136" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G10" s="137" t="s">
-        <v>146</v>
-      </c>
-      <c r="H10" s="137" t="str">
+      <c r="G10" s="136" t="s">
+        <v>116</v>
+      </c>
+      <c r="H10" s="136" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I10" s="136" t="str">
+      <c r="I10" s="135" t="str">
         <f t="shared" si="2"/>
         <v>USD3L1L2Y_Quote</v>
       </c>
-      <c r="J10" s="135" t="str">
+      <c r="J10" s="134" t="str">
         <f t="shared" si="3"/>
         <v>USDAM3L2Y_Quote</v>
       </c>
-      <c r="K10" s="135" t="str">
+      <c r="K10" s="134" t="str">
         <f t="shared" si="4"/>
         <v>USD_YC1MRH_AM1LBASIS2Y</v>
       </c>
-      <c r="L10" s="133" t="str">
+      <c r="L10" s="132" t="str">
         <f>_xll.qlSwapRateHelper2(K10,$J10,$C10,Calendar,$F10,$G10,$H10,$L$4,$I10,B10,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_AM1LBASIS2Y#0003</v>
-      </c>
-      <c r="M10" s="148" t="str">
+        <v>USD_YC1MRH_AM1LBASIS2Y#0001</v>
+      </c>
+      <c r="M10" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(L10)</f>
         <v/>
       </c>
-      <c r="N10" s="130"/>
-      <c r="P10" s="157" t="s">
+      <c r="N10" s="129"/>
+      <c r="P10" s="156" t="s">
         <v>101</v>
       </c>
-      <c r="Q10" s="156" t="s">
+      <c r="Q10" s="155" t="s">
         <v>98</v>
       </c>
-      <c r="R10" s="155" t="s">
-        <v>172</v>
+      <c r="R10" s="154" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" s="101"/>
-      <c r="B11" s="139" t="str">
+      <c r="A11" s="100"/>
+      <c r="B11" s="138" t="str">
         <f t="shared" si="5"/>
         <v>0D</v>
       </c>
-      <c r="C11" s="139" t="s">
+      <c r="C11" s="138" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="139" t="str">
+      <c r="D11" s="138" t="str">
         <f t="shared" si="6"/>
         <v>AM</v>
       </c>
-      <c r="E11" s="139" t="str">
+      <c r="E11" s="138" t="str">
         <f t="shared" si="7"/>
         <v>1L</v>
       </c>
-      <c r="F11" s="137" t="str">
+      <c r="F11" s="136" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G11" s="137" t="s">
-        <v>146</v>
-      </c>
-      <c r="H11" s="137" t="str">
+      <c r="G11" s="136" t="s">
+        <v>116</v>
+      </c>
+      <c r="H11" s="136" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I11" s="136" t="str">
+      <c r="I11" s="135" t="str">
         <f t="shared" si="2"/>
         <v>USD3L1L3Y_Quote</v>
       </c>
-      <c r="J11" s="135" t="str">
+      <c r="J11" s="134" t="str">
         <f t="shared" si="3"/>
         <v>USDAM3L3Y_Quote</v>
       </c>
-      <c r="K11" s="135" t="str">
+      <c r="K11" s="134" t="str">
         <f t="shared" si="4"/>
         <v>USD_YC1MRH_AM1LBASIS3Y</v>
       </c>
-      <c r="L11" s="133" t="str">
+      <c r="L11" s="132" t="str">
         <f>_xll.qlSwapRateHelper2(K11,$J11,$C11,Calendar,$F11,$G11,$H11,$L$4,$I11,B11,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_AM1LBASIS3Y#0003</v>
-      </c>
-      <c r="M11" s="148" t="str">
+        <v>USD_YC1MRH_AM1LBASIS3Y#0001</v>
+      </c>
+      <c r="M11" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(L11)</f>
         <v/>
       </c>
-      <c r="N11" s="130"/>
-      <c r="P11" s="154" t="s">
+      <c r="N11" s="129"/>
+      <c r="P11" s="153" t="s">
         <v>99</v>
       </c>
-      <c r="Q11" s="149" t="s">
+      <c r="Q11" s="148" t="s">
         <v>98</v>
       </c>
-      <c r="R11" s="153" t="s">
-        <v>173</v>
+      <c r="R11" s="152" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12" s="101"/>
-      <c r="B12" s="139" t="str">
+      <c r="A12" s="100"/>
+      <c r="B12" s="138" t="str">
         <f t="shared" si="5"/>
         <v>0D</v>
       </c>
-      <c r="C12" s="139" t="s">
+      <c r="C12" s="138" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="139" t="str">
+      <c r="D12" s="138" t="str">
         <f t="shared" si="6"/>
         <v>AM</v>
       </c>
-      <c r="E12" s="139" t="str">
+      <c r="E12" s="138" t="str">
         <f t="shared" si="7"/>
         <v>1L</v>
       </c>
-      <c r="F12" s="137" t="str">
+      <c r="F12" s="136" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G12" s="137" t="s">
-        <v>146</v>
-      </c>
-      <c r="H12" s="137" t="str">
+      <c r="G12" s="136" t="s">
+        <v>116</v>
+      </c>
+      <c r="H12" s="136" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I12" s="136" t="str">
+      <c r="I12" s="135" t="str">
         <f t="shared" si="2"/>
         <v>USD3L1L4Y_Quote</v>
       </c>
-      <c r="J12" s="135" t="str">
+      <c r="J12" s="134" t="str">
         <f t="shared" si="3"/>
         <v>USDAM3L4Y_Quote</v>
       </c>
-      <c r="K12" s="135" t="str">
+      <c r="K12" s="134" t="str">
         <f t="shared" si="4"/>
         <v>USD_YC1MRH_AM1LBASIS4Y</v>
       </c>
-      <c r="L12" s="133" t="str">
+      <c r="L12" s="132" t="str">
         <f>_xll.qlSwapRateHelper2(K12,$J12,$C12,Calendar,$F12,$G12,$H12,$L$4,$I12,B12,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_AM1LBASIS4Y#0003</v>
-      </c>
-      <c r="M12" s="148" t="str">
+        <v>USD_YC1MRH_AM1LBASIS4Y#0001</v>
+      </c>
+      <c r="M12" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(L12)</f>
         <v/>
       </c>
-      <c r="N12" s="130"/>
-      <c r="P12" s="154" t="s">
+      <c r="N12" s="129"/>
+      <c r="P12" s="153" t="s">
         <v>96</v>
       </c>
-      <c r="Q12" s="149" t="s">
+      <c r="Q12" s="148" t="s">
         <v>90</v>
       </c>
-      <c r="R12" s="153" t="s">
-        <v>172</v>
+      <c r="R12" s="152" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A13" s="101"/>
-      <c r="B13" s="139" t="str">
+      <c r="A13" s="100"/>
+      <c r="B13" s="138" t="str">
         <f t="shared" si="5"/>
         <v>0D</v>
       </c>
-      <c r="C13" s="139" t="s">
+      <c r="C13" s="138" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="139" t="str">
+      <c r="D13" s="138" t="str">
         <f t="shared" si="6"/>
         <v>AM</v>
       </c>
-      <c r="E13" s="139" t="str">
+      <c r="E13" s="138" t="str">
         <f t="shared" si="7"/>
         <v>1L</v>
       </c>
-      <c r="F13" s="137" t="str">
+      <c r="F13" s="136" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G13" s="137" t="s">
-        <v>146</v>
-      </c>
-      <c r="H13" s="137" t="str">
+      <c r="G13" s="136" t="s">
+        <v>116</v>
+      </c>
+      <c r="H13" s="136" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I13" s="136" t="str">
+      <c r="I13" s="135" t="str">
         <f t="shared" si="2"/>
         <v>USD3L1L5Y_Quote</v>
       </c>
-      <c r="J13" s="135" t="str">
+      <c r="J13" s="134" t="str">
         <f t="shared" si="3"/>
         <v>USDAM3L5Y_Quote</v>
       </c>
-      <c r="K13" s="135" t="str">
+      <c r="K13" s="134" t="str">
         <f t="shared" si="4"/>
         <v>USD_YC1MRH_AM1LBASIS5Y</v>
       </c>
-      <c r="L13" s="133" t="str">
+      <c r="L13" s="132" t="str">
         <f>_xll.qlSwapRateHelper2(K13,$J13,$C13,Calendar,$F13,$G13,$H13,$L$4,$I13,B13,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_AM1LBASIS5Y#0003</v>
-      </c>
-      <c r="M13" s="148" t="str">
+        <v>USD_YC1MRH_AM1LBASIS5Y#0001</v>
+      </c>
+      <c r="M13" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(L13)</f>
         <v/>
       </c>
-      <c r="N13" s="130"/>
-      <c r="P13" s="154" t="s">
+      <c r="N13" s="129"/>
+      <c r="P13" s="153" t="s">
         <v>93</v>
       </c>
-      <c r="Q13" s="149" t="s">
+      <c r="Q13" s="148" t="s">
         <v>95</v>
       </c>
-      <c r="R13" s="153" t="s">
-        <v>172</v>
+      <c r="R13" s="152" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="101"/>
-      <c r="B14" s="139" t="str">
+      <c r="A14" s="100"/>
+      <c r="B14" s="138" t="str">
         <f t="shared" si="5"/>
         <v>0D</v>
       </c>
-      <c r="C14" s="139" t="s">
+      <c r="C14" s="138" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="139" t="str">
+      <c r="D14" s="138" t="str">
         <f t="shared" si="6"/>
         <v>AM</v>
       </c>
-      <c r="E14" s="139" t="str">
+      <c r="E14" s="138" t="str">
         <f t="shared" si="7"/>
         <v>1L</v>
       </c>
-      <c r="F14" s="137" t="str">
+      <c r="F14" s="136" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G14" s="137" t="s">
-        <v>146</v>
-      </c>
-      <c r="H14" s="137" t="str">
+      <c r="G14" s="136" t="s">
+        <v>116</v>
+      </c>
+      <c r="H14" s="136" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I14" s="136" t="str">
+      <c r="I14" s="135" t="str">
         <f t="shared" si="2"/>
         <v>USD3L1L6Y_Quote</v>
       </c>
-      <c r="J14" s="135" t="str">
+      <c r="J14" s="134" t="str">
         <f t="shared" si="3"/>
         <v>USDAM3L6Y_Quote</v>
       </c>
-      <c r="K14" s="135" t="str">
+      <c r="K14" s="134" t="str">
         <f t="shared" si="4"/>
         <v>USD_YC1MRH_AM1LBASIS6Y</v>
       </c>
-      <c r="L14" s="133" t="str">
+      <c r="L14" s="132" t="str">
         <f>_xll.qlSwapRateHelper2(K14,$J14,$C14,Calendar,$F14,$G14,$H14,$L$4,$I14,B14,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_AM1LBASIS6Y#0003</v>
-      </c>
-      <c r="M14" s="148" t="str">
+        <v>USD_YC1MRH_AM1LBASIS6Y#0001</v>
+      </c>
+      <c r="M14" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(L14)</f>
         <v/>
       </c>
-      <c r="N14" s="130"/>
-      <c r="P14" s="152" t="s">
+      <c r="N14" s="129"/>
+      <c r="P14" s="151" t="s">
         <v>91</v>
       </c>
-      <c r="Q14" s="151" t="s">
+      <c r="Q14" s="150" t="s">
         <v>90</v>
       </c>
-      <c r="R14" s="150" t="s">
-        <v>172</v>
+      <c r="R14" s="149" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A15" s="101"/>
-      <c r="B15" s="139" t="str">
+      <c r="A15" s="100"/>
+      <c r="B15" s="138" t="str">
         <f t="shared" si="5"/>
         <v>0D</v>
       </c>
-      <c r="C15" s="139" t="s">
+      <c r="C15" s="138" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="139" t="str">
+      <c r="D15" s="138" t="str">
         <f t="shared" si="6"/>
         <v>AM</v>
       </c>
-      <c r="E15" s="139" t="str">
+      <c r="E15" s="138" t="str">
         <f t="shared" si="7"/>
         <v>1L</v>
       </c>
-      <c r="F15" s="137" t="str">
+      <c r="F15" s="136" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G15" s="137" t="s">
-        <v>146</v>
-      </c>
-      <c r="H15" s="137" t="str">
+      <c r="G15" s="136" t="s">
+        <v>116</v>
+      </c>
+      <c r="H15" s="136" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I15" s="136" t="str">
+      <c r="I15" s="135" t="str">
         <f t="shared" si="2"/>
         <v>USD3L1L7Y_Quote</v>
       </c>
-      <c r="J15" s="135" t="str">
+      <c r="J15" s="134" t="str">
         <f t="shared" si="3"/>
         <v>USDAM3L7Y_Quote</v>
       </c>
-      <c r="K15" s="135" t="str">
+      <c r="K15" s="134" t="str">
         <f t="shared" si="4"/>
         <v>USD_YC1MRH_AM1LBASIS7Y</v>
       </c>
-      <c r="L15" s="133" t="str">
+      <c r="L15" s="132" t="str">
         <f>_xll.qlSwapRateHelper2(K15,$J15,$C15,Calendar,$F15,$G15,$H15,$L$4,$I15,B15,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_AM1LBASIS7Y#0003</v>
-      </c>
-      <c r="M15" s="148" t="str">
+        <v>USD_YC1MRH_AM1LBASIS7Y#0001</v>
+      </c>
+      <c r="M15" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(L15)</f>
         <v/>
       </c>
-      <c r="N15" s="130"/>
-      <c r="P15" s="149"/>
-      <c r="Q15" s="149"/>
-      <c r="R15" s="149"/>
+      <c r="N15" s="129"/>
+      <c r="P15" s="148"/>
+      <c r="Q15" s="148"/>
+      <c r="R15" s="148"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A16" s="101"/>
-      <c r="B16" s="139" t="str">
+      <c r="A16" s="100"/>
+      <c r="B16" s="138" t="str">
         <f t="shared" si="5"/>
         <v>0D</v>
       </c>
-      <c r="C16" s="139" t="s">
+      <c r="C16" s="138" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="139" t="str">
+      <c r="D16" s="138" t="str">
         <f t="shared" si="6"/>
         <v>AM</v>
       </c>
-      <c r="E16" s="139" t="str">
+      <c r="E16" s="138" t="str">
         <f t="shared" si="7"/>
         <v>1L</v>
       </c>
-      <c r="F16" s="137" t="str">
+      <c r="F16" s="136" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G16" s="137" t="s">
-        <v>146</v>
-      </c>
-      <c r="H16" s="137" t="str">
+      <c r="G16" s="136" t="s">
+        <v>116</v>
+      </c>
+      <c r="H16" s="136" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I16" s="136" t="str">
+      <c r="I16" s="135" t="str">
         <f t="shared" si="2"/>
         <v>USD3L1L8Y_Quote</v>
       </c>
-      <c r="J16" s="135" t="str">
+      <c r="J16" s="134" t="str">
         <f t="shared" si="3"/>
         <v>USDAM3L8Y_Quote</v>
       </c>
-      <c r="K16" s="135" t="str">
+      <c r="K16" s="134" t="str">
         <f t="shared" si="4"/>
         <v>USD_YC1MRH_AM1LBASIS8Y</v>
       </c>
-      <c r="L16" s="133" t="str">
+      <c r="L16" s="132" t="str">
         <f>_xll.qlSwapRateHelper2(K16,$J16,$C16,Calendar,$F16,$G16,$H16,$L$4,$I16,B16,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_AM1LBASIS8Y#0003</v>
-      </c>
-      <c r="M16" s="148" t="str">
+        <v>USD_YC1MRH_AM1LBASIS8Y#0001</v>
+      </c>
+      <c r="M16" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(L16)</f>
         <v/>
       </c>
-      <c r="N16" s="130"/>
+      <c r="N16" s="129"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="101"/>
-      <c r="B17" s="139" t="str">
+      <c r="A17" s="100"/>
+      <c r="B17" s="138" t="str">
         <f t="shared" si="5"/>
         <v>0D</v>
       </c>
-      <c r="C17" s="139" t="s">
+      <c r="C17" s="138" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="139" t="str">
+      <c r="D17" s="138" t="str">
         <f t="shared" si="6"/>
         <v>AM</v>
       </c>
-      <c r="E17" s="139" t="str">
+      <c r="E17" s="138" t="str">
         <f t="shared" si="7"/>
         <v>1L</v>
       </c>
-      <c r="F17" s="137" t="str">
+      <c r="F17" s="136" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G17" s="137" t="s">
-        <v>146</v>
-      </c>
-      <c r="H17" s="137" t="str">
+      <c r="G17" s="136" t="s">
+        <v>116</v>
+      </c>
+      <c r="H17" s="136" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I17" s="136" t="str">
+      <c r="I17" s="135" t="str">
         <f t="shared" si="2"/>
         <v>USD3L1L9Y_Quote</v>
       </c>
-      <c r="J17" s="135" t="str">
+      <c r="J17" s="134" t="str">
         <f t="shared" si="3"/>
         <v>USDAM3L9Y_Quote</v>
       </c>
-      <c r="K17" s="135" t="str">
+      <c r="K17" s="134" t="str">
         <f t="shared" si="4"/>
         <v>USD_YC1MRH_AM1LBASIS9Y</v>
       </c>
-      <c r="L17" s="133" t="str">
+      <c r="L17" s="132" t="str">
         <f>_xll.qlSwapRateHelper2(K17,$J17,$C17,Calendar,$F17,$G17,$H17,$L$4,$I17,B17,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_AM1LBASIS9Y#0003</v>
-      </c>
-      <c r="M17" s="148" t="str">
+        <v>USD_YC1MRH_AM1LBASIS9Y#0001</v>
+      </c>
+      <c r="M17" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(L17)</f>
         <v/>
       </c>
-      <c r="N17" s="130"/>
+      <c r="N17" s="129"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="101"/>
-      <c r="B18" s="139" t="str">
+      <c r="A18" s="100"/>
+      <c r="B18" s="138" t="str">
         <f t="shared" si="5"/>
         <v>0D</v>
       </c>
-      <c r="C18" s="139" t="s">
+      <c r="C18" s="138" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="139" t="str">
+      <c r="D18" s="138" t="str">
         <f t="shared" si="6"/>
         <v>AM</v>
       </c>
-      <c r="E18" s="139" t="str">
+      <c r="E18" s="138" t="str">
         <f t="shared" si="7"/>
         <v>1L</v>
       </c>
-      <c r="F18" s="137" t="str">
+      <c r="F18" s="136" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G18" s="137" t="s">
-        <v>146</v>
-      </c>
-      <c r="H18" s="137" t="str">
+      <c r="G18" s="136" t="s">
+        <v>116</v>
+      </c>
+      <c r="H18" s="136" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I18" s="136" t="str">
+      <c r="I18" s="135" t="str">
         <f t="shared" si="2"/>
         <v>USD3L1L10Y_Quote</v>
       </c>
-      <c r="J18" s="135" t="str">
+      <c r="J18" s="134" t="str">
         <f t="shared" si="3"/>
         <v>USDAM3L10Y_Quote</v>
       </c>
-      <c r="K18" s="135" t="str">
+      <c r="K18" s="134" t="str">
         <f t="shared" si="4"/>
         <v>USD_YC1MRH_AM1LBASIS10Y</v>
       </c>
-      <c r="L18" s="133" t="str">
+      <c r="L18" s="132" t="str">
         <f>_xll.qlSwapRateHelper2(K18,$J18,$C18,Calendar,$F18,$G18,$H18,$L$4,$I18,B18,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_AM1LBASIS10Y#0003</v>
-      </c>
-      <c r="M18" s="148" t="str">
+        <v>USD_YC1MRH_AM1LBASIS10Y#0001</v>
+      </c>
+      <c r="M18" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(L18)</f>
         <v/>
       </c>
-      <c r="N18" s="130"/>
+      <c r="N18" s="129"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="101"/>
-      <c r="B19" s="139" t="str">
+      <c r="A19" s="100"/>
+      <c r="B19" s="138" t="str">
         <f t="shared" si="5"/>
         <v>0D</v>
       </c>
-      <c r="C19" s="139" t="s">
+      <c r="C19" s="138" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="139" t="str">
+      <c r="D19" s="138" t="str">
         <f t="shared" si="6"/>
         <v>AM</v>
       </c>
-      <c r="E19" s="139" t="str">
+      <c r="E19" s="138" t="str">
         <f t="shared" si="7"/>
         <v>1L</v>
       </c>
-      <c r="F19" s="137" t="str">
+      <c r="F19" s="136" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G19" s="137" t="s">
-        <v>146</v>
-      </c>
-      <c r="H19" s="137" t="str">
+      <c r="G19" s="136" t="s">
+        <v>116</v>
+      </c>
+      <c r="H19" s="136" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I19" s="136" t="str">
+      <c r="I19" s="135" t="str">
         <f t="shared" si="2"/>
         <v>USD3L1L11Y_Quote</v>
       </c>
-      <c r="J19" s="135" t="str">
+      <c r="J19" s="134" t="str">
         <f t="shared" si="3"/>
         <v>USDAM3L11Y_Quote</v>
       </c>
-      <c r="K19" s="135" t="str">
+      <c r="K19" s="134" t="str">
         <f t="shared" si="4"/>
         <v>USD_YC1MRH_AM1LBASIS11Y</v>
       </c>
-      <c r="L19" s="133" t="str">
+      <c r="L19" s="132" t="str">
         <f>_xll.qlSwapRateHelper2(K19,$J19,$C19,Calendar,$F19,$G19,$H19,$L$4,$I19,B19,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_AM1LBASIS11Y#0003</v>
-      </c>
-      <c r="M19" s="148" t="str">
+        <v>USD_YC1MRH_AM1LBASIS11Y#0001</v>
+      </c>
+      <c r="M19" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(L19)</f>
         <v/>
       </c>
-      <c r="N19" s="130"/>
+      <c r="N19" s="129"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="101"/>
-      <c r="B20" s="139" t="str">
+      <c r="A20" s="100"/>
+      <c r="B20" s="138" t="str">
         <f t="shared" si="5"/>
         <v>0D</v>
       </c>
-      <c r="C20" s="139" t="s">
+      <c r="C20" s="138" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="139" t="str">
+      <c r="D20" s="138" t="str">
         <f t="shared" si="6"/>
         <v>AM</v>
       </c>
-      <c r="E20" s="139" t="str">
+      <c r="E20" s="138" t="str">
         <f t="shared" si="7"/>
         <v>1L</v>
       </c>
-      <c r="F20" s="137" t="str">
+      <c r="F20" s="136" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G20" s="137" t="s">
-        <v>146</v>
-      </c>
-      <c r="H20" s="137" t="str">
+      <c r="G20" s="136" t="s">
+        <v>116</v>
+      </c>
+      <c r="H20" s="136" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I20" s="136" t="str">
+      <c r="I20" s="135" t="str">
         <f t="shared" si="2"/>
         <v>USD3L1L12Y_Quote</v>
       </c>
-      <c r="J20" s="135" t="str">
+      <c r="J20" s="134" t="str">
         <f t="shared" si="3"/>
         <v>USDAM3L12Y_Quote</v>
       </c>
-      <c r="K20" s="135" t="str">
+      <c r="K20" s="134" t="str">
         <f t="shared" si="4"/>
         <v>USD_YC1MRH_AM1LBASIS12Y</v>
       </c>
-      <c r="L20" s="133" t="str">
+      <c r="L20" s="132" t="str">
         <f>_xll.qlSwapRateHelper2(K20,$J20,$C20,Calendar,$F20,$G20,$H20,$L$4,$I20,B20,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_AM1LBASIS12Y#0003</v>
-      </c>
-      <c r="M20" s="148" t="str">
+        <v>USD_YC1MRH_AM1LBASIS12Y#0001</v>
+      </c>
+      <c r="M20" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(L20)</f>
         <v/>
       </c>
-      <c r="N20" s="130"/>
+      <c r="N20" s="129"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="101"/>
-      <c r="B21" s="139" t="str">
+      <c r="A21" s="100"/>
+      <c r="B21" s="138" t="str">
         <f t="shared" si="5"/>
         <v>0D</v>
       </c>
-      <c r="C21" s="139" t="s">
+      <c r="C21" s="138" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="139" t="str">
+      <c r="D21" s="138" t="str">
         <f t="shared" si="6"/>
         <v>AM</v>
       </c>
-      <c r="E21" s="139" t="str">
+      <c r="E21" s="138" t="str">
         <f t="shared" si="7"/>
         <v>1L</v>
       </c>
-      <c r="F21" s="137" t="str">
+      <c r="F21" s="136" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G21" s="137" t="s">
-        <v>146</v>
-      </c>
-      <c r="H21" s="137" t="str">
+      <c r="G21" s="136" t="s">
+        <v>116</v>
+      </c>
+      <c r="H21" s="136" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I21" s="136" t="str">
+      <c r="I21" s="135" t="str">
         <f t="shared" si="2"/>
         <v>USD3L1L13Y_Quote</v>
       </c>
-      <c r="J21" s="135" t="str">
+      <c r="J21" s="134" t="str">
         <f t="shared" si="3"/>
         <v>USDAM3L13Y_Quote</v>
       </c>
-      <c r="K21" s="135" t="str">
+      <c r="K21" s="134" t="str">
         <f t="shared" si="4"/>
         <v>USD_YC1MRH_AM1LBASIS13Y</v>
       </c>
-      <c r="L21" s="133" t="str">
+      <c r="L21" s="132" t="str">
         <f>_xll.qlSwapRateHelper2(K21,$J21,$C21,Calendar,$F21,$G21,$H21,$L$4,$I21,B21,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_AM1LBASIS13Y#0003</v>
-      </c>
-      <c r="M21" s="148" t="str">
+        <v>USD_YC1MRH_AM1LBASIS13Y#0001</v>
+      </c>
+      <c r="M21" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(L21)</f>
         <v/>
       </c>
-      <c r="N21" s="130"/>
+      <c r="N21" s="129"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="101"/>
-      <c r="B22" s="139" t="str">
+      <c r="A22" s="100"/>
+      <c r="B22" s="138" t="str">
         <f t="shared" si="5"/>
         <v>0D</v>
       </c>
-      <c r="C22" s="139" t="s">
+      <c r="C22" s="138" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="139" t="str">
+      <c r="D22" s="138" t="str">
         <f t="shared" si="6"/>
         <v>AM</v>
       </c>
-      <c r="E22" s="139" t="str">
+      <c r="E22" s="138" t="str">
         <f t="shared" si="7"/>
         <v>1L</v>
       </c>
-      <c r="F22" s="137" t="str">
+      <c r="F22" s="136" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G22" s="137" t="s">
-        <v>146</v>
-      </c>
-      <c r="H22" s="137" t="str">
+      <c r="G22" s="136" t="s">
+        <v>116</v>
+      </c>
+      <c r="H22" s="136" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I22" s="136" t="str">
+      <c r="I22" s="135" t="str">
         <f t="shared" si="2"/>
         <v>USD3L1L14Y_Quote</v>
       </c>
-      <c r="J22" s="135" t="str">
+      <c r="J22" s="134" t="str">
         <f t="shared" si="3"/>
         <v>USDAM3L14Y_Quote</v>
       </c>
-      <c r="K22" s="135" t="str">
+      <c r="K22" s="134" t="str">
         <f t="shared" si="4"/>
         <v>USD_YC1MRH_AM1LBASIS14Y</v>
       </c>
-      <c r="L22" s="133" t="str">
+      <c r="L22" s="132" t="str">
         <f>_xll.qlSwapRateHelper2(K22,$J22,$C22,Calendar,$F22,$G22,$H22,$L$4,$I22,B22,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_AM1LBASIS14Y#0003</v>
-      </c>
-      <c r="M22" s="148" t="str">
+        <v>USD_YC1MRH_AM1LBASIS14Y#0001</v>
+      </c>
+      <c r="M22" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(L22)</f>
         <v/>
       </c>
-      <c r="N22" s="130"/>
+      <c r="N22" s="129"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="101"/>
-      <c r="B23" s="139" t="str">
+      <c r="A23" s="100"/>
+      <c r="B23" s="138" t="str">
         <f t="shared" si="5"/>
         <v>0D</v>
       </c>
-      <c r="C23" s="139" t="s">
+      <c r="C23" s="138" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="139" t="str">
+      <c r="D23" s="138" t="str">
         <f t="shared" si="6"/>
         <v>AM</v>
       </c>
-      <c r="E23" s="139" t="str">
+      <c r="E23" s="138" t="str">
         <f t="shared" si="7"/>
         <v>1L</v>
       </c>
-      <c r="F23" s="137" t="str">
+      <c r="F23" s="136" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G23" s="137" t="s">
-        <v>146</v>
-      </c>
-      <c r="H23" s="137" t="str">
+      <c r="G23" s="136" t="s">
+        <v>116</v>
+      </c>
+      <c r="H23" s="136" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I23" s="136" t="str">
+      <c r="I23" s="135" t="str">
         <f t="shared" si="2"/>
         <v>USD3L1L15Y_Quote</v>
       </c>
-      <c r="J23" s="135" t="str">
+      <c r="J23" s="134" t="str">
         <f t="shared" si="3"/>
         <v>USDAM3L15Y_Quote</v>
       </c>
-      <c r="K23" s="135" t="str">
+      <c r="K23" s="134" t="str">
         <f t="shared" si="4"/>
         <v>USD_YC1MRH_AM1LBASIS15Y</v>
       </c>
-      <c r="L23" s="133" t="str">
+      <c r="L23" s="132" t="str">
         <f>_xll.qlSwapRateHelper2(K23,$J23,$C23,Calendar,$F23,$G23,$H23,$L$4,$I23,B23,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_AM1LBASIS15Y#0003</v>
-      </c>
-      <c r="M23" s="148" t="str">
+        <v>USD_YC1MRH_AM1LBASIS15Y#0001</v>
+      </c>
+      <c r="M23" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(L23)</f>
         <v/>
       </c>
-      <c r="N23" s="130"/>
+      <c r="N23" s="129"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="101"/>
-      <c r="B24" s="139" t="str">
+      <c r="A24" s="100"/>
+      <c r="B24" s="138" t="str">
         <f t="shared" si="5"/>
         <v>0D</v>
       </c>
-      <c r="C24" s="139" t="s">
+      <c r="C24" s="138" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="139" t="str">
+      <c r="D24" s="138" t="str">
         <f t="shared" si="6"/>
         <v>AM</v>
       </c>
-      <c r="E24" s="139" t="str">
+      <c r="E24" s="138" t="str">
         <f t="shared" si="7"/>
         <v>1L</v>
       </c>
-      <c r="F24" s="137" t="str">
+      <c r="F24" s="136" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G24" s="137" t="s">
-        <v>146</v>
-      </c>
-      <c r="H24" s="137" t="str">
+      <c r="G24" s="136" t="s">
+        <v>116</v>
+      </c>
+      <c r="H24" s="136" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I24" s="136" t="str">
+      <c r="I24" s="135" t="str">
         <f t="shared" si="2"/>
         <v>USD3L1L16Y_Quote</v>
       </c>
-      <c r="J24" s="135" t="str">
+      <c r="J24" s="134" t="str">
         <f t="shared" si="3"/>
         <v>USDAM3L16Y_Quote</v>
       </c>
-      <c r="K24" s="135" t="str">
+      <c r="K24" s="134" t="str">
         <f t="shared" si="4"/>
         <v>USD_YC1MRH_AM1LBASIS16Y</v>
       </c>
-      <c r="L24" s="133" t="str">
+      <c r="L24" s="132" t="str">
         <f>_xll.qlSwapRateHelper2(K24,$J24,$C24,Calendar,$F24,$G24,$H24,$L$4,$I24,B24,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_AM1LBASIS16Y#0003</v>
-      </c>
-      <c r="M24" s="148" t="str">
+        <v>USD_YC1MRH_AM1LBASIS16Y#0001</v>
+      </c>
+      <c r="M24" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(L24)</f>
         <v/>
       </c>
-      <c r="N24" s="130"/>
+      <c r="N24" s="129"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="101"/>
-      <c r="B25" s="139" t="str">
+      <c r="A25" s="100"/>
+      <c r="B25" s="138" t="str">
         <f t="shared" si="5"/>
         <v>0D</v>
       </c>
-      <c r="C25" s="139" t="s">
+      <c r="C25" s="138" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="139" t="str">
+      <c r="D25" s="138" t="str">
         <f t="shared" si="6"/>
         <v>AM</v>
       </c>
-      <c r="E25" s="139" t="str">
+      <c r="E25" s="138" t="str">
         <f t="shared" si="7"/>
         <v>1L</v>
       </c>
-      <c r="F25" s="137" t="str">
+      <c r="F25" s="136" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G25" s="137" t="s">
-        <v>146</v>
-      </c>
-      <c r="H25" s="137" t="str">
+      <c r="G25" s="136" t="s">
+        <v>116</v>
+      </c>
+      <c r="H25" s="136" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I25" s="136" t="str">
+      <c r="I25" s="135" t="str">
         <f t="shared" si="2"/>
         <v>USD3L1L17Y_Quote</v>
       </c>
-      <c r="J25" s="135" t="str">
+      <c r="J25" s="134" t="str">
         <f t="shared" si="3"/>
         <v>USDAM3L17Y_Quote</v>
       </c>
-      <c r="K25" s="135" t="str">
+      <c r="K25" s="134" t="str">
         <f t="shared" si="4"/>
         <v>USD_YC1MRH_AM1LBASIS17Y</v>
       </c>
-      <c r="L25" s="133" t="str">
+      <c r="L25" s="132" t="str">
         <f>_xll.qlSwapRateHelper2(K25,$J25,$C25,Calendar,$F25,$G25,$H25,$L$4,$I25,B25,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_AM1LBASIS17Y#0003</v>
-      </c>
-      <c r="M25" s="148" t="str">
+        <v>USD_YC1MRH_AM1LBASIS17Y#0001</v>
+      </c>
+      <c r="M25" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(L25)</f>
         <v/>
       </c>
-      <c r="N25" s="130"/>
+      <c r="N25" s="129"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="101"/>
-      <c r="B26" s="139" t="str">
+      <c r="A26" s="100"/>
+      <c r="B26" s="138" t="str">
         <f t="shared" si="5"/>
         <v>0D</v>
       </c>
-      <c r="C26" s="139" t="s">
+      <c r="C26" s="138" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="139" t="str">
+      <c r="D26" s="138" t="str">
         <f t="shared" si="6"/>
         <v>AM</v>
       </c>
-      <c r="E26" s="139" t="str">
+      <c r="E26" s="138" t="str">
         <f t="shared" si="7"/>
         <v>1L</v>
       </c>
-      <c r="F26" s="137" t="str">
+      <c r="F26" s="136" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G26" s="137" t="s">
-        <v>146</v>
-      </c>
-      <c r="H26" s="137" t="str">
+      <c r="G26" s="136" t="s">
+        <v>116</v>
+      </c>
+      <c r="H26" s="136" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I26" s="136" t="str">
+      <c r="I26" s="135" t="str">
         <f t="shared" si="2"/>
         <v>USD3L1L18Y_Quote</v>
       </c>
-      <c r="J26" s="135" t="str">
+      <c r="J26" s="134" t="str">
         <f t="shared" si="3"/>
         <v>USDAM3L18Y_Quote</v>
       </c>
-      <c r="K26" s="135" t="str">
+      <c r="K26" s="134" t="str">
         <f t="shared" si="4"/>
         <v>USD_YC1MRH_AM1LBASIS18Y</v>
       </c>
-      <c r="L26" s="133" t="str">
+      <c r="L26" s="132" t="str">
         <f>_xll.qlSwapRateHelper2(K26,$J26,$C26,Calendar,$F26,$G26,$H26,$L$4,$I26,B26,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_AM1LBASIS18Y#0003</v>
-      </c>
-      <c r="M26" s="148" t="str">
+        <v>USD_YC1MRH_AM1LBASIS18Y#0001</v>
+      </c>
+      <c r="M26" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(L26)</f>
         <v/>
       </c>
-      <c r="N26" s="130"/>
+      <c r="N26" s="129"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="101"/>
-      <c r="B27" s="139" t="str">
+      <c r="A27" s="100"/>
+      <c r="B27" s="138" t="str">
         <f t="shared" si="5"/>
         <v>0D</v>
       </c>
-      <c r="C27" s="139" t="s">
+      <c r="C27" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="139" t="str">
+      <c r="D27" s="138" t="str">
         <f t="shared" si="6"/>
         <v>AM</v>
       </c>
-      <c r="E27" s="139" t="str">
+      <c r="E27" s="138" t="str">
         <f t="shared" si="7"/>
         <v>1L</v>
       </c>
-      <c r="F27" s="137" t="str">
+      <c r="F27" s="136" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G27" s="137" t="s">
-        <v>146</v>
-      </c>
-      <c r="H27" s="137" t="str">
+      <c r="G27" s="136" t="s">
+        <v>116</v>
+      </c>
+      <c r="H27" s="136" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I27" s="136" t="str">
+      <c r="I27" s="135" t="str">
         <f t="shared" si="2"/>
         <v>USD3L1L19Y_Quote</v>
       </c>
-      <c r="J27" s="135" t="str">
+      <c r="J27" s="134" t="str">
         <f t="shared" si="3"/>
         <v>USDAM3L19Y_Quote</v>
       </c>
-      <c r="K27" s="135" t="str">
+      <c r="K27" s="134" t="str">
         <f t="shared" si="4"/>
         <v>USD_YC1MRH_AM1LBASIS19Y</v>
       </c>
-      <c r="L27" s="133" t="str">
+      <c r="L27" s="132" t="str">
         <f>_xll.qlSwapRateHelper2(K27,$J27,$C27,Calendar,$F27,$G27,$H27,$L$4,$I27,B27,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_AM1LBASIS19Y#0003</v>
-      </c>
-      <c r="M27" s="148" t="str">
+        <v>USD_YC1MRH_AM1LBASIS19Y#0001</v>
+      </c>
+      <c r="M27" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(L27)</f>
         <v/>
       </c>
-      <c r="N27" s="130"/>
+      <c r="N27" s="129"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="101"/>
-      <c r="B28" s="139" t="str">
+      <c r="A28" s="100"/>
+      <c r="B28" s="138" t="str">
         <f t="shared" si="5"/>
         <v>0D</v>
       </c>
-      <c r="C28" s="139" t="s">
+      <c r="C28" s="138" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="139" t="str">
+      <c r="D28" s="138" t="str">
         <f t="shared" si="6"/>
         <v>AM</v>
       </c>
-      <c r="E28" s="139" t="str">
+      <c r="E28" s="138" t="str">
         <f t="shared" si="7"/>
         <v>1L</v>
       </c>
-      <c r="F28" s="137" t="str">
+      <c r="F28" s="136" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G28" s="137" t="s">
-        <v>146</v>
-      </c>
-      <c r="H28" s="137" t="str">
+      <c r="G28" s="136" t="s">
+        <v>116</v>
+      </c>
+      <c r="H28" s="136" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I28" s="136" t="str">
+      <c r="I28" s="135" t="str">
         <f t="shared" si="2"/>
         <v>USD3L1L20Y_Quote</v>
       </c>
-      <c r="J28" s="135" t="str">
+      <c r="J28" s="134" t="str">
         <f t="shared" si="3"/>
         <v>USDAM3L20Y_Quote</v>
       </c>
-      <c r="K28" s="135" t="str">
+      <c r="K28" s="134" t="str">
         <f t="shared" si="4"/>
         <v>USD_YC1MRH_AM1LBASIS20Y</v>
       </c>
-      <c r="L28" s="133" t="str">
+      <c r="L28" s="132" t="str">
         <f>_xll.qlSwapRateHelper2(K28,$J28,$C28,Calendar,$F28,$G28,$H28,$L$4,$I28,B28,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_AM1LBASIS20Y#0003</v>
-      </c>
-      <c r="M28" s="148" t="str">
+        <v>USD_YC1MRH_AM1LBASIS20Y#0001</v>
+      </c>
+      <c r="M28" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(L28)</f>
         <v/>
       </c>
-      <c r="N28" s="130"/>
+      <c r="N28" s="129"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="101"/>
-      <c r="B29" s="139" t="str">
+      <c r="A29" s="100"/>
+      <c r="B29" s="138" t="str">
         <f t="shared" si="5"/>
         <v>0D</v>
       </c>
-      <c r="C29" s="139" t="s">
+      <c r="C29" s="138" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="139" t="str">
+      <c r="D29" s="138" t="str">
         <f t="shared" si="6"/>
         <v>AM</v>
       </c>
-      <c r="E29" s="139" t="str">
+      <c r="E29" s="138" t="str">
         <f t="shared" si="7"/>
         <v>1L</v>
       </c>
-      <c r="F29" s="137" t="str">
+      <c r="F29" s="136" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G29" s="137" t="s">
-        <v>146</v>
-      </c>
-      <c r="H29" s="137" t="str">
+      <c r="G29" s="136" t="s">
+        <v>116</v>
+      </c>
+      <c r="H29" s="136" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I29" s="136" t="str">
+      <c r="I29" s="135" t="str">
         <f t="shared" si="2"/>
         <v>USD3L1L21Y_Quote</v>
       </c>
-      <c r="J29" s="135" t="str">
+      <c r="J29" s="134" t="str">
         <f t="shared" si="3"/>
         <v>USDAM3L21Y_Quote</v>
       </c>
-      <c r="K29" s="135" t="str">
+      <c r="K29" s="134" t="str">
         <f t="shared" si="4"/>
         <v>USD_YC1MRH_AM1LBASIS21Y</v>
       </c>
-      <c r="L29" s="133" t="str">
+      <c r="L29" s="132" t="str">
         <f>_xll.qlSwapRateHelper2(K29,$J29,$C29,Calendar,$F29,$G29,$H29,$L$4,$I29,B29,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_AM1LBASIS21Y#0003</v>
-      </c>
-      <c r="M29" s="148" t="str">
+        <v>USD_YC1MRH_AM1LBASIS21Y#0001</v>
+      </c>
+      <c r="M29" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(L29)</f>
         <v/>
       </c>
-      <c r="N29" s="130"/>
+      <c r="N29" s="129"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="101"/>
-      <c r="B30" s="139" t="str">
+      <c r="A30" s="100"/>
+      <c r="B30" s="138" t="str">
         <f t="shared" si="5"/>
         <v>0D</v>
       </c>
-      <c r="C30" s="139" t="s">
+      <c r="C30" s="138" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="139" t="str">
+      <c r="D30" s="138" t="str">
         <f t="shared" si="6"/>
         <v>AM</v>
       </c>
-      <c r="E30" s="139" t="str">
+      <c r="E30" s="138" t="str">
         <f t="shared" si="7"/>
         <v>1L</v>
       </c>
-      <c r="F30" s="137" t="str">
+      <c r="F30" s="136" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G30" s="137" t="s">
-        <v>146</v>
-      </c>
-      <c r="H30" s="137" t="str">
+      <c r="G30" s="136" t="s">
+        <v>116</v>
+      </c>
+      <c r="H30" s="136" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I30" s="136" t="str">
+      <c r="I30" s="135" t="str">
         <f t="shared" si="2"/>
         <v>USD3L1L22Y_Quote</v>
       </c>
-      <c r="J30" s="135" t="str">
+      <c r="J30" s="134" t="str">
         <f t="shared" si="3"/>
         <v>USDAM3L22Y_Quote</v>
       </c>
-      <c r="K30" s="135" t="str">
+      <c r="K30" s="134" t="str">
         <f t="shared" si="4"/>
         <v>USD_YC1MRH_AM1LBASIS22Y</v>
       </c>
-      <c r="L30" s="133" t="str">
+      <c r="L30" s="132" t="str">
         <f>_xll.qlSwapRateHelper2(K30,$J30,$C30,Calendar,$F30,$G30,$H30,$L$4,$I30,B30,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_AM1LBASIS22Y#0003</v>
-      </c>
-      <c r="M30" s="148" t="str">
+        <v>USD_YC1MRH_AM1LBASIS22Y#0001</v>
+      </c>
+      <c r="M30" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(L30)</f>
         <v/>
       </c>
-      <c r="N30" s="130"/>
+      <c r="N30" s="129"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="101"/>
-      <c r="B31" s="139" t="str">
+      <c r="A31" s="100"/>
+      <c r="B31" s="138" t="str">
         <f t="shared" si="5"/>
         <v>0D</v>
       </c>
-      <c r="C31" s="139" t="s">
+      <c r="C31" s="138" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="139" t="str">
+      <c r="D31" s="138" t="str">
         <f t="shared" si="6"/>
         <v>AM</v>
       </c>
-      <c r="E31" s="139" t="str">
+      <c r="E31" s="138" t="str">
         <f t="shared" si="7"/>
         <v>1L</v>
       </c>
-      <c r="F31" s="137" t="str">
+      <c r="F31" s="136" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G31" s="137" t="s">
-        <v>146</v>
-      </c>
-      <c r="H31" s="137" t="str">
+      <c r="G31" s="136" t="s">
+        <v>116</v>
+      </c>
+      <c r="H31" s="136" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I31" s="136" t="str">
+      <c r="I31" s="135" t="str">
         <f t="shared" si="2"/>
         <v>USD3L1L23Y_Quote</v>
       </c>
-      <c r="J31" s="135" t="str">
+      <c r="J31" s="134" t="str">
         <f t="shared" si="3"/>
         <v>USDAM3L23Y_Quote</v>
       </c>
-      <c r="K31" s="135" t="str">
+      <c r="K31" s="134" t="str">
         <f t="shared" si="4"/>
         <v>USD_YC1MRH_AM1LBASIS23Y</v>
       </c>
-      <c r="L31" s="133" t="str">
+      <c r="L31" s="132" t="str">
         <f>_xll.qlSwapRateHelper2(K31,$J31,$C31,Calendar,$F31,$G31,$H31,$L$4,$I31,B31,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_AM1LBASIS23Y#0003</v>
-      </c>
-      <c r="M31" s="148" t="str">
+        <v>USD_YC1MRH_AM1LBASIS23Y#0001</v>
+      </c>
+      <c r="M31" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(L31)</f>
         <v/>
       </c>
-      <c r="N31" s="130"/>
+      <c r="N31" s="129"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="101"/>
-      <c r="B32" s="139" t="str">
+      <c r="A32" s="100"/>
+      <c r="B32" s="138" t="str">
         <f t="shared" si="5"/>
         <v>0D</v>
       </c>
-      <c r="C32" s="139" t="s">
+      <c r="C32" s="138" t="s">
         <v>10</v>
       </c>
-      <c r="D32" s="139" t="str">
+      <c r="D32" s="138" t="str">
         <f t="shared" si="6"/>
         <v>AM</v>
       </c>
-      <c r="E32" s="139" t="str">
+      <c r="E32" s="138" t="str">
         <f t="shared" si="7"/>
         <v>1L</v>
       </c>
-      <c r="F32" s="137" t="str">
+      <c r="F32" s="136" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G32" s="137" t="s">
-        <v>146</v>
-      </c>
-      <c r="H32" s="137" t="str">
+      <c r="G32" s="136" t="s">
+        <v>116</v>
+      </c>
+      <c r="H32" s="136" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I32" s="136" t="str">
+      <c r="I32" s="135" t="str">
         <f t="shared" si="2"/>
         <v>USD3L1L24Y_Quote</v>
       </c>
-      <c r="J32" s="135" t="str">
+      <c r="J32" s="134" t="str">
         <f t="shared" si="3"/>
         <v>USDAM3L24Y_Quote</v>
       </c>
-      <c r="K32" s="135" t="str">
+      <c r="K32" s="134" t="str">
         <f t="shared" si="4"/>
         <v>USD_YC1MRH_AM1LBASIS24Y</v>
       </c>
-      <c r="L32" s="133" t="str">
+      <c r="L32" s="132" t="str">
         <f>_xll.qlSwapRateHelper2(K32,$J32,$C32,Calendar,$F32,$G32,$H32,$L$4,$I32,B32,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_AM1LBASIS24Y#0003</v>
-      </c>
-      <c r="M32" s="148" t="str">
+        <v>USD_YC1MRH_AM1LBASIS24Y#0001</v>
+      </c>
+      <c r="M32" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(L32)</f>
         <v/>
       </c>
-      <c r="N32" s="130"/>
+      <c r="N32" s="129"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33" s="101"/>
-      <c r="B33" s="139" t="str">
+      <c r="A33" s="100"/>
+      <c r="B33" s="138" t="str">
         <f t="shared" si="5"/>
         <v>0D</v>
       </c>
-      <c r="C33" s="139" t="s">
+      <c r="C33" s="138" t="s">
         <v>9</v>
       </c>
-      <c r="D33" s="139" t="str">
+      <c r="D33" s="138" t="str">
         <f t="shared" si="6"/>
         <v>AM</v>
       </c>
-      <c r="E33" s="139" t="str">
+      <c r="E33" s="138" t="str">
         <f t="shared" si="7"/>
         <v>1L</v>
       </c>
-      <c r="F33" s="137" t="str">
+      <c r="F33" s="136" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G33" s="137" t="s">
-        <v>146</v>
-      </c>
-      <c r="H33" s="137" t="str">
+      <c r="G33" s="136" t="s">
+        <v>116</v>
+      </c>
+      <c r="H33" s="136" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I33" s="136" t="str">
+      <c r="I33" s="135" t="str">
         <f t="shared" si="2"/>
         <v>USD3L1L25Y_Quote</v>
       </c>
-      <c r="J33" s="135" t="str">
+      <c r="J33" s="134" t="str">
         <f t="shared" si="3"/>
         <v>USDAM3L25Y_Quote</v>
       </c>
-      <c r="K33" s="135" t="str">
+      <c r="K33" s="134" t="str">
         <f t="shared" si="4"/>
         <v>USD_YC1MRH_AM1LBASIS25Y</v>
       </c>
-      <c r="L33" s="133" t="str">
+      <c r="L33" s="132" t="str">
         <f>_xll.qlSwapRateHelper2(K33,$J33,$C33,Calendar,$F33,$G33,$H33,$L$4,$I33,B33,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_AM1LBASIS25Y#0003</v>
-      </c>
-      <c r="M33" s="148" t="str">
+        <v>USD_YC1MRH_AM1LBASIS25Y#0001</v>
+      </c>
+      <c r="M33" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(L33)</f>
         <v/>
       </c>
-      <c r="N33" s="130"/>
+      <c r="N33" s="129"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34" s="101"/>
-      <c r="B34" s="139" t="str">
+      <c r="A34" s="100"/>
+      <c r="B34" s="138" t="str">
         <f t="shared" si="5"/>
         <v>0D</v>
       </c>
-      <c r="C34" s="139" t="s">
+      <c r="C34" s="138" t="s">
         <v>8</v>
       </c>
-      <c r="D34" s="139" t="str">
+      <c r="D34" s="138" t="str">
         <f t="shared" si="6"/>
         <v>AM</v>
       </c>
-      <c r="E34" s="139" t="str">
+      <c r="E34" s="138" t="str">
         <f t="shared" si="7"/>
         <v>1L</v>
       </c>
-      <c r="F34" s="137" t="str">
+      <c r="F34" s="136" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G34" s="137" t="s">
-        <v>146</v>
-      </c>
-      <c r="H34" s="137" t="str">
+      <c r="G34" s="136" t="s">
+        <v>116</v>
+      </c>
+      <c r="H34" s="136" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I34" s="136" t="str">
+      <c r="I34" s="135" t="str">
         <f t="shared" si="2"/>
         <v>USD3L1L26Y_Quote</v>
       </c>
-      <c r="J34" s="135" t="str">
+      <c r="J34" s="134" t="str">
         <f t="shared" si="3"/>
         <v>USDAM3L26Y_Quote</v>
       </c>
-      <c r="K34" s="135" t="str">
+      <c r="K34" s="134" t="str">
         <f t="shared" si="4"/>
         <v>USD_YC1MRH_AM1LBASIS26Y</v>
       </c>
-      <c r="L34" s="133" t="str">
+      <c r="L34" s="132" t="str">
         <f>_xll.qlSwapRateHelper2(K34,$J34,$C34,Calendar,$F34,$G34,$H34,$L$4,$I34,B34,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_AM1LBASIS26Y#0003</v>
-      </c>
-      <c r="M34" s="148" t="str">
+        <v>USD_YC1MRH_AM1LBASIS26Y#0001</v>
+      </c>
+      <c r="M34" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(L34)</f>
         <v/>
       </c>
-      <c r="N34" s="130"/>
+      <c r="N34" s="129"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35" s="101"/>
-      <c r="B35" s="139" t="str">
+      <c r="A35" s="100"/>
+      <c r="B35" s="138" t="str">
         <f t="shared" si="5"/>
         <v>0D</v>
       </c>
-      <c r="C35" s="139" t="s">
+      <c r="C35" s="138" t="s">
         <v>7</v>
       </c>
-      <c r="D35" s="139" t="str">
+      <c r="D35" s="138" t="str">
         <f t="shared" si="6"/>
         <v>AM</v>
       </c>
-      <c r="E35" s="139" t="str">
+      <c r="E35" s="138" t="str">
         <f t="shared" si="7"/>
         <v>1L</v>
       </c>
-      <c r="F35" s="137" t="str">
+      <c r="F35" s="136" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G35" s="137" t="s">
-        <v>146</v>
-      </c>
-      <c r="H35" s="137" t="str">
+      <c r="G35" s="136" t="s">
+        <v>116</v>
+      </c>
+      <c r="H35" s="136" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I35" s="136" t="str">
+      <c r="I35" s="135" t="str">
         <f t="shared" si="2"/>
         <v>USD3L1L27Y_Quote</v>
       </c>
-      <c r="J35" s="135" t="str">
+      <c r="J35" s="134" t="str">
         <f t="shared" si="3"/>
         <v>USDAM3L27Y_Quote</v>
       </c>
-      <c r="K35" s="135" t="str">
+      <c r="K35" s="134" t="str">
         <f t="shared" si="4"/>
         <v>USD_YC1MRH_AM1LBASIS27Y</v>
       </c>
-      <c r="L35" s="133" t="str">
+      <c r="L35" s="132" t="str">
         <f>_xll.qlSwapRateHelper2(K35,$J35,$C35,Calendar,$F35,$G35,$H35,$L$4,$I35,B35,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_AM1LBASIS27Y#0003</v>
-      </c>
-      <c r="M35" s="148" t="str">
+        <v>USD_YC1MRH_AM1LBASIS27Y#0001</v>
+      </c>
+      <c r="M35" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(L35)</f>
         <v/>
       </c>
-      <c r="N35" s="130"/>
+      <c r="N35" s="129"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A36" s="101"/>
-      <c r="B36" s="139" t="str">
+      <c r="A36" s="100"/>
+      <c r="B36" s="138" t="str">
         <f t="shared" si="5"/>
         <v>0D</v>
       </c>
-      <c r="C36" s="139" t="s">
+      <c r="C36" s="138" t="s">
         <v>6</v>
       </c>
-      <c r="D36" s="139" t="str">
+      <c r="D36" s="138" t="str">
         <f t="shared" si="6"/>
         <v>AM</v>
       </c>
-      <c r="E36" s="139" t="str">
+      <c r="E36" s="138" t="str">
         <f t="shared" si="7"/>
         <v>1L</v>
       </c>
-      <c r="F36" s="137" t="str">
+      <c r="F36" s="136" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G36" s="137" t="s">
-        <v>146</v>
-      </c>
-      <c r="H36" s="137" t="str">
+      <c r="G36" s="136" t="s">
+        <v>116</v>
+      </c>
+      <c r="H36" s="136" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I36" s="136" t="str">
+      <c r="I36" s="135" t="str">
         <f t="shared" si="2"/>
         <v>USD3L1L28Y_Quote</v>
       </c>
-      <c r="J36" s="135" t="str">
+      <c r="J36" s="134" t="str">
         <f t="shared" si="3"/>
         <v>USDAM3L28Y_Quote</v>
       </c>
-      <c r="K36" s="135" t="str">
+      <c r="K36" s="134" t="str">
         <f t="shared" si="4"/>
         <v>USD_YC1MRH_AM1LBASIS28Y</v>
       </c>
-      <c r="L36" s="133" t="str">
+      <c r="L36" s="132" t="str">
         <f>_xll.qlSwapRateHelper2(K36,$J36,$C36,Calendar,$F36,$G36,$H36,$L$4,$I36,B36,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_AM1LBASIS28Y#0003</v>
-      </c>
-      <c r="M36" s="148" t="str">
+        <v>USD_YC1MRH_AM1LBASIS28Y#0001</v>
+      </c>
+      <c r="M36" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(L36)</f>
         <v/>
       </c>
-      <c r="N36" s="130"/>
+      <c r="N36" s="129"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A37" s="101"/>
-      <c r="B37" s="139" t="str">
+      <c r="A37" s="100"/>
+      <c r="B37" s="138" t="str">
         <f t="shared" si="5"/>
         <v>0D</v>
       </c>
-      <c r="C37" s="139" t="s">
+      <c r="C37" s="138" t="s">
         <v>5</v>
       </c>
-      <c r="D37" s="139" t="str">
+      <c r="D37" s="138" t="str">
         <f t="shared" si="6"/>
         <v>AM</v>
       </c>
-      <c r="E37" s="139" t="str">
+      <c r="E37" s="138" t="str">
         <f t="shared" si="7"/>
         <v>1L</v>
       </c>
-      <c r="F37" s="137" t="str">
+      <c r="F37" s="136" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G37" s="137" t="s">
-        <v>146</v>
-      </c>
-      <c r="H37" s="137" t="str">
+      <c r="G37" s="136" t="s">
+        <v>116</v>
+      </c>
+      <c r="H37" s="136" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I37" s="136" t="str">
+      <c r="I37" s="135" t="str">
         <f t="shared" si="2"/>
         <v>USD3L1L29Y_Quote</v>
       </c>
-      <c r="J37" s="135" t="str">
+      <c r="J37" s="134" t="str">
         <f t="shared" si="3"/>
         <v>USDAM3L29Y_Quote</v>
       </c>
-      <c r="K37" s="135" t="str">
+      <c r="K37" s="134" t="str">
         <f t="shared" si="4"/>
         <v>USD_YC1MRH_AM1LBASIS29Y</v>
       </c>
-      <c r="L37" s="133" t="str">
+      <c r="L37" s="132" t="str">
         <f>_xll.qlSwapRateHelper2(K37,$J37,$C37,Calendar,$F37,$G37,$H37,$L$4,$I37,B37,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_AM1LBASIS29Y#0003</v>
-      </c>
-      <c r="M37" s="148" t="str">
+        <v>USD_YC1MRH_AM1LBASIS29Y#0001</v>
+      </c>
+      <c r="M37" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(L37)</f>
         <v/>
       </c>
-      <c r="N37" s="130"/>
+      <c r="N37" s="129"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A38" s="101"/>
-      <c r="B38" s="139" t="str">
+      <c r="A38" s="100"/>
+      <c r="B38" s="138" t="str">
         <f t="shared" si="5"/>
         <v>0D</v>
       </c>
-      <c r="C38" s="139" t="s">
+      <c r="C38" s="138" t="s">
         <v>4</v>
       </c>
-      <c r="D38" s="139" t="str">
+      <c r="D38" s="138" t="str">
         <f t="shared" si="6"/>
         <v>AM</v>
       </c>
-      <c r="E38" s="139" t="str">
+      <c r="E38" s="138" t="str">
         <f t="shared" si="7"/>
         <v>1L</v>
       </c>
-      <c r="F38" s="137" t="str">
+      <c r="F38" s="136" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G38" s="137" t="s">
-        <v>146</v>
-      </c>
-      <c r="H38" s="137" t="str">
+      <c r="G38" s="136" t="s">
+        <v>116</v>
+      </c>
+      <c r="H38" s="136" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I38" s="136" t="str">
+      <c r="I38" s="135" t="str">
         <f t="shared" si="2"/>
         <v>USD3L1L30Y_Quote</v>
       </c>
-      <c r="J38" s="135" t="str">
+      <c r="J38" s="134" t="str">
         <f t="shared" si="3"/>
         <v>USDAM3L30Y_Quote</v>
       </c>
-      <c r="K38" s="135" t="str">
+      <c r="K38" s="134" t="str">
         <f t="shared" si="4"/>
         <v>USD_YC1MRH_AM1LBASIS30Y</v>
       </c>
-      <c r="L38" s="133" t="str">
+      <c r="L38" s="132" t="str">
         <f>_xll.qlSwapRateHelper2(K38,$J38,$C38,Calendar,$F38,$G38,$H38,$L$4,$I38,B38,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_AM1LBASIS30Y#0003</v>
-      </c>
-      <c r="M38" s="148" t="str">
+        <v>USD_YC1MRH_AM1LBASIS30Y#0001</v>
+      </c>
+      <c r="M38" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(L38)</f>
         <v/>
       </c>
-      <c r="N38" s="130"/>
+      <c r="N38" s="129"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A39" s="101"/>
-      <c r="B39" s="139" t="str">
+      <c r="A39" s="100"/>
+      <c r="B39" s="138" t="str">
         <f t="shared" si="5"/>
         <v>0D</v>
       </c>
-      <c r="C39" s="139" t="s">
+      <c r="C39" s="138" t="s">
         <v>3</v>
       </c>
-      <c r="D39" s="139" t="str">
+      <c r="D39" s="138" t="str">
         <f t="shared" si="6"/>
         <v>AM</v>
       </c>
-      <c r="E39" s="139" t="str">
+      <c r="E39" s="138" t="str">
         <f t="shared" si="7"/>
         <v>1L</v>
       </c>
-      <c r="F39" s="137" t="str">
+      <c r="F39" s="136" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G39" s="137" t="s">
-        <v>146</v>
-      </c>
-      <c r="H39" s="137" t="str">
+      <c r="G39" s="136" t="s">
+        <v>116</v>
+      </c>
+      <c r="H39" s="136" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I39" s="136" t="str">
+      <c r="I39" s="135" t="str">
         <f t="shared" si="2"/>
         <v>USD3L1L35Y_Quote</v>
       </c>
-      <c r="J39" s="135" t="str">
+      <c r="J39" s="134" t="str">
         <f t="shared" si="3"/>
         <v>USDAM3L35Y_Quote</v>
       </c>
-      <c r="K39" s="135" t="str">
+      <c r="K39" s="134" t="str">
         <f t="shared" si="4"/>
         <v>USD_YC1MRH_AM1LBASIS35Y</v>
       </c>
-      <c r="L39" s="133" t="str">
+      <c r="L39" s="132" t="str">
         <f>_xll.qlSwapRateHelper2(K39,$J39,$C39,Calendar,$F39,$G39,$H39,$L$4,$I39,B39,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_AM1LBASIS35Y#0003</v>
-      </c>
-      <c r="M39" s="148" t="str">
+        <v>USD_YC1MRH_AM1LBASIS35Y#0001</v>
+      </c>
+      <c r="M39" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(L39)</f>
         <v/>
       </c>
-      <c r="N39" s="130"/>
+      <c r="N39" s="129"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A40" s="101"/>
-      <c r="B40" s="139" t="str">
+      <c r="A40" s="100"/>
+      <c r="B40" s="138" t="str">
         <f t="shared" si="5"/>
         <v>0D</v>
       </c>
-      <c r="C40" s="139" t="s">
+      <c r="C40" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="D40" s="139" t="str">
+      <c r="D40" s="138" t="str">
         <f t="shared" si="6"/>
         <v>AM</v>
       </c>
-      <c r="E40" s="139" t="str">
+      <c r="E40" s="138" t="str">
         <f t="shared" si="7"/>
         <v>1L</v>
       </c>
-      <c r="F40" s="137" t="str">
+      <c r="F40" s="136" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G40" s="137" t="s">
-        <v>146</v>
-      </c>
-      <c r="H40" s="137" t="str">
+      <c r="G40" s="136" t="s">
+        <v>116</v>
+      </c>
+      <c r="H40" s="136" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I40" s="136" t="str">
+      <c r="I40" s="135" t="str">
         <f t="shared" si="2"/>
         <v>USD3L1L40Y_Quote</v>
       </c>
-      <c r="J40" s="135" t="str">
+      <c r="J40" s="134" t="str">
         <f t="shared" si="3"/>
         <v>USDAM3L40Y_Quote</v>
       </c>
-      <c r="K40" s="135" t="str">
+      <c r="K40" s="134" t="str">
         <f t="shared" si="4"/>
         <v>USD_YC1MRH_AM1LBASIS40Y</v>
       </c>
-      <c r="L40" s="133" t="str">
+      <c r="L40" s="132" t="str">
         <f>_xll.qlSwapRateHelper2(K40,$J40,$C40,Calendar,$F40,$G40,$H40,$L$4,$I40,B40,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_AM1LBASIS40Y#0003</v>
-      </c>
-      <c r="M40" s="148" t="str">
+        <v>USD_YC1MRH_AM1LBASIS40Y#0001</v>
+      </c>
+      <c r="M40" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(L40)</f>
         <v/>
       </c>
-      <c r="N40" s="130"/>
+      <c r="N40" s="129"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A41" s="101"/>
-      <c r="B41" s="139" t="str">
+      <c r="A41" s="100"/>
+      <c r="B41" s="138" t="str">
         <f t="shared" si="5"/>
         <v>0D</v>
       </c>
-      <c r="C41" s="139" t="s">
-        <v>1</v>
-      </c>
-      <c r="D41" s="139" t="str">
+      <c r="C41" s="138" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" s="138" t="str">
         <f t="shared" si="6"/>
         <v>AM</v>
       </c>
-      <c r="E41" s="139" t="str">
+      <c r="E41" s="138" t="str">
         <f t="shared" si="7"/>
         <v>1L</v>
       </c>
-      <c r="F41" s="137" t="str">
+      <c r="F41" s="136" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G41" s="137" t="s">
-        <v>146</v>
-      </c>
-      <c r="H41" s="137" t="str">
+      <c r="G41" s="136" t="s">
+        <v>116</v>
+      </c>
+      <c r="H41" s="136" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I41" s="136" t="str">
+      <c r="I41" s="135" t="str">
         <f t="shared" si="2"/>
         <v>USD3L1L50Y_Quote</v>
       </c>
-      <c r="J41" s="135" t="str">
+      <c r="J41" s="134" t="str">
         <f t="shared" si="3"/>
         <v>USDAM3L50Y_Quote</v>
       </c>
-      <c r="K41" s="135" t="str">
+      <c r="K41" s="134" t="str">
         <f t="shared" si="4"/>
         <v>USD_YC1MRH_AM1LBASIS50Y</v>
       </c>
-      <c r="L41" s="133" t="str">
+      <c r="L41" s="132" t="str">
         <f>_xll.qlSwapRateHelper2(K41,$J41,$C41,Calendar,$F41,$G41,$H41,$L$4,$I41,B41,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_AM1LBASIS50Y#0003</v>
-      </c>
-      <c r="M41" s="148" t="str">
+        <v>USD_YC1MRH_AM1LBASIS50Y#0001</v>
+      </c>
+      <c r="M41" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(L41)</f>
         <v/>
       </c>
-      <c r="N41" s="130"/>
+      <c r="N41" s="129"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A42" s="101"/>
-      <c r="B42" s="139" t="str">
+      <c r="A42" s="100"/>
+      <c r="B42" s="138" t="str">
         <f t="shared" si="5"/>
         <v>0D</v>
       </c>
-      <c r="C42" s="139" t="s">
-        <v>0</v>
-      </c>
-      <c r="D42" s="139" t="str">
+      <c r="C42" s="138" t="s">
+        <v>0</v>
+      </c>
+      <c r="D42" s="138" t="str">
         <f t="shared" si="6"/>
         <v>AM</v>
       </c>
-      <c r="E42" s="139" t="str">
+      <c r="E42" s="138" t="str">
         <f t="shared" si="7"/>
         <v>1L</v>
       </c>
-      <c r="F42" s="137" t="str">
+      <c r="F42" s="136" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G42" s="137" t="s">
-        <v>146</v>
-      </c>
-      <c r="H42" s="137" t="str">
+      <c r="G42" s="136" t="s">
+        <v>116</v>
+      </c>
+      <c r="H42" s="136" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I42" s="136" t="str">
+      <c r="I42" s="135" t="str">
         <f t="shared" si="2"/>
         <v>USD3L1L60Y_Quote</v>
       </c>
-      <c r="J42" s="135" t="str">
+      <c r="J42" s="134" t="str">
         <f t="shared" si="3"/>
         <v>USDAM3L60Y_Quote</v>
       </c>
-      <c r="K42" s="135" t="str">
+      <c r="K42" s="134" t="str">
         <f t="shared" si="4"/>
         <v>USD_YC1MRH_AM1LBASIS60Y</v>
       </c>
-      <c r="L42" s="133" t="str">
+      <c r="L42" s="132" t="str">
         <f>_xll.qlSwapRateHelper2(K42,$J42,$C42,Calendar,$F42,$G42,$H42,$L$4,$I42,B42,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_AM1LBASIS60Y#0003</v>
-      </c>
-      <c r="M42" s="148" t="str">
+        <v>USD_YC1MRH_AM1LBASIS60Y#0001</v>
+      </c>
+      <c r="M42" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(L42)</f>
         <v/>
       </c>
-      <c r="N42" s="130"/>
+      <c r="N42" s="129"/>
     </row>
     <row r="43" spans="1:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="94"/>
-      <c r="B43" s="93"/>
-      <c r="C43" s="93"/>
-      <c r="D43" s="93"/>
-      <c r="E43" s="93"/>
-      <c r="F43" s="93"/>
-      <c r="G43" s="93"/>
-      <c r="H43" s="93"/>
-      <c r="I43" s="93"/>
-      <c r="J43" s="93"/>
-      <c r="K43" s="93"/>
-      <c r="L43" s="129"/>
-      <c r="M43" s="129"/>
-      <c r="N43" s="128"/>
+      <c r="A43" s="93"/>
+      <c r="B43" s="92"/>
+      <c r="C43" s="92"/>
+      <c r="D43" s="92"/>
+      <c r="E43" s="92"/>
+      <c r="F43" s="92"/>
+      <c r="G43" s="92"/>
+      <c r="H43" s="92"/>
+      <c r="I43" s="92"/>
+      <c r="J43" s="92"/>
+      <c r="K43" s="92"/>
+      <c r="L43" s="128"/>
+      <c r="M43" s="128"/>
+      <c r="N43" s="127"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/QuantLibXL/Data2/XLS/USD_YC1MBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/USD_YC1MBootstrapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="15285" yWindow="-15" windowWidth="15330" windowHeight="7695" tabRatio="835" activeTab="2"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="15300" windowHeight="8220" tabRatio="835" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="General Settings" sheetId="6" r:id="rId1"/>
@@ -2266,7 +2266,7 @@
       </c>
       <c r="D14" s="82" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D16,NDays,Calendar,RateHelpersSelected,DayCounter,,,Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
-        <v>_USDYC1M#0002</v>
+        <v>_USDYC1M#0001</v>
       </c>
       <c r="E14" s="58"/>
       <c r="F14" s="57"/>
@@ -2445,7 +2445,7 @@
       <c r="B27" s="60"/>
       <c r="C27" s="64">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve)</f>
-        <v>41761</v>
+        <v>41765</v>
       </c>
       <c r="D27" s="63">
         <f>MAX(_xll.ohPack(Selected!I1:I126))</f>
@@ -2458,11 +2458,11 @@
       <c r="B28" s="60"/>
       <c r="C28" s="62">
         <f>MAX(_xll.ohPack(Selected!H2:H126))</f>
-        <v>60029</v>
+        <v>60030</v>
       </c>
       <c r="D28" s="61">
         <f>MIN(_xll.ohPack(Selected!I1:I126))</f>
-        <v>0.1789730811447677</v>
+        <v>0.18233405578857395</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="57"/>
@@ -2495,7 +2495,10 @@
     <row r="31" spans="2:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="56"/>
       <c r="C31" s="55"/>
-      <c r="D31" s="55"/>
+      <c r="D31" s="55" t="b">
+        <f>_xll.qlExtrapolatorEnableExtrapolation(YieldCurve,TRUE)</f>
+        <v>1</v>
+      </c>
       <c r="E31" s="55"/>
       <c r="F31" s="54"/>
     </row>
@@ -2610,7 +2613,7 @@
       </c>
       <c r="F2" s="13">
         <f>_xll.qlRateHelperQuoteValue($E2,Trigger)</f>
-        <v>1.519E-3</v>
+        <v>1.5449999999999999E-3</v>
       </c>
       <c r="G2" s="13"/>
       <c r="H2" s="12" t="b">
@@ -2624,11 +2627,11 @@
       </c>
       <c r="K2" s="11">
         <f>_xll.qlRateHelperEarliestDate($E2,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L2" s="10">
         <f>_xll.qlRateHelperLatestDate($E2,Trigger)</f>
-        <v>41773</v>
+        <v>41774</v>
       </c>
       <c r="M2" s="1">
         <v>40</v>
@@ -2649,7 +2652,7 @@
       </c>
       <c r="F3" s="13">
         <f>_xll.qlRateHelperQuoteValue($E3,Trigger)</f>
-        <v>1.505E-3</v>
+        <v>1.5150000000000001E-3</v>
       </c>
       <c r="G3" s="13"/>
       <c r="H3" s="12" t="b">
@@ -2663,7 +2666,7 @@
       </c>
       <c r="K3" s="11">
         <f>_xll.qlRateHelperEarliestDate($E3,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L3" s="10">
         <f>_xll.qlRateHelperLatestDate($E3,Trigger)</f>
@@ -5365,11 +5368,11 @@
       </c>
       <c r="K70" s="18">
         <f>_xll.qlRateHelperEarliestDate($E70,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L70" s="17">
         <f>_xll.qlRateHelperLatestDate($E70,Trigger)</f>
-        <v>41827</v>
+        <v>41828</v>
       </c>
       <c r="M70" s="22"/>
     </row>
@@ -5404,11 +5407,11 @@
       </c>
       <c r="K71" s="11">
         <f>_xll.qlRateHelperEarliestDate($E71,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L71" s="10">
         <f>_xll.qlRateHelperLatestDate($E71,Trigger)</f>
-        <v>41858</v>
+        <v>41859</v>
       </c>
       <c r="M71" s="25"/>
     </row>
@@ -5426,7 +5429,7 @@
       </c>
       <c r="F72" s="13">
         <f>_xll.qlRateHelperQuoteValue($E72,Trigger)</f>
-        <v>1.5100000000000001E-3</v>
+        <v>1.5199999999999999E-3</v>
       </c>
       <c r="G72" s="13">
         <f>_xll.qlSwapRateHelperSpread($E72,Trigger)</f>
@@ -5443,7 +5446,7 @@
       </c>
       <c r="K72" s="11">
         <f>_xll.qlRateHelperEarliestDate($E72,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L72" s="10">
         <f>_xll.qlRateHelperLatestDate($E72,Trigger)</f>
@@ -5464,7 +5467,7 @@
       </c>
       <c r="F73" s="13">
         <f>_xll.qlRateHelperQuoteValue($E73,Trigger)</f>
-        <v>1.5100000000000001E-3</v>
+        <v>1.5199999999999999E-3</v>
       </c>
       <c r="G73" s="13">
         <f>_xll.qlSwapRateHelperSpread($E73,Trigger)</f>
@@ -5481,11 +5484,11 @@
       </c>
       <c r="K73" s="11">
         <f>_xll.qlRateHelperEarliestDate($E73,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L73" s="10">
         <f>_xll.qlRateHelperLatestDate($E73,Trigger)</f>
-        <v>41919</v>
+        <v>41920</v>
       </c>
     </row>
     <row r="74" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5502,7 +5505,7 @@
       </c>
       <c r="F74" s="13">
         <f>_xll.qlRateHelperQuoteValue($E74,Trigger)</f>
-        <v>1.5299999999999999E-3</v>
+        <v>1.5399999999999999E-3</v>
       </c>
       <c r="G74" s="13">
         <f>_xll.qlSwapRateHelperSpread($E74,Trigger)</f>
@@ -5519,11 +5522,11 @@
       </c>
       <c r="K74" s="11">
         <f>_xll.qlRateHelperEarliestDate($E74,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L74" s="10">
         <f>_xll.qlRateHelperLatestDate($E74,Trigger)</f>
-        <v>41950</v>
+        <v>41953</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.2">
@@ -5540,7 +5543,7 @@
       </c>
       <c r="F75" s="13">
         <f>_xll.qlRateHelperQuoteValue($E75,Trigger)</f>
-        <v>1.56E-3</v>
+        <v>1.57E-3</v>
       </c>
       <c r="G75" s="13">
         <f>_xll.qlSwapRateHelperSpread($E75,Trigger)</f>
@@ -5557,7 +5560,7 @@
       </c>
       <c r="K75" s="11">
         <f>_xll.qlRateHelperEarliestDate($E75,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L75" s="10">
         <f>_xll.qlRateHelperLatestDate($E75,Trigger)</f>
@@ -5578,7 +5581,7 @@
       </c>
       <c r="F76" s="13">
         <f>_xll.qlRateHelperQuoteValue($E76,Trigger)</f>
-        <v>1.6000000000000001E-3</v>
+        <v>1.6100000000000001E-3</v>
       </c>
       <c r="G76" s="13">
         <f>_xll.qlSwapRateHelperSpread($E76,Trigger)</f>
@@ -5595,11 +5598,11 @@
       </c>
       <c r="K76" s="11">
         <f>_xll.qlRateHelperEarliestDate($E76,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L76" s="10">
         <f>_xll.qlRateHelperLatestDate($E76,Trigger)</f>
-        <v>42011</v>
+        <v>42012</v>
       </c>
     </row>
     <row r="77" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5616,7 +5619,7 @@
       </c>
       <c r="F77" s="13">
         <f>_xll.qlRateHelperQuoteValue($E77,Trigger)</f>
-        <v>1.64E-3</v>
+        <v>1.6599999999999998E-3</v>
       </c>
       <c r="G77" s="13">
         <f>_xll.qlSwapRateHelperSpread($E77,Trigger)</f>
@@ -5633,7 +5636,7 @@
       </c>
       <c r="K77" s="11">
         <f>_xll.qlRateHelperEarliestDate($E77,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L77" s="10">
         <f>_xll.qlRateHelperLatestDate($E77,Trigger)</f>
@@ -5654,7 +5657,7 @@
       </c>
       <c r="F78" s="13">
         <f>_xll.qlRateHelperQuoteValue($E78,Trigger)</f>
-        <v>1.6899999999999999E-3</v>
+        <v>1.7099999999999999E-3</v>
       </c>
       <c r="G78" s="13">
         <f>_xll.qlSwapRateHelperSpread($E78,Trigger)</f>
@@ -5671,7 +5674,7 @@
       </c>
       <c r="K78" s="11">
         <f>_xll.qlRateHelperEarliestDate($E78,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L78" s="10">
         <f>_xll.qlRateHelperLatestDate($E78,Trigger)</f>
@@ -5692,7 +5695,7 @@
       </c>
       <c r="F79" s="13">
         <f>_xll.qlRateHelperQuoteValue($E79,Trigger)</f>
-        <v>1.7499999999999998E-3</v>
+        <v>1.7799999999999999E-3</v>
       </c>
       <c r="G79" s="13">
         <f>_xll.qlSwapRateHelperSpread($E79,Trigger)</f>
@@ -5709,11 +5712,11 @@
       </c>
       <c r="K79" s="11">
         <f>_xll.qlRateHelperEarliestDate($E79,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L79" s="10">
         <f>_xll.qlRateHelperLatestDate($E79,Trigger)</f>
-        <v>42101</v>
+        <v>42102</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.2">
@@ -5730,7 +5733,7 @@
       </c>
       <c r="F80" s="6">
         <f>_xll.qlRateHelperQuoteValue($E80,Trigger)</f>
-        <v>1.8400000000000001E-3</v>
+        <v>1.8699999999999999E-3</v>
       </c>
       <c r="G80" s="6">
         <f>_xll.qlSwapRateHelperSpread($E80,Trigger)</f>
@@ -5747,11 +5750,11 @@
       </c>
       <c r="K80" s="4">
         <f>_xll.qlRateHelperEarliestDate($E80,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L80" s="3">
         <f>_xll.qlRateHelperLatestDate($E80,Trigger)</f>
-        <v>42131</v>
+        <v>42132</v>
       </c>
     </row>
     <row r="81" spans="2:14" x14ac:dyDescent="0.2">
@@ -7740,7 +7743,7 @@
       </c>
       <c r="F125" s="20">
         <f>_xll.qlRateHelperQuoteValue($E125,Trigger)</f>
-        <v>2.5600000000000002E-3</v>
+        <v>2.5999999999999999E-3</v>
       </c>
       <c r="G125" s="20">
         <f>_xll.qlSwapRateHelperSpread($E125,Trigger)</f>
@@ -7757,11 +7760,11 @@
       </c>
       <c r="K125" s="18">
         <f>_xll.qlRateHelperEarliestDate($E125,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L125" s="17">
         <f>_xll.qlRateHelperLatestDate($E125,Trigger)</f>
-        <v>42131</v>
+        <v>42132</v>
       </c>
     </row>
     <row r="126" spans="2:14" x14ac:dyDescent="0.2">
@@ -7786,7 +7789,7 @@
       </c>
       <c r="G126" s="13">
         <f>_xll.qlSwapRateHelperSpread($E126,Trigger)</f>
-        <v>7.3311696721376331E-4</v>
+        <v>7.2924157869744862E-4</v>
       </c>
       <c r="H126" s="12" t="b">
         <v>0</v>
@@ -7799,11 +7802,11 @@
       </c>
       <c r="K126" s="11">
         <f>_xll.qlRateHelperEarliestDate($E126,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L126" s="10">
         <f>_xll.qlRateHelperLatestDate($E126,Trigger)</f>
-        <v>42223</v>
+        <v>42226</v>
       </c>
     </row>
     <row r="127" spans="2:14" x14ac:dyDescent="0.2">
@@ -7828,7 +7831,7 @@
       </c>
       <c r="G127" s="13">
         <f>_xll.qlSwapRateHelperSpread($E127,Trigger)</f>
-        <v>7.352964344275267E-4</v>
+        <v>7.3129565739489739E-4</v>
       </c>
       <c r="H127" s="12" t="b">
         <v>0</v>
@@ -7841,7 +7844,7 @@
       </c>
       <c r="K127" s="11">
         <f>_xll.qlRateHelperEarliestDate($E127,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L127" s="10">
         <f>_xll.qlRateHelperLatestDate($E127,Trigger)</f>
@@ -7870,7 +7873,7 @@
       </c>
       <c r="G128" s="13">
         <f>_xll.qlSwapRateHelperSpread($E128,Trigger)</f>
-        <v>7.3732768442752667E-4</v>
+        <v>7.3520190739489739E-4</v>
       </c>
       <c r="H128" s="12" t="b">
         <v>0</v>
@@ -7883,7 +7886,7 @@
       </c>
       <c r="K128" s="11">
         <f>_xll.qlRateHelperEarliestDate($E128,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L128" s="10">
         <f>_xll.qlRateHelperLatestDate($E128,Trigger)</f>
@@ -7908,7 +7911,7 @@
       </c>
       <c r="F129" s="13">
         <f>_xll.qlRateHelperQuoteValue($E129,Trigger)</f>
-        <v>5.3100000000000005E-3</v>
+        <v>5.5499999999999994E-3</v>
       </c>
       <c r="G129" s="13">
         <f>_xll.qlSwapRateHelperSpread($E129,Trigger)</f>
@@ -7925,7 +7928,7 @@
       </c>
       <c r="K129" s="11">
         <f>_xll.qlRateHelperEarliestDate($E129,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L129" s="10">
         <f>_xll.qlRateHelperLatestDate($E129,Trigger)</f>
@@ -7950,7 +7953,7 @@
       </c>
       <c r="F130" s="13">
         <f>_xll.qlRateHelperQuoteValue($E130,Trigger)</f>
-        <v>9.689999999999999E-3</v>
+        <v>1.0030000000000001E-2</v>
       </c>
       <c r="G130" s="13">
         <f>_xll.qlSwapRateHelperSpread($E130,Trigger)</f>
@@ -7967,7 +7970,7 @@
       </c>
       <c r="K130" s="11">
         <f>_xll.qlRateHelperEarliestDate($E130,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L130" s="10">
         <f>_xll.qlRateHelperLatestDate($E130,Trigger)</f>
@@ -7992,7 +7995,7 @@
       </c>
       <c r="F131" s="13">
         <f>_xll.qlRateHelperQuoteValue($E131,Trigger)</f>
-        <v>1.387E-2</v>
+        <v>1.4169999999999999E-2</v>
       </c>
       <c r="G131" s="13">
         <f>_xll.qlSwapRateHelperSpread($E131,Trigger)</f>
@@ -8009,7 +8012,7 @@
       </c>
       <c r="K131" s="11">
         <f>_xll.qlRateHelperEarliestDate($E131,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L131" s="10">
         <f>_xll.qlRateHelperLatestDate($E131,Trigger)</f>
@@ -8034,7 +8037,7 @@
       </c>
       <c r="F132" s="13">
         <f>_xll.qlRateHelperQuoteValue($E132,Trigger)</f>
-        <v>1.736E-2</v>
+        <v>1.7559999999999999E-2</v>
       </c>
       <c r="G132" s="13">
         <f>_xll.qlSwapRateHelperSpread($E132,Trigger)</f>
@@ -8051,11 +8054,11 @@
       </c>
       <c r="K132" s="11">
         <f>_xll.qlRateHelperEarliestDate($E132,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L132" s="10">
         <f>_xll.qlRateHelperLatestDate($E132,Trigger)</f>
-        <v>43592</v>
+        <v>43593</v>
       </c>
     </row>
     <row r="133" spans="2:12" x14ac:dyDescent="0.2">
@@ -8076,11 +8079,11 @@
       </c>
       <c r="F133" s="13">
         <f>_xll.qlRateHelperQuoteValue($E133,Trigger)</f>
-        <v>2.0220000000000002E-2</v>
+        <v>2.0320000000000001E-2</v>
       </c>
       <c r="G133" s="13">
         <f>_xll.qlSwapRateHelperSpread($E133,Trigger)</f>
-        <v>7.7999999999999999E-4</v>
+        <v>7.9000000000000001E-4</v>
       </c>
       <c r="H133" s="12" t="b">
         <v>1</v>
@@ -8093,11 +8096,11 @@
       </c>
       <c r="K133" s="11">
         <f>_xll.qlRateHelperEarliestDate($E133,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L133" s="10">
         <f>_xll.qlRateHelperLatestDate($E133,Trigger)</f>
-        <v>43958</v>
+        <v>43959</v>
       </c>
     </row>
     <row r="134" spans="2:12" x14ac:dyDescent="0.2">
@@ -8118,11 +8121,11 @@
       </c>
       <c r="F134" s="13">
         <f>_xll.qlRateHelperQuoteValue($E134,Trigger)</f>
-        <v>2.2550000000000001E-2</v>
+        <v>2.2530000000000001E-2</v>
       </c>
       <c r="G134" s="13">
         <f>_xll.qlSwapRateHelperSpread($E134,Trigger)</f>
-        <v>7.5999999999999993E-4</v>
+        <v>7.7000000000000007E-4</v>
       </c>
       <c r="H134" s="12" t="b">
         <v>1</v>
@@ -8135,11 +8138,11 @@
       </c>
       <c r="K134" s="11">
         <f>_xll.qlRateHelperEarliestDate($E134,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L134" s="10">
         <f>_xll.qlRateHelperLatestDate($E134,Trigger)</f>
-        <v>44323</v>
+        <v>44326</v>
       </c>
     </row>
     <row r="135" spans="2:12" x14ac:dyDescent="0.2">
@@ -8160,11 +8163,11 @@
       </c>
       <c r="F135" s="13">
         <f>_xll.qlRateHelperQuoteValue($E135,Trigger)</f>
-        <v>2.443E-2</v>
+        <v>2.4299999999999999E-2</v>
       </c>
       <c r="G135" s="13">
         <f>_xll.qlSwapRateHelperSpread($E135,Trigger)</f>
-        <v>7.2999999999999996E-4</v>
+        <v>7.3999999999999999E-4</v>
       </c>
       <c r="H135" s="12" t="b">
         <v>1</v>
@@ -8177,7 +8180,7 @@
       </c>
       <c r="K135" s="11">
         <f>_xll.qlRateHelperEarliestDate($E135,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L135" s="10">
         <f>_xll.qlRateHelperLatestDate($E135,Trigger)</f>
@@ -8202,7 +8205,7 @@
       </c>
       <c r="F136" s="13">
         <f>_xll.qlRateHelperQuoteValue($E136,Trigger)</f>
-        <v>2.596E-2</v>
+        <v>2.5760000000000002E-2</v>
       </c>
       <c r="G136" s="13">
         <f>_xll.qlSwapRateHelperSpread($E136,Trigger)</f>
@@ -8219,7 +8222,7 @@
       </c>
       <c r="K136" s="11">
         <f>_xll.qlRateHelperEarliestDate($E136,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L136" s="10">
         <f>_xll.qlRateHelperLatestDate($E136,Trigger)</f>
@@ -8244,11 +8247,11 @@
       </c>
       <c r="F137" s="13">
         <f>_xll.qlRateHelperQuoteValue($E137,Trigger)</f>
-        <v>2.7229999999999997E-2</v>
+        <v>2.699E-2</v>
       </c>
       <c r="G137" s="13">
         <f>_xll.qlSwapRateHelperSpread($E137,Trigger)</f>
-        <v>6.6E-4</v>
+        <v>6.7999999999999994E-4</v>
       </c>
       <c r="H137" s="12" t="b">
         <v>1</v>
@@ -8261,11 +8264,11 @@
       </c>
       <c r="K137" s="11">
         <f>_xll.qlRateHelperEarliestDate($E137,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L137" s="10">
         <f>_xll.qlRateHelperLatestDate($E137,Trigger)</f>
-        <v>45419</v>
+        <v>45420</v>
       </c>
     </row>
     <row r="138" spans="2:12" x14ac:dyDescent="0.2">
@@ -8290,7 +8293,7 @@
       </c>
       <c r="G138" s="13">
         <f>_xll.qlSwapRateHelperSpread($E138,Trigger)</f>
-        <v>6.3061835717770581E-4</v>
+        <v>6.5259597726571004E-4</v>
       </c>
       <c r="H138" s="12" t="b">
         <v>0</v>
@@ -8303,11 +8306,11 @@
       </c>
       <c r="K138" s="11">
         <f>_xll.qlRateHelperEarliestDate($E138,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L138" s="10">
         <f>_xll.qlRateHelperLatestDate($E138,Trigger)</f>
-        <v>45784</v>
+        <v>45785</v>
       </c>
     </row>
     <row r="139" spans="2:12" x14ac:dyDescent="0.2">
@@ -8328,11 +8331,11 @@
       </c>
       <c r="F139" s="13">
         <f>_xll.qlRateHelperQuoteValue($E139,Trigger)</f>
-        <v>2.9239999999999999E-2</v>
+        <v>2.8970000000000003E-2</v>
       </c>
       <c r="G139" s="13">
         <f>_xll.qlSwapRateHelperSpread($E139,Trigger)</f>
-        <v>6.0999999999999997E-4</v>
+        <v>6.2E-4</v>
       </c>
       <c r="H139" s="12" t="b">
         <v>1</v>
@@ -8345,11 +8348,11 @@
       </c>
       <c r="K139" s="11">
         <f>_xll.qlRateHelperEarliestDate($E139,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L139" s="10">
         <f>_xll.qlRateHelperLatestDate($E139,Trigger)</f>
-        <v>46149</v>
+        <v>46150</v>
       </c>
     </row>
     <row r="140" spans="2:12" x14ac:dyDescent="0.2">
@@ -8374,7 +8377,7 @@
       </c>
       <c r="G140" s="13">
         <f>_xll.qlSwapRateHelperSpread($E140,Trigger)</f>
-        <v>5.8963438572116813E-4</v>
+        <v>5.9416599024440168E-4</v>
       </c>
       <c r="H140" s="12" t="b">
         <v>0</v>
@@ -8387,11 +8390,11 @@
       </c>
       <c r="K140" s="11">
         <f>_xll.qlRateHelperEarliestDate($E140,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L140" s="10">
         <f>_xll.qlRateHelperLatestDate($E140,Trigger)</f>
-        <v>46514</v>
+        <v>46517</v>
       </c>
     </row>
     <row r="141" spans="2:12" x14ac:dyDescent="0.2">
@@ -8416,7 +8419,7 @@
       </c>
       <c r="G141" s="13">
         <f>_xll.qlSwapRateHelperSpread($E141,Trigger)</f>
-        <v>5.6910056809496203E-4</v>
+        <v>5.7514209088052506E-4</v>
       </c>
       <c r="H141" s="12" t="b">
         <v>0</v>
@@ -8429,7 +8432,7 @@
       </c>
       <c r="K141" s="11">
         <f>_xll.qlRateHelperEarliestDate($E141,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L141" s="10">
         <f>_xll.qlRateHelperLatestDate($E141,Trigger)</f>
@@ -8454,11 +8457,11 @@
       </c>
       <c r="F142" s="13">
         <f>_xll.qlRateHelperQuoteValue($E142,Trigger)</f>
-        <v>3.1219999999999998E-2</v>
+        <v>3.0910000000000003E-2</v>
       </c>
       <c r="G142" s="13">
         <f>_xll.qlSwapRateHelperSpread($E142,Trigger)</f>
-        <v>5.5000000000000003E-4</v>
+        <v>5.5999999999999995E-4</v>
       </c>
       <c r="H142" s="12" t="b">
         <v>1</v>
@@ -8471,7 +8474,7 @@
       </c>
       <c r="K142" s="11">
         <f>_xll.qlRateHelperEarliestDate($E142,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L142" s="10">
         <f>_xll.qlRateHelperLatestDate($E142,Trigger)</f>
@@ -8500,7 +8503,7 @@
       </c>
       <c r="G143" s="13">
         <f>_xll.qlSwapRateHelperSpread($E143,Trigger)</f>
-        <v>5.335977602889361E-4</v>
+        <v>5.4629120684601858E-4</v>
       </c>
       <c r="H143" s="12" t="b">
         <v>0</v>
@@ -8513,11 +8516,11 @@
       </c>
       <c r="K143" s="11">
         <f>_xll.qlRateHelperEarliestDate($E143,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L143" s="10">
         <f>_xll.qlRateHelperLatestDate($E143,Trigger)</f>
-        <v>47610</v>
+        <v>47611</v>
       </c>
     </row>
     <row r="144" spans="2:12" x14ac:dyDescent="0.2">
@@ -8542,7 +8545,7 @@
       </c>
       <c r="G144" s="13">
         <f>_xll.qlSwapRateHelperSpread($E144,Trigger)</f>
-        <v>5.1981343171056925E-4</v>
+        <v>5.3348636526802308E-4</v>
       </c>
       <c r="H144" s="12" t="b">
         <v>0</v>
@@ -8555,11 +8558,11 @@
       </c>
       <c r="K144" s="11">
         <f>_xll.qlRateHelperEarliestDate($E144,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L144" s="10">
         <f>_xll.qlRateHelperLatestDate($E144,Trigger)</f>
-        <v>47975</v>
+        <v>47976</v>
       </c>
     </row>
     <row r="145" spans="2:12" x14ac:dyDescent="0.2">
@@ -8584,7 +8587,7 @@
       </c>
       <c r="G145" s="13">
         <f>_xll.qlSwapRateHelperSpread($E145,Trigger)</f>
-        <v>5.0823022298773432E-4</v>
+        <v>5.2153592026701835E-4</v>
       </c>
       <c r="H145" s="12" t="b">
         <v>0</v>
@@ -8597,11 +8600,11 @@
       </c>
       <c r="K145" s="11">
         <f>_xll.qlRateHelperEarliestDate($E145,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L145" s="10">
         <f>_xll.qlRateHelperLatestDate($E145,Trigger)</f>
-        <v>48341</v>
+        <v>48344</v>
       </c>
     </row>
     <row r="146" spans="2:12" x14ac:dyDescent="0.2">
@@ -8626,7 +8629,7 @@
       </c>
       <c r="G146" s="13">
         <f>_xll.qlSwapRateHelperSpread($E146,Trigger)</f>
-        <v>4.9843134284326617E-4</v>
+        <v>5.1039031684400903E-4</v>
       </c>
       <c r="H146" s="12" t="b">
         <v>0</v>
@@ -8639,7 +8642,7 @@
       </c>
       <c r="K146" s="11">
         <f>_xll.qlRateHelperEarliestDate($E146,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L146" s="10">
         <f>_xll.qlRateHelperLatestDate($E146,Trigger)</f>
@@ -8664,11 +8667,11 @@
       </c>
       <c r="F147" s="13">
         <f>_xll.qlRateHelperQuoteValue($E147,Trigger)</f>
-        <v>3.2930000000000001E-2</v>
+        <v>3.2590000000000001E-2</v>
       </c>
       <c r="G147" s="13">
         <f>_xll.qlSwapRateHelperSpread($E147,Trigger)</f>
-        <v>4.8999999999999998E-4</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="H147" s="12" t="b">
         <v>1</v>
@@ -8681,7 +8684,7 @@
       </c>
       <c r="K147" s="11">
         <f>_xll.qlRateHelperEarliestDate($E147,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L147" s="10">
         <f>_xll.qlRateHelperLatestDate($E147,Trigger)</f>
@@ -8710,7 +8713,7 @@
       </c>
       <c r="G148" s="13">
         <f>_xll.qlSwapRateHelperSpread($E148,Trigger)</f>
-        <v>4.8256925397596327E-4</v>
+        <v>4.9033426841999493E-4</v>
       </c>
       <c r="H148" s="12" t="b">
         <v>0</v>
@@ -8723,7 +8726,7 @@
       </c>
       <c r="K148" s="11">
         <f>_xll.qlRateHelperEarliestDate($E148,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L148" s="10">
         <f>_xll.qlRateHelperLatestDate($E148,Trigger)</f>
@@ -8752,7 +8755,7 @@
       </c>
       <c r="G149" s="13">
         <f>_xll.qlSwapRateHelperSpread($E149,Trigger)</f>
-        <v>4.7597156746995406E-4</v>
+        <v>4.8143783552499373E-4</v>
       </c>
       <c r="H149" s="12" t="b">
         <v>0</v>
@@ -8765,11 +8768,11 @@
       </c>
       <c r="K149" s="11">
         <f>_xll.qlRateHelperEarliestDate($E149,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L149" s="10">
         <f>_xll.qlRateHelperLatestDate($E149,Trigger)</f>
-        <v>49802</v>
+        <v>49803</v>
       </c>
     </row>
     <row r="150" spans="2:12" x14ac:dyDescent="0.2">
@@ -8794,7 +8797,7 @@
       </c>
       <c r="G150" s="13">
         <f>_xll.qlSwapRateHelperSpread($E150,Trigger)</f>
-        <v>4.7008925397596323E-4</v>
+        <v>4.7337426841999493E-4</v>
       </c>
       <c r="H150" s="12" t="b">
         <v>0</v>
@@ -8807,11 +8810,11 @@
       </c>
       <c r="K150" s="11">
         <f>_xll.qlRateHelperEarliestDate($E150,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L150" s="10">
         <f>_xll.qlRateHelperLatestDate($E150,Trigger)</f>
-        <v>50167</v>
+        <v>50168</v>
       </c>
     </row>
     <row r="151" spans="2:12" x14ac:dyDescent="0.2">
@@ -8836,7 +8839,7 @@
       </c>
       <c r="G151" s="13">
         <f>_xll.qlSwapRateHelperSpread($E151,Trigger)</f>
-        <v>4.6480462698798164E-4</v>
+        <v>4.6620713420999739E-4</v>
       </c>
       <c r="H151" s="12" t="b">
         <v>0</v>
@@ -8849,11 +8852,11 @@
       </c>
       <c r="K151" s="11">
         <f>_xll.qlRateHelperEarliestDate($E151,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L151" s="10">
         <f>_xll.qlRateHelperLatestDate($E151,Trigger)</f>
-        <v>50532</v>
+        <v>50535</v>
       </c>
     </row>
     <row r="152" spans="2:12" x14ac:dyDescent="0.2">
@@ -8874,7 +8877,7 @@
       </c>
       <c r="F152" s="13">
         <f>_xll.qlRateHelperQuoteValue($E152,Trigger)</f>
-        <v>3.3689999999999998E-2</v>
+        <v>3.3349999999999998E-2</v>
       </c>
       <c r="G152" s="13">
         <f>_xll.qlSwapRateHelperSpread($E152,Trigger)</f>
@@ -8891,7 +8894,7 @@
       </c>
       <c r="K152" s="11">
         <f>_xll.qlRateHelperEarliestDate($E152,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L152" s="10">
         <f>_xll.qlRateHelperLatestDate($E152,Trigger)</f>
@@ -8920,7 +8923,7 @@
       </c>
       <c r="G153" s="13">
         <f>_xll.qlSwapRateHelperSpread($E153,Trigger)</f>
-        <v>4.55565223807211E-4</v>
+        <v>4.5477171947400145E-4</v>
       </c>
       <c r="H153" s="12" t="b">
         <v>0</v>
@@ -8933,7 +8936,7 @@
       </c>
       <c r="K153" s="11">
         <f>_xll.qlRateHelperEarliestDate($E153,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L153" s="10">
         <f>_xll.qlRateHelperLatestDate($E153,Trigger)</f>
@@ -8962,7 +8965,7 @@
       </c>
       <c r="G154" s="13">
         <f>_xll.qlSwapRateHelperSpread($E154,Trigger)</f>
-        <v>4.5142029840961468E-4</v>
+        <v>4.5036229263200196E-4</v>
       </c>
       <c r="H154" s="12" t="b">
         <v>0</v>
@@ -8975,11 +8978,11 @@
       </c>
       <c r="K154" s="11">
         <f>_xll.qlRateHelperEarliestDate($E154,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L154" s="10">
         <f>_xll.qlRateHelperLatestDate($E154,Trigger)</f>
-        <v>51628</v>
+        <v>51629</v>
       </c>
     </row>
     <row r="155" spans="2:12" x14ac:dyDescent="0.2">
@@ -9004,7 +9007,7 @@
       </c>
       <c r="G155" s="13">
         <f>_xll.qlSwapRateHelperSpread($E155,Trigger)</f>
-        <v>4.474927611084128E-4</v>
+        <v>4.4656700605300178E-4</v>
       </c>
       <c r="H155" s="12" t="b">
         <v>0</v>
@@ -9017,11 +9020,11 @@
       </c>
       <c r="K155" s="11">
         <f>_xll.qlRateHelperEarliestDate($E155,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L155" s="10">
         <f>_xll.qlRateHelperLatestDate($E155,Trigger)</f>
-        <v>51993</v>
+        <v>51994</v>
       </c>
     </row>
     <row r="156" spans="2:12" x14ac:dyDescent="0.2">
@@ -9046,7 +9049,7 @@
       </c>
       <c r="G156" s="13">
         <f>_xll.qlSwapRateHelperSpread($E156,Trigger)</f>
-        <v>4.4371014920480736E-4</v>
+        <v>4.4318114631600105E-4</v>
       </c>
       <c r="H156" s="12" t="b">
         <v>0</v>
@@ -9059,11 +9062,11 @@
       </c>
       <c r="K156" s="11">
         <f>_xll.qlRateHelperEarliestDate($E156,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L156" s="10">
         <f>_xll.qlRateHelperLatestDate($E156,Trigger)</f>
-        <v>52358</v>
+        <v>52359</v>
       </c>
     </row>
     <row r="157" spans="2:12" x14ac:dyDescent="0.2">
@@ -9084,7 +9087,7 @@
       </c>
       <c r="F157" s="13">
         <f>_xll.qlRateHelperQuoteValue($E157,Trigger)</f>
-        <v>3.4040000000000001E-2</v>
+        <v>3.3689999999999998E-2</v>
       </c>
       <c r="G157" s="13">
         <f>_xll.qlSwapRateHelperSpread($E157,Trigger)</f>
@@ -9101,7 +9104,7 @@
       </c>
       <c r="K157" s="11">
         <f>_xll.qlRateHelperEarliestDate($E157,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L157" s="10">
         <f>_xll.qlRateHelperLatestDate($E157,Trigger)</f>
@@ -9143,11 +9146,11 @@
       </c>
       <c r="K158" s="11">
         <f>_xll.qlRateHelperEarliestDate($E158,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L158" s="10">
         <f>_xll.qlRateHelperLatestDate($E158,Trigger)</f>
-        <v>54550</v>
+        <v>54553</v>
       </c>
     </row>
     <row r="159" spans="2:12" x14ac:dyDescent="0.2">
@@ -9168,7 +9171,7 @@
       </c>
       <c r="F159" s="13">
         <f>_xll.qlRateHelperQuoteValue($E159,Trigger)</f>
-        <v>3.4230000000000003E-2</v>
+        <v>3.388E-2</v>
       </c>
       <c r="G159" s="13">
         <f>_xll.qlSwapRateHelperSpread($E159,Trigger)</f>
@@ -9185,11 +9188,11 @@
       </c>
       <c r="K159" s="11">
         <f>_xll.qlRateHelperEarliestDate($E159,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L159" s="10">
         <f>_xll.qlRateHelperLatestDate($E159,Trigger)</f>
-        <v>56376</v>
+        <v>56377</v>
       </c>
     </row>
     <row r="160" spans="2:12" x14ac:dyDescent="0.2">
@@ -9210,7 +9213,7 @@
       </c>
       <c r="F160" s="13">
         <f>_xll.qlRateHelperQuoteValue($E160,Trigger)</f>
-        <v>3.4040000000000001E-2</v>
+        <v>3.3689999999999998E-2</v>
       </c>
       <c r="G160" s="13">
         <f>_xll.qlSwapRateHelperSpread($E160,Trigger)</f>
@@ -9227,11 +9230,11 @@
       </c>
       <c r="K160" s="11">
         <f>_xll.qlRateHelperEarliestDate($E160,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L160" s="10">
         <f>_xll.qlRateHelperLatestDate($E160,Trigger)</f>
-        <v>60029</v>
+        <v>60030</v>
       </c>
     </row>
     <row r="161" spans="2:12" x14ac:dyDescent="0.2">
@@ -9269,7 +9272,7 @@
       </c>
       <c r="K161" s="4">
         <f>_xll.qlRateHelperEarliestDate($E161,Trigger)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="L161" s="3">
         <f>_xll.qlRateHelperLatestDate($E161,Trigger)</f>
@@ -9345,7 +9348,7 @@
       </c>
       <c r="E2" s="41">
         <f>_xll.qlRateHelperRate($D2)</f>
-        <v>1.519E-3</v>
+        <v>1.5449999999999999E-3</v>
       </c>
       <c r="F2" s="41" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D2)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D2)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D2)),_xll.qlSwapRateHelperSpread($D2))</f>
@@ -9353,14 +9356,14 @@
       </c>
       <c r="G2" s="40">
         <f>_xll.qlRateHelperEarliestDate($D2)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="H2" s="39">
         <f>_xll.qlRateHelperLatestDate($D2)</f>
-        <v>41773</v>
+        <v>41774</v>
       </c>
       <c r="I2" s="34">
-        <v>0.99994142766641969</v>
+        <v>0.9999378623365508</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -9375,7 +9378,7 @@
       </c>
       <c r="E3" s="41">
         <f>_xll.qlRateHelperRate($D3)</f>
-        <v>1.505E-3</v>
+        <v>1.5150000000000001E-3</v>
       </c>
       <c r="F3" s="41" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D3)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D3)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D3)),_xll.qlSwapRateHelperSpread($D3))</f>
@@ -9383,14 +9386,14 @@
       </c>
       <c r="G3" s="40">
         <f>_xll.qlRateHelperEarliestDate($D3)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="H3" s="39">
         <f>_xll.qlRateHelperLatestDate($D3)</f>
         <v>41799</v>
       </c>
       <c r="I3" s="34">
-        <v>0.99981453271266385</v>
+        <v>0.99985763421121165</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -9413,14 +9416,14 @@
       </c>
       <c r="G4" s="40">
         <f>_xll.qlRateHelperEarliestDate($D4)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="H4" s="39">
         <f>_xll.qlRateHelperLatestDate($D4)</f>
-        <v>41827</v>
+        <v>41828</v>
       </c>
       <c r="I4" s="34">
-        <v>0.99972789461754619</v>
+        <v>0.99973622058423772</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -9443,14 +9446,14 @@
       </c>
       <c r="G5" s="40">
         <f>_xll.qlRateHelperEarliestDate($D5)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="H5" s="39">
         <f>_xll.qlRateHelperLatestDate($D5)</f>
-        <v>41858</v>
+        <v>41859</v>
       </c>
       <c r="I5" s="34">
-        <v>0.99960011310101904</v>
+        <v>0.99960644990723913</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -9466,7 +9469,7 @@
       </c>
       <c r="E6" s="41">
         <f>_xll.qlRateHelperRate($D6)</f>
-        <v>1.5100000000000001E-3</v>
+        <v>1.5199999999999999E-3</v>
       </c>
       <c r="F6" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D6)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D6)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D6)),_xll.qlSwapRateHelperSpread($D6))</f>
@@ -9474,20 +9477,20 @@
       </c>
       <c r="G6" s="40">
         <f>_xll.qlRateHelperEarliestDate($D6)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="H6" s="39">
         <f>_xll.qlRateHelperLatestDate($D6)</f>
         <v>41890</v>
       </c>
       <c r="I6" s="34">
-        <v>0.99946822673140723</v>
+        <v>0.99947669607511247</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="44" t="str">
         <f>_xll.ohGroup(RateHelperPrefix&amp;"_RateHelpersSelected",_xll.ohPack(Selected!D2:D126),TRUE,,ObjectOverwrite)</f>
-        <v>USD_YC1MRH_RateHelpersSelected#0002</v>
+        <v>USD_YC1MRH_RateHelpersSelected#0001</v>
       </c>
       <c r="B7" s="43" t="str">
         <f>_xll.ohRangeRetrieveError(RateHelpersSelected)</f>
@@ -9498,7 +9501,7 @@
       </c>
       <c r="E7" s="41">
         <f>_xll.qlRateHelperRate($D7)</f>
-        <v>1.5100000000000001E-3</v>
+        <v>1.5199999999999999E-3</v>
       </c>
       <c r="F7" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D7)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D7)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D7)),_xll.qlSwapRateHelperSpread($D7))</f>
@@ -9506,14 +9509,14 @@
       </c>
       <c r="G7" s="40">
         <f>_xll.qlRateHelperEarliestDate($D7)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="H7" s="39">
         <f>_xll.qlRateHelperLatestDate($D7)</f>
-        <v>41919</v>
+        <v>41920</v>
       </c>
       <c r="I7" s="34">
-        <v>0.99934871973943873</v>
+        <v>0.99935114388697599</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -9522,7 +9525,7 @@
       </c>
       <c r="E8" s="41">
         <f>_xll.qlRateHelperRate($D8)</f>
-        <v>1.5299999999999999E-3</v>
+        <v>1.5399999999999999E-3</v>
       </c>
       <c r="F8" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D8)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D8)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D8)),_xll.qlSwapRateHelperSpread($D8))</f>
@@ -9530,14 +9533,14 @@
       </c>
       <c r="G8" s="40">
         <f>_xll.qlRateHelperEarliestDate($D8)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="H8" s="39">
         <f>_xll.qlRateHelperLatestDate($D8)</f>
-        <v>41950</v>
+        <v>41953</v>
       </c>
       <c r="I8" s="34">
-        <v>0.9991709866876396</v>
+        <v>0.99921305469615374</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -9546,7 +9549,7 @@
       </c>
       <c r="E9" s="41">
         <f>_xll.qlRateHelperRate($D9)</f>
-        <v>1.56E-3</v>
+        <v>1.57E-3</v>
       </c>
       <c r="F9" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D9)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D9)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D9)),_xll.qlSwapRateHelperSpread($D9))</f>
@@ -9554,14 +9557,14 @@
       </c>
       <c r="G9" s="40">
         <f>_xll.qlRateHelperEarliestDate($D9)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="H9" s="39">
         <f>_xll.qlRateHelperLatestDate($D9)</f>
         <v>41981</v>
       </c>
       <c r="I9" s="34">
-        <v>0.99903507658186308</v>
+        <v>0.99904590307353858</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -9570,7 +9573,7 @@
       </c>
       <c r="E10" s="41">
         <f>_xll.qlRateHelperRate($D10)</f>
-        <v>1.6000000000000001E-3</v>
+        <v>1.6100000000000001E-3</v>
       </c>
       <c r="F10" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D10)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D10)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D10)),_xll.qlSwapRateHelperSpread($D10))</f>
@@ -9578,14 +9581,14 @@
       </c>
       <c r="G10" s="40">
         <f>_xll.qlRateHelperEarliestDate($D10)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="H10" s="39">
         <f>_xll.qlRateHelperLatestDate($D10)</f>
-        <v>42011</v>
+        <v>42012</v>
       </c>
       <c r="I10" s="34">
-        <v>0.99890356827504756</v>
+        <v>0.99890904721399854</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -9594,7 +9597,7 @@
       </c>
       <c r="E11" s="41">
         <f>_xll.qlRateHelperRate($D11)</f>
-        <v>1.64E-3</v>
+        <v>1.6599999999999998E-3</v>
       </c>
       <c r="F11" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D11)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D11)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D11)),_xll.qlSwapRateHelperSpread($D11))</f>
@@ -9602,14 +9605,14 @@
       </c>
       <c r="G11" s="40">
         <f>_xll.qlRateHelperEarliestDate($D11)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="H11" s="39">
         <f>_xll.qlRateHelperLatestDate($D11)</f>
         <v>42044</v>
       </c>
       <c r="I11" s="34">
-        <v>0.99870892913182741</v>
+        <v>0.99871779631358282</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -9618,7 +9621,7 @@
       </c>
       <c r="E12" s="41">
         <f>_xll.qlRateHelperRate($D12)</f>
-        <v>1.6899999999999999E-3</v>
+        <v>1.7099999999999999E-3</v>
       </c>
       <c r="F12" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D12)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D12)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D12)),_xll.qlSwapRateHelperSpread($D12))</f>
@@ -9626,14 +9629,14 @@
       </c>
       <c r="G12" s="40">
         <f>_xll.qlRateHelperEarliestDate($D12)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="H12" s="39">
         <f>_xll.qlRateHelperLatestDate($D12)</f>
         <v>42072</v>
       </c>
       <c r="I12" s="34">
-        <v>0.99853128132479263</v>
+        <v>0.99853920718486244</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -9642,7 +9645,7 @@
       </c>
       <c r="E13" s="41">
         <f>_xll.qlRateHelperRate($D13)</f>
-        <v>1.7499999999999998E-3</v>
+        <v>1.7799999999999999E-3</v>
       </c>
       <c r="F13" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D13)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D13)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D13)),_xll.qlSwapRateHelperSpread($D13))</f>
@@ -9650,14 +9653,14 @@
       </c>
       <c r="G13" s="40">
         <f>_xll.qlRateHelperEarliestDate($D13)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="H13" s="39">
         <f>_xll.qlRateHelperLatestDate($D13)</f>
-        <v>42101</v>
+        <v>42102</v>
       </c>
       <c r="I13" s="34">
-        <v>0.9983444368511607</v>
+        <v>0.99834208460899676</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -9666,7 +9669,7 @@
       </c>
       <c r="E14" s="41">
         <f>_xll.qlRateHelperRate($D14)</f>
-        <v>1.8400000000000001E-3</v>
+        <v>1.8699999999999999E-3</v>
       </c>
       <c r="F14" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D14)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D14)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D14)),_xll.qlSwapRateHelperSpread($D14))</f>
@@ -9674,14 +9677,14 @@
       </c>
       <c r="G14" s="40">
         <f>_xll.qlRateHelperEarliestDate($D14)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="H14" s="39">
         <f>_xll.qlRateHelperLatestDate($D14)</f>
-        <v>42131</v>
+        <v>42132</v>
       </c>
       <c r="I14" s="34">
-        <v>0.99812020257852729</v>
+        <v>0.99810617679019986</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -9690,7 +9693,7 @@
       </c>
       <c r="E15" s="41">
         <f>_xll.qlRateHelperRate($D15)</f>
-        <v>5.3100000000000005E-3</v>
+        <v>5.5499999999999994E-3</v>
       </c>
       <c r="F15" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D15)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D15)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D15)),_xll.qlSwapRateHelperSpread($D15))</f>
@@ -9698,14 +9701,14 @@
       </c>
       <c r="G15" s="40">
         <f>_xll.qlRateHelperEarliestDate($D15)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="H15" s="39">
         <f>_xll.qlRateHelperLatestDate($D15)</f>
         <v>42499</v>
       </c>
       <c r="I15" s="34">
-        <v>0.99072536325923832</v>
+        <v>0.99027076576653439</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -9714,7 +9717,7 @@
       </c>
       <c r="E16" s="41">
         <f>_xll.qlRateHelperRate($D16)</f>
-        <v>9.689999999999999E-3</v>
+        <v>1.0030000000000001E-2</v>
       </c>
       <c r="F16" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D16)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D16)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D16)),_xll.qlSwapRateHelperSpread($D16))</f>
@@ -9722,14 +9725,14 @@
       </c>
       <c r="G16" s="40">
         <f>_xll.qlRateHelperEarliestDate($D16)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="H16" s="39">
         <f>_xll.qlRateHelperLatestDate($D16)</f>
         <v>42863</v>
       </c>
       <c r="I16" s="34">
-        <v>0.97311696989826724</v>
+        <v>0.97214747404833057</v>
       </c>
     </row>
     <row r="17" spans="4:9" x14ac:dyDescent="0.2">
@@ -9738,7 +9741,7 @@
       </c>
       <c r="E17" s="41">
         <f>_xll.qlRateHelperRate($D17)</f>
-        <v>1.387E-2</v>
+        <v>1.4169999999999999E-2</v>
       </c>
       <c r="F17" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D17)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D17)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D17)),_xll.qlSwapRateHelperSpread($D17))</f>
@@ -9746,14 +9749,14 @@
       </c>
       <c r="G17" s="40">
         <f>_xll.qlRateHelperEarliestDate($D17)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="H17" s="39">
         <f>_xll.qlRateHelperLatestDate($D17)</f>
         <v>43228</v>
       </c>
       <c r="I17" s="34">
-        <v>0.94803798836974584</v>
+        <v>0.94693323678359198</v>
       </c>
     </row>
     <row r="18" spans="4:9" x14ac:dyDescent="0.2">
@@ -9762,7 +9765,7 @@
       </c>
       <c r="E18" s="41">
         <f>_xll.qlRateHelperRate($D18)</f>
-        <v>1.736E-2</v>
+        <v>1.7559999999999999E-2</v>
       </c>
       <c r="F18" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D18)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D18)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D18)),_xll.qlSwapRateHelperSpread($D18))</f>
@@ -9770,14 +9773,14 @@
       </c>
       <c r="G18" s="40">
         <f>_xll.qlRateHelperEarliestDate($D18)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="H18" s="39">
         <f>_xll.qlRateHelperLatestDate($D18)</f>
-        <v>43592</v>
+        <v>43593</v>
       </c>
       <c r="I18" s="34">
-        <v>0.91886809677341219</v>
+        <v>0.91796466229786822</v>
       </c>
     </row>
     <row r="19" spans="4:9" x14ac:dyDescent="0.2">
@@ -9786,22 +9789,22 @@
       </c>
       <c r="E19" s="41">
         <f>_xll.qlRateHelperRate($D19)</f>
-        <v>2.0220000000000002E-2</v>
+        <v>2.0320000000000001E-2</v>
       </c>
       <c r="F19" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D19)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D19)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D19)),_xll.qlSwapRateHelperSpread($D19))</f>
-        <v>7.7999999999999999E-4</v>
+        <v>7.9000000000000001E-4</v>
       </c>
       <c r="G19" s="40">
         <f>_xll.qlRateHelperEarliestDate($D19)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="H19" s="39">
         <f>_xll.qlRateHelperLatestDate($D19)</f>
-        <v>43958</v>
+        <v>43959</v>
       </c>
       <c r="I19" s="34">
-        <v>0.88731979028332308</v>
+        <v>0.88689298148206597</v>
       </c>
     </row>
     <row r="20" spans="4:9" x14ac:dyDescent="0.2">
@@ -9810,22 +9813,22 @@
       </c>
       <c r="E20" s="41">
         <f>_xll.qlRateHelperRate($D20)</f>
-        <v>2.2550000000000001E-2</v>
+        <v>2.2530000000000001E-2</v>
       </c>
       <c r="F20" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D20)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D20)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D20)),_xll.qlSwapRateHelperSpread($D20))</f>
-        <v>7.5999999999999993E-4</v>
+        <v>7.7000000000000007E-4</v>
       </c>
       <c r="G20" s="40">
         <f>_xll.qlRateHelperEarliestDate($D20)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="H20" s="39">
         <f>_xll.qlRateHelperLatestDate($D20)</f>
-        <v>44323</v>
+        <v>44326</v>
       </c>
       <c r="I20" s="34">
-        <v>0.85486134855011819</v>
+        <v>0.8550561869599429</v>
       </c>
     </row>
     <row r="21" spans="4:9" x14ac:dyDescent="0.2">
@@ -9834,22 +9837,22 @@
       </c>
       <c r="E21" s="41">
         <f>_xll.qlRateHelperRate($D21)</f>
-        <v>2.443E-2</v>
+        <v>2.4299999999999999E-2</v>
       </c>
       <c r="F21" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D21)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D21)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D21)),_xll.qlSwapRateHelperSpread($D21))</f>
-        <v>7.2999999999999996E-4</v>
+        <v>7.3999999999999999E-4</v>
       </c>
       <c r="G21" s="40">
         <f>_xll.qlRateHelperEarliestDate($D21)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="H21" s="39">
         <f>_xll.qlRateHelperLatestDate($D21)</f>
         <v>44690</v>
       </c>
       <c r="I21" s="34">
-        <v>0.82233166196025964</v>
+        <v>0.82350222386760419</v>
       </c>
     </row>
     <row r="22" spans="4:9" x14ac:dyDescent="0.2">
@@ -9858,7 +9861,7 @@
       </c>
       <c r="E22" s="41">
         <f>_xll.qlRateHelperRate($D22)</f>
-        <v>2.596E-2</v>
+        <v>2.5760000000000002E-2</v>
       </c>
       <c r="F22" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D22)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D22)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D22)),_xll.qlSwapRateHelperSpread($D22))</f>
@@ -9866,14 +9869,14 @@
       </c>
       <c r="G22" s="40">
         <f>_xll.qlRateHelperEarliestDate($D22)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="H22" s="39">
         <f>_xll.qlRateHelperLatestDate($D22)</f>
         <v>45054</v>
       </c>
       <c r="I22" s="34">
-        <v>0.7905225021485297</v>
+        <v>0.79224847620760641</v>
       </c>
     </row>
     <row r="23" spans="4:9" x14ac:dyDescent="0.2">
@@ -9882,22 +9885,22 @@
       </c>
       <c r="E23" s="41">
         <f>_xll.qlRateHelperRate($D23)</f>
-        <v>2.7229999999999997E-2</v>
+        <v>2.699E-2</v>
       </c>
       <c r="F23" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D23)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D23)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D23)),_xll.qlSwapRateHelperSpread($D23))</f>
-        <v>6.6E-4</v>
+        <v>6.7999999999999994E-4</v>
       </c>
       <c r="G23" s="40">
         <f>_xll.qlRateHelperEarliestDate($D23)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="H23" s="39">
         <f>_xll.qlRateHelperLatestDate($D23)</f>
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="I23" s="34">
-        <v>0.75927488264733967</v>
+        <v>0.76158259720398391</v>
       </c>
     </row>
     <row r="24" spans="4:9" x14ac:dyDescent="0.2">
@@ -9906,22 +9909,22 @@
       </c>
       <c r="E24" s="41">
         <f>_xll.qlRateHelperRate($D24)</f>
-        <v>2.9239999999999999E-2</v>
+        <v>2.8970000000000003E-2</v>
       </c>
       <c r="F24" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D24)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D24)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D24)),_xll.qlSwapRateHelperSpread($D24))</f>
-        <v>6.0999999999999997E-4</v>
+        <v>6.2E-4</v>
       </c>
       <c r="G24" s="40">
         <f>_xll.qlRateHelperEarliestDate($D24)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="H24" s="39">
         <f>_xll.qlRateHelperLatestDate($D24)</f>
-        <v>46149</v>
+        <v>46150</v>
       </c>
       <c r="I24" s="34">
-        <v>0.69932582442866242</v>
+        <v>0.70205549211226892</v>
       </c>
     </row>
     <row r="25" spans="4:9" x14ac:dyDescent="0.2">
@@ -9930,22 +9933,22 @@
       </c>
       <c r="E25" s="41">
         <f>_xll.qlRateHelperRate($D25)</f>
-        <v>3.1219999999999998E-2</v>
+        <v>3.0910000000000003E-2</v>
       </c>
       <c r="F25" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D25)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D25)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D25)),_xll.qlSwapRateHelperSpread($D25))</f>
-        <v>5.5000000000000003E-4</v>
+        <v>5.5999999999999995E-4</v>
       </c>
       <c r="G25" s="40">
         <f>_xll.qlRateHelperEarliestDate($D25)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="H25" s="39">
         <f>_xll.qlRateHelperLatestDate($D25)</f>
         <v>47246</v>
       </c>
       <c r="I25" s="34">
-        <v>0.61794103510978937</v>
+        <v>0.62145289696800432</v>
       </c>
     </row>
     <row r="26" spans="4:9" x14ac:dyDescent="0.2">
@@ -9954,22 +9957,22 @@
       </c>
       <c r="E26" s="41">
         <f>_xll.qlRateHelperRate($D26)</f>
-        <v>3.2930000000000001E-2</v>
+        <v>3.2590000000000001E-2</v>
       </c>
       <c r="F26" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D26)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D26)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D26)),_xll.qlSwapRateHelperSpread($D26))</f>
-        <v>4.8999999999999998E-4</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="G26" s="40">
         <f>_xll.qlRateHelperEarliestDate($D26)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="H26" s="39">
         <f>_xll.qlRateHelperLatestDate($D26)</f>
         <v>49072</v>
       </c>
       <c r="I26" s="34">
-        <v>0.50594731488130384</v>
+        <v>0.51010616143148479</v>
       </c>
     </row>
     <row r="27" spans="4:9" x14ac:dyDescent="0.2">
@@ -9978,7 +9981,7 @@
       </c>
       <c r="E27" s="41">
         <f>_xll.qlRateHelperRate($D27)</f>
-        <v>3.3689999999999998E-2</v>
+        <v>3.3349999999999998E-2</v>
       </c>
       <c r="F27" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D27)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D27)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D27)),_xll.qlSwapRateHelperSpread($D27))</f>
@@ -9986,14 +9989,14 @@
       </c>
       <c r="G27" s="40">
         <f>_xll.qlRateHelperEarliestDate($D27)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="H27" s="39">
         <f>_xll.qlRateHelperLatestDate($D27)</f>
         <v>50899</v>
       </c>
       <c r="I27" s="34">
-        <v>0.41801594833419592</v>
+        <v>0.42207569252021127</v>
       </c>
     </row>
     <row r="28" spans="4:9" x14ac:dyDescent="0.2">
@@ -10002,7 +10005,7 @@
       </c>
       <c r="E28" s="41">
         <f>_xll.qlRateHelperRate($D28)</f>
-        <v>3.4040000000000001E-2</v>
+        <v>3.3689999999999998E-2</v>
       </c>
       <c r="F28" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D28)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D28)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D28)),_xll.qlSwapRateHelperSpread($D28))</f>
@@ -10010,14 +10013,14 @@
       </c>
       <c r="G28" s="40">
         <f>_xll.qlRateHelperEarliestDate($D28)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="H28" s="39">
         <f>_xll.qlRateHelperLatestDate($D28)</f>
         <v>52726</v>
       </c>
       <c r="I28" s="34">
-        <v>0.34777926274597054</v>
+        <v>0.35195969544130024</v>
       </c>
     </row>
     <row r="29" spans="4:9" x14ac:dyDescent="0.2">
@@ -10026,7 +10029,7 @@
       </c>
       <c r="E29" s="41">
         <f>_xll.qlRateHelperRate($D29)</f>
-        <v>3.4230000000000003E-2</v>
+        <v>3.388E-2</v>
       </c>
       <c r="F29" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D29)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D29)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D29)),_xll.qlSwapRateHelperSpread($D29))</f>
@@ -10034,14 +10037,14 @@
       </c>
       <c r="G29" s="40">
         <f>_xll.qlRateHelperEarliestDate($D29)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="H29" s="39">
         <f>_xll.qlRateHelperLatestDate($D29)</f>
-        <v>56376</v>
+        <v>56377</v>
       </c>
       <c r="I29" s="34">
-        <v>0.24546727961885489</v>
+        <v>0.24926392270988204</v>
       </c>
     </row>
     <row r="30" spans="4:9" x14ac:dyDescent="0.2">
@@ -10050,7 +10053,7 @@
       </c>
       <c r="E30" s="41">
         <f>_xll.qlRateHelperRate($D30)</f>
-        <v>3.4040000000000001E-2</v>
+        <v>3.3689999999999998E-2</v>
       </c>
       <c r="F30" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D30)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D30)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D30)),_xll.qlSwapRateHelperSpread($D30))</f>
@@ -10058,14 +10061,14 @@
       </c>
       <c r="G30" s="40">
         <f>_xll.qlRateHelperEarliestDate($D30)</f>
-        <v>41766</v>
+        <v>41767</v>
       </c>
       <c r="H30" s="39">
         <f>_xll.qlRateHelperLatestDate($D30)</f>
-        <v>60029</v>
+        <v>60030</v>
       </c>
       <c r="I30" s="34">
-        <v>0.1789730811447677</v>
+        <v>0.18233405578857395</v>
       </c>
     </row>
     <row r="31" spans="4:9" x14ac:dyDescent="0.2">
@@ -12394,7 +12397,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -12454,8 +12457,8 @@
         <v>105</v>
       </c>
       <c r="C3" s="168" t="str">
-        <f>Currency&amp;FamilyName&amp;B3</f>
-        <v>USDLiborSW</v>
+        <f>_xll.qlLibor(,"USD",B3,,,Trigger,ObjectOverwrite)</f>
+        <v>obj_00419#0001</v>
       </c>
       <c r="D3" s="98" t="str">
         <f>Currency&amp;B3&amp;"D_SYNTH"&amp;$D$1&amp;QuoteSuffix</f>
